--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A74973-42FE-4087-B491-71E2D2E46447}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -14,17 +13,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20181224'!$A$1:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="Y7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Y7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AH7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AN7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="DM7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DT7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="DT7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FC7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="FC7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +177,6 @@
   </si>
   <si>
     <t>◇ MP1 Sample 입고 : 4ea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◇ F/W debugging</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -311,11 +306,33 @@
     <t>RF Generator 회로 및 PCB 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>◇ F/W debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ Trans case 입고 2ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ battery 입고 4ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ 1Set 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipette case 입고.
+Pipette 1set 전달.
+조립 후 Test </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1081,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1245,6 +1262,62 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1287,36 +1360,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,35 +1369,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1400,7 +1418,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1475,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,23 +1516,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>122</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>68481</xdr:rowOff>
+      <xdr:rowOff>124511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>128</xdr:col>
-      <xdr:colOff>161365</xdr:colOff>
+      <xdr:col>140</xdr:col>
+      <xdr:colOff>127747</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>68481</xdr:rowOff>
+      <xdr:rowOff>124511</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,8 +1540,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25051870" y="2345516"/>
-          <a:ext cx="1187824" cy="0"/>
+          <a:off x="36531176" y="2399305"/>
+          <a:ext cx="1360395" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1555,23 +1573,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>85165</xdr:colOff>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>275665</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>77445</xdr:rowOff>
+      <xdr:rowOff>111063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>133</xdr:col>
-      <xdr:colOff>161365</xdr:colOff>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>172572</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>77445</xdr:rowOff>
+      <xdr:rowOff>111063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,8 +1597,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25769047" y="2524810"/>
-          <a:ext cx="1456765" cy="0"/>
+          <a:off x="37165430" y="2587563"/>
+          <a:ext cx="1645024" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1612,23 +1630,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>142</xdr:col>
-      <xdr:colOff>192741</xdr:colOff>
+      <xdr:col>154</xdr:col>
+      <xdr:colOff>203947</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95375</xdr:rowOff>
+      <xdr:rowOff>117786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>177</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:col>193</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95375</xdr:rowOff>
+      <xdr:rowOff>117786</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,8 +1654,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29032200" y="2713069"/>
-          <a:ext cx="6889376" cy="0"/>
+          <a:off x="42046712" y="2795992"/>
+          <a:ext cx="9477936" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1685,7 +1703,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1760,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1817,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1874,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1931,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1988,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2045,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2102,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2159,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2216,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2316,26 +2334,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2368,23 +2369,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2560,352 +2544,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JN47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DN36" sqref="DN36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG18" sqref="BG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" style="52" customWidth="1"/>
-    <col min="2" max="10" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="31" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="32" max="40" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="41" max="62" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="63" max="71" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="72" max="92" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="93" max="101" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="102" max="123" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="124" max="132" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="133" max="154" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="155" max="163" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="164" max="182" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="183" max="16384" width="2.59765625" style="55"/>
+    <col min="1" max="1" width="10.375" style="52" customWidth="1"/>
+    <col min="2" max="10" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="31" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="32" max="40" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="41" max="62" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="63" max="71" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="72" max="92" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="93" max="101" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="102" max="123" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="124" max="132" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="133" max="154" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="155" max="163" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="164" max="182" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="183" max="16384" width="2.625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:274" s="54" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:274" s="54" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="142">
+      <c r="B6" s="162">
         <v>9</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="143"/>
-      <c r="W6" s="143"/>
-      <c r="X6" s="143"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="143"/>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="143"/>
-      <c r="AC6" s="143"/>
-      <c r="AD6" s="143"/>
-      <c r="AE6" s="144"/>
-      <c r="AF6" s="139">
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="159">
         <v>10</v>
       </c>
-      <c r="AG6" s="139"/>
-      <c r="AH6" s="139"/>
-      <c r="AI6" s="139"/>
-      <c r="AJ6" s="139"/>
-      <c r="AK6" s="139"/>
-      <c r="AL6" s="139"/>
-      <c r="AM6" s="139"/>
-      <c r="AN6" s="139"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="139"/>
-      <c r="AQ6" s="139"/>
-      <c r="AR6" s="139"/>
-      <c r="AS6" s="139"/>
-      <c r="AT6" s="139"/>
-      <c r="AU6" s="139"/>
-      <c r="AV6" s="139"/>
-      <c r="AW6" s="139"/>
-      <c r="AX6" s="139"/>
-      <c r="AY6" s="139"/>
-      <c r="AZ6" s="139"/>
-      <c r="BA6" s="139"/>
-      <c r="BB6" s="139"/>
-      <c r="BC6" s="139"/>
-      <c r="BD6" s="139"/>
-      <c r="BE6" s="139"/>
-      <c r="BF6" s="139"/>
-      <c r="BG6" s="139"/>
-      <c r="BH6" s="139"/>
-      <c r="BI6" s="139"/>
-      <c r="BJ6" s="140"/>
-      <c r="BK6" s="142">
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="159"/>
+      <c r="AI6" s="159"/>
+      <c r="AJ6" s="159"/>
+      <c r="AK6" s="159"/>
+      <c r="AL6" s="159"/>
+      <c r="AM6" s="159"/>
+      <c r="AN6" s="159"/>
+      <c r="AO6" s="159"/>
+      <c r="AP6" s="159"/>
+      <c r="AQ6" s="159"/>
+      <c r="AR6" s="159"/>
+      <c r="AS6" s="159"/>
+      <c r="AT6" s="159"/>
+      <c r="AU6" s="159"/>
+      <c r="AV6" s="159"/>
+      <c r="AW6" s="159"/>
+      <c r="AX6" s="159"/>
+      <c r="AY6" s="159"/>
+      <c r="AZ6" s="159"/>
+      <c r="BA6" s="159"/>
+      <c r="BB6" s="159"/>
+      <c r="BC6" s="159"/>
+      <c r="BD6" s="159"/>
+      <c r="BE6" s="159"/>
+      <c r="BF6" s="159"/>
+      <c r="BG6" s="159"/>
+      <c r="BH6" s="159"/>
+      <c r="BI6" s="159"/>
+      <c r="BJ6" s="160"/>
+      <c r="BK6" s="162">
         <v>11</v>
       </c>
-      <c r="BL6" s="143"/>
-      <c r="BM6" s="143"/>
-      <c r="BN6" s="143"/>
-      <c r="BO6" s="143"/>
-      <c r="BP6" s="143"/>
-      <c r="BQ6" s="143"/>
-      <c r="BR6" s="143"/>
-      <c r="BS6" s="143"/>
-      <c r="BT6" s="143"/>
-      <c r="BU6" s="143"/>
-      <c r="BV6" s="143"/>
-      <c r="BW6" s="143"/>
-      <c r="BX6" s="143"/>
-      <c r="BY6" s="143"/>
-      <c r="BZ6" s="143"/>
-      <c r="CA6" s="143"/>
-      <c r="CB6" s="143"/>
-      <c r="CC6" s="143"/>
-      <c r="CD6" s="143"/>
-      <c r="CE6" s="143"/>
-      <c r="CF6" s="143"/>
-      <c r="CG6" s="143"/>
-      <c r="CH6" s="143"/>
-      <c r="CI6" s="143"/>
-      <c r="CJ6" s="143"/>
-      <c r="CK6" s="143"/>
-      <c r="CL6" s="143"/>
-      <c r="CM6" s="143"/>
-      <c r="CN6" s="144"/>
-      <c r="CO6" s="139">
+      <c r="BL6" s="163"/>
+      <c r="BM6" s="163"/>
+      <c r="BN6" s="163"/>
+      <c r="BO6" s="163"/>
+      <c r="BP6" s="163"/>
+      <c r="BQ6" s="163"/>
+      <c r="BR6" s="163"/>
+      <c r="BS6" s="163"/>
+      <c r="BT6" s="163"/>
+      <c r="BU6" s="163"/>
+      <c r="BV6" s="163"/>
+      <c r="BW6" s="163"/>
+      <c r="BX6" s="163"/>
+      <c r="BY6" s="163"/>
+      <c r="BZ6" s="163"/>
+      <c r="CA6" s="163"/>
+      <c r="CB6" s="163"/>
+      <c r="CC6" s="163"/>
+      <c r="CD6" s="163"/>
+      <c r="CE6" s="163"/>
+      <c r="CF6" s="163"/>
+      <c r="CG6" s="163"/>
+      <c r="CH6" s="163"/>
+      <c r="CI6" s="163"/>
+      <c r="CJ6" s="163"/>
+      <c r="CK6" s="163"/>
+      <c r="CL6" s="163"/>
+      <c r="CM6" s="163"/>
+      <c r="CN6" s="164"/>
+      <c r="CO6" s="159">
         <v>12</v>
       </c>
-      <c r="CP6" s="139"/>
-      <c r="CQ6" s="139"/>
-      <c r="CR6" s="139"/>
-      <c r="CS6" s="139"/>
-      <c r="CT6" s="139"/>
-      <c r="CU6" s="139"/>
-      <c r="CV6" s="139"/>
-      <c r="CW6" s="139"/>
-      <c r="CX6" s="139"/>
-      <c r="CY6" s="139"/>
-      <c r="CZ6" s="139"/>
-      <c r="DA6" s="139"/>
-      <c r="DB6" s="139"/>
-      <c r="DC6" s="139"/>
-      <c r="DD6" s="139"/>
-      <c r="DE6" s="139"/>
-      <c r="DF6" s="139"/>
-      <c r="DG6" s="139"/>
-      <c r="DH6" s="139"/>
-      <c r="DI6" s="139"/>
-      <c r="DJ6" s="139"/>
-      <c r="DK6" s="139"/>
-      <c r="DL6" s="139"/>
-      <c r="DM6" s="139"/>
-      <c r="DN6" s="139"/>
-      <c r="DO6" s="139"/>
-      <c r="DP6" s="139"/>
-      <c r="DQ6" s="139"/>
-      <c r="DR6" s="139"/>
-      <c r="DS6" s="140"/>
-      <c r="DT6" s="139">
+      <c r="CP6" s="159"/>
+      <c r="CQ6" s="159"/>
+      <c r="CR6" s="159"/>
+      <c r="CS6" s="159"/>
+      <c r="CT6" s="159"/>
+      <c r="CU6" s="159"/>
+      <c r="CV6" s="159"/>
+      <c r="CW6" s="159"/>
+      <c r="CX6" s="159"/>
+      <c r="CY6" s="159"/>
+      <c r="CZ6" s="159"/>
+      <c r="DA6" s="159"/>
+      <c r="DB6" s="159"/>
+      <c r="DC6" s="159"/>
+      <c r="DD6" s="159"/>
+      <c r="DE6" s="159"/>
+      <c r="DF6" s="159"/>
+      <c r="DG6" s="159"/>
+      <c r="DH6" s="159"/>
+      <c r="DI6" s="159"/>
+      <c r="DJ6" s="159"/>
+      <c r="DK6" s="159"/>
+      <c r="DL6" s="159"/>
+      <c r="DM6" s="159"/>
+      <c r="DN6" s="159"/>
+      <c r="DO6" s="159"/>
+      <c r="DP6" s="159"/>
+      <c r="DQ6" s="159"/>
+      <c r="DR6" s="159"/>
+      <c r="DS6" s="160"/>
+      <c r="DT6" s="159">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="139"/>
-      <c r="DV6" s="139"/>
-      <c r="DW6" s="139"/>
-      <c r="DX6" s="139"/>
-      <c r="DY6" s="139"/>
-      <c r="DZ6" s="139"/>
-      <c r="EA6" s="139"/>
-      <c r="EB6" s="139"/>
-      <c r="EC6" s="139"/>
-      <c r="ED6" s="139"/>
-      <c r="EE6" s="139"/>
-      <c r="EF6" s="139"/>
-      <c r="EG6" s="139"/>
-      <c r="EH6" s="139"/>
-      <c r="EI6" s="139"/>
-      <c r="EJ6" s="139"/>
-      <c r="EK6" s="139"/>
-      <c r="EL6" s="139"/>
-      <c r="EM6" s="139"/>
-      <c r="EN6" s="139"/>
-      <c r="EO6" s="139"/>
-      <c r="EP6" s="139"/>
-      <c r="EQ6" s="139"/>
-      <c r="ER6" s="139"/>
-      <c r="ES6" s="139"/>
-      <c r="ET6" s="139"/>
-      <c r="EU6" s="139"/>
-      <c r="EV6" s="139"/>
-      <c r="EW6" s="139"/>
-      <c r="EX6" s="140"/>
-      <c r="EY6" s="141">
+      <c r="DU6" s="159"/>
+      <c r="DV6" s="159"/>
+      <c r="DW6" s="159"/>
+      <c r="DX6" s="159"/>
+      <c r="DY6" s="159"/>
+      <c r="DZ6" s="159"/>
+      <c r="EA6" s="159"/>
+      <c r="EB6" s="159"/>
+      <c r="EC6" s="159"/>
+      <c r="ED6" s="159"/>
+      <c r="EE6" s="159"/>
+      <c r="EF6" s="159"/>
+      <c r="EG6" s="159"/>
+      <c r="EH6" s="159"/>
+      <c r="EI6" s="159"/>
+      <c r="EJ6" s="159"/>
+      <c r="EK6" s="159"/>
+      <c r="EL6" s="159"/>
+      <c r="EM6" s="159"/>
+      <c r="EN6" s="159"/>
+      <c r="EO6" s="159"/>
+      <c r="EP6" s="159"/>
+      <c r="EQ6" s="159"/>
+      <c r="ER6" s="159"/>
+      <c r="ES6" s="159"/>
+      <c r="ET6" s="159"/>
+      <c r="EU6" s="159"/>
+      <c r="EV6" s="159"/>
+      <c r="EW6" s="159"/>
+      <c r="EX6" s="160"/>
+      <c r="EY6" s="161">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="139"/>
-      <c r="FA6" s="139"/>
-      <c r="FB6" s="139"/>
-      <c r="FC6" s="139"/>
-      <c r="FD6" s="139"/>
-      <c r="FE6" s="139"/>
-      <c r="FF6" s="139"/>
-      <c r="FG6" s="139"/>
-      <c r="FH6" s="139"/>
-      <c r="FI6" s="139"/>
-      <c r="FJ6" s="139"/>
-      <c r="FK6" s="139"/>
-      <c r="FL6" s="139"/>
-      <c r="FM6" s="139"/>
-      <c r="FN6" s="139"/>
-      <c r="FO6" s="139"/>
-      <c r="FP6" s="139"/>
-      <c r="FQ6" s="139"/>
-      <c r="FR6" s="139"/>
-      <c r="FS6" s="139"/>
-      <c r="FT6" s="139"/>
-      <c r="FU6" s="139"/>
-      <c r="FV6" s="139"/>
-      <c r="FW6" s="139"/>
-      <c r="FX6" s="139"/>
-      <c r="FY6" s="139"/>
-      <c r="FZ6" s="140"/>
-      <c r="GA6" s="132">
+      <c r="EZ6" s="159"/>
+      <c r="FA6" s="159"/>
+      <c r="FB6" s="159"/>
+      <c r="FC6" s="159"/>
+      <c r="FD6" s="159"/>
+      <c r="FE6" s="159"/>
+      <c r="FF6" s="159"/>
+      <c r="FG6" s="159"/>
+      <c r="FH6" s="159"/>
+      <c r="FI6" s="159"/>
+      <c r="FJ6" s="159"/>
+      <c r="FK6" s="159"/>
+      <c r="FL6" s="159"/>
+      <c r="FM6" s="159"/>
+      <c r="FN6" s="159"/>
+      <c r="FO6" s="159"/>
+      <c r="FP6" s="159"/>
+      <c r="FQ6" s="159"/>
+      <c r="FR6" s="159"/>
+      <c r="FS6" s="159"/>
+      <c r="FT6" s="159"/>
+      <c r="FU6" s="159"/>
+      <c r="FV6" s="159"/>
+      <c r="FW6" s="159"/>
+      <c r="FX6" s="159"/>
+      <c r="FY6" s="159"/>
+      <c r="FZ6" s="160"/>
+      <c r="GA6" s="152">
         <v>3</v>
       </c>
-      <c r="GB6" s="132"/>
-      <c r="GC6" s="132"/>
-      <c r="GD6" s="132"/>
-      <c r="GE6" s="132"/>
-      <c r="GF6" s="132"/>
-      <c r="GG6" s="132"/>
-      <c r="GH6" s="132"/>
-      <c r="GI6" s="132"/>
-      <c r="GJ6" s="132"/>
-      <c r="GK6" s="132"/>
-      <c r="GL6" s="132"/>
-      <c r="GM6" s="132"/>
-      <c r="GN6" s="132"/>
-      <c r="GO6" s="132"/>
-      <c r="GP6" s="132"/>
-      <c r="GQ6" s="132"/>
-      <c r="GR6" s="132"/>
-      <c r="GS6" s="132"/>
-      <c r="GT6" s="132"/>
-      <c r="GU6" s="132"/>
-      <c r="GV6" s="132"/>
-      <c r="GW6" s="132"/>
-      <c r="GX6" s="132"/>
-      <c r="GY6" s="132"/>
-      <c r="GZ6" s="132"/>
-      <c r="HA6" s="132"/>
-      <c r="HB6" s="132"/>
-      <c r="HC6" s="132"/>
-      <c r="HD6" s="132"/>
-      <c r="HE6" s="132"/>
-      <c r="HF6" s="136">
+      <c r="GB6" s="152"/>
+      <c r="GC6" s="152"/>
+      <c r="GD6" s="152"/>
+      <c r="GE6" s="152"/>
+      <c r="GF6" s="152"/>
+      <c r="GG6" s="152"/>
+      <c r="GH6" s="152"/>
+      <c r="GI6" s="152"/>
+      <c r="GJ6" s="152"/>
+      <c r="GK6" s="152"/>
+      <c r="GL6" s="152"/>
+      <c r="GM6" s="152"/>
+      <c r="GN6" s="152"/>
+      <c r="GO6" s="152"/>
+      <c r="GP6" s="152"/>
+      <c r="GQ6" s="152"/>
+      <c r="GR6" s="152"/>
+      <c r="GS6" s="152"/>
+      <c r="GT6" s="152"/>
+      <c r="GU6" s="152"/>
+      <c r="GV6" s="152"/>
+      <c r="GW6" s="152"/>
+      <c r="GX6" s="152"/>
+      <c r="GY6" s="152"/>
+      <c r="GZ6" s="152"/>
+      <c r="HA6" s="152"/>
+      <c r="HB6" s="152"/>
+      <c r="HC6" s="152"/>
+      <c r="HD6" s="152"/>
+      <c r="HE6" s="152"/>
+      <c r="HF6" s="156">
         <v>4</v>
       </c>
-      <c r="HG6" s="137"/>
-      <c r="HH6" s="137"/>
-      <c r="HI6" s="137"/>
-      <c r="HJ6" s="137"/>
-      <c r="HK6" s="137"/>
-      <c r="HL6" s="137"/>
-      <c r="HM6" s="137"/>
-      <c r="HN6" s="137"/>
-      <c r="HO6" s="137"/>
-      <c r="HP6" s="137"/>
-      <c r="HQ6" s="137"/>
-      <c r="HR6" s="137"/>
-      <c r="HS6" s="137"/>
-      <c r="HT6" s="137"/>
-      <c r="HU6" s="137"/>
-      <c r="HV6" s="137"/>
-      <c r="HW6" s="137"/>
-      <c r="HX6" s="137"/>
-      <c r="HY6" s="137"/>
-      <c r="HZ6" s="137"/>
-      <c r="IA6" s="137"/>
-      <c r="IB6" s="137"/>
-      <c r="IC6" s="137"/>
-      <c r="ID6" s="137"/>
-      <c r="IE6" s="137"/>
-      <c r="IF6" s="137"/>
-      <c r="IG6" s="137"/>
-      <c r="IH6" s="137"/>
-      <c r="II6" s="138"/>
-      <c r="IJ6" s="131">
+      <c r="HG6" s="157"/>
+      <c r="HH6" s="157"/>
+      <c r="HI6" s="157"/>
+      <c r="HJ6" s="157"/>
+      <c r="HK6" s="157"/>
+      <c r="HL6" s="157"/>
+      <c r="HM6" s="157"/>
+      <c r="HN6" s="157"/>
+      <c r="HO6" s="157"/>
+      <c r="HP6" s="157"/>
+      <c r="HQ6" s="157"/>
+      <c r="HR6" s="157"/>
+      <c r="HS6" s="157"/>
+      <c r="HT6" s="157"/>
+      <c r="HU6" s="157"/>
+      <c r="HV6" s="157"/>
+      <c r="HW6" s="157"/>
+      <c r="HX6" s="157"/>
+      <c r="HY6" s="157"/>
+      <c r="HZ6" s="157"/>
+      <c r="IA6" s="157"/>
+      <c r="IB6" s="157"/>
+      <c r="IC6" s="157"/>
+      <c r="ID6" s="157"/>
+      <c r="IE6" s="157"/>
+      <c r="IF6" s="157"/>
+      <c r="IG6" s="157"/>
+      <c r="IH6" s="157"/>
+      <c r="II6" s="158"/>
+      <c r="IJ6" s="151">
         <v>5</v>
       </c>
-      <c r="IK6" s="132"/>
-      <c r="IL6" s="132"/>
-      <c r="IM6" s="132"/>
-      <c r="IN6" s="132"/>
-      <c r="IO6" s="132"/>
-      <c r="IP6" s="132"/>
-      <c r="IQ6" s="132"/>
-      <c r="IR6" s="132"/>
-      <c r="IS6" s="132"/>
-      <c r="IT6" s="132"/>
-      <c r="IU6" s="132"/>
-      <c r="IV6" s="132"/>
-      <c r="IW6" s="132"/>
-      <c r="IX6" s="132"/>
-      <c r="IY6" s="132"/>
-      <c r="IZ6" s="132"/>
-      <c r="JA6" s="132"/>
-      <c r="JB6" s="132"/>
-      <c r="JC6" s="132"/>
-      <c r="JD6" s="132"/>
-      <c r="JE6" s="132"/>
-      <c r="JF6" s="132"/>
-      <c r="JG6" s="132"/>
-      <c r="JH6" s="132"/>
-      <c r="JI6" s="132"/>
-      <c r="JJ6" s="132"/>
-      <c r="JK6" s="132"/>
-      <c r="JL6" s="132"/>
-      <c r="JM6" s="132"/>
-      <c r="JN6" s="133"/>
+      <c r="IK6" s="152"/>
+      <c r="IL6" s="152"/>
+      <c r="IM6" s="152"/>
+      <c r="IN6" s="152"/>
+      <c r="IO6" s="152"/>
+      <c r="IP6" s="152"/>
+      <c r="IQ6" s="152"/>
+      <c r="IR6" s="152"/>
+      <c r="IS6" s="152"/>
+      <c r="IT6" s="152"/>
+      <c r="IU6" s="152"/>
+      <c r="IV6" s="152"/>
+      <c r="IW6" s="152"/>
+      <c r="IX6" s="152"/>
+      <c r="IY6" s="152"/>
+      <c r="IZ6" s="152"/>
+      <c r="JA6" s="152"/>
+      <c r="JB6" s="152"/>
+      <c r="JC6" s="152"/>
+      <c r="JD6" s="152"/>
+      <c r="JE6" s="152"/>
+      <c r="JF6" s="152"/>
+      <c r="JG6" s="152"/>
+      <c r="JH6" s="152"/>
+      <c r="JI6" s="152"/>
+      <c r="JJ6" s="152"/>
+      <c r="JK6" s="152"/>
+      <c r="JL6" s="152"/>
+      <c r="JM6" s="152"/>
+      <c r="JN6" s="153"/>
     </row>
-    <row r="7" spans="1:274" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
       <c r="B7" s="56">
         <v>1</v>
@@ -3727,9 +3711,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="134" t="s">
-        <v>29</v>
+    <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="154" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -3861,7 +3845,9 @@
       <c r="DU8" s="9"/>
       <c r="DV8" s="9"/>
       <c r="DW8" s="9"/>
-      <c r="DX8" s="42"/>
+      <c r="DX8" s="150" t="s">
+        <v>49</v>
+      </c>
       <c r="DY8" s="42"/>
       <c r="DZ8" s="9"/>
       <c r="EA8" s="9"/>
@@ -3878,7 +3864,7 @@
       <c r="EL8" s="42"/>
       <c r="EM8" s="42"/>
       <c r="EN8" s="118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="EO8" s="9"/>
       <c r="EP8" s="9"/>
@@ -3927,7 +3913,7 @@
       <c r="GG8" s="8"/>
       <c r="GH8" s="8"/>
       <c r="GI8" s="128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="GJ8" s="10"/>
       <c r="GK8" s="8"/>
@@ -4013,8 +3999,8 @@
       <c r="JM8" s="8"/>
       <c r="JN8" s="40"/>
     </row>
-    <row r="9" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="134"/>
+    <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="154"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4183,7 +4169,7 @@
       <c r="FG9" s="74"/>
       <c r="FH9" s="74"/>
       <c r="FI9" s="75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="FJ9" s="75"/>
       <c r="FK9" s="75"/>
@@ -4199,7 +4185,7 @@
       <c r="FU9" s="74"/>
       <c r="FV9" s="74"/>
       <c r="FW9" s="75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="FX9" s="75"/>
       <c r="FY9" s="75"/>
@@ -4208,7 +4194,7 @@
       <c r="GB9" s="6"/>
       <c r="GC9" s="6"/>
       <c r="GD9" s="75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="GE9" s="5"/>
       <c r="GF9" s="5"/>
@@ -4299,8 +4285,8 @@
       <c r="JM9" s="5"/>
       <c r="JN9" s="7"/>
     </row>
-    <row r="10" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="134"/>
+    <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="154"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -4415,7 +4401,7 @@
       <c r="DI10" s="75"/>
       <c r="DJ10" s="74"/>
       <c r="DK10" s="117" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="DL10" s="75"/>
       <c r="DM10" s="117"/>
@@ -4577,8 +4563,8 @@
       <c r="JM10" s="5"/>
       <c r="JN10" s="7"/>
     </row>
-    <row r="11" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="134"/>
+    <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="154"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -4698,7 +4684,9 @@
       <c r="DN11" s="75"/>
       <c r="DO11" s="75"/>
       <c r="DP11" s="75"/>
-      <c r="DQ11" s="74"/>
+      <c r="DQ11" s="74" t="s">
+        <v>47</v>
+      </c>
       <c r="DR11" s="74"/>
       <c r="DS11" s="79"/>
       <c r="DT11" s="80"/>
@@ -4853,8 +4841,8 @@
       <c r="JM11" s="5"/>
       <c r="JN11" s="7"/>
     </row>
-    <row r="12" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="134"/>
+    <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="154"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -4974,7 +4962,9 @@
       <c r="DN12" s="75"/>
       <c r="DO12" s="75"/>
       <c r="DP12" s="75"/>
-      <c r="DQ12" s="74"/>
+      <c r="DQ12" s="74" t="s">
+        <v>48</v>
+      </c>
       <c r="DR12" s="74"/>
       <c r="DS12" s="79"/>
       <c r="DT12" s="80"/>
@@ -5129,8 +5119,8 @@
       <c r="JM12" s="5"/>
       <c r="JN12" s="7"/>
     </row>
-    <row r="13" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="134"/>
+    <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="154"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5405,8 +5395,8 @@
       <c r="JM13" s="5"/>
       <c r="JN13" s="7"/>
     </row>
-    <row r="14" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="134"/>
+    <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="154"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -5681,8 +5671,8 @@
       <c r="JM14" s="14"/>
       <c r="JN14" s="18"/>
     </row>
-    <row r="15" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="135" t="s">
+    <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="155" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -5961,8 +5951,8 @@
       <c r="JM15" s="26"/>
       <c r="JN15" s="29"/>
     </row>
-    <row r="16" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="134"/>
+    <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="154"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6083,9 +6073,6 @@
       <c r="DM16" s="98"/>
       <c r="DN16" s="97"/>
       <c r="DO16" s="97"/>
-      <c r="DP16" s="100" t="s">
-        <v>6</v>
-      </c>
       <c r="DQ16" s="96"/>
       <c r="DR16" s="96"/>
       <c r="DS16" s="46"/>
@@ -6095,13 +6082,12 @@
       <c r="DW16" s="97"/>
       <c r="DX16" s="96"/>
       <c r="DY16" s="96"/>
-      <c r="DZ16" s="97" t="s">
-        <v>11</v>
-      </c>
       <c r="EA16" s="97"/>
       <c r="EB16" s="97"/>
       <c r="EC16" s="97"/>
-      <c r="ED16" s="97"/>
+      <c r="ED16" s="100" t="s">
+        <v>6</v>
+      </c>
       <c r="EE16" s="96"/>
       <c r="EF16" s="96"/>
       <c r="EG16" s="97"/>
@@ -6111,7 +6097,9 @@
       <c r="EK16" s="97"/>
       <c r="EL16" s="96"/>
       <c r="EM16" s="96"/>
-      <c r="EN16" s="97"/>
+      <c r="EN16" s="97" t="s">
+        <v>11</v>
+      </c>
       <c r="EO16" s="97"/>
       <c r="EP16" s="97"/>
       <c r="EQ16" s="97"/>
@@ -6243,8 +6231,8 @@
       <c r="JM16" s="11"/>
       <c r="JN16" s="13"/>
     </row>
-    <row r="17" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="134"/>
+    <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="154"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -6363,9 +6351,6 @@
       <c r="DM17" s="98"/>
       <c r="DN17" s="97"/>
       <c r="DO17" s="97"/>
-      <c r="DP17" s="100" t="s">
-        <v>10</v>
-      </c>
       <c r="DQ17" s="96"/>
       <c r="DR17" s="96"/>
       <c r="DS17" s="97"/>
@@ -6379,7 +6364,9 @@
       <c r="EA17" s="97"/>
       <c r="EB17" s="97"/>
       <c r="EC17" s="97"/>
-      <c r="ED17" s="97"/>
+      <c r="ED17" s="100" t="s">
+        <v>10</v>
+      </c>
       <c r="EE17" s="96"/>
       <c r="EF17" s="96"/>
       <c r="EG17" s="97"/>
@@ -6521,8 +6508,8 @@
       <c r="JM17" s="2"/>
       <c r="JN17" s="4"/>
     </row>
-    <row r="18" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="134"/>
+    <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="154"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -6658,9 +6645,6 @@
       <c r="ED18" s="97"/>
       <c r="EE18" s="96"/>
       <c r="EF18" s="96"/>
-      <c r="EG18" s="97" t="s">
-        <v>7</v>
-      </c>
       <c r="EH18" s="97"/>
       <c r="EI18" s="97"/>
       <c r="EJ18" s="97"/>
@@ -6674,7 +6658,9 @@
       <c r="ER18" s="97"/>
       <c r="ES18" s="96"/>
       <c r="ET18" s="96"/>
-      <c r="EU18" s="97"/>
+      <c r="EU18" s="97" t="s">
+        <v>7</v>
+      </c>
       <c r="EV18" s="97"/>
       <c r="EW18" s="97"/>
       <c r="EX18" s="46"/>
@@ -6799,8 +6785,8 @@
       <c r="JM18" s="2"/>
       <c r="JN18" s="4"/>
     </row>
-    <row r="19" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="134"/>
+    <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="154"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7075,8 +7061,8 @@
       <c r="JM19" s="2"/>
       <c r="JN19" s="4"/>
     </row>
-    <row r="20" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="134"/>
+    <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="154"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7351,8 +7337,8 @@
       <c r="JM20" s="2"/>
       <c r="JN20" s="4"/>
     </row>
-    <row r="21" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="134"/>
+    <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="154"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -7627,8 +7613,8 @@
       <c r="JM21" s="125"/>
       <c r="JN21" s="127"/>
     </row>
-    <row r="22" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="134"/>
+    <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="154"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -7903,9 +7889,9 @@
       <c r="JM22" s="23"/>
       <c r="JN22" s="25"/>
     </row>
-    <row r="23" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="134" t="s">
-        <v>30</v>
+    <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="154" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="108"/>
       <c r="C23" s="109"/>
@@ -8060,7 +8046,7 @@
       <c r="EV23" s="110"/>
       <c r="EW23" s="110"/>
       <c r="EX23" s="118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="EY23" s="113"/>
       <c r="EZ23" s="109"/>
@@ -8183,8 +8169,8 @@
       <c r="JM23" s="26"/>
       <c r="JN23" s="29"/>
     </row>
-    <row r="24" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="134"/>
+    <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="154"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8339,7 +8325,7 @@
       <c r="EW24" s="97"/>
       <c r="EX24" s="46"/>
       <c r="EY24" s="99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="EZ24" s="96"/>
       <c r="FA24" s="96"/>
@@ -8461,8 +8447,8 @@
       <c r="JM24" s="2"/>
       <c r="JN24" s="4"/>
     </row>
-    <row r="25" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="134"/>
+    <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="154"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -8623,7 +8609,7 @@
       <c r="FC25" s="98"/>
       <c r="FD25" s="98"/>
       <c r="FE25" s="100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="FF25" s="100"/>
       <c r="FG25" s="96"/>
@@ -8739,8 +8725,8 @@
       <c r="JM25" s="2"/>
       <c r="JN25" s="4"/>
     </row>
-    <row r="26" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="134"/>
+    <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="154"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -8905,7 +8891,7 @@
       <c r="FG26" s="96"/>
       <c r="FH26" s="96"/>
       <c r="FI26" s="75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="FJ26" s="97"/>
       <c r="FK26" s="97"/>
@@ -8921,7 +8907,7 @@
       <c r="FU26" s="96"/>
       <c r="FV26" s="96"/>
       <c r="FW26" s="75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="FX26" s="97"/>
       <c r="FY26" s="97"/>
@@ -8937,13 +8923,13 @@
       <c r="GI26" s="1"/>
       <c r="GJ26" s="1"/>
       <c r="GK26" s="75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="GL26" s="2"/>
       <c r="GM26" s="2"/>
       <c r="GN26" s="2"/>
       <c r="GO26" s="75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="GP26" s="1"/>
       <c r="GQ26" s="1"/>
@@ -9023,8 +9009,8 @@
       <c r="JM26" s="2"/>
       <c r="JN26" s="4"/>
     </row>
-    <row r="27" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="134"/>
+    <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="154"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9194,7 +9180,7 @@
       <c r="FL27" s="97"/>
       <c r="FM27" s="97"/>
       <c r="FN27" s="96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="FO27" s="96"/>
       <c r="FP27" s="97"/>
@@ -9205,7 +9191,7 @@
       <c r="FU27" s="96"/>
       <c r="FV27" s="96"/>
       <c r="FW27" s="75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FX27" s="97"/>
       <c r="FY27" s="97"/>
@@ -9305,8 +9291,8 @@
       <c r="JM27" s="2"/>
       <c r="JN27" s="4"/>
     </row>
-    <row r="28" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="134"/>
+    <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="154"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -9485,7 +9471,7 @@
       <c r="FU28" s="96"/>
       <c r="FV28" s="96"/>
       <c r="FW28" s="75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="FX28" s="97"/>
       <c r="FY28" s="97"/>
@@ -9583,8 +9569,8 @@
       <c r="JM28" s="2"/>
       <c r="JN28" s="4"/>
     </row>
-    <row r="29" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="134"/>
+    <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="154"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -9763,7 +9749,7 @@
       <c r="FU29" s="96"/>
       <c r="FV29" s="96"/>
       <c r="FW29" s="75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="FX29" s="97"/>
       <c r="FY29" s="97"/>
@@ -9861,8 +9847,8 @@
       <c r="JM29" s="2"/>
       <c r="JN29" s="4"/>
     </row>
-    <row r="30" spans="1:274" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="134"/>
+    <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="154"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -10137,19 +10123,19 @@
       <c r="JM30" s="23"/>
       <c r="JN30" s="25"/>
     </row>
-    <row r="31" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
     </row>
-    <row r="32" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
     </row>
-    <row r="33" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
     </row>
-    <row r="34" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
     </row>
-    <row r="35" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="GA35" s="55"/>
       <c r="GB35" s="55"/>
@@ -10244,7 +10230,7 @@
       <c r="JM35" s="55"/>
       <c r="JN35" s="55"/>
     </row>
-    <row r="36" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="GA36" s="55"/>
       <c r="GB36" s="55"/>
@@ -10339,7 +10325,7 @@
       <c r="JM36" s="55"/>
       <c r="JN36" s="55"/>
     </row>
-    <row r="37" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
       <c r="GA37" s="55"/>
       <c r="GB37" s="55"/>
@@ -10434,7 +10420,7 @@
       <c r="JM37" s="55"/>
       <c r="JN37" s="55"/>
     </row>
-    <row r="38" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="48"/>
       <c r="GA38" s="55"/>
       <c r="GB38" s="55"/>
@@ -10529,7 +10515,7 @@
       <c r="JM38" s="55"/>
       <c r="JN38" s="55"/>
     </row>
-    <row r="39" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="48"/>
       <c r="GA39" s="55"/>
       <c r="GB39" s="55"/>
@@ -10624,7 +10610,7 @@
       <c r="JM39" s="55"/>
       <c r="JN39" s="55"/>
     </row>
-    <row r="40" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="48"/>
       <c r="GA40" s="55"/>
       <c r="GB40" s="55"/>
@@ -10719,7 +10705,7 @@
       <c r="JM40" s="55"/>
       <c r="JN40" s="55"/>
     </row>
-    <row r="41" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48"/>
       <c r="GA41" s="55"/>
       <c r="GB41" s="55"/>
@@ -10814,7 +10800,7 @@
       <c r="JM41" s="55"/>
       <c r="JN41" s="55"/>
     </row>
-    <row r="42" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="48"/>
       <c r="GA42" s="55"/>
       <c r="GB42" s="55"/>
@@ -10909,7 +10895,7 @@
       <c r="JM42" s="55"/>
       <c r="JN42" s="55"/>
     </row>
-    <row r="43" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="48"/>
       <c r="GA43" s="55"/>
       <c r="GB43" s="55"/>
@@ -11004,7 +10990,7 @@
       <c r="JM43" s="55"/>
       <c r="JN43" s="55"/>
     </row>
-    <row r="44" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="48"/>
       <c r="GA44" s="55"/>
       <c r="GB44" s="55"/>
@@ -11099,7 +11085,7 @@
       <c r="JM44" s="55"/>
       <c r="JN44" s="55"/>
     </row>
-    <row r="45" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="48"/>
       <c r="GA45" s="55"/>
       <c r="GB45" s="55"/>
@@ -11194,7 +11180,7 @@
       <c r="JM45" s="55"/>
       <c r="JN45" s="55"/>
     </row>
-    <row r="46" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="48"/>
       <c r="GA46" s="55"/>
       <c r="GB46" s="55"/>
@@ -11289,7 +11275,7 @@
       <c r="JM46" s="55"/>
       <c r="JN46" s="55"/>
     </row>
-    <row r="47" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="48"/>
       <c r="GA47" s="55"/>
       <c r="GB47" s="55"/>
@@ -11408,245 +11394,253 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DA35E3-DBFD-486D-BF52-F3E372F58B68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.796875" style="146"/>
-    <col min="3" max="3" width="4.69921875" style="146" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" style="146" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="132"/>
+    <col min="3" max="3" width="4.75" style="132" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="132" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="146" t="s">
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="149" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="165" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="168" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="155">
+    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="165">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="153">
+      <c r="C4" s="166"/>
+      <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
       </c>
-      <c r="E4" s="154"/>
+      <c r="E4" s="140"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="157">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="167">
         <v>12</v>
       </c>
-      <c r="C5" s="160">
+      <c r="C5" s="143">
         <v>7</v>
       </c>
-      <c r="D5" s="160">
+      <c r="D5" s="143">
         <v>4</v>
       </c>
-      <c r="E5" s="161" t="s">
-        <v>46</v>
+      <c r="E5" s="144" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="162"/>
-      <c r="C6" s="158">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="168"/>
+      <c r="C6" s="141">
         <v>17</v>
       </c>
-      <c r="D6" s="158">
+      <c r="D6" s="141">
         <v>4</v>
       </c>
-      <c r="E6" s="163" t="s">
-        <v>45</v>
+      <c r="E6" s="145" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="162"/>
-      <c r="C7" s="158">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="168"/>
+      <c r="C7" s="141">
         <v>19</v>
       </c>
-      <c r="D7" s="158">
+      <c r="D7" s="141">
         <v>8</v>
       </c>
-      <c r="E7" s="163" t="s">
-        <v>45</v>
+      <c r="E7" s="145" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="162"/>
-      <c r="C8" s="148">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="168"/>
+      <c r="C8" s="134">
         <v>22</v>
       </c>
-      <c r="D8" s="148">
+      <c r="D8" s="134">
         <v>3</v>
       </c>
       <c r="E8" s="129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="168"/>
+      <c r="C9" s="134">
+        <v>23</v>
+      </c>
+      <c r="D9" s="134">
+        <v>6</v>
+      </c>
+      <c r="E9" s="129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="168"/>
+      <c r="C10" s="134">
+        <v>25</v>
+      </c>
+      <c r="D10" s="134">
+        <v>8</v>
+      </c>
+      <c r="E10" s="129" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="162"/>
-      <c r="C9" s="148">
-        <v>23</v>
-      </c>
-      <c r="D9" s="148">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="168"/>
+      <c r="C11" s="134">
+        <v>26</v>
+      </c>
+      <c r="D11" s="134">
+        <v>5</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="168"/>
+      <c r="C12" s="134">
+        <v>29</v>
+      </c>
+      <c r="D12" s="134">
+        <v>2</v>
+      </c>
+      <c r="E12" s="131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="169"/>
+      <c r="C13" s="137">
+        <v>30</v>
+      </c>
+      <c r="D13" s="137">
+        <v>2</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="165">
+        <v>2019.01</v>
+      </c>
+      <c r="C14" s="166"/>
+      <c r="D14" s="139">
+        <f>SUM(D15:D22)</f>
+        <v>11</v>
+      </c>
+      <c r="E14" s="142"/>
+    </row>
+    <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="133">
+        <v>1</v>
+      </c>
+      <c r="C15" s="134">
+        <v>1</v>
+      </c>
+      <c r="D15" s="135">
         <v>6</v>
       </c>
-      <c r="E9" s="129" t="s">
-        <v>28</v>
+      <c r="E15" s="131" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="162"/>
-      <c r="C10" s="148">
-        <v>25</v>
-      </c>
-      <c r="D10" s="148">
-        <v>8</v>
-      </c>
-      <c r="E10" s="129" t="s">
-        <v>27</v>
+    <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="133">
+        <v>1</v>
+      </c>
+      <c r="C16" s="134">
+        <v>5</v>
+      </c>
+      <c r="D16" s="135">
+        <v>5</v>
+      </c>
+      <c r="E16" s="131" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="162"/>
-      <c r="C11" s="148">
-        <v>26</v>
-      </c>
-      <c r="D11" s="148">
-        <v>5</v>
-      </c>
-      <c r="E11" s="129" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="162"/>
-      <c r="C12" s="148">
-        <v>29</v>
-      </c>
-      <c r="D12" s="148">
-        <v>2</v>
-      </c>
-      <c r="E12" s="145" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="164"/>
-      <c r="C13" s="151">
-        <v>30</v>
-      </c>
-      <c r="D13" s="151">
-        <v>2</v>
-      </c>
-      <c r="E13" s="130" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="155">
-        <v>2019.01</v>
-      </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="153">
-        <f>SUM(D15:D22)</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="159"/>
-    </row>
-    <row r="15" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B15" s="147">
-        <v>1</v>
-      </c>
-      <c r="C15" s="148">
-        <v>1</v>
-      </c>
-      <c r="D15" s="149">
-        <v>6</v>
-      </c>
-      <c r="E15" s="145" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="129"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="147"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="149"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="129"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="147"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="129"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="147"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="129"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="147"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="129"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="147"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="129"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="149"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="129"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="147"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="129"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="147"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
       <c r="E24" s="129"/>
     </row>
-    <row r="25" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
+    <row r="25" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="130"/>
     </row>
   </sheetData>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,13 +319,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">Pipette case 입고.
+Pipette 1set 전달.
+조립 후 Test </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>◇ 1Set 전달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Pipette case 입고.
-Pipette 1set 전달.
-조립 후 Test </t>
+    <t>◇ Case 1ea 입고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1299,12 +1303,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,6 +1373,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1418,7 +1422,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1479,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1536,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1593,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1650,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1707,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1764,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1821,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1878,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1935,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1992,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2049,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2106,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2163,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2220,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,8 +2552,8 @@
   <dimension ref="A1:JN47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG18" sqref="BG18"/>
+      <pane xSplit="1" topLeftCell="DC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EF11" sqref="EF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2597,297 +2601,297 @@
     </row>
     <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="162">
+      <c r="B6" s="160">
         <v>9</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="159">
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="161"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="161"/>
+      <c r="V6" s="161"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="161"/>
+      <c r="Z6" s="161"/>
+      <c r="AA6" s="161"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="157">
         <v>10</v>
       </c>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
-      <c r="AK6" s="159"/>
-      <c r="AL6" s="159"/>
-      <c r="AM6" s="159"/>
-      <c r="AN6" s="159"/>
-      <c r="AO6" s="159"/>
-      <c r="AP6" s="159"/>
-      <c r="AQ6" s="159"/>
-      <c r="AR6" s="159"/>
-      <c r="AS6" s="159"/>
-      <c r="AT6" s="159"/>
-      <c r="AU6" s="159"/>
-      <c r="AV6" s="159"/>
-      <c r="AW6" s="159"/>
-      <c r="AX6" s="159"/>
-      <c r="AY6" s="159"/>
-      <c r="AZ6" s="159"/>
-      <c r="BA6" s="159"/>
-      <c r="BB6" s="159"/>
-      <c r="BC6" s="159"/>
-      <c r="BD6" s="159"/>
-      <c r="BE6" s="159"/>
-      <c r="BF6" s="159"/>
-      <c r="BG6" s="159"/>
-      <c r="BH6" s="159"/>
-      <c r="BI6" s="159"/>
-      <c r="BJ6" s="160"/>
-      <c r="BK6" s="162">
+      <c r="AG6" s="157"/>
+      <c r="AH6" s="157"/>
+      <c r="AI6" s="157"/>
+      <c r="AJ6" s="157"/>
+      <c r="AK6" s="157"/>
+      <c r="AL6" s="157"/>
+      <c r="AM6" s="157"/>
+      <c r="AN6" s="157"/>
+      <c r="AO6" s="157"/>
+      <c r="AP6" s="157"/>
+      <c r="AQ6" s="157"/>
+      <c r="AR6" s="157"/>
+      <c r="AS6" s="157"/>
+      <c r="AT6" s="157"/>
+      <c r="AU6" s="157"/>
+      <c r="AV6" s="157"/>
+      <c r="AW6" s="157"/>
+      <c r="AX6" s="157"/>
+      <c r="AY6" s="157"/>
+      <c r="AZ6" s="157"/>
+      <c r="BA6" s="157"/>
+      <c r="BB6" s="157"/>
+      <c r="BC6" s="157"/>
+      <c r="BD6" s="157"/>
+      <c r="BE6" s="157"/>
+      <c r="BF6" s="157"/>
+      <c r="BG6" s="157"/>
+      <c r="BH6" s="157"/>
+      <c r="BI6" s="157"/>
+      <c r="BJ6" s="158"/>
+      <c r="BK6" s="160">
         <v>11</v>
       </c>
-      <c r="BL6" s="163"/>
-      <c r="BM6" s="163"/>
-      <c r="BN6" s="163"/>
-      <c r="BO6" s="163"/>
-      <c r="BP6" s="163"/>
-      <c r="BQ6" s="163"/>
-      <c r="BR6" s="163"/>
-      <c r="BS6" s="163"/>
-      <c r="BT6" s="163"/>
-      <c r="BU6" s="163"/>
-      <c r="BV6" s="163"/>
-      <c r="BW6" s="163"/>
-      <c r="BX6" s="163"/>
-      <c r="BY6" s="163"/>
-      <c r="BZ6" s="163"/>
-      <c r="CA6" s="163"/>
-      <c r="CB6" s="163"/>
-      <c r="CC6" s="163"/>
-      <c r="CD6" s="163"/>
-      <c r="CE6" s="163"/>
-      <c r="CF6" s="163"/>
-      <c r="CG6" s="163"/>
-      <c r="CH6" s="163"/>
-      <c r="CI6" s="163"/>
-      <c r="CJ6" s="163"/>
-      <c r="CK6" s="163"/>
-      <c r="CL6" s="163"/>
-      <c r="CM6" s="163"/>
-      <c r="CN6" s="164"/>
-      <c r="CO6" s="159">
+      <c r="BL6" s="161"/>
+      <c r="BM6" s="161"/>
+      <c r="BN6" s="161"/>
+      <c r="BO6" s="161"/>
+      <c r="BP6" s="161"/>
+      <c r="BQ6" s="161"/>
+      <c r="BR6" s="161"/>
+      <c r="BS6" s="161"/>
+      <c r="BT6" s="161"/>
+      <c r="BU6" s="161"/>
+      <c r="BV6" s="161"/>
+      <c r="BW6" s="161"/>
+      <c r="BX6" s="161"/>
+      <c r="BY6" s="161"/>
+      <c r="BZ6" s="161"/>
+      <c r="CA6" s="161"/>
+      <c r="CB6" s="161"/>
+      <c r="CC6" s="161"/>
+      <c r="CD6" s="161"/>
+      <c r="CE6" s="161"/>
+      <c r="CF6" s="161"/>
+      <c r="CG6" s="161"/>
+      <c r="CH6" s="161"/>
+      <c r="CI6" s="161"/>
+      <c r="CJ6" s="161"/>
+      <c r="CK6" s="161"/>
+      <c r="CL6" s="161"/>
+      <c r="CM6" s="161"/>
+      <c r="CN6" s="162"/>
+      <c r="CO6" s="157">
         <v>12</v>
       </c>
-      <c r="CP6" s="159"/>
-      <c r="CQ6" s="159"/>
-      <c r="CR6" s="159"/>
-      <c r="CS6" s="159"/>
-      <c r="CT6" s="159"/>
-      <c r="CU6" s="159"/>
-      <c r="CV6" s="159"/>
-      <c r="CW6" s="159"/>
-      <c r="CX6" s="159"/>
-      <c r="CY6" s="159"/>
-      <c r="CZ6" s="159"/>
-      <c r="DA6" s="159"/>
-      <c r="DB6" s="159"/>
-      <c r="DC6" s="159"/>
-      <c r="DD6" s="159"/>
-      <c r="DE6" s="159"/>
-      <c r="DF6" s="159"/>
-      <c r="DG6" s="159"/>
-      <c r="DH6" s="159"/>
-      <c r="DI6" s="159"/>
-      <c r="DJ6" s="159"/>
-      <c r="DK6" s="159"/>
-      <c r="DL6" s="159"/>
-      <c r="DM6" s="159"/>
-      <c r="DN6" s="159"/>
-      <c r="DO6" s="159"/>
-      <c r="DP6" s="159"/>
-      <c r="DQ6" s="159"/>
-      <c r="DR6" s="159"/>
-      <c r="DS6" s="160"/>
-      <c r="DT6" s="159">
+      <c r="CP6" s="157"/>
+      <c r="CQ6" s="157"/>
+      <c r="CR6" s="157"/>
+      <c r="CS6" s="157"/>
+      <c r="CT6" s="157"/>
+      <c r="CU6" s="157"/>
+      <c r="CV6" s="157"/>
+      <c r="CW6" s="157"/>
+      <c r="CX6" s="157"/>
+      <c r="CY6" s="157"/>
+      <c r="CZ6" s="157"/>
+      <c r="DA6" s="157"/>
+      <c r="DB6" s="157"/>
+      <c r="DC6" s="157"/>
+      <c r="DD6" s="157"/>
+      <c r="DE6" s="157"/>
+      <c r="DF6" s="157"/>
+      <c r="DG6" s="157"/>
+      <c r="DH6" s="157"/>
+      <c r="DI6" s="157"/>
+      <c r="DJ6" s="157"/>
+      <c r="DK6" s="157"/>
+      <c r="DL6" s="157"/>
+      <c r="DM6" s="157"/>
+      <c r="DN6" s="157"/>
+      <c r="DO6" s="157"/>
+      <c r="DP6" s="157"/>
+      <c r="DQ6" s="157"/>
+      <c r="DR6" s="157"/>
+      <c r="DS6" s="158"/>
+      <c r="DT6" s="157">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="159"/>
-      <c r="DV6" s="159"/>
-      <c r="DW6" s="159"/>
-      <c r="DX6" s="159"/>
-      <c r="DY6" s="159"/>
-      <c r="DZ6" s="159"/>
-      <c r="EA6" s="159"/>
-      <c r="EB6" s="159"/>
-      <c r="EC6" s="159"/>
-      <c r="ED6" s="159"/>
-      <c r="EE6" s="159"/>
-      <c r="EF6" s="159"/>
-      <c r="EG6" s="159"/>
-      <c r="EH6" s="159"/>
-      <c r="EI6" s="159"/>
-      <c r="EJ6" s="159"/>
-      <c r="EK6" s="159"/>
-      <c r="EL6" s="159"/>
-      <c r="EM6" s="159"/>
-      <c r="EN6" s="159"/>
-      <c r="EO6" s="159"/>
-      <c r="EP6" s="159"/>
-      <c r="EQ6" s="159"/>
-      <c r="ER6" s="159"/>
-      <c r="ES6" s="159"/>
-      <c r="ET6" s="159"/>
-      <c r="EU6" s="159"/>
-      <c r="EV6" s="159"/>
-      <c r="EW6" s="159"/>
-      <c r="EX6" s="160"/>
-      <c r="EY6" s="161">
+      <c r="DU6" s="157"/>
+      <c r="DV6" s="157"/>
+      <c r="DW6" s="157"/>
+      <c r="DX6" s="157"/>
+      <c r="DY6" s="157"/>
+      <c r="DZ6" s="157"/>
+      <c r="EA6" s="157"/>
+      <c r="EB6" s="157"/>
+      <c r="EC6" s="157"/>
+      <c r="ED6" s="157"/>
+      <c r="EE6" s="157"/>
+      <c r="EF6" s="157"/>
+      <c r="EG6" s="157"/>
+      <c r="EH6" s="157"/>
+      <c r="EI6" s="157"/>
+      <c r="EJ6" s="157"/>
+      <c r="EK6" s="157"/>
+      <c r="EL6" s="157"/>
+      <c r="EM6" s="157"/>
+      <c r="EN6" s="157"/>
+      <c r="EO6" s="157"/>
+      <c r="EP6" s="157"/>
+      <c r="EQ6" s="157"/>
+      <c r="ER6" s="157"/>
+      <c r="ES6" s="157"/>
+      <c r="ET6" s="157"/>
+      <c r="EU6" s="157"/>
+      <c r="EV6" s="157"/>
+      <c r="EW6" s="157"/>
+      <c r="EX6" s="158"/>
+      <c r="EY6" s="159">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="159"/>
-      <c r="FA6" s="159"/>
-      <c r="FB6" s="159"/>
-      <c r="FC6" s="159"/>
-      <c r="FD6" s="159"/>
-      <c r="FE6" s="159"/>
-      <c r="FF6" s="159"/>
-      <c r="FG6" s="159"/>
-      <c r="FH6" s="159"/>
-      <c r="FI6" s="159"/>
-      <c r="FJ6" s="159"/>
-      <c r="FK6" s="159"/>
-      <c r="FL6" s="159"/>
-      <c r="FM6" s="159"/>
-      <c r="FN6" s="159"/>
-      <c r="FO6" s="159"/>
-      <c r="FP6" s="159"/>
-      <c r="FQ6" s="159"/>
-      <c r="FR6" s="159"/>
-      <c r="FS6" s="159"/>
-      <c r="FT6" s="159"/>
-      <c r="FU6" s="159"/>
-      <c r="FV6" s="159"/>
-      <c r="FW6" s="159"/>
-      <c r="FX6" s="159"/>
-      <c r="FY6" s="159"/>
-      <c r="FZ6" s="160"/>
-      <c r="GA6" s="152">
+      <c r="EZ6" s="157"/>
+      <c r="FA6" s="157"/>
+      <c r="FB6" s="157"/>
+      <c r="FC6" s="157"/>
+      <c r="FD6" s="157"/>
+      <c r="FE6" s="157"/>
+      <c r="FF6" s="157"/>
+      <c r="FG6" s="157"/>
+      <c r="FH6" s="157"/>
+      <c r="FI6" s="157"/>
+      <c r="FJ6" s="157"/>
+      <c r="FK6" s="157"/>
+      <c r="FL6" s="157"/>
+      <c r="FM6" s="157"/>
+      <c r="FN6" s="157"/>
+      <c r="FO6" s="157"/>
+      <c r="FP6" s="157"/>
+      <c r="FQ6" s="157"/>
+      <c r="FR6" s="157"/>
+      <c r="FS6" s="157"/>
+      <c r="FT6" s="157"/>
+      <c r="FU6" s="157"/>
+      <c r="FV6" s="157"/>
+      <c r="FW6" s="157"/>
+      <c r="FX6" s="157"/>
+      <c r="FY6" s="157"/>
+      <c r="FZ6" s="158"/>
+      <c r="GA6" s="150">
         <v>3</v>
       </c>
-      <c r="GB6" s="152"/>
-      <c r="GC6" s="152"/>
-      <c r="GD6" s="152"/>
-      <c r="GE6" s="152"/>
-      <c r="GF6" s="152"/>
-      <c r="GG6" s="152"/>
-      <c r="GH6" s="152"/>
-      <c r="GI6" s="152"/>
-      <c r="GJ6" s="152"/>
-      <c r="GK6" s="152"/>
-      <c r="GL6" s="152"/>
-      <c r="GM6" s="152"/>
-      <c r="GN6" s="152"/>
-      <c r="GO6" s="152"/>
-      <c r="GP6" s="152"/>
-      <c r="GQ6" s="152"/>
-      <c r="GR6" s="152"/>
-      <c r="GS6" s="152"/>
-      <c r="GT6" s="152"/>
-      <c r="GU6" s="152"/>
-      <c r="GV6" s="152"/>
-      <c r="GW6" s="152"/>
-      <c r="GX6" s="152"/>
-      <c r="GY6" s="152"/>
-      <c r="GZ6" s="152"/>
-      <c r="HA6" s="152"/>
-      <c r="HB6" s="152"/>
-      <c r="HC6" s="152"/>
-      <c r="HD6" s="152"/>
-      <c r="HE6" s="152"/>
-      <c r="HF6" s="156">
+      <c r="GB6" s="150"/>
+      <c r="GC6" s="150"/>
+      <c r="GD6" s="150"/>
+      <c r="GE6" s="150"/>
+      <c r="GF6" s="150"/>
+      <c r="GG6" s="150"/>
+      <c r="GH6" s="150"/>
+      <c r="GI6" s="150"/>
+      <c r="GJ6" s="150"/>
+      <c r="GK6" s="150"/>
+      <c r="GL6" s="150"/>
+      <c r="GM6" s="150"/>
+      <c r="GN6" s="150"/>
+      <c r="GO6" s="150"/>
+      <c r="GP6" s="150"/>
+      <c r="GQ6" s="150"/>
+      <c r="GR6" s="150"/>
+      <c r="GS6" s="150"/>
+      <c r="GT6" s="150"/>
+      <c r="GU6" s="150"/>
+      <c r="GV6" s="150"/>
+      <c r="GW6" s="150"/>
+      <c r="GX6" s="150"/>
+      <c r="GY6" s="150"/>
+      <c r="GZ6" s="150"/>
+      <c r="HA6" s="150"/>
+      <c r="HB6" s="150"/>
+      <c r="HC6" s="150"/>
+      <c r="HD6" s="150"/>
+      <c r="HE6" s="150"/>
+      <c r="HF6" s="154">
         <v>4</v>
       </c>
-      <c r="HG6" s="157"/>
-      <c r="HH6" s="157"/>
-      <c r="HI6" s="157"/>
-      <c r="HJ6" s="157"/>
-      <c r="HK6" s="157"/>
-      <c r="HL6" s="157"/>
-      <c r="HM6" s="157"/>
-      <c r="HN6" s="157"/>
-      <c r="HO6" s="157"/>
-      <c r="HP6" s="157"/>
-      <c r="HQ6" s="157"/>
-      <c r="HR6" s="157"/>
-      <c r="HS6" s="157"/>
-      <c r="HT6" s="157"/>
-      <c r="HU6" s="157"/>
-      <c r="HV6" s="157"/>
-      <c r="HW6" s="157"/>
-      <c r="HX6" s="157"/>
-      <c r="HY6" s="157"/>
-      <c r="HZ6" s="157"/>
-      <c r="IA6" s="157"/>
-      <c r="IB6" s="157"/>
-      <c r="IC6" s="157"/>
-      <c r="ID6" s="157"/>
-      <c r="IE6" s="157"/>
-      <c r="IF6" s="157"/>
-      <c r="IG6" s="157"/>
-      <c r="IH6" s="157"/>
-      <c r="II6" s="158"/>
-      <c r="IJ6" s="151">
+      <c r="HG6" s="155"/>
+      <c r="HH6" s="155"/>
+      <c r="HI6" s="155"/>
+      <c r="HJ6" s="155"/>
+      <c r="HK6" s="155"/>
+      <c r="HL6" s="155"/>
+      <c r="HM6" s="155"/>
+      <c r="HN6" s="155"/>
+      <c r="HO6" s="155"/>
+      <c r="HP6" s="155"/>
+      <c r="HQ6" s="155"/>
+      <c r="HR6" s="155"/>
+      <c r="HS6" s="155"/>
+      <c r="HT6" s="155"/>
+      <c r="HU6" s="155"/>
+      <c r="HV6" s="155"/>
+      <c r="HW6" s="155"/>
+      <c r="HX6" s="155"/>
+      <c r="HY6" s="155"/>
+      <c r="HZ6" s="155"/>
+      <c r="IA6" s="155"/>
+      <c r="IB6" s="155"/>
+      <c r="IC6" s="155"/>
+      <c r="ID6" s="155"/>
+      <c r="IE6" s="155"/>
+      <c r="IF6" s="155"/>
+      <c r="IG6" s="155"/>
+      <c r="IH6" s="155"/>
+      <c r="II6" s="156"/>
+      <c r="IJ6" s="149">
         <v>5</v>
       </c>
-      <c r="IK6" s="152"/>
-      <c r="IL6" s="152"/>
-      <c r="IM6" s="152"/>
-      <c r="IN6" s="152"/>
-      <c r="IO6" s="152"/>
-      <c r="IP6" s="152"/>
-      <c r="IQ6" s="152"/>
-      <c r="IR6" s="152"/>
-      <c r="IS6" s="152"/>
-      <c r="IT6" s="152"/>
-      <c r="IU6" s="152"/>
-      <c r="IV6" s="152"/>
-      <c r="IW6" s="152"/>
-      <c r="IX6" s="152"/>
-      <c r="IY6" s="152"/>
-      <c r="IZ6" s="152"/>
-      <c r="JA6" s="152"/>
-      <c r="JB6" s="152"/>
-      <c r="JC6" s="152"/>
-      <c r="JD6" s="152"/>
-      <c r="JE6" s="152"/>
-      <c r="JF6" s="152"/>
-      <c r="JG6" s="152"/>
-      <c r="JH6" s="152"/>
-      <c r="JI6" s="152"/>
-      <c r="JJ6" s="152"/>
-      <c r="JK6" s="152"/>
-      <c r="JL6" s="152"/>
-      <c r="JM6" s="152"/>
-      <c r="JN6" s="153"/>
+      <c r="IK6" s="150"/>
+      <c r="IL6" s="150"/>
+      <c r="IM6" s="150"/>
+      <c r="IN6" s="150"/>
+      <c r="IO6" s="150"/>
+      <c r="IP6" s="150"/>
+      <c r="IQ6" s="150"/>
+      <c r="IR6" s="150"/>
+      <c r="IS6" s="150"/>
+      <c r="IT6" s="150"/>
+      <c r="IU6" s="150"/>
+      <c r="IV6" s="150"/>
+      <c r="IW6" s="150"/>
+      <c r="IX6" s="150"/>
+      <c r="IY6" s="150"/>
+      <c r="IZ6" s="150"/>
+      <c r="JA6" s="150"/>
+      <c r="JB6" s="150"/>
+      <c r="JC6" s="150"/>
+      <c r="JD6" s="150"/>
+      <c r="JE6" s="150"/>
+      <c r="JF6" s="150"/>
+      <c r="JG6" s="150"/>
+      <c r="JH6" s="150"/>
+      <c r="JI6" s="150"/>
+      <c r="JJ6" s="150"/>
+      <c r="JK6" s="150"/>
+      <c r="JL6" s="150"/>
+      <c r="JM6" s="150"/>
+      <c r="JN6" s="151"/>
     </row>
     <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
@@ -3712,7 +3716,7 @@
       </c>
     </row>
     <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="152" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42"/>
@@ -3845,8 +3849,8 @@
       <c r="DU8" s="9"/>
       <c r="DV8" s="9"/>
       <c r="DW8" s="9"/>
-      <c r="DX8" s="150" t="s">
-        <v>49</v>
+      <c r="DX8" s="148" t="s">
+        <v>50</v>
       </c>
       <c r="DY8" s="42"/>
       <c r="DZ8" s="9"/>
@@ -4000,7 +4004,7 @@
       <c r="JN8" s="40"/>
     </row>
     <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4131,7 +4135,9 @@
       <c r="DU9" s="75"/>
       <c r="DV9" s="75"/>
       <c r="DW9" s="75"/>
-      <c r="DX9" s="74"/>
+      <c r="DX9" s="74" t="s">
+        <v>51</v>
+      </c>
       <c r="DY9" s="74"/>
       <c r="DZ9" s="75"/>
       <c r="EA9" s="75"/>
@@ -4286,7 +4292,7 @@
       <c r="JN9" s="7"/>
     </row>
     <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -4564,7 +4570,7 @@
       <c r="JN10" s="7"/>
     </row>
     <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="154"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -4842,7 +4848,7 @@
       <c r="JN11" s="7"/>
     </row>
     <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -5120,7 +5126,7 @@
       <c r="JN12" s="7"/>
     </row>
     <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154"/>
+      <c r="A13" s="152"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5396,7 +5402,7 @@
       <c r="JN13" s="7"/>
     </row>
     <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -5672,7 +5678,7 @@
       <c r="JN14" s="18"/>
     </row>
     <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="153" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -5952,7 +5958,7 @@
       <c r="JN15" s="29"/>
     </row>
     <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="154"/>
+      <c r="A16" s="152"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6232,7 +6238,7 @@
       <c r="JN16" s="13"/>
     </row>
     <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="154"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -6509,7 +6515,7 @@
       <c r="JN17" s="4"/>
     </row>
     <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -6786,7 +6792,7 @@
       <c r="JN18" s="4"/>
     </row>
     <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="154"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7062,7 +7068,7 @@
       <c r="JN19" s="4"/>
     </row>
     <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="154"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7338,7 +7344,7 @@
       <c r="JN20" s="4"/>
     </row>
     <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="154"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -7614,7 +7620,7 @@
       <c r="JN21" s="127"/>
     </row>
     <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="154"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -7890,7 +7896,7 @@
       <c r="JN22" s="25"/>
     </row>
     <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="152" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="108"/>
@@ -8170,7 +8176,7 @@
       <c r="JN23" s="29"/>
     </row>
     <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="154"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8448,7 +8454,7 @@
       <c r="JN24" s="4"/>
     </row>
     <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="154"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -8726,7 +8732,7 @@
       <c r="JN25" s="4"/>
     </row>
     <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="154"/>
+      <c r="A26" s="152"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -9010,7 +9016,7 @@
       <c r="JN26" s="4"/>
     </row>
     <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="154"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9292,7 +9298,7 @@
       <c r="JN27" s="4"/>
     </row>
     <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="154"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -9570,7 +9576,7 @@
       <c r="JN28" s="4"/>
     </row>
     <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="154"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -9848,7 +9854,7 @@
       <c r="JN29" s="4"/>
     </row>
     <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="154"/>
+      <c r="A30" s="152"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -11398,8 +11404,8 @@
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11416,24 +11422,24 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="149" t="s">
+      <c r="E3" s="147" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="165">
+      <c r="B4" s="163">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -11441,7 +11447,7 @@
       <c r="E4" s="140"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="167">
+      <c r="B5" s="165">
         <v>12</v>
       </c>
       <c r="C5" s="143">
@@ -11450,36 +11456,36 @@
       <c r="D5" s="143">
         <v>4</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="168" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="168"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="141">
         <v>17</v>
       </c>
       <c r="D6" s="141">
         <v>4</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="169" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="168"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="141">
         <v>19</v>
       </c>
       <c r="D7" s="141">
         <v>8</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="169" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="168"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="134">
         <v>22</v>
       </c>
@@ -11491,7 +11497,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="168"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="134">
         <v>23</v>
       </c>
@@ -11503,7 +11509,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="168"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="134">
         <v>25</v>
       </c>
@@ -11515,7 +11521,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="134">
         <v>26</v>
       </c>
@@ -11527,7 +11533,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="134">
         <v>29</v>
       </c>
@@ -11539,7 +11545,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="169"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="137">
         <v>30</v>
       </c>
@@ -11551,10 +11557,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="165">
+      <c r="B14" s="163">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="166"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="139">
         <f>SUM(D15:D22)</f>
         <v>11</v>
@@ -11586,7 +11592,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F0F341-6223-4524-AA19-70286664284C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -13,17 +14,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20181224'!$A$1:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="Y7" authorId="0">
+    <comment ref="Y7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH7" authorId="0">
+    <comment ref="AH7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN7" authorId="0">
+    <comment ref="AN7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM7" authorId="0">
+    <comment ref="DM7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DT7" authorId="0">
+    <comment ref="DT7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FC7" authorId="0">
+    <comment ref="FC7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,11 +333,28 @@
     <t>◇ Case 1ea 입고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Pipette SCH&amp;PCB 수정 - issue 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Test - S/V 오동작, 발열, Femto 2차 sample 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ Design 스케치 입수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W 수정-Plasma On delay 5sec 추가
+Trans 추가 제작 - 2차측 1layer 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1316,6 +1334,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,12 +1397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1422,7 +1440,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1497,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1554,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1611,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1668,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1725,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1782,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1839,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1896,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1953,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +2010,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2067,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2124,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2181,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2238,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2338,9 +2356,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2373,6 +2408,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2548,352 +2600,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:JN47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EF11" sqref="EF11"/>
+      <selection pane="topRight" activeCell="EO19" sqref="EO19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="52" customWidth="1"/>
-    <col min="2" max="10" width="2.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="31" width="3.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="32" max="40" width="2.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="41" max="62" width="3.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="63" max="71" width="2.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="72" max="92" width="3.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="93" max="101" width="2.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="102" max="123" width="3.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="124" max="132" width="2.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="133" max="154" width="3.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="155" max="163" width="2.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="164" max="182" width="3.75" style="55" bestFit="1" customWidth="1"/>
-    <col min="183" max="16384" width="2.625" style="55"/>
+    <col min="1" max="1" width="10.3984375" style="52" customWidth="1"/>
+    <col min="2" max="10" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="31" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="32" max="40" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="41" max="62" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="63" max="71" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="72" max="92" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="93" max="101" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="102" max="123" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="124" max="132" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="133" max="154" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="155" max="163" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="164" max="182" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="183" max="16384" width="2.59765625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:274" s="54" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:274" s="54" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="51"/>
-      <c r="B6" s="160">
+      <c r="B6" s="162">
         <v>9</v>
       </c>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="161"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="161"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="161"/>
-      <c r="AB6" s="161"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="162"/>
-      <c r="AF6" s="157">
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="159">
         <v>10</v>
       </c>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="157"/>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="157"/>
-      <c r="AK6" s="157"/>
-      <c r="AL6" s="157"/>
-      <c r="AM6" s="157"/>
-      <c r="AN6" s="157"/>
-      <c r="AO6" s="157"/>
-      <c r="AP6" s="157"/>
-      <c r="AQ6" s="157"/>
-      <c r="AR6" s="157"/>
-      <c r="AS6" s="157"/>
-      <c r="AT6" s="157"/>
-      <c r="AU6" s="157"/>
-      <c r="AV6" s="157"/>
-      <c r="AW6" s="157"/>
-      <c r="AX6" s="157"/>
-      <c r="AY6" s="157"/>
-      <c r="AZ6" s="157"/>
-      <c r="BA6" s="157"/>
-      <c r="BB6" s="157"/>
-      <c r="BC6" s="157"/>
-      <c r="BD6" s="157"/>
-      <c r="BE6" s="157"/>
-      <c r="BF6" s="157"/>
-      <c r="BG6" s="157"/>
-      <c r="BH6" s="157"/>
-      <c r="BI6" s="157"/>
-      <c r="BJ6" s="158"/>
-      <c r="BK6" s="160">
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="159"/>
+      <c r="AI6" s="159"/>
+      <c r="AJ6" s="159"/>
+      <c r="AK6" s="159"/>
+      <c r="AL6" s="159"/>
+      <c r="AM6" s="159"/>
+      <c r="AN6" s="159"/>
+      <c r="AO6" s="159"/>
+      <c r="AP6" s="159"/>
+      <c r="AQ6" s="159"/>
+      <c r="AR6" s="159"/>
+      <c r="AS6" s="159"/>
+      <c r="AT6" s="159"/>
+      <c r="AU6" s="159"/>
+      <c r="AV6" s="159"/>
+      <c r="AW6" s="159"/>
+      <c r="AX6" s="159"/>
+      <c r="AY6" s="159"/>
+      <c r="AZ6" s="159"/>
+      <c r="BA6" s="159"/>
+      <c r="BB6" s="159"/>
+      <c r="BC6" s="159"/>
+      <c r="BD6" s="159"/>
+      <c r="BE6" s="159"/>
+      <c r="BF6" s="159"/>
+      <c r="BG6" s="159"/>
+      <c r="BH6" s="159"/>
+      <c r="BI6" s="159"/>
+      <c r="BJ6" s="160"/>
+      <c r="BK6" s="162">
         <v>11</v>
       </c>
-      <c r="BL6" s="161"/>
-      <c r="BM6" s="161"/>
-      <c r="BN6" s="161"/>
-      <c r="BO6" s="161"/>
-      <c r="BP6" s="161"/>
-      <c r="BQ6" s="161"/>
-      <c r="BR6" s="161"/>
-      <c r="BS6" s="161"/>
-      <c r="BT6" s="161"/>
-      <c r="BU6" s="161"/>
-      <c r="BV6" s="161"/>
-      <c r="BW6" s="161"/>
-      <c r="BX6" s="161"/>
-      <c r="BY6" s="161"/>
-      <c r="BZ6" s="161"/>
-      <c r="CA6" s="161"/>
-      <c r="CB6" s="161"/>
-      <c r="CC6" s="161"/>
-      <c r="CD6" s="161"/>
-      <c r="CE6" s="161"/>
-      <c r="CF6" s="161"/>
-      <c r="CG6" s="161"/>
-      <c r="CH6" s="161"/>
-      <c r="CI6" s="161"/>
-      <c r="CJ6" s="161"/>
-      <c r="CK6" s="161"/>
-      <c r="CL6" s="161"/>
-      <c r="CM6" s="161"/>
-      <c r="CN6" s="162"/>
-      <c r="CO6" s="157">
+      <c r="BL6" s="163"/>
+      <c r="BM6" s="163"/>
+      <c r="BN6" s="163"/>
+      <c r="BO6" s="163"/>
+      <c r="BP6" s="163"/>
+      <c r="BQ6" s="163"/>
+      <c r="BR6" s="163"/>
+      <c r="BS6" s="163"/>
+      <c r="BT6" s="163"/>
+      <c r="BU6" s="163"/>
+      <c r="BV6" s="163"/>
+      <c r="BW6" s="163"/>
+      <c r="BX6" s="163"/>
+      <c r="BY6" s="163"/>
+      <c r="BZ6" s="163"/>
+      <c r="CA6" s="163"/>
+      <c r="CB6" s="163"/>
+      <c r="CC6" s="163"/>
+      <c r="CD6" s="163"/>
+      <c r="CE6" s="163"/>
+      <c r="CF6" s="163"/>
+      <c r="CG6" s="163"/>
+      <c r="CH6" s="163"/>
+      <c r="CI6" s="163"/>
+      <c r="CJ6" s="163"/>
+      <c r="CK6" s="163"/>
+      <c r="CL6" s="163"/>
+      <c r="CM6" s="163"/>
+      <c r="CN6" s="164"/>
+      <c r="CO6" s="159">
         <v>12</v>
       </c>
-      <c r="CP6" s="157"/>
-      <c r="CQ6" s="157"/>
-      <c r="CR6" s="157"/>
-      <c r="CS6" s="157"/>
-      <c r="CT6" s="157"/>
-      <c r="CU6" s="157"/>
-      <c r="CV6" s="157"/>
-      <c r="CW6" s="157"/>
-      <c r="CX6" s="157"/>
-      <c r="CY6" s="157"/>
-      <c r="CZ6" s="157"/>
-      <c r="DA6" s="157"/>
-      <c r="DB6" s="157"/>
-      <c r="DC6" s="157"/>
-      <c r="DD6" s="157"/>
-      <c r="DE6" s="157"/>
-      <c r="DF6" s="157"/>
-      <c r="DG6" s="157"/>
-      <c r="DH6" s="157"/>
-      <c r="DI6" s="157"/>
-      <c r="DJ6" s="157"/>
-      <c r="DK6" s="157"/>
-      <c r="DL6" s="157"/>
-      <c r="DM6" s="157"/>
-      <c r="DN6" s="157"/>
-      <c r="DO6" s="157"/>
-      <c r="DP6" s="157"/>
-      <c r="DQ6" s="157"/>
-      <c r="DR6" s="157"/>
-      <c r="DS6" s="158"/>
-      <c r="DT6" s="157">
+      <c r="CP6" s="159"/>
+      <c r="CQ6" s="159"/>
+      <c r="CR6" s="159"/>
+      <c r="CS6" s="159"/>
+      <c r="CT6" s="159"/>
+      <c r="CU6" s="159"/>
+      <c r="CV6" s="159"/>
+      <c r="CW6" s="159"/>
+      <c r="CX6" s="159"/>
+      <c r="CY6" s="159"/>
+      <c r="CZ6" s="159"/>
+      <c r="DA6" s="159"/>
+      <c r="DB6" s="159"/>
+      <c r="DC6" s="159"/>
+      <c r="DD6" s="159"/>
+      <c r="DE6" s="159"/>
+      <c r="DF6" s="159"/>
+      <c r="DG6" s="159"/>
+      <c r="DH6" s="159"/>
+      <c r="DI6" s="159"/>
+      <c r="DJ6" s="159"/>
+      <c r="DK6" s="159"/>
+      <c r="DL6" s="159"/>
+      <c r="DM6" s="159"/>
+      <c r="DN6" s="159"/>
+      <c r="DO6" s="159"/>
+      <c r="DP6" s="159"/>
+      <c r="DQ6" s="159"/>
+      <c r="DR6" s="159"/>
+      <c r="DS6" s="160"/>
+      <c r="DT6" s="159">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="157"/>
-      <c r="DV6" s="157"/>
-      <c r="DW6" s="157"/>
-      <c r="DX6" s="157"/>
-      <c r="DY6" s="157"/>
-      <c r="DZ6" s="157"/>
-      <c r="EA6" s="157"/>
-      <c r="EB6" s="157"/>
-      <c r="EC6" s="157"/>
-      <c r="ED6" s="157"/>
-      <c r="EE6" s="157"/>
-      <c r="EF6" s="157"/>
-      <c r="EG6" s="157"/>
-      <c r="EH6" s="157"/>
-      <c r="EI6" s="157"/>
-      <c r="EJ6" s="157"/>
-      <c r="EK6" s="157"/>
-      <c r="EL6" s="157"/>
-      <c r="EM6" s="157"/>
-      <c r="EN6" s="157"/>
-      <c r="EO6" s="157"/>
-      <c r="EP6" s="157"/>
-      <c r="EQ6" s="157"/>
-      <c r="ER6" s="157"/>
-      <c r="ES6" s="157"/>
-      <c r="ET6" s="157"/>
-      <c r="EU6" s="157"/>
-      <c r="EV6" s="157"/>
-      <c r="EW6" s="157"/>
-      <c r="EX6" s="158"/>
-      <c r="EY6" s="159">
+      <c r="DU6" s="159"/>
+      <c r="DV6" s="159"/>
+      <c r="DW6" s="159"/>
+      <c r="DX6" s="159"/>
+      <c r="DY6" s="159"/>
+      <c r="DZ6" s="159"/>
+      <c r="EA6" s="159"/>
+      <c r="EB6" s="159"/>
+      <c r="EC6" s="159"/>
+      <c r="ED6" s="159"/>
+      <c r="EE6" s="159"/>
+      <c r="EF6" s="159"/>
+      <c r="EG6" s="159"/>
+      <c r="EH6" s="159"/>
+      <c r="EI6" s="159"/>
+      <c r="EJ6" s="159"/>
+      <c r="EK6" s="159"/>
+      <c r="EL6" s="159"/>
+      <c r="EM6" s="159"/>
+      <c r="EN6" s="159"/>
+      <c r="EO6" s="159"/>
+      <c r="EP6" s="159"/>
+      <c r="EQ6" s="159"/>
+      <c r="ER6" s="159"/>
+      <c r="ES6" s="159"/>
+      <c r="ET6" s="159"/>
+      <c r="EU6" s="159"/>
+      <c r="EV6" s="159"/>
+      <c r="EW6" s="159"/>
+      <c r="EX6" s="160"/>
+      <c r="EY6" s="161">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="157"/>
-      <c r="FA6" s="157"/>
-      <c r="FB6" s="157"/>
-      <c r="FC6" s="157"/>
-      <c r="FD6" s="157"/>
-      <c r="FE6" s="157"/>
-      <c r="FF6" s="157"/>
-      <c r="FG6" s="157"/>
-      <c r="FH6" s="157"/>
-      <c r="FI6" s="157"/>
-      <c r="FJ6" s="157"/>
-      <c r="FK6" s="157"/>
-      <c r="FL6" s="157"/>
-      <c r="FM6" s="157"/>
-      <c r="FN6" s="157"/>
-      <c r="FO6" s="157"/>
-      <c r="FP6" s="157"/>
-      <c r="FQ6" s="157"/>
-      <c r="FR6" s="157"/>
-      <c r="FS6" s="157"/>
-      <c r="FT6" s="157"/>
-      <c r="FU6" s="157"/>
-      <c r="FV6" s="157"/>
-      <c r="FW6" s="157"/>
-      <c r="FX6" s="157"/>
-      <c r="FY6" s="157"/>
-      <c r="FZ6" s="158"/>
-      <c r="GA6" s="150">
+      <c r="EZ6" s="159"/>
+      <c r="FA6" s="159"/>
+      <c r="FB6" s="159"/>
+      <c r="FC6" s="159"/>
+      <c r="FD6" s="159"/>
+      <c r="FE6" s="159"/>
+      <c r="FF6" s="159"/>
+      <c r="FG6" s="159"/>
+      <c r="FH6" s="159"/>
+      <c r="FI6" s="159"/>
+      <c r="FJ6" s="159"/>
+      <c r="FK6" s="159"/>
+      <c r="FL6" s="159"/>
+      <c r="FM6" s="159"/>
+      <c r="FN6" s="159"/>
+      <c r="FO6" s="159"/>
+      <c r="FP6" s="159"/>
+      <c r="FQ6" s="159"/>
+      <c r="FR6" s="159"/>
+      <c r="FS6" s="159"/>
+      <c r="FT6" s="159"/>
+      <c r="FU6" s="159"/>
+      <c r="FV6" s="159"/>
+      <c r="FW6" s="159"/>
+      <c r="FX6" s="159"/>
+      <c r="FY6" s="159"/>
+      <c r="FZ6" s="160"/>
+      <c r="GA6" s="152">
         <v>3</v>
       </c>
-      <c r="GB6" s="150"/>
-      <c r="GC6" s="150"/>
-      <c r="GD6" s="150"/>
-      <c r="GE6" s="150"/>
-      <c r="GF6" s="150"/>
-      <c r="GG6" s="150"/>
-      <c r="GH6" s="150"/>
-      <c r="GI6" s="150"/>
-      <c r="GJ6" s="150"/>
-      <c r="GK6" s="150"/>
-      <c r="GL6" s="150"/>
-      <c r="GM6" s="150"/>
-      <c r="GN6" s="150"/>
-      <c r="GO6" s="150"/>
-      <c r="GP6" s="150"/>
-      <c r="GQ6" s="150"/>
-      <c r="GR6" s="150"/>
-      <c r="GS6" s="150"/>
-      <c r="GT6" s="150"/>
-      <c r="GU6" s="150"/>
-      <c r="GV6" s="150"/>
-      <c r="GW6" s="150"/>
-      <c r="GX6" s="150"/>
-      <c r="GY6" s="150"/>
-      <c r="GZ6" s="150"/>
-      <c r="HA6" s="150"/>
-      <c r="HB6" s="150"/>
-      <c r="HC6" s="150"/>
-      <c r="HD6" s="150"/>
-      <c r="HE6" s="150"/>
-      <c r="HF6" s="154">
+      <c r="GB6" s="152"/>
+      <c r="GC6" s="152"/>
+      <c r="GD6" s="152"/>
+      <c r="GE6" s="152"/>
+      <c r="GF6" s="152"/>
+      <c r="GG6" s="152"/>
+      <c r="GH6" s="152"/>
+      <c r="GI6" s="152"/>
+      <c r="GJ6" s="152"/>
+      <c r="GK6" s="152"/>
+      <c r="GL6" s="152"/>
+      <c r="GM6" s="152"/>
+      <c r="GN6" s="152"/>
+      <c r="GO6" s="152"/>
+      <c r="GP6" s="152"/>
+      <c r="GQ6" s="152"/>
+      <c r="GR6" s="152"/>
+      <c r="GS6" s="152"/>
+      <c r="GT6" s="152"/>
+      <c r="GU6" s="152"/>
+      <c r="GV6" s="152"/>
+      <c r="GW6" s="152"/>
+      <c r="GX6" s="152"/>
+      <c r="GY6" s="152"/>
+      <c r="GZ6" s="152"/>
+      <c r="HA6" s="152"/>
+      <c r="HB6" s="152"/>
+      <c r="HC6" s="152"/>
+      <c r="HD6" s="152"/>
+      <c r="HE6" s="152"/>
+      <c r="HF6" s="156">
         <v>4</v>
       </c>
-      <c r="HG6" s="155"/>
-      <c r="HH6" s="155"/>
-      <c r="HI6" s="155"/>
-      <c r="HJ6" s="155"/>
-      <c r="HK6" s="155"/>
-      <c r="HL6" s="155"/>
-      <c r="HM6" s="155"/>
-      <c r="HN6" s="155"/>
-      <c r="HO6" s="155"/>
-      <c r="HP6" s="155"/>
-      <c r="HQ6" s="155"/>
-      <c r="HR6" s="155"/>
-      <c r="HS6" s="155"/>
-      <c r="HT6" s="155"/>
-      <c r="HU6" s="155"/>
-      <c r="HV6" s="155"/>
-      <c r="HW6" s="155"/>
-      <c r="HX6" s="155"/>
-      <c r="HY6" s="155"/>
-      <c r="HZ6" s="155"/>
-      <c r="IA6" s="155"/>
-      <c r="IB6" s="155"/>
-      <c r="IC6" s="155"/>
-      <c r="ID6" s="155"/>
-      <c r="IE6" s="155"/>
-      <c r="IF6" s="155"/>
-      <c r="IG6" s="155"/>
-      <c r="IH6" s="155"/>
-      <c r="II6" s="156"/>
-      <c r="IJ6" s="149">
+      <c r="HG6" s="157"/>
+      <c r="HH6" s="157"/>
+      <c r="HI6" s="157"/>
+      <c r="HJ6" s="157"/>
+      <c r="HK6" s="157"/>
+      <c r="HL6" s="157"/>
+      <c r="HM6" s="157"/>
+      <c r="HN6" s="157"/>
+      <c r="HO6" s="157"/>
+      <c r="HP6" s="157"/>
+      <c r="HQ6" s="157"/>
+      <c r="HR6" s="157"/>
+      <c r="HS6" s="157"/>
+      <c r="HT6" s="157"/>
+      <c r="HU6" s="157"/>
+      <c r="HV6" s="157"/>
+      <c r="HW6" s="157"/>
+      <c r="HX6" s="157"/>
+      <c r="HY6" s="157"/>
+      <c r="HZ6" s="157"/>
+      <c r="IA6" s="157"/>
+      <c r="IB6" s="157"/>
+      <c r="IC6" s="157"/>
+      <c r="ID6" s="157"/>
+      <c r="IE6" s="157"/>
+      <c r="IF6" s="157"/>
+      <c r="IG6" s="157"/>
+      <c r="IH6" s="157"/>
+      <c r="II6" s="158"/>
+      <c r="IJ6" s="151">
         <v>5</v>
       </c>
-      <c r="IK6" s="150"/>
-      <c r="IL6" s="150"/>
-      <c r="IM6" s="150"/>
-      <c r="IN6" s="150"/>
-      <c r="IO6" s="150"/>
-      <c r="IP6" s="150"/>
-      <c r="IQ6" s="150"/>
-      <c r="IR6" s="150"/>
-      <c r="IS6" s="150"/>
-      <c r="IT6" s="150"/>
-      <c r="IU6" s="150"/>
-      <c r="IV6" s="150"/>
-      <c r="IW6" s="150"/>
-      <c r="IX6" s="150"/>
-      <c r="IY6" s="150"/>
-      <c r="IZ6" s="150"/>
-      <c r="JA6" s="150"/>
-      <c r="JB6" s="150"/>
-      <c r="JC6" s="150"/>
-      <c r="JD6" s="150"/>
-      <c r="JE6" s="150"/>
-      <c r="JF6" s="150"/>
-      <c r="JG6" s="150"/>
-      <c r="JH6" s="150"/>
-      <c r="JI6" s="150"/>
-      <c r="JJ6" s="150"/>
-      <c r="JK6" s="150"/>
-      <c r="JL6" s="150"/>
-      <c r="JM6" s="150"/>
-      <c r="JN6" s="151"/>
+      <c r="IK6" s="152"/>
+      <c r="IL6" s="152"/>
+      <c r="IM6" s="152"/>
+      <c r="IN6" s="152"/>
+      <c r="IO6" s="152"/>
+      <c r="IP6" s="152"/>
+      <c r="IQ6" s="152"/>
+      <c r="IR6" s="152"/>
+      <c r="IS6" s="152"/>
+      <c r="IT6" s="152"/>
+      <c r="IU6" s="152"/>
+      <c r="IV6" s="152"/>
+      <c r="IW6" s="152"/>
+      <c r="IX6" s="152"/>
+      <c r="IY6" s="152"/>
+      <c r="IZ6" s="152"/>
+      <c r="JA6" s="152"/>
+      <c r="JB6" s="152"/>
+      <c r="JC6" s="152"/>
+      <c r="JD6" s="152"/>
+      <c r="JE6" s="152"/>
+      <c r="JF6" s="152"/>
+      <c r="JG6" s="152"/>
+      <c r="JH6" s="152"/>
+      <c r="JI6" s="152"/>
+      <c r="JJ6" s="152"/>
+      <c r="JK6" s="152"/>
+      <c r="JL6" s="152"/>
+      <c r="JM6" s="152"/>
+      <c r="JN6" s="153"/>
     </row>
-    <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:274" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="53"/>
       <c r="B7" s="56">
         <v>1</v>
@@ -3715,8 +3767,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="152" t="s">
+    <row r="8" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="154" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42"/>
@@ -4003,8 +4055,8 @@
       <c r="JM8" s="8"/>
       <c r="JN8" s="40"/>
     </row>
-    <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="152"/>
+    <row r="9" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="154"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4291,8 +4343,8 @@
       <c r="JM9" s="5"/>
       <c r="JN9" s="7"/>
     </row>
-    <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
+    <row r="10" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="154"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -4569,8 +4621,8 @@
       <c r="JM10" s="5"/>
       <c r="JN10" s="7"/>
     </row>
-    <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
+    <row r="11" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="154"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -4847,8 +4899,8 @@
       <c r="JM11" s="5"/>
       <c r="JN11" s="7"/>
     </row>
-    <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
+    <row r="12" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="154"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -5125,8 +5177,8 @@
       <c r="JM12" s="5"/>
       <c r="JN12" s="7"/>
     </row>
-    <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
+    <row r="13" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="154"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5401,8 +5453,8 @@
       <c r="JM13" s="5"/>
       <c r="JN13" s="7"/>
     </row>
-    <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
+    <row r="14" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="154"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -5677,8 +5729,8 @@
       <c r="JM14" s="14"/>
       <c r="JN14" s="18"/>
     </row>
-    <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="153" t="s">
+    <row r="15" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="155" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -5957,8 +6009,8 @@
       <c r="JM15" s="26"/>
       <c r="JN15" s="29"/>
     </row>
-    <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
+    <row r="16" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="154"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6237,8 +6289,8 @@
       <c r="JM16" s="11"/>
       <c r="JN16" s="13"/>
     </row>
-    <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
+    <row r="17" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="154"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -6514,8 +6566,8 @@
       <c r="JM17" s="2"/>
       <c r="JN17" s="4"/>
     </row>
-    <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
+    <row r="18" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="154"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -6791,8 +6843,8 @@
       <c r="JM18" s="2"/>
       <c r="JN18" s="4"/>
     </row>
-    <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
+    <row r="19" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="154"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7067,8 +7119,8 @@
       <c r="JM19" s="2"/>
       <c r="JN19" s="4"/>
     </row>
-    <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
+    <row r="20" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="154"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7343,8 +7395,8 @@
       <c r="JM20" s="2"/>
       <c r="JN20" s="4"/>
     </row>
-    <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
+    <row r="21" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="154"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -7619,8 +7671,8 @@
       <c r="JM21" s="125"/>
       <c r="JN21" s="127"/>
     </row>
-    <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
+    <row r="22" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="154"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -7895,8 +7947,8 @@
       <c r="JM22" s="23"/>
       <c r="JN22" s="25"/>
     </row>
-    <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152" t="s">
+    <row r="23" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="154" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="108"/>
@@ -8034,7 +8086,9 @@
       <c r="ED23" s="110"/>
       <c r="EE23" s="109"/>
       <c r="EF23" s="109"/>
-      <c r="EG23" s="110"/>
+      <c r="EG23" s="118" t="s">
+        <v>54</v>
+      </c>
       <c r="EH23" s="110"/>
       <c r="EI23" s="110"/>
       <c r="EJ23" s="110"/>
@@ -8175,8 +8229,8 @@
       <c r="JM23" s="26"/>
       <c r="JN23" s="29"/>
     </row>
-    <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
+    <row r="24" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="154"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8453,8 +8507,8 @@
       <c r="JM24" s="2"/>
       <c r="JN24" s="4"/>
     </row>
-    <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="152"/>
+    <row r="25" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="154"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -8731,8 +8785,8 @@
       <c r="JM25" s="2"/>
       <c r="JN25" s="4"/>
     </row>
-    <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="152"/>
+    <row r="26" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="154"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -9015,8 +9069,8 @@
       <c r="JM26" s="2"/>
       <c r="JN26" s="4"/>
     </row>
-    <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="152"/>
+    <row r="27" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="154"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9297,8 +9351,8 @@
       <c r="JM27" s="2"/>
       <c r="JN27" s="4"/>
     </row>
-    <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
+    <row r="28" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="154"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -9575,8 +9629,8 @@
       <c r="JM28" s="2"/>
       <c r="JN28" s="4"/>
     </row>
-    <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="152"/>
+    <row r="29" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="154"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -9853,8 +9907,8 @@
       <c r="JM29" s="2"/>
       <c r="JN29" s="4"/>
     </row>
-    <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="152"/>
+    <row r="30" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="154"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -10129,19 +10183,19 @@
       <c r="JM30" s="23"/>
       <c r="JN30" s="25"/>
     </row>
-    <row r="31" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="48"/>
     </row>
-    <row r="32" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="48"/>
     </row>
-    <row r="33" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="48"/>
     </row>
-    <row r="34" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="48"/>
     </row>
-    <row r="35" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="48"/>
       <c r="GA35" s="55"/>
       <c r="GB35" s="55"/>
@@ -10236,7 +10290,7 @@
       <c r="JM35" s="55"/>
       <c r="JN35" s="55"/>
     </row>
-    <row r="36" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="48"/>
       <c r="GA36" s="55"/>
       <c r="GB36" s="55"/>
@@ -10331,7 +10385,7 @@
       <c r="JM36" s="55"/>
       <c r="JN36" s="55"/>
     </row>
-    <row r="37" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="48"/>
       <c r="GA37" s="55"/>
       <c r="GB37" s="55"/>
@@ -10426,7 +10480,7 @@
       <c r="JM37" s="55"/>
       <c r="JN37" s="55"/>
     </row>
-    <row r="38" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="48"/>
       <c r="GA38" s="55"/>
       <c r="GB38" s="55"/>
@@ -10521,7 +10575,7 @@
       <c r="JM38" s="55"/>
       <c r="JN38" s="55"/>
     </row>
-    <row r="39" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="48"/>
       <c r="GA39" s="55"/>
       <c r="GB39" s="55"/>
@@ -10616,7 +10670,7 @@
       <c r="JM39" s="55"/>
       <c r="JN39" s="55"/>
     </row>
-    <row r="40" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="48"/>
       <c r="GA40" s="55"/>
       <c r="GB40" s="55"/>
@@ -10711,7 +10765,7 @@
       <c r="JM40" s="55"/>
       <c r="JN40" s="55"/>
     </row>
-    <row r="41" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="48"/>
       <c r="GA41" s="55"/>
       <c r="GB41" s="55"/>
@@ -10806,7 +10860,7 @@
       <c r="JM41" s="55"/>
       <c r="JN41" s="55"/>
     </row>
-    <row r="42" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="48"/>
       <c r="GA42" s="55"/>
       <c r="GB42" s="55"/>
@@ -10901,7 +10955,7 @@
       <c r="JM42" s="55"/>
       <c r="JN42" s="55"/>
     </row>
-    <row r="43" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="48"/>
       <c r="GA43" s="55"/>
       <c r="GB43" s="55"/>
@@ -10996,7 +11050,7 @@
       <c r="JM43" s="55"/>
       <c r="JN43" s="55"/>
     </row>
-    <row r="44" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="48"/>
       <c r="GA44" s="55"/>
       <c r="GB44" s="55"/>
@@ -11091,7 +11145,7 @@
       <c r="JM44" s="55"/>
       <c r="JN44" s="55"/>
     </row>
-    <row r="45" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="48"/>
       <c r="GA45" s="55"/>
       <c r="GB45" s="55"/>
@@ -11186,7 +11240,7 @@
       <c r="JM45" s="55"/>
       <c r="JN45" s="55"/>
     </row>
-    <row r="46" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="48"/>
       <c r="GA46" s="55"/>
       <c r="GB46" s="55"/>
@@ -11281,7 +11335,7 @@
       <c r="JM46" s="55"/>
       <c r="JN46" s="55"/>
     </row>
-    <row r="47" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="48"/>
       <c r="GA47" s="55"/>
       <c r="GB47" s="55"/>
@@ -11400,28 +11454,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.75" style="132"/>
-    <col min="3" max="3" width="4.75" style="132" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="132" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.75" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="132"/>
+    <col min="3" max="3" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.69921875" style="132" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="132" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="144" t="s">
         <v>21</v>
       </c>
@@ -11435,19 +11489,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="163">
+    <row r="4" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="165">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="164"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
       </c>
       <c r="E4" s="140"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="165">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="167">
         <v>12</v>
       </c>
       <c r="C5" s="143">
@@ -11456,36 +11510,36 @@
       <c r="D5" s="143">
         <v>4</v>
       </c>
-      <c r="E5" s="168" t="s">
+      <c r="E5" s="149" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="166"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="168"/>
       <c r="C6" s="141">
         <v>17</v>
       </c>
       <c r="D6" s="141">
         <v>4</v>
       </c>
-      <c r="E6" s="169" t="s">
+      <c r="E6" s="150" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="168"/>
       <c r="C7" s="141">
         <v>19</v>
       </c>
       <c r="D7" s="141">
         <v>8</v>
       </c>
-      <c r="E7" s="169" t="s">
+      <c r="E7" s="150" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="166"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="168"/>
       <c r="C8" s="134">
         <v>22</v>
       </c>
@@ -11496,8 +11550,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="166"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="168"/>
       <c r="C9" s="134">
         <v>23</v>
       </c>
@@ -11508,8 +11562,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="166"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="168"/>
       <c r="C10" s="134">
         <v>25</v>
       </c>
@@ -11520,8 +11574,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="166"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="168"/>
       <c r="C11" s="134">
         <v>26</v>
       </c>
@@ -11532,8 +11586,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="166"/>
+    <row r="12" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B12" s="168"/>
       <c r="C12" s="134">
         <v>29</v>
       </c>
@@ -11544,8 +11598,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="167"/>
+    <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="169"/>
       <c r="C13" s="137">
         <v>30</v>
       </c>
@@ -11556,18 +11610,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="163">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="165">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="164"/>
+      <c r="C14" s="166"/>
       <c r="D14" s="139">
         <f>SUM(D15:D22)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E14" s="142"/>
     </row>
-    <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B15" s="133">
         <v>1</v>
       </c>
@@ -11581,7 +11635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B16" s="133">
         <v>1</v>
       </c>
@@ -11595,55 +11649,79 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="133"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="129"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="133">
+        <v>1</v>
+      </c>
+      <c r="C17" s="134">
+        <v>13</v>
+      </c>
+      <c r="D17" s="135">
+        <v>3</v>
+      </c>
+      <c r="E17" s="129" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="129"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="133">
+        <v>1</v>
+      </c>
+      <c r="C18" s="134">
+        <v>15</v>
+      </c>
+      <c r="D18" s="135">
+        <v>3</v>
+      </c>
+      <c r="E18" s="129" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="133"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="129"/>
+    <row r="19" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="133">
+        <v>1</v>
+      </c>
+      <c r="C19" s="134">
+        <v>17</v>
+      </c>
+      <c r="D19" s="135">
+        <v>3</v>
+      </c>
+      <c r="E19" s="131" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="133"/>
       <c r="C20" s="134"/>
       <c r="D20" s="135"/>
       <c r="E20" s="129"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="133"/>
       <c r="C21" s="134"/>
       <c r="D21" s="135"/>
       <c r="E21" s="129"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="133"/>
       <c r="C22" s="134"/>
       <c r="D22" s="135"/>
       <c r="E22" s="129"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="133"/>
       <c r="C23" s="134"/>
       <c r="D23" s="135"/>
       <c r="E23" s="129"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="133"/>
       <c r="C24" s="134"/>
       <c r="D24" s="135"/>
       <c r="E24" s="129"/>
     </row>
-    <row r="25" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="136"/>
       <c r="C25" s="137"/>
       <c r="D25" s="138"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F0F341-6223-4524-AA19-70286664284C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -14,17 +13,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20181224'!$A$1:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="Y7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Y7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AH7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AN7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="DM7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DT7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="DT7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FC7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="FC7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,11 +349,23 @@
 Trans 추가 제작 - 2차측 1layer 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>F/W 검토 - 완충 error 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPD design review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPD review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1440,7 +1451,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1508,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1565,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1622,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1679,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1736,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1793,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1850,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1907,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1964,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2021,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2078,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2135,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2192,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2249,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2356,26 +2367,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2408,23 +2402,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2600,58 +2577,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JN47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EO19" sqref="EO19"/>
+      <selection pane="topRight" activeCell="EQ36" sqref="EQ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" style="52" customWidth="1"/>
-    <col min="2" max="10" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="31" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="32" max="40" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="41" max="62" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="63" max="71" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="72" max="92" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="93" max="101" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="102" max="123" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="124" max="132" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="133" max="154" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="155" max="163" width="2.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="164" max="182" width="3.69921875" style="55" bestFit="1" customWidth="1"/>
-    <col min="183" max="16384" width="2.59765625" style="55"/>
+    <col min="1" max="1" width="10.375" style="52" customWidth="1"/>
+    <col min="2" max="10" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="31" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="32" max="40" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="41" max="62" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="63" max="71" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="72" max="92" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="93" max="101" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="102" max="123" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="124" max="132" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="133" max="154" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="155" max="163" width="2.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="164" max="182" width="3.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="183" max="16384" width="2.625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:274" s="54" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:274" s="54" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:274" s="54" customFormat="1" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="162">
         <v>9</v>
@@ -2945,7 +2922,7 @@
       <c r="JM6" s="152"/>
       <c r="JN6" s="153"/>
     </row>
-    <row r="7" spans="1:274" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
       <c r="B7" s="56">
         <v>1</v>
@@ -3767,7 +3744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="154" t="s">
         <v>28</v>
       </c>
@@ -4055,7 +4032,7 @@
       <c r="JM8" s="8"/>
       <c r="JN8" s="40"/>
     </row>
-    <row r="9" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="154"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
@@ -4343,7 +4320,7 @@
       <c r="JM9" s="5"/>
       <c r="JN9" s="7"/>
     </row>
-    <row r="10" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
@@ -4621,7 +4598,7 @@
       <c r="JM10" s="5"/>
       <c r="JN10" s="7"/>
     </row>
-    <row r="11" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="154"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
@@ -4899,7 +4876,7 @@
       <c r="JM11" s="5"/>
       <c r="JN11" s="7"/>
     </row>
-    <row r="12" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="154"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
@@ -5177,7 +5154,7 @@
       <c r="JM12" s="5"/>
       <c r="JN12" s="7"/>
     </row>
-    <row r="13" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="154"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
@@ -5453,7 +5430,7 @@
       <c r="JM13" s="5"/>
       <c r="JN13" s="7"/>
     </row>
-    <row r="14" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="154"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
@@ -5729,7 +5706,7 @@
       <c r="JM14" s="14"/>
       <c r="JN14" s="18"/>
     </row>
-    <row r="15" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="155" t="s">
         <v>5</v>
       </c>
@@ -6009,7 +5986,7 @@
       <c r="JM15" s="26"/>
       <c r="JN15" s="29"/>
     </row>
-    <row r="16" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="154"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
@@ -6289,7 +6266,7 @@
       <c r="JM16" s="11"/>
       <c r="JN16" s="13"/>
     </row>
-    <row r="17" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="154"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
@@ -6566,7 +6543,7 @@
       <c r="JM17" s="2"/>
       <c r="JN17" s="4"/>
     </row>
-    <row r="18" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="154"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
@@ -6843,7 +6820,7 @@
       <c r="JM18" s="2"/>
       <c r="JN18" s="4"/>
     </row>
-    <row r="19" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="154"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
@@ -7119,7 +7096,7 @@
       <c r="JM19" s="2"/>
       <c r="JN19" s="4"/>
     </row>
-    <row r="20" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="154"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
@@ -7395,7 +7372,7 @@
       <c r="JM20" s="2"/>
       <c r="JN20" s="4"/>
     </row>
-    <row r="21" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="154"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
@@ -7671,7 +7648,7 @@
       <c r="JM21" s="125"/>
       <c r="JN21" s="127"/>
     </row>
-    <row r="22" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="154"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
@@ -7947,7 +7924,7 @@
       <c r="JM22" s="23"/>
       <c r="JN22" s="25"/>
     </row>
-    <row r="23" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="154" t="s">
         <v>29</v>
       </c>
@@ -8229,7 +8206,7 @@
       <c r="JM23" s="26"/>
       <c r="JN23" s="29"/>
     </row>
-    <row r="24" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="154"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
@@ -8507,7 +8484,7 @@
       <c r="JM24" s="2"/>
       <c r="JN24" s="4"/>
     </row>
-    <row r="25" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="154"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
@@ -8785,7 +8762,7 @@
       <c r="JM25" s="2"/>
       <c r="JN25" s="4"/>
     </row>
-    <row r="26" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="154"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -9069,7 +9046,7 @@
       <c r="JM26" s="2"/>
       <c r="JN26" s="4"/>
     </row>
-    <row r="27" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="154"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
@@ -9351,7 +9328,7 @@
       <c r="JM27" s="2"/>
       <c r="JN27" s="4"/>
     </row>
-    <row r="28" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="154"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
@@ -9629,7 +9606,7 @@
       <c r="JM28" s="2"/>
       <c r="JN28" s="4"/>
     </row>
-    <row r="29" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="154"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
@@ -9907,7 +9884,7 @@
       <c r="JM29" s="2"/>
       <c r="JN29" s="4"/>
     </row>
-    <row r="30" spans="1:274" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="154"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
@@ -10183,19 +10160,19 @@
       <c r="JM30" s="23"/>
       <c r="JN30" s="25"/>
     </row>
-    <row r="31" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
     </row>
-    <row r="32" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
     </row>
-    <row r="33" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
     </row>
-    <row r="34" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
     </row>
-    <row r="35" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="GA35" s="55"/>
       <c r="GB35" s="55"/>
@@ -10290,7 +10267,7 @@
       <c r="JM35" s="55"/>
       <c r="JN35" s="55"/>
     </row>
-    <row r="36" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="GA36" s="55"/>
       <c r="GB36" s="55"/>
@@ -10385,7 +10362,7 @@
       <c r="JM36" s="55"/>
       <c r="JN36" s="55"/>
     </row>
-    <row r="37" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
       <c r="GA37" s="55"/>
       <c r="GB37" s="55"/>
@@ -10480,7 +10457,7 @@
       <c r="JM37" s="55"/>
       <c r="JN37" s="55"/>
     </row>
-    <row r="38" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="48"/>
       <c r="GA38" s="55"/>
       <c r="GB38" s="55"/>
@@ -10575,7 +10552,7 @@
       <c r="JM38" s="55"/>
       <c r="JN38" s="55"/>
     </row>
-    <row r="39" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="48"/>
       <c r="GA39" s="55"/>
       <c r="GB39" s="55"/>
@@ -10670,7 +10647,7 @@
       <c r="JM39" s="55"/>
       <c r="JN39" s="55"/>
     </row>
-    <row r="40" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="48"/>
       <c r="GA40" s="55"/>
       <c r="GB40" s="55"/>
@@ -10765,7 +10742,7 @@
       <c r="JM40" s="55"/>
       <c r="JN40" s="55"/>
     </row>
-    <row r="41" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48"/>
       <c r="GA41" s="55"/>
       <c r="GB41" s="55"/>
@@ -10860,7 +10837,7 @@
       <c r="JM41" s="55"/>
       <c r="JN41" s="55"/>
     </row>
-    <row r="42" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="48"/>
       <c r="GA42" s="55"/>
       <c r="GB42" s="55"/>
@@ -10955,7 +10932,7 @@
       <c r="JM42" s="55"/>
       <c r="JN42" s="55"/>
     </row>
-    <row r="43" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="48"/>
       <c r="GA43" s="55"/>
       <c r="GB43" s="55"/>
@@ -11050,7 +11027,7 @@
       <c r="JM43" s="55"/>
       <c r="JN43" s="55"/>
     </row>
-    <row r="44" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="48"/>
       <c r="GA44" s="55"/>
       <c r="GB44" s="55"/>
@@ -11145,7 +11122,7 @@
       <c r="JM44" s="55"/>
       <c r="JN44" s="55"/>
     </row>
-    <row r="45" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="48"/>
       <c r="GA45" s="55"/>
       <c r="GB45" s="55"/>
@@ -11240,7 +11217,7 @@
       <c r="JM45" s="55"/>
       <c r="JN45" s="55"/>
     </row>
-    <row r="46" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="48"/>
       <c r="GA46" s="55"/>
       <c r="GB46" s="55"/>
@@ -11335,7 +11312,7 @@
       <c r="JM46" s="55"/>
       <c r="JN46" s="55"/>
     </row>
-    <row r="47" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="48"/>
       <c r="GA47" s="55"/>
       <c r="GB47" s="55"/>
@@ -11454,28 +11431,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.69921875" style="132"/>
-    <col min="3" max="3" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="132"/>
+    <col min="3" max="3" width="4.75" style="132" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="132" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="132" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="144" t="s">
         <v>21</v>
       </c>
@@ -11489,7 +11466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="165">
         <v>2018.12</v>
       </c>
@@ -11500,7 +11477,7 @@
       </c>
       <c r="E4" s="140"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="167">
         <v>12</v>
       </c>
@@ -11514,7 +11491,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="168"/>
       <c r="C6" s="141">
         <v>17</v>
@@ -11526,7 +11503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="168"/>
       <c r="C7" s="141">
         <v>19</v>
@@ -11538,7 +11515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="168"/>
       <c r="C8" s="134">
         <v>22</v>
@@ -11550,7 +11527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="168"/>
       <c r="C9" s="134">
         <v>23</v>
@@ -11562,7 +11539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="168"/>
       <c r="C10" s="134">
         <v>25</v>
@@ -11574,7 +11551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="168"/>
       <c r="C11" s="134">
         <v>26</v>
@@ -11586,7 +11563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="168"/>
       <c r="C12" s="134">
         <v>29</v>
@@ -11598,7 +11575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="169"/>
       <c r="C13" s="137">
         <v>30</v>
@@ -11610,18 +11587,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="165">
         <v>2019.01</v>
       </c>
       <c r="C14" s="166"/>
       <c r="D14" s="139">
-        <f>SUM(D15:D22)</f>
-        <v>20</v>
+        <f>SUM(D15:D23)</f>
+        <v>34</v>
       </c>
       <c r="E14" s="142"/>
     </row>
-    <row r="15" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="133">
         <v>1</v>
       </c>
@@ -11635,7 +11612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="133">
         <v>1</v>
       </c>
@@ -11649,7 +11626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="133">
         <v>1</v>
       </c>
@@ -11663,7 +11640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="133">
         <v>1</v>
       </c>
@@ -11677,7 +11654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="133">
         <v>1</v>
       </c>
@@ -11691,50 +11668,120 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="133"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="129"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="133">
+        <v>1</v>
+      </c>
+      <c r="C20" s="134">
+        <v>18</v>
+      </c>
+      <c r="D20" s="135">
+        <v>4</v>
+      </c>
+      <c r="E20" s="129" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="133"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="129"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="133">
+        <v>1</v>
+      </c>
+      <c r="C21" s="134">
+        <v>21</v>
+      </c>
+      <c r="D21" s="135">
+        <v>4</v>
+      </c>
+      <c r="E21" s="129" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="133"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="129"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="133">
+        <v>1</v>
+      </c>
+      <c r="C22" s="134">
+        <v>22</v>
+      </c>
+      <c r="D22" s="135">
+        <v>4</v>
+      </c>
+      <c r="E22" s="129" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="133"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="129"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="133">
+        <v>1</v>
+      </c>
+      <c r="C23" s="134">
+        <v>28</v>
+      </c>
+      <c r="D23" s="135">
+        <v>2</v>
+      </c>
+      <c r="E23" s="129" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="129"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="165">
+        <v>2019.01</v>
+      </c>
+      <c r="C24" s="166"/>
+      <c r="D24" s="139">
+        <f>SUM(D25:D35)</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="142"/>
     </row>
-    <row r="25" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="136"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="130"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="133">
+        <v>2</v>
+      </c>
+      <c r="C25" s="134">
+        <v>8</v>
+      </c>
+      <c r="D25" s="135">
+        <v>3</v>
+      </c>
+      <c r="E25" s="142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="142"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="142"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="129"/>
+    </row>
+    <row r="29" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="136"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B5:B13"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,12 +361,28 @@
     <t>MPD review</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>◇ Femto Meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto meeting - Battery 동작 설명/ MPD cable 제작 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Generator SCH review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Generator Sch &amp; PCB 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +486,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -503,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1127,11 +1158,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1351,6 +1404,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1399,6 +1459,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,6 +1474,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1416,8 +1484,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1451,7 +1519,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1576,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1633,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1649,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="0000FF"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
@@ -1622,7 +1690,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1706,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="0000FF"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
@@ -1679,7 +1747,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1804,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1861,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1918,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1975,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1991,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="0000FF"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
@@ -1964,7 +2032,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2089,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,7 +2146,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2203,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2260,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2317,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,6 +2327,120 @@
         <a:xfrm>
           <a:off x="52055485" y="4498326"/>
           <a:ext cx="1894115" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>168</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>173</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45368135" y="2372411"/>
+          <a:ext cx="1360395" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>172</xdr:col>
+      <xdr:colOff>259977</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>178</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95374</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46641124" y="2571874"/>
+          <a:ext cx="1645024" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2580,9 +2762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JN47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EQ36" sqref="EQ36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FG35" sqref="FG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2630,297 +2812,297 @@
     </row>
     <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="162">
+      <c r="B6" s="167">
         <v>9</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="159">
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="168"/>
+      <c r="AB6" s="168"/>
+      <c r="AC6" s="168"/>
+      <c r="AD6" s="168"/>
+      <c r="AE6" s="169"/>
+      <c r="AF6" s="164">
         <v>10</v>
       </c>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
-      <c r="AK6" s="159"/>
-      <c r="AL6" s="159"/>
-      <c r="AM6" s="159"/>
-      <c r="AN6" s="159"/>
-      <c r="AO6" s="159"/>
-      <c r="AP6" s="159"/>
-      <c r="AQ6" s="159"/>
-      <c r="AR6" s="159"/>
-      <c r="AS6" s="159"/>
-      <c r="AT6" s="159"/>
-      <c r="AU6" s="159"/>
-      <c r="AV6" s="159"/>
-      <c r="AW6" s="159"/>
-      <c r="AX6" s="159"/>
-      <c r="AY6" s="159"/>
-      <c r="AZ6" s="159"/>
-      <c r="BA6" s="159"/>
-      <c r="BB6" s="159"/>
-      <c r="BC6" s="159"/>
-      <c r="BD6" s="159"/>
-      <c r="BE6" s="159"/>
-      <c r="BF6" s="159"/>
-      <c r="BG6" s="159"/>
-      <c r="BH6" s="159"/>
-      <c r="BI6" s="159"/>
-      <c r="BJ6" s="160"/>
-      <c r="BK6" s="162">
+      <c r="AG6" s="164"/>
+      <c r="AH6" s="164"/>
+      <c r="AI6" s="164"/>
+      <c r="AJ6" s="164"/>
+      <c r="AK6" s="164"/>
+      <c r="AL6" s="164"/>
+      <c r="AM6" s="164"/>
+      <c r="AN6" s="164"/>
+      <c r="AO6" s="164"/>
+      <c r="AP6" s="164"/>
+      <c r="AQ6" s="164"/>
+      <c r="AR6" s="164"/>
+      <c r="AS6" s="164"/>
+      <c r="AT6" s="164"/>
+      <c r="AU6" s="164"/>
+      <c r="AV6" s="164"/>
+      <c r="AW6" s="164"/>
+      <c r="AX6" s="164"/>
+      <c r="AY6" s="164"/>
+      <c r="AZ6" s="164"/>
+      <c r="BA6" s="164"/>
+      <c r="BB6" s="164"/>
+      <c r="BC6" s="164"/>
+      <c r="BD6" s="164"/>
+      <c r="BE6" s="164"/>
+      <c r="BF6" s="164"/>
+      <c r="BG6" s="164"/>
+      <c r="BH6" s="164"/>
+      <c r="BI6" s="164"/>
+      <c r="BJ6" s="165"/>
+      <c r="BK6" s="167">
         <v>11</v>
       </c>
-      <c r="BL6" s="163"/>
-      <c r="BM6" s="163"/>
-      <c r="BN6" s="163"/>
-      <c r="BO6" s="163"/>
-      <c r="BP6" s="163"/>
-      <c r="BQ6" s="163"/>
-      <c r="BR6" s="163"/>
-      <c r="BS6" s="163"/>
-      <c r="BT6" s="163"/>
-      <c r="BU6" s="163"/>
-      <c r="BV6" s="163"/>
-      <c r="BW6" s="163"/>
-      <c r="BX6" s="163"/>
-      <c r="BY6" s="163"/>
-      <c r="BZ6" s="163"/>
-      <c r="CA6" s="163"/>
-      <c r="CB6" s="163"/>
-      <c r="CC6" s="163"/>
-      <c r="CD6" s="163"/>
-      <c r="CE6" s="163"/>
-      <c r="CF6" s="163"/>
-      <c r="CG6" s="163"/>
-      <c r="CH6" s="163"/>
-      <c r="CI6" s="163"/>
-      <c r="CJ6" s="163"/>
-      <c r="CK6" s="163"/>
-      <c r="CL6" s="163"/>
-      <c r="CM6" s="163"/>
-      <c r="CN6" s="164"/>
-      <c r="CO6" s="159">
+      <c r="BL6" s="168"/>
+      <c r="BM6" s="168"/>
+      <c r="BN6" s="168"/>
+      <c r="BO6" s="168"/>
+      <c r="BP6" s="168"/>
+      <c r="BQ6" s="168"/>
+      <c r="BR6" s="168"/>
+      <c r="BS6" s="168"/>
+      <c r="BT6" s="168"/>
+      <c r="BU6" s="168"/>
+      <c r="BV6" s="168"/>
+      <c r="BW6" s="168"/>
+      <c r="BX6" s="168"/>
+      <c r="BY6" s="168"/>
+      <c r="BZ6" s="168"/>
+      <c r="CA6" s="168"/>
+      <c r="CB6" s="168"/>
+      <c r="CC6" s="168"/>
+      <c r="CD6" s="168"/>
+      <c r="CE6" s="168"/>
+      <c r="CF6" s="168"/>
+      <c r="CG6" s="168"/>
+      <c r="CH6" s="168"/>
+      <c r="CI6" s="168"/>
+      <c r="CJ6" s="168"/>
+      <c r="CK6" s="168"/>
+      <c r="CL6" s="168"/>
+      <c r="CM6" s="168"/>
+      <c r="CN6" s="169"/>
+      <c r="CO6" s="164">
         <v>12</v>
       </c>
-      <c r="CP6" s="159"/>
-      <c r="CQ6" s="159"/>
-      <c r="CR6" s="159"/>
-      <c r="CS6" s="159"/>
-      <c r="CT6" s="159"/>
-      <c r="CU6" s="159"/>
-      <c r="CV6" s="159"/>
-      <c r="CW6" s="159"/>
-      <c r="CX6" s="159"/>
-      <c r="CY6" s="159"/>
-      <c r="CZ6" s="159"/>
-      <c r="DA6" s="159"/>
-      <c r="DB6" s="159"/>
-      <c r="DC6" s="159"/>
-      <c r="DD6" s="159"/>
-      <c r="DE6" s="159"/>
-      <c r="DF6" s="159"/>
-      <c r="DG6" s="159"/>
-      <c r="DH6" s="159"/>
-      <c r="DI6" s="159"/>
-      <c r="DJ6" s="159"/>
-      <c r="DK6" s="159"/>
-      <c r="DL6" s="159"/>
-      <c r="DM6" s="159"/>
-      <c r="DN6" s="159"/>
-      <c r="DO6" s="159"/>
-      <c r="DP6" s="159"/>
-      <c r="DQ6" s="159"/>
-      <c r="DR6" s="159"/>
-      <c r="DS6" s="160"/>
-      <c r="DT6" s="159">
+      <c r="CP6" s="164"/>
+      <c r="CQ6" s="164"/>
+      <c r="CR6" s="164"/>
+      <c r="CS6" s="164"/>
+      <c r="CT6" s="164"/>
+      <c r="CU6" s="164"/>
+      <c r="CV6" s="164"/>
+      <c r="CW6" s="164"/>
+      <c r="CX6" s="164"/>
+      <c r="CY6" s="164"/>
+      <c r="CZ6" s="164"/>
+      <c r="DA6" s="164"/>
+      <c r="DB6" s="164"/>
+      <c r="DC6" s="164"/>
+      <c r="DD6" s="164"/>
+      <c r="DE6" s="164"/>
+      <c r="DF6" s="164"/>
+      <c r="DG6" s="164"/>
+      <c r="DH6" s="164"/>
+      <c r="DI6" s="164"/>
+      <c r="DJ6" s="164"/>
+      <c r="DK6" s="164"/>
+      <c r="DL6" s="164"/>
+      <c r="DM6" s="164"/>
+      <c r="DN6" s="164"/>
+      <c r="DO6" s="164"/>
+      <c r="DP6" s="164"/>
+      <c r="DQ6" s="164"/>
+      <c r="DR6" s="164"/>
+      <c r="DS6" s="165"/>
+      <c r="DT6" s="164">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="159"/>
-      <c r="DV6" s="159"/>
-      <c r="DW6" s="159"/>
-      <c r="DX6" s="159"/>
-      <c r="DY6" s="159"/>
-      <c r="DZ6" s="159"/>
-      <c r="EA6" s="159"/>
-      <c r="EB6" s="159"/>
-      <c r="EC6" s="159"/>
-      <c r="ED6" s="159"/>
-      <c r="EE6" s="159"/>
-      <c r="EF6" s="159"/>
-      <c r="EG6" s="159"/>
-      <c r="EH6" s="159"/>
-      <c r="EI6" s="159"/>
-      <c r="EJ6" s="159"/>
-      <c r="EK6" s="159"/>
-      <c r="EL6" s="159"/>
-      <c r="EM6" s="159"/>
-      <c r="EN6" s="159"/>
-      <c r="EO6" s="159"/>
-      <c r="EP6" s="159"/>
-      <c r="EQ6" s="159"/>
-      <c r="ER6" s="159"/>
-      <c r="ES6" s="159"/>
-      <c r="ET6" s="159"/>
-      <c r="EU6" s="159"/>
-      <c r="EV6" s="159"/>
-      <c r="EW6" s="159"/>
-      <c r="EX6" s="160"/>
-      <c r="EY6" s="161">
+      <c r="DU6" s="164"/>
+      <c r="DV6" s="164"/>
+      <c r="DW6" s="164"/>
+      <c r="DX6" s="164"/>
+      <c r="DY6" s="164"/>
+      <c r="DZ6" s="164"/>
+      <c r="EA6" s="164"/>
+      <c r="EB6" s="164"/>
+      <c r="EC6" s="164"/>
+      <c r="ED6" s="164"/>
+      <c r="EE6" s="164"/>
+      <c r="EF6" s="164"/>
+      <c r="EG6" s="164"/>
+      <c r="EH6" s="164"/>
+      <c r="EI6" s="164"/>
+      <c r="EJ6" s="164"/>
+      <c r="EK6" s="164"/>
+      <c r="EL6" s="164"/>
+      <c r="EM6" s="164"/>
+      <c r="EN6" s="164"/>
+      <c r="EO6" s="164"/>
+      <c r="EP6" s="164"/>
+      <c r="EQ6" s="164"/>
+      <c r="ER6" s="164"/>
+      <c r="ES6" s="164"/>
+      <c r="ET6" s="164"/>
+      <c r="EU6" s="164"/>
+      <c r="EV6" s="164"/>
+      <c r="EW6" s="164"/>
+      <c r="EX6" s="165"/>
+      <c r="EY6" s="166">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="159"/>
-      <c r="FA6" s="159"/>
-      <c r="FB6" s="159"/>
-      <c r="FC6" s="159"/>
-      <c r="FD6" s="159"/>
-      <c r="FE6" s="159"/>
-      <c r="FF6" s="159"/>
-      <c r="FG6" s="159"/>
-      <c r="FH6" s="159"/>
-      <c r="FI6" s="159"/>
-      <c r="FJ6" s="159"/>
-      <c r="FK6" s="159"/>
-      <c r="FL6" s="159"/>
-      <c r="FM6" s="159"/>
-      <c r="FN6" s="159"/>
-      <c r="FO6" s="159"/>
-      <c r="FP6" s="159"/>
-      <c r="FQ6" s="159"/>
-      <c r="FR6" s="159"/>
-      <c r="FS6" s="159"/>
-      <c r="FT6" s="159"/>
-      <c r="FU6" s="159"/>
-      <c r="FV6" s="159"/>
-      <c r="FW6" s="159"/>
-      <c r="FX6" s="159"/>
-      <c r="FY6" s="159"/>
-      <c r="FZ6" s="160"/>
-      <c r="GA6" s="152">
+      <c r="EZ6" s="164"/>
+      <c r="FA6" s="164"/>
+      <c r="FB6" s="164"/>
+      <c r="FC6" s="164"/>
+      <c r="FD6" s="164"/>
+      <c r="FE6" s="164"/>
+      <c r="FF6" s="164"/>
+      <c r="FG6" s="164"/>
+      <c r="FH6" s="164"/>
+      <c r="FI6" s="164"/>
+      <c r="FJ6" s="164"/>
+      <c r="FK6" s="164"/>
+      <c r="FL6" s="164"/>
+      <c r="FM6" s="164"/>
+      <c r="FN6" s="164"/>
+      <c r="FO6" s="164"/>
+      <c r="FP6" s="164"/>
+      <c r="FQ6" s="164"/>
+      <c r="FR6" s="164"/>
+      <c r="FS6" s="164"/>
+      <c r="FT6" s="164"/>
+      <c r="FU6" s="164"/>
+      <c r="FV6" s="164"/>
+      <c r="FW6" s="164"/>
+      <c r="FX6" s="164"/>
+      <c r="FY6" s="164"/>
+      <c r="FZ6" s="165"/>
+      <c r="GA6" s="157">
         <v>3</v>
       </c>
-      <c r="GB6" s="152"/>
-      <c r="GC6" s="152"/>
-      <c r="GD6" s="152"/>
-      <c r="GE6" s="152"/>
-      <c r="GF6" s="152"/>
-      <c r="GG6" s="152"/>
-      <c r="GH6" s="152"/>
-      <c r="GI6" s="152"/>
-      <c r="GJ6" s="152"/>
-      <c r="GK6" s="152"/>
-      <c r="GL6" s="152"/>
-      <c r="GM6" s="152"/>
-      <c r="GN6" s="152"/>
-      <c r="GO6" s="152"/>
-      <c r="GP6" s="152"/>
-      <c r="GQ6" s="152"/>
-      <c r="GR6" s="152"/>
-      <c r="GS6" s="152"/>
-      <c r="GT6" s="152"/>
-      <c r="GU6" s="152"/>
-      <c r="GV6" s="152"/>
-      <c r="GW6" s="152"/>
-      <c r="GX6" s="152"/>
-      <c r="GY6" s="152"/>
-      <c r="GZ6" s="152"/>
-      <c r="HA6" s="152"/>
-      <c r="HB6" s="152"/>
-      <c r="HC6" s="152"/>
-      <c r="HD6" s="152"/>
-      <c r="HE6" s="152"/>
-      <c r="HF6" s="156">
+      <c r="GB6" s="157"/>
+      <c r="GC6" s="157"/>
+      <c r="GD6" s="157"/>
+      <c r="GE6" s="157"/>
+      <c r="GF6" s="157"/>
+      <c r="GG6" s="157"/>
+      <c r="GH6" s="157"/>
+      <c r="GI6" s="157"/>
+      <c r="GJ6" s="157"/>
+      <c r="GK6" s="157"/>
+      <c r="GL6" s="157"/>
+      <c r="GM6" s="157"/>
+      <c r="GN6" s="157"/>
+      <c r="GO6" s="157"/>
+      <c r="GP6" s="157"/>
+      <c r="GQ6" s="157"/>
+      <c r="GR6" s="157"/>
+      <c r="GS6" s="157"/>
+      <c r="GT6" s="157"/>
+      <c r="GU6" s="157"/>
+      <c r="GV6" s="157"/>
+      <c r="GW6" s="157"/>
+      <c r="GX6" s="157"/>
+      <c r="GY6" s="157"/>
+      <c r="GZ6" s="157"/>
+      <c r="HA6" s="157"/>
+      <c r="HB6" s="157"/>
+      <c r="HC6" s="157"/>
+      <c r="HD6" s="157"/>
+      <c r="HE6" s="157"/>
+      <c r="HF6" s="161">
         <v>4</v>
       </c>
-      <c r="HG6" s="157"/>
-      <c r="HH6" s="157"/>
-      <c r="HI6" s="157"/>
-      <c r="HJ6" s="157"/>
-      <c r="HK6" s="157"/>
-      <c r="HL6" s="157"/>
-      <c r="HM6" s="157"/>
-      <c r="HN6" s="157"/>
-      <c r="HO6" s="157"/>
-      <c r="HP6" s="157"/>
-      <c r="HQ6" s="157"/>
-      <c r="HR6" s="157"/>
-      <c r="HS6" s="157"/>
-      <c r="HT6" s="157"/>
-      <c r="HU6" s="157"/>
-      <c r="HV6" s="157"/>
-      <c r="HW6" s="157"/>
-      <c r="HX6" s="157"/>
-      <c r="HY6" s="157"/>
-      <c r="HZ6" s="157"/>
-      <c r="IA6" s="157"/>
-      <c r="IB6" s="157"/>
-      <c r="IC6" s="157"/>
-      <c r="ID6" s="157"/>
-      <c r="IE6" s="157"/>
-      <c r="IF6" s="157"/>
-      <c r="IG6" s="157"/>
-      <c r="IH6" s="157"/>
-      <c r="II6" s="158"/>
-      <c r="IJ6" s="151">
+      <c r="HG6" s="162"/>
+      <c r="HH6" s="162"/>
+      <c r="HI6" s="162"/>
+      <c r="HJ6" s="162"/>
+      <c r="HK6" s="162"/>
+      <c r="HL6" s="162"/>
+      <c r="HM6" s="162"/>
+      <c r="HN6" s="162"/>
+      <c r="HO6" s="162"/>
+      <c r="HP6" s="162"/>
+      <c r="HQ6" s="162"/>
+      <c r="HR6" s="162"/>
+      <c r="HS6" s="162"/>
+      <c r="HT6" s="162"/>
+      <c r="HU6" s="162"/>
+      <c r="HV6" s="162"/>
+      <c r="HW6" s="162"/>
+      <c r="HX6" s="162"/>
+      <c r="HY6" s="162"/>
+      <c r="HZ6" s="162"/>
+      <c r="IA6" s="162"/>
+      <c r="IB6" s="162"/>
+      <c r="IC6" s="162"/>
+      <c r="ID6" s="162"/>
+      <c r="IE6" s="162"/>
+      <c r="IF6" s="162"/>
+      <c r="IG6" s="162"/>
+      <c r="IH6" s="162"/>
+      <c r="II6" s="163"/>
+      <c r="IJ6" s="156">
         <v>5</v>
       </c>
-      <c r="IK6" s="152"/>
-      <c r="IL6" s="152"/>
-      <c r="IM6" s="152"/>
-      <c r="IN6" s="152"/>
-      <c r="IO6" s="152"/>
-      <c r="IP6" s="152"/>
-      <c r="IQ6" s="152"/>
-      <c r="IR6" s="152"/>
-      <c r="IS6" s="152"/>
-      <c r="IT6" s="152"/>
-      <c r="IU6" s="152"/>
-      <c r="IV6" s="152"/>
-      <c r="IW6" s="152"/>
-      <c r="IX6" s="152"/>
-      <c r="IY6" s="152"/>
-      <c r="IZ6" s="152"/>
-      <c r="JA6" s="152"/>
-      <c r="JB6" s="152"/>
-      <c r="JC6" s="152"/>
-      <c r="JD6" s="152"/>
-      <c r="JE6" s="152"/>
-      <c r="JF6" s="152"/>
-      <c r="JG6" s="152"/>
-      <c r="JH6" s="152"/>
-      <c r="JI6" s="152"/>
-      <c r="JJ6" s="152"/>
-      <c r="JK6" s="152"/>
-      <c r="JL6" s="152"/>
-      <c r="JM6" s="152"/>
-      <c r="JN6" s="153"/>
+      <c r="IK6" s="157"/>
+      <c r="IL6" s="157"/>
+      <c r="IM6" s="157"/>
+      <c r="IN6" s="157"/>
+      <c r="IO6" s="157"/>
+      <c r="IP6" s="157"/>
+      <c r="IQ6" s="157"/>
+      <c r="IR6" s="157"/>
+      <c r="IS6" s="157"/>
+      <c r="IT6" s="157"/>
+      <c r="IU6" s="157"/>
+      <c r="IV6" s="157"/>
+      <c r="IW6" s="157"/>
+      <c r="IX6" s="157"/>
+      <c r="IY6" s="157"/>
+      <c r="IZ6" s="157"/>
+      <c r="JA6" s="157"/>
+      <c r="JB6" s="157"/>
+      <c r="JC6" s="157"/>
+      <c r="JD6" s="157"/>
+      <c r="JE6" s="157"/>
+      <c r="JF6" s="157"/>
+      <c r="JG6" s="157"/>
+      <c r="JH6" s="157"/>
+      <c r="JI6" s="157"/>
+      <c r="JJ6" s="157"/>
+      <c r="JK6" s="157"/>
+      <c r="JL6" s="157"/>
+      <c r="JM6" s="157"/>
+      <c r="JN6" s="158"/>
     </row>
     <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
@@ -3745,7 +3927,7 @@
       </c>
     </row>
     <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="159" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42"/>
@@ -3896,7 +4078,7 @@
       <c r="EK8" s="9"/>
       <c r="EL8" s="42"/>
       <c r="EM8" s="42"/>
-      <c r="EN8" s="118" t="s">
+      <c r="EN8" s="151" t="s">
         <v>15</v>
       </c>
       <c r="EO8" s="9"/>
@@ -4033,7 +4215,7 @@
       <c r="JN8" s="40"/>
     </row>
     <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4203,7 +4385,7 @@
       <c r="FF9" s="75"/>
       <c r="FG9" s="74"/>
       <c r="FH9" s="74"/>
-      <c r="FI9" s="75" t="s">
+      <c r="FI9" s="152" t="s">
         <v>19</v>
       </c>
       <c r="FJ9" s="75"/>
@@ -4321,7 +4503,7 @@
       <c r="JN9" s="7"/>
     </row>
     <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -4488,7 +4670,9 @@
       <c r="FG10" s="74"/>
       <c r="FH10" s="74"/>
       <c r="FI10" s="75"/>
-      <c r="FJ10" s="75"/>
+      <c r="FJ10" s="153" t="s">
+        <v>59</v>
+      </c>
       <c r="FK10" s="75"/>
       <c r="FL10" s="75"/>
       <c r="FM10" s="75"/>
@@ -4599,7 +4783,7 @@
       <c r="JN10" s="7"/>
     </row>
     <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="154"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -4877,7 +5061,7 @@
       <c r="JN11" s="7"/>
     </row>
     <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -5155,7 +5339,7 @@
       <c r="JN12" s="7"/>
     </row>
     <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5431,7 +5615,7 @@
       <c r="JN13" s="7"/>
     </row>
     <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -5707,7 +5891,7 @@
       <c r="JN14" s="18"/>
     </row>
     <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="160" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -5987,7 +6171,7 @@
       <c r="JN15" s="29"/>
     </row>
     <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="154"/>
+      <c r="A16" s="159"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6120,7 +6304,7 @@
       <c r="EA16" s="97"/>
       <c r="EB16" s="97"/>
       <c r="EC16" s="97"/>
-      <c r="ED16" s="100" t="s">
+      <c r="ED16" s="177" t="s">
         <v>6</v>
       </c>
       <c r="EE16" s="96"/>
@@ -6132,7 +6316,7 @@
       <c r="EK16" s="97"/>
       <c r="EL16" s="96"/>
       <c r="EM16" s="96"/>
-      <c r="EN16" s="97" t="s">
+      <c r="EN16" s="178" t="s">
         <v>11</v>
       </c>
       <c r="EO16" s="97"/>
@@ -6157,14 +6341,18 @@
       <c r="FH16" s="96"/>
       <c r="FI16" s="97"/>
       <c r="FJ16" s="97"/>
-      <c r="FK16" s="97"/>
+      <c r="FK16" s="100" t="s">
+        <v>6</v>
+      </c>
       <c r="FL16" s="97"/>
       <c r="FM16" s="97"/>
       <c r="FN16" s="96"/>
       <c r="FO16" s="96"/>
       <c r="FP16" s="97"/>
       <c r="FQ16" s="97"/>
-      <c r="FR16" s="97"/>
+      <c r="FR16" s="97" t="s">
+        <v>11</v>
+      </c>
       <c r="FS16" s="97"/>
       <c r="FT16" s="97"/>
       <c r="FU16" s="96"/>
@@ -6267,7 +6455,7 @@
       <c r="JN16" s="13"/>
     </row>
     <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="154"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -6399,7 +6587,7 @@
       <c r="EA17" s="97"/>
       <c r="EB17" s="97"/>
       <c r="EC17" s="97"/>
-      <c r="ED17" s="100" t="s">
+      <c r="ED17" s="177" t="s">
         <v>10</v>
       </c>
       <c r="EE17" s="96"/>
@@ -6436,7 +6624,9 @@
       <c r="FJ17" s="97"/>
       <c r="FK17" s="97"/>
       <c r="FL17" s="97"/>
-      <c r="FM17" s="97"/>
+      <c r="FM17" s="100" t="s">
+        <v>10</v>
+      </c>
       <c r="FN17" s="96"/>
       <c r="FO17" s="96"/>
       <c r="FP17" s="97"/>
@@ -6544,7 +6734,7 @@
       <c r="JN17" s="4"/>
     </row>
     <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -6821,7 +7011,7 @@
       <c r="JN18" s="4"/>
     </row>
     <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="154"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7097,7 +7287,7 @@
       <c r="JN19" s="4"/>
     </row>
     <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="154"/>
+      <c r="A20" s="159"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7373,7 +7563,7 @@
       <c r="JN20" s="4"/>
     </row>
     <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="154"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -7649,7 +7839,7 @@
       <c r="JN21" s="127"/>
     </row>
     <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="154"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -7925,7 +8115,7 @@
       <c r="JN22" s="25"/>
     </row>
     <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="159" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="108"/>
@@ -8207,7 +8397,7 @@
       <c r="JN23" s="29"/>
     </row>
     <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="154"/>
+      <c r="A24" s="159"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8485,7 +8675,7 @@
       <c r="JN24" s="4"/>
     </row>
     <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="154"/>
+      <c r="A25" s="159"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -8763,7 +8953,7 @@
       <c r="JN25" s="4"/>
     </row>
     <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="154"/>
+      <c r="A26" s="159"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -9047,7 +9237,7 @@
       <c r="JN26" s="4"/>
     </row>
     <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="154"/>
+      <c r="A27" s="159"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9329,7 +9519,7 @@
       <c r="JN27" s="4"/>
     </row>
     <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="154"/>
+      <c r="A28" s="159"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -9607,7 +9797,7 @@
       <c r="JN28" s="4"/>
     </row>
     <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="154"/>
+      <c r="A29" s="159"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -9885,7 +10075,7 @@
       <c r="JN29" s="4"/>
     </row>
     <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="154"/>
+      <c r="A30" s="159"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -11432,11 +11622,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11467,10 +11657,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="165">
+      <c r="B4" s="170">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -11478,7 +11668,7 @@
       <c r="E4" s="140"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="167">
+      <c r="B5" s="174">
         <v>12</v>
       </c>
       <c r="C5" s="143">
@@ -11492,7 +11682,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="168"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="141">
         <v>17</v>
       </c>
@@ -11504,7 +11694,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="168"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="141">
         <v>19</v>
       </c>
@@ -11516,7 +11706,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="168"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="134">
         <v>22</v>
       </c>
@@ -11528,7 +11718,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="168"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="134">
         <v>23</v>
       </c>
@@ -11540,7 +11730,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="168"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="134">
         <v>25</v>
       </c>
@@ -11552,7 +11742,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="134">
         <v>26</v>
       </c>
@@ -11564,7 +11754,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="134">
         <v>29</v>
       </c>
@@ -11576,7 +11766,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="169"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="137">
         <v>30</v>
       </c>
@@ -11588,15 +11778,15 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="165">
+      <c r="B14" s="172">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="166"/>
-      <c r="D14" s="139">
+      <c r="C14" s="173"/>
+      <c r="D14" s="154">
         <f>SUM(D15:D23)</f>
         <v>34</v>
       </c>
-      <c r="E14" s="142"/>
+      <c r="E14" s="155"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="133">
@@ -11710,28 +11900,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="133">
+    <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="136">
         <v>1</v>
       </c>
-      <c r="C23" s="134">
+      <c r="C23" s="137">
         <v>28</v>
       </c>
-      <c r="D23" s="135">
+      <c r="D23" s="138">
         <v>2</v>
       </c>
-      <c r="E23" s="129" t="s">
+      <c r="E23" s="130" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="165">
+      <c r="B24" s="170">
         <v>2019.01</v>
       </c>
-      <c r="C24" s="166"/>
+      <c r="C24" s="171"/>
       <c r="D24" s="139">
-        <f>SUM(D25:D35)</f>
-        <v>3</v>
+        <f>SUM(D25:D63)</f>
+        <v>12</v>
       </c>
       <c r="E24" s="142"/>
     </row>
@@ -11751,27 +11941,213 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="142"/>
+      <c r="C26" s="134">
+        <v>11</v>
+      </c>
+      <c r="D26" s="135">
+        <v>4</v>
+      </c>
+      <c r="E26" s="142" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="142"/>
+      <c r="C27" s="134">
+        <v>12</v>
+      </c>
+      <c r="D27" s="135">
+        <v>1</v>
+      </c>
+      <c r="E27" s="142" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="129"/>
+      <c r="C28" s="134">
+        <v>12</v>
+      </c>
+      <c r="D28" s="135">
+        <v>4</v>
+      </c>
+      <c r="E28" s="142" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="29" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="130"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="142"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="142"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="142"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="142"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="142"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="133"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="142"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="142"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="133"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="142"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="142"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="133"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="142"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="133"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="142"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="133"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="142"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="133"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="142"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="133"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="142"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="142"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="133"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="142"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="133"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="142"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="142"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="133"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="142"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="133"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="142"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="142"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="133"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="142"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="142"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="133"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="142"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="133"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="142"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="133"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="142"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="133"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="142"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="133"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="129"/>
+    </row>
+    <row r="57" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="136"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>RF Generator Sch &amp; PCB 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette 과제 자료 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,6 +1415,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,8 +1480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1519,7 +1523,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1580,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1637,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1694,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1751,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1808,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1865,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1922,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1979,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2036,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2093,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2150,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2207,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2264,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2321,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2378,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2435,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="FG35" sqref="FG35"/>
     </sheetView>
@@ -2812,297 +2816,297 @@
     </row>
     <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="167">
+      <c r="B6" s="169">
         <v>9</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="168"/>
-      <c r="Y6" s="168"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="168"/>
-      <c r="AB6" s="168"/>
-      <c r="AC6" s="168"/>
-      <c r="AD6" s="168"/>
-      <c r="AE6" s="169"/>
-      <c r="AF6" s="164">
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="170"/>
+      <c r="V6" s="170"/>
+      <c r="W6" s="170"/>
+      <c r="X6" s="170"/>
+      <c r="Y6" s="170"/>
+      <c r="Z6" s="170"/>
+      <c r="AA6" s="170"/>
+      <c r="AB6" s="170"/>
+      <c r="AC6" s="170"/>
+      <c r="AD6" s="170"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="166">
         <v>10</v>
       </c>
-      <c r="AG6" s="164"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="164"/>
-      <c r="AJ6" s="164"/>
-      <c r="AK6" s="164"/>
-      <c r="AL6" s="164"/>
-      <c r="AM6" s="164"/>
-      <c r="AN6" s="164"/>
-      <c r="AO6" s="164"/>
-      <c r="AP6" s="164"/>
-      <c r="AQ6" s="164"/>
-      <c r="AR6" s="164"/>
-      <c r="AS6" s="164"/>
-      <c r="AT6" s="164"/>
-      <c r="AU6" s="164"/>
-      <c r="AV6" s="164"/>
-      <c r="AW6" s="164"/>
-      <c r="AX6" s="164"/>
-      <c r="AY6" s="164"/>
-      <c r="AZ6" s="164"/>
-      <c r="BA6" s="164"/>
-      <c r="BB6" s="164"/>
-      <c r="BC6" s="164"/>
-      <c r="BD6" s="164"/>
-      <c r="BE6" s="164"/>
-      <c r="BF6" s="164"/>
-      <c r="BG6" s="164"/>
-      <c r="BH6" s="164"/>
-      <c r="BI6" s="164"/>
-      <c r="BJ6" s="165"/>
-      <c r="BK6" s="167">
+      <c r="AG6" s="166"/>
+      <c r="AH6" s="166"/>
+      <c r="AI6" s="166"/>
+      <c r="AJ6" s="166"/>
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="166"/>
+      <c r="AM6" s="166"/>
+      <c r="AN6" s="166"/>
+      <c r="AO6" s="166"/>
+      <c r="AP6" s="166"/>
+      <c r="AQ6" s="166"/>
+      <c r="AR6" s="166"/>
+      <c r="AS6" s="166"/>
+      <c r="AT6" s="166"/>
+      <c r="AU6" s="166"/>
+      <c r="AV6" s="166"/>
+      <c r="AW6" s="166"/>
+      <c r="AX6" s="166"/>
+      <c r="AY6" s="166"/>
+      <c r="AZ6" s="166"/>
+      <c r="BA6" s="166"/>
+      <c r="BB6" s="166"/>
+      <c r="BC6" s="166"/>
+      <c r="BD6" s="166"/>
+      <c r="BE6" s="166"/>
+      <c r="BF6" s="166"/>
+      <c r="BG6" s="166"/>
+      <c r="BH6" s="166"/>
+      <c r="BI6" s="166"/>
+      <c r="BJ6" s="167"/>
+      <c r="BK6" s="169">
         <v>11</v>
       </c>
-      <c r="BL6" s="168"/>
-      <c r="BM6" s="168"/>
-      <c r="BN6" s="168"/>
-      <c r="BO6" s="168"/>
-      <c r="BP6" s="168"/>
-      <c r="BQ6" s="168"/>
-      <c r="BR6" s="168"/>
-      <c r="BS6" s="168"/>
-      <c r="BT6" s="168"/>
-      <c r="BU6" s="168"/>
-      <c r="BV6" s="168"/>
-      <c r="BW6" s="168"/>
-      <c r="BX6" s="168"/>
-      <c r="BY6" s="168"/>
-      <c r="BZ6" s="168"/>
-      <c r="CA6" s="168"/>
-      <c r="CB6" s="168"/>
-      <c r="CC6" s="168"/>
-      <c r="CD6" s="168"/>
-      <c r="CE6" s="168"/>
-      <c r="CF6" s="168"/>
-      <c r="CG6" s="168"/>
-      <c r="CH6" s="168"/>
-      <c r="CI6" s="168"/>
-      <c r="CJ6" s="168"/>
-      <c r="CK6" s="168"/>
-      <c r="CL6" s="168"/>
-      <c r="CM6" s="168"/>
-      <c r="CN6" s="169"/>
-      <c r="CO6" s="164">
+      <c r="BL6" s="170"/>
+      <c r="BM6" s="170"/>
+      <c r="BN6" s="170"/>
+      <c r="BO6" s="170"/>
+      <c r="BP6" s="170"/>
+      <c r="BQ6" s="170"/>
+      <c r="BR6" s="170"/>
+      <c r="BS6" s="170"/>
+      <c r="BT6" s="170"/>
+      <c r="BU6" s="170"/>
+      <c r="BV6" s="170"/>
+      <c r="BW6" s="170"/>
+      <c r="BX6" s="170"/>
+      <c r="BY6" s="170"/>
+      <c r="BZ6" s="170"/>
+      <c r="CA6" s="170"/>
+      <c r="CB6" s="170"/>
+      <c r="CC6" s="170"/>
+      <c r="CD6" s="170"/>
+      <c r="CE6" s="170"/>
+      <c r="CF6" s="170"/>
+      <c r="CG6" s="170"/>
+      <c r="CH6" s="170"/>
+      <c r="CI6" s="170"/>
+      <c r="CJ6" s="170"/>
+      <c r="CK6" s="170"/>
+      <c r="CL6" s="170"/>
+      <c r="CM6" s="170"/>
+      <c r="CN6" s="171"/>
+      <c r="CO6" s="166">
         <v>12</v>
       </c>
-      <c r="CP6" s="164"/>
-      <c r="CQ6" s="164"/>
-      <c r="CR6" s="164"/>
-      <c r="CS6" s="164"/>
-      <c r="CT6" s="164"/>
-      <c r="CU6" s="164"/>
-      <c r="CV6" s="164"/>
-      <c r="CW6" s="164"/>
-      <c r="CX6" s="164"/>
-      <c r="CY6" s="164"/>
-      <c r="CZ6" s="164"/>
-      <c r="DA6" s="164"/>
-      <c r="DB6" s="164"/>
-      <c r="DC6" s="164"/>
-      <c r="DD6" s="164"/>
-      <c r="DE6" s="164"/>
-      <c r="DF6" s="164"/>
-      <c r="DG6" s="164"/>
-      <c r="DH6" s="164"/>
-      <c r="DI6" s="164"/>
-      <c r="DJ6" s="164"/>
-      <c r="DK6" s="164"/>
-      <c r="DL6" s="164"/>
-      <c r="DM6" s="164"/>
-      <c r="DN6" s="164"/>
-      <c r="DO6" s="164"/>
-      <c r="DP6" s="164"/>
-      <c r="DQ6" s="164"/>
-      <c r="DR6" s="164"/>
-      <c r="DS6" s="165"/>
-      <c r="DT6" s="164">
+      <c r="CP6" s="166"/>
+      <c r="CQ6" s="166"/>
+      <c r="CR6" s="166"/>
+      <c r="CS6" s="166"/>
+      <c r="CT6" s="166"/>
+      <c r="CU6" s="166"/>
+      <c r="CV6" s="166"/>
+      <c r="CW6" s="166"/>
+      <c r="CX6" s="166"/>
+      <c r="CY6" s="166"/>
+      <c r="CZ6" s="166"/>
+      <c r="DA6" s="166"/>
+      <c r="DB6" s="166"/>
+      <c r="DC6" s="166"/>
+      <c r="DD6" s="166"/>
+      <c r="DE6" s="166"/>
+      <c r="DF6" s="166"/>
+      <c r="DG6" s="166"/>
+      <c r="DH6" s="166"/>
+      <c r="DI6" s="166"/>
+      <c r="DJ6" s="166"/>
+      <c r="DK6" s="166"/>
+      <c r="DL6" s="166"/>
+      <c r="DM6" s="166"/>
+      <c r="DN6" s="166"/>
+      <c r="DO6" s="166"/>
+      <c r="DP6" s="166"/>
+      <c r="DQ6" s="166"/>
+      <c r="DR6" s="166"/>
+      <c r="DS6" s="167"/>
+      <c r="DT6" s="166">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="164"/>
-      <c r="DV6" s="164"/>
-      <c r="DW6" s="164"/>
-      <c r="DX6" s="164"/>
-      <c r="DY6" s="164"/>
-      <c r="DZ6" s="164"/>
-      <c r="EA6" s="164"/>
-      <c r="EB6" s="164"/>
-      <c r="EC6" s="164"/>
-      <c r="ED6" s="164"/>
-      <c r="EE6" s="164"/>
-      <c r="EF6" s="164"/>
-      <c r="EG6" s="164"/>
-      <c r="EH6" s="164"/>
-      <c r="EI6" s="164"/>
-      <c r="EJ6" s="164"/>
-      <c r="EK6" s="164"/>
-      <c r="EL6" s="164"/>
-      <c r="EM6" s="164"/>
-      <c r="EN6" s="164"/>
-      <c r="EO6" s="164"/>
-      <c r="EP6" s="164"/>
-      <c r="EQ6" s="164"/>
-      <c r="ER6" s="164"/>
-      <c r="ES6" s="164"/>
-      <c r="ET6" s="164"/>
-      <c r="EU6" s="164"/>
-      <c r="EV6" s="164"/>
-      <c r="EW6" s="164"/>
-      <c r="EX6" s="165"/>
-      <c r="EY6" s="166">
+      <c r="DU6" s="166"/>
+      <c r="DV6" s="166"/>
+      <c r="DW6" s="166"/>
+      <c r="DX6" s="166"/>
+      <c r="DY6" s="166"/>
+      <c r="DZ6" s="166"/>
+      <c r="EA6" s="166"/>
+      <c r="EB6" s="166"/>
+      <c r="EC6" s="166"/>
+      <c r="ED6" s="166"/>
+      <c r="EE6" s="166"/>
+      <c r="EF6" s="166"/>
+      <c r="EG6" s="166"/>
+      <c r="EH6" s="166"/>
+      <c r="EI6" s="166"/>
+      <c r="EJ6" s="166"/>
+      <c r="EK6" s="166"/>
+      <c r="EL6" s="166"/>
+      <c r="EM6" s="166"/>
+      <c r="EN6" s="166"/>
+      <c r="EO6" s="166"/>
+      <c r="EP6" s="166"/>
+      <c r="EQ6" s="166"/>
+      <c r="ER6" s="166"/>
+      <c r="ES6" s="166"/>
+      <c r="ET6" s="166"/>
+      <c r="EU6" s="166"/>
+      <c r="EV6" s="166"/>
+      <c r="EW6" s="166"/>
+      <c r="EX6" s="167"/>
+      <c r="EY6" s="168">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="164"/>
-      <c r="FA6" s="164"/>
-      <c r="FB6" s="164"/>
-      <c r="FC6" s="164"/>
-      <c r="FD6" s="164"/>
-      <c r="FE6" s="164"/>
-      <c r="FF6" s="164"/>
-      <c r="FG6" s="164"/>
-      <c r="FH6" s="164"/>
-      <c r="FI6" s="164"/>
-      <c r="FJ6" s="164"/>
-      <c r="FK6" s="164"/>
-      <c r="FL6" s="164"/>
-      <c r="FM6" s="164"/>
-      <c r="FN6" s="164"/>
-      <c r="FO6" s="164"/>
-      <c r="FP6" s="164"/>
-      <c r="FQ6" s="164"/>
-      <c r="FR6" s="164"/>
-      <c r="FS6" s="164"/>
-      <c r="FT6" s="164"/>
-      <c r="FU6" s="164"/>
-      <c r="FV6" s="164"/>
-      <c r="FW6" s="164"/>
-      <c r="FX6" s="164"/>
-      <c r="FY6" s="164"/>
-      <c r="FZ6" s="165"/>
-      <c r="GA6" s="157">
+      <c r="EZ6" s="166"/>
+      <c r="FA6" s="166"/>
+      <c r="FB6" s="166"/>
+      <c r="FC6" s="166"/>
+      <c r="FD6" s="166"/>
+      <c r="FE6" s="166"/>
+      <c r="FF6" s="166"/>
+      <c r="FG6" s="166"/>
+      <c r="FH6" s="166"/>
+      <c r="FI6" s="166"/>
+      <c r="FJ6" s="166"/>
+      <c r="FK6" s="166"/>
+      <c r="FL6" s="166"/>
+      <c r="FM6" s="166"/>
+      <c r="FN6" s="166"/>
+      <c r="FO6" s="166"/>
+      <c r="FP6" s="166"/>
+      <c r="FQ6" s="166"/>
+      <c r="FR6" s="166"/>
+      <c r="FS6" s="166"/>
+      <c r="FT6" s="166"/>
+      <c r="FU6" s="166"/>
+      <c r="FV6" s="166"/>
+      <c r="FW6" s="166"/>
+      <c r="FX6" s="166"/>
+      <c r="FY6" s="166"/>
+      <c r="FZ6" s="167"/>
+      <c r="GA6" s="159">
         <v>3</v>
       </c>
-      <c r="GB6" s="157"/>
-      <c r="GC6" s="157"/>
-      <c r="GD6" s="157"/>
-      <c r="GE6" s="157"/>
-      <c r="GF6" s="157"/>
-      <c r="GG6" s="157"/>
-      <c r="GH6" s="157"/>
-      <c r="GI6" s="157"/>
-      <c r="GJ6" s="157"/>
-      <c r="GK6" s="157"/>
-      <c r="GL6" s="157"/>
-      <c r="GM6" s="157"/>
-      <c r="GN6" s="157"/>
-      <c r="GO6" s="157"/>
-      <c r="GP6" s="157"/>
-      <c r="GQ6" s="157"/>
-      <c r="GR6" s="157"/>
-      <c r="GS6" s="157"/>
-      <c r="GT6" s="157"/>
-      <c r="GU6" s="157"/>
-      <c r="GV6" s="157"/>
-      <c r="GW6" s="157"/>
-      <c r="GX6" s="157"/>
-      <c r="GY6" s="157"/>
-      <c r="GZ6" s="157"/>
-      <c r="HA6" s="157"/>
-      <c r="HB6" s="157"/>
-      <c r="HC6" s="157"/>
-      <c r="HD6" s="157"/>
-      <c r="HE6" s="157"/>
-      <c r="HF6" s="161">
+      <c r="GB6" s="159"/>
+      <c r="GC6" s="159"/>
+      <c r="GD6" s="159"/>
+      <c r="GE6" s="159"/>
+      <c r="GF6" s="159"/>
+      <c r="GG6" s="159"/>
+      <c r="GH6" s="159"/>
+      <c r="GI6" s="159"/>
+      <c r="GJ6" s="159"/>
+      <c r="GK6" s="159"/>
+      <c r="GL6" s="159"/>
+      <c r="GM6" s="159"/>
+      <c r="GN6" s="159"/>
+      <c r="GO6" s="159"/>
+      <c r="GP6" s="159"/>
+      <c r="GQ6" s="159"/>
+      <c r="GR6" s="159"/>
+      <c r="GS6" s="159"/>
+      <c r="GT6" s="159"/>
+      <c r="GU6" s="159"/>
+      <c r="GV6" s="159"/>
+      <c r="GW6" s="159"/>
+      <c r="GX6" s="159"/>
+      <c r="GY6" s="159"/>
+      <c r="GZ6" s="159"/>
+      <c r="HA6" s="159"/>
+      <c r="HB6" s="159"/>
+      <c r="HC6" s="159"/>
+      <c r="HD6" s="159"/>
+      <c r="HE6" s="159"/>
+      <c r="HF6" s="163">
         <v>4</v>
       </c>
-      <c r="HG6" s="162"/>
-      <c r="HH6" s="162"/>
-      <c r="HI6" s="162"/>
-      <c r="HJ6" s="162"/>
-      <c r="HK6" s="162"/>
-      <c r="HL6" s="162"/>
-      <c r="HM6" s="162"/>
-      <c r="HN6" s="162"/>
-      <c r="HO6" s="162"/>
-      <c r="HP6" s="162"/>
-      <c r="HQ6" s="162"/>
-      <c r="HR6" s="162"/>
-      <c r="HS6" s="162"/>
-      <c r="HT6" s="162"/>
-      <c r="HU6" s="162"/>
-      <c r="HV6" s="162"/>
-      <c r="HW6" s="162"/>
-      <c r="HX6" s="162"/>
-      <c r="HY6" s="162"/>
-      <c r="HZ6" s="162"/>
-      <c r="IA6" s="162"/>
-      <c r="IB6" s="162"/>
-      <c r="IC6" s="162"/>
-      <c r="ID6" s="162"/>
-      <c r="IE6" s="162"/>
-      <c r="IF6" s="162"/>
-      <c r="IG6" s="162"/>
-      <c r="IH6" s="162"/>
-      <c r="II6" s="163"/>
-      <c r="IJ6" s="156">
+      <c r="HG6" s="164"/>
+      <c r="HH6" s="164"/>
+      <c r="HI6" s="164"/>
+      <c r="HJ6" s="164"/>
+      <c r="HK6" s="164"/>
+      <c r="HL6" s="164"/>
+      <c r="HM6" s="164"/>
+      <c r="HN6" s="164"/>
+      <c r="HO6" s="164"/>
+      <c r="HP6" s="164"/>
+      <c r="HQ6" s="164"/>
+      <c r="HR6" s="164"/>
+      <c r="HS6" s="164"/>
+      <c r="HT6" s="164"/>
+      <c r="HU6" s="164"/>
+      <c r="HV6" s="164"/>
+      <c r="HW6" s="164"/>
+      <c r="HX6" s="164"/>
+      <c r="HY6" s="164"/>
+      <c r="HZ6" s="164"/>
+      <c r="IA6" s="164"/>
+      <c r="IB6" s="164"/>
+      <c r="IC6" s="164"/>
+      <c r="ID6" s="164"/>
+      <c r="IE6" s="164"/>
+      <c r="IF6" s="164"/>
+      <c r="IG6" s="164"/>
+      <c r="IH6" s="164"/>
+      <c r="II6" s="165"/>
+      <c r="IJ6" s="158">
         <v>5</v>
       </c>
-      <c r="IK6" s="157"/>
-      <c r="IL6" s="157"/>
-      <c r="IM6" s="157"/>
-      <c r="IN6" s="157"/>
-      <c r="IO6" s="157"/>
-      <c r="IP6" s="157"/>
-      <c r="IQ6" s="157"/>
-      <c r="IR6" s="157"/>
-      <c r="IS6" s="157"/>
-      <c r="IT6" s="157"/>
-      <c r="IU6" s="157"/>
-      <c r="IV6" s="157"/>
-      <c r="IW6" s="157"/>
-      <c r="IX6" s="157"/>
-      <c r="IY6" s="157"/>
-      <c r="IZ6" s="157"/>
-      <c r="JA6" s="157"/>
-      <c r="JB6" s="157"/>
-      <c r="JC6" s="157"/>
-      <c r="JD6" s="157"/>
-      <c r="JE6" s="157"/>
-      <c r="JF6" s="157"/>
-      <c r="JG6" s="157"/>
-      <c r="JH6" s="157"/>
-      <c r="JI6" s="157"/>
-      <c r="JJ6" s="157"/>
-      <c r="JK6" s="157"/>
-      <c r="JL6" s="157"/>
-      <c r="JM6" s="157"/>
-      <c r="JN6" s="158"/>
+      <c r="IK6" s="159"/>
+      <c r="IL6" s="159"/>
+      <c r="IM6" s="159"/>
+      <c r="IN6" s="159"/>
+      <c r="IO6" s="159"/>
+      <c r="IP6" s="159"/>
+      <c r="IQ6" s="159"/>
+      <c r="IR6" s="159"/>
+      <c r="IS6" s="159"/>
+      <c r="IT6" s="159"/>
+      <c r="IU6" s="159"/>
+      <c r="IV6" s="159"/>
+      <c r="IW6" s="159"/>
+      <c r="IX6" s="159"/>
+      <c r="IY6" s="159"/>
+      <c r="IZ6" s="159"/>
+      <c r="JA6" s="159"/>
+      <c r="JB6" s="159"/>
+      <c r="JC6" s="159"/>
+      <c r="JD6" s="159"/>
+      <c r="JE6" s="159"/>
+      <c r="JF6" s="159"/>
+      <c r="JG6" s="159"/>
+      <c r="JH6" s="159"/>
+      <c r="JI6" s="159"/>
+      <c r="JJ6" s="159"/>
+      <c r="JK6" s="159"/>
+      <c r="JL6" s="159"/>
+      <c r="JM6" s="159"/>
+      <c r="JN6" s="160"/>
     </row>
     <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
@@ -3927,7 +3931,7 @@
       </c>
     </row>
     <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="161" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42"/>
@@ -4215,7 +4219,7 @@
       <c r="JN8" s="40"/>
     </row>
     <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="159"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4503,7 +4507,7 @@
       <c r="JN9" s="7"/>
     </row>
     <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="159"/>
+      <c r="A10" s="161"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -4783,7 +4787,7 @@
       <c r="JN10" s="7"/>
     </row>
     <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="159"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -5061,7 +5065,7 @@
       <c r="JN11" s="7"/>
     </row>
     <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -5339,7 +5343,7 @@
       <c r="JN12" s="7"/>
     </row>
     <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="159"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5615,7 +5619,7 @@
       <c r="JN13" s="7"/>
     </row>
     <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="159"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -5891,7 +5895,7 @@
       <c r="JN14" s="18"/>
     </row>
     <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="162" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -6171,7 +6175,7 @@
       <c r="JN15" s="29"/>
     </row>
     <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="159"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6304,7 +6308,7 @@
       <c r="EA16" s="97"/>
       <c r="EB16" s="97"/>
       <c r="EC16" s="97"/>
-      <c r="ED16" s="177" t="s">
+      <c r="ED16" s="156" t="s">
         <v>6</v>
       </c>
       <c r="EE16" s="96"/>
@@ -6316,7 +6320,7 @@
       <c r="EK16" s="97"/>
       <c r="EL16" s="96"/>
       <c r="EM16" s="96"/>
-      <c r="EN16" s="178" t="s">
+      <c r="EN16" s="157" t="s">
         <v>11</v>
       </c>
       <c r="EO16" s="97"/>
@@ -6455,7 +6459,7 @@
       <c r="JN16" s="13"/>
     </row>
     <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="159"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -6587,7 +6591,7 @@
       <c r="EA17" s="97"/>
       <c r="EB17" s="97"/>
       <c r="EC17" s="97"/>
-      <c r="ED17" s="177" t="s">
+      <c r="ED17" s="156" t="s">
         <v>10</v>
       </c>
       <c r="EE17" s="96"/>
@@ -6734,7 +6738,7 @@
       <c r="JN17" s="4"/>
     </row>
     <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="159"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -7011,7 +7015,7 @@
       <c r="JN18" s="4"/>
     </row>
     <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="159"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7287,7 +7291,7 @@
       <c r="JN19" s="4"/>
     </row>
     <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="159"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7563,7 +7567,7 @@
       <c r="JN20" s="4"/>
     </row>
     <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="159"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -7839,7 +7843,7 @@
       <c r="JN21" s="127"/>
     </row>
     <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="159"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -8115,7 +8119,7 @@
       <c r="JN22" s="25"/>
     </row>
     <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="159" t="s">
+      <c r="A23" s="161" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="108"/>
@@ -8397,7 +8401,7 @@
       <c r="JN23" s="29"/>
     </row>
     <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="159"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8675,7 +8679,7 @@
       <c r="JN24" s="4"/>
     </row>
     <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="159"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -8953,7 +8957,7 @@
       <c r="JN25" s="4"/>
     </row>
     <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="159"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -9237,7 +9241,7 @@
       <c r="JN26" s="4"/>
     </row>
     <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9519,7 +9523,7 @@
       <c r="JN27" s="4"/>
     </row>
     <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159"/>
+      <c r="A28" s="161"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -9797,7 +9801,7 @@
       <c r="JN28" s="4"/>
     </row>
     <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -10075,7 +10079,7 @@
       <c r="JN29" s="4"/>
     </row>
     <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -11624,9 +11628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11657,10 +11661,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="170">
+      <c r="B4" s="172">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -11668,7 +11672,7 @@
       <c r="E4" s="140"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="174">
+      <c r="B5" s="176">
         <v>12</v>
       </c>
       <c r="C5" s="143">
@@ -11682,7 +11686,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="175"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="141">
         <v>17</v>
       </c>
@@ -11694,7 +11698,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="175"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="141">
         <v>19</v>
       </c>
@@ -11706,7 +11710,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="175"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="134">
         <v>22</v>
       </c>
@@ -11718,7 +11722,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="175"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="134">
         <v>23</v>
       </c>
@@ -11730,7 +11734,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="175"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="134">
         <v>25</v>
       </c>
@@ -11742,7 +11746,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="175"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="134">
         <v>26</v>
       </c>
@@ -11754,7 +11758,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="175"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="134">
         <v>29</v>
       </c>
@@ -11766,7 +11770,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="176"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="137">
         <v>30</v>
       </c>
@@ -11778,10 +11782,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="172">
+      <c r="B14" s="174">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="173"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="154">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -11915,13 +11919,13 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="170">
-        <v>2019.01</v>
-      </c>
-      <c r="C24" s="171"/>
+      <c r="B24" s="172">
+        <v>2019.02</v>
+      </c>
+      <c r="C24" s="173"/>
       <c r="D24" s="139">
         <f>SUM(D25:D63)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24" s="142"/>
     </row>
@@ -11977,9 +11981,15 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="142"/>
+      <c r="C29" s="134">
+        <v>24</v>
+      </c>
+      <c r="D29" s="135">
+        <v>3</v>
+      </c>
+      <c r="E29" s="142" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="133"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,26 @@
   </si>
   <si>
     <t>Pipette 과제 자료 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ 최종 기구 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ 목업 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ PCB&amp;BOM release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ 기구검토 미팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette V3.0 SCH, PCB, BOM 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,7 +1543,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1600,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1657,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1714,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1771,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1828,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1885,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1942,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1999,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2056,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2113,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2170,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2227,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2284,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2341,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2398,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2455,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,8 +2787,8 @@
   <dimension ref="A1:JN47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FG35" sqref="FG35"/>
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FS40" sqref="FS40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4427,14 +4447,18 @@
       <c r="GL9" s="5"/>
       <c r="GM9" s="5"/>
       <c r="GN9" s="5"/>
-      <c r="GO9" s="5"/>
+      <c r="GO9" s="75" t="s">
+        <v>64</v>
+      </c>
       <c r="GP9" s="6"/>
       <c r="GQ9" s="6"/>
       <c r="GR9" s="5"/>
       <c r="GS9" s="5"/>
       <c r="GT9" s="5"/>
       <c r="GU9" s="5"/>
-      <c r="GV9" s="5"/>
+      <c r="GV9" s="75" t="s">
+        <v>65</v>
+      </c>
       <c r="GW9" s="6"/>
       <c r="GX9" s="6"/>
       <c r="GY9" s="5"/>
@@ -4692,7 +4716,9 @@
       <c r="FW10" s="75"/>
       <c r="FX10" s="75"/>
       <c r="FY10" s="75"/>
-      <c r="FZ10" s="79"/>
+      <c r="FZ10" s="75" t="s">
+        <v>67</v>
+      </c>
       <c r="GA10" s="33"/>
       <c r="GB10" s="6"/>
       <c r="GC10" s="6"/>
@@ -4703,7 +4729,9 @@
       <c r="GH10" s="5"/>
       <c r="GI10" s="6"/>
       <c r="GJ10" s="6"/>
-      <c r="GK10" s="5"/>
+      <c r="GK10" s="75" t="s">
+        <v>66</v>
+      </c>
       <c r="GL10" s="5"/>
       <c r="GM10" s="5"/>
       <c r="GN10" s="5"/>
@@ -11629,8 +11657,8 @@
   <dimension ref="B2:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11925,7 +11953,7 @@
       <c r="C24" s="173"/>
       <c r="D24" s="139">
         <f>SUM(D25:D63)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" s="142"/>
     </row>
@@ -11993,9 +12021,15 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="133"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="142"/>
+      <c r="C30" s="134">
+        <v>26</v>
+      </c>
+      <c r="D30" s="135">
+        <v>5</v>
+      </c>
+      <c r="E30" s="142" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="133"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,18 @@
   </si>
   <si>
     <t>Pipette V3.0 SCH, PCB, BOM 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main 수정 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans 사양서 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1543,7 +1555,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1612,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1669,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1726,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1783,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1840,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,7 +1897,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1954,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2011,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2068,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2125,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2182,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2239,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2296,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2353,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2410,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2467,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11657,8 +11669,8 @@
   <dimension ref="B2:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11952,7 +11964,7 @@
       </c>
       <c r="C24" s="173"/>
       <c r="D24" s="139">
-        <f>SUM(D25:D63)</f>
+        <f>SUM(D25:D30)</f>
         <v>20</v>
       </c>
       <c r="E24" s="142"/>
@@ -12032,28 +12044,49 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
+      <c r="B31" s="172">
+        <v>2019.02</v>
+      </c>
+      <c r="C31" s="173"/>
+      <c r="D31" s="139">
+        <f>SUM(D32:D70)</f>
+        <v>13</v>
+      </c>
       <c r="E31" s="142"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="133"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="142"/>
+      <c r="C32" s="134">
+        <v>2</v>
+      </c>
+      <c r="D32" s="135">
+        <v>3</v>
+      </c>
+      <c r="E32" s="142" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="133"/>
       <c r="C33" s="134"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="142"/>
+      <c r="D33" s="135">
+        <v>6</v>
+      </c>
+      <c r="E33" s="142" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="133"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="142"/>
+      <c r="C34" s="134">
+        <v>3</v>
+      </c>
+      <c r="D34" s="135">
+        <v>4</v>
+      </c>
+      <c r="E34" s="142" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="133"/>
@@ -12194,11 +12227,12 @@
       <c r="E57" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,14 @@
   </si>
   <si>
     <t>Trans 사양서 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans 사양서용 sample 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCH &amp; PCB 수정, CAM 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1555,7 +1563,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1620,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1677,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1734,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1791,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1848,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1905,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1962,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2019,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2076,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2133,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2190,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2247,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2304,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2361,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2418,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2475,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11670,7 +11678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12050,7 +12058,7 @@
       <c r="C31" s="173"/>
       <c r="D31" s="139">
         <f>SUM(D32:D70)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31" s="142"/>
     </row>
@@ -12090,15 +12098,27 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="133"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="142"/>
+      <c r="C35" s="134">
+        <v>4</v>
+      </c>
+      <c r="D35" s="135">
+        <v>1</v>
+      </c>
+      <c r="E35" s="142" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="133"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="142"/>
+      <c r="C36" s="134">
+        <v>6</v>
+      </c>
+      <c r="D36" s="135">
+        <v>3</v>
+      </c>
+      <c r="E36" s="142" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="133"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,6 +419,34 @@
   </si>
   <si>
     <t>SCH &amp; PCB 수정, CAM 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen Sch&amp;PCB 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB 3/14 기구 도면 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ Trans 사양서 release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ Trans MP data release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ Main MP Data release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ Main MP Data release - ME 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ Main ME data 입수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1520,6 +1548,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2806,9 +2837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JN47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FS40" sqref="FS40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="EO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GP19" sqref="GP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5032,7 +5063,9 @@
       <c r="GK11" s="5"/>
       <c r="GL11" s="5"/>
       <c r="GM11" s="5"/>
-      <c r="GN11" s="5"/>
+      <c r="GN11" s="117" t="s">
+        <v>80</v>
+      </c>
       <c r="GO11" s="5"/>
       <c r="GP11" s="6"/>
       <c r="GQ11" s="6"/>
@@ -5299,7 +5332,9 @@
       <c r="FZ12" s="79"/>
       <c r="GA12" s="33"/>
       <c r="GB12" s="6"/>
-      <c r="GC12" s="6"/>
+      <c r="GC12" s="179" t="s">
+        <v>78</v>
+      </c>
       <c r="GD12" s="5"/>
       <c r="GE12" s="5"/>
       <c r="GF12" s="5"/>
@@ -5312,7 +5347,9 @@
       <c r="GM12" s="5"/>
       <c r="GN12" s="5"/>
       <c r="GO12" s="5"/>
-      <c r="GP12" s="6"/>
+      <c r="GP12" s="181" t="s">
+        <v>79</v>
+      </c>
       <c r="GQ12" s="6"/>
       <c r="GR12" s="5"/>
       <c r="GS12" s="5"/>
@@ -5575,7 +5612,9 @@
       <c r="FZ13" s="79"/>
       <c r="GA13" s="33"/>
       <c r="GB13" s="6"/>
-      <c r="GC13" s="6"/>
+      <c r="GC13" s="179" t="s">
+        <v>76</v>
+      </c>
       <c r="GD13" s="5"/>
       <c r="GE13" s="5"/>
       <c r="GF13" s="5"/>
@@ -5854,7 +5893,9 @@
       <c r="GC14" s="15"/>
       <c r="GD14" s="14"/>
       <c r="GE14" s="14"/>
-      <c r="GF14" s="14"/>
+      <c r="GF14" s="180" t="s">
+        <v>77</v>
+      </c>
       <c r="GG14" s="14"/>
       <c r="GH14" s="14"/>
       <c r="GI14" s="15"/>
@@ -11676,9 +11717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12058,7 +12099,7 @@
       <c r="C31" s="173"/>
       <c r="D31" s="139">
         <f>SUM(D32:D70)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E31" s="142"/>
     </row>
@@ -12122,15 +12163,27 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="133"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="142"/>
+      <c r="C37" s="134">
+        <v>10</v>
+      </c>
+      <c r="D37" s="135">
+        <v>8</v>
+      </c>
+      <c r="E37" s="142" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="133"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="142"/>
+      <c r="C38" s="134">
+        <v>16</v>
+      </c>
+      <c r="D38" s="135">
+        <v>5</v>
+      </c>
+      <c r="E38" s="142" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="133"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◇ PCB&amp;BOM release</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>◇ 기구검토 미팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,6 +443,58 @@
   </si>
   <si>
     <t>◇ Main ME data 입수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen - temp sensor 추가 / heat sink review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen - heat sink 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ MP2 입고 : 5set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ PCB&amp;BOM release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ STlink 2set 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ DL manual 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette MP2 DL 및 F/W review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2 Booting후 바로 Off되는 issue 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W 요청 사항 follow-up. Booting issue 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off시 LED 동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen - gerber 생성, PL 작성, 부품 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen - PL 작성, 부품 구매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1252,11 +1300,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1485,6 +1583,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1548,9 +1651,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1594,7 +1706,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1763,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,7 +1820,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1877,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1934,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1991,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +2048,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +2105,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2162,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2219,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2276,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2333,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2390,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2447,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2504,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,23 +2545,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>168</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>211</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>97617</xdr:rowOff>
+      <xdr:rowOff>116667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>173</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
+      <xdr:col>218</xdr:col>
+      <xdr:colOff>94130</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>97617</xdr:rowOff>
+      <xdr:rowOff>116667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,8 +2569,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45368135" y="2372411"/>
-          <a:ext cx="1360395" cy="0"/>
+          <a:off x="54359175" y="2364567"/>
+          <a:ext cx="1332380" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2490,23 +2602,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>172</xdr:col>
-      <xdr:colOff>259977</xdr:colOff>
+      <xdr:col>215</xdr:col>
+      <xdr:colOff>98052</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95374</xdr:rowOff>
+      <xdr:rowOff>104899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>178</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
+      <xdr:col>231</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95374</xdr:rowOff>
+      <xdr:rowOff>104899</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,8 +2626,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46641124" y="2571874"/>
-          <a:ext cx="1645024" cy="0"/>
+          <a:off x="55095402" y="2552824"/>
+          <a:ext cx="3245223" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2837,9 +2949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GP19" sqref="GP19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="FZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HR11" sqref="HR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2887,297 +2999,297 @@
     </row>
     <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="169">
+      <c r="B6" s="174">
         <v>9</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="170"/>
-      <c r="V6" s="170"/>
-      <c r="W6" s="170"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="170"/>
-      <c r="Z6" s="170"/>
-      <c r="AA6" s="170"/>
-      <c r="AB6" s="170"/>
-      <c r="AC6" s="170"/>
-      <c r="AD6" s="170"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="166">
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="176"/>
+      <c r="AF6" s="171">
         <v>10</v>
       </c>
-      <c r="AG6" s="166"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="166"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="166"/>
-      <c r="AN6" s="166"/>
-      <c r="AO6" s="166"/>
-      <c r="AP6" s="166"/>
-      <c r="AQ6" s="166"/>
-      <c r="AR6" s="166"/>
-      <c r="AS6" s="166"/>
-      <c r="AT6" s="166"/>
-      <c r="AU6" s="166"/>
-      <c r="AV6" s="166"/>
-      <c r="AW6" s="166"/>
-      <c r="AX6" s="166"/>
-      <c r="AY6" s="166"/>
-      <c r="AZ6" s="166"/>
-      <c r="BA6" s="166"/>
-      <c r="BB6" s="166"/>
-      <c r="BC6" s="166"/>
-      <c r="BD6" s="166"/>
-      <c r="BE6" s="166"/>
-      <c r="BF6" s="166"/>
-      <c r="BG6" s="166"/>
-      <c r="BH6" s="166"/>
-      <c r="BI6" s="166"/>
-      <c r="BJ6" s="167"/>
-      <c r="BK6" s="169">
+      <c r="AG6" s="171"/>
+      <c r="AH6" s="171"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="171"/>
+      <c r="AK6" s="171"/>
+      <c r="AL6" s="171"/>
+      <c r="AM6" s="171"/>
+      <c r="AN6" s="171"/>
+      <c r="AO6" s="171"/>
+      <c r="AP6" s="171"/>
+      <c r="AQ6" s="171"/>
+      <c r="AR6" s="171"/>
+      <c r="AS6" s="171"/>
+      <c r="AT6" s="171"/>
+      <c r="AU6" s="171"/>
+      <c r="AV6" s="171"/>
+      <c r="AW6" s="171"/>
+      <c r="AX6" s="171"/>
+      <c r="AY6" s="171"/>
+      <c r="AZ6" s="171"/>
+      <c r="BA6" s="171"/>
+      <c r="BB6" s="171"/>
+      <c r="BC6" s="171"/>
+      <c r="BD6" s="171"/>
+      <c r="BE6" s="171"/>
+      <c r="BF6" s="171"/>
+      <c r="BG6" s="171"/>
+      <c r="BH6" s="171"/>
+      <c r="BI6" s="171"/>
+      <c r="BJ6" s="172"/>
+      <c r="BK6" s="174">
         <v>11</v>
       </c>
-      <c r="BL6" s="170"/>
-      <c r="BM6" s="170"/>
-      <c r="BN6" s="170"/>
-      <c r="BO6" s="170"/>
-      <c r="BP6" s="170"/>
-      <c r="BQ6" s="170"/>
-      <c r="BR6" s="170"/>
-      <c r="BS6" s="170"/>
-      <c r="BT6" s="170"/>
-      <c r="BU6" s="170"/>
-      <c r="BV6" s="170"/>
-      <c r="BW6" s="170"/>
-      <c r="BX6" s="170"/>
-      <c r="BY6" s="170"/>
-      <c r="BZ6" s="170"/>
-      <c r="CA6" s="170"/>
-      <c r="CB6" s="170"/>
-      <c r="CC6" s="170"/>
-      <c r="CD6" s="170"/>
-      <c r="CE6" s="170"/>
-      <c r="CF6" s="170"/>
-      <c r="CG6" s="170"/>
-      <c r="CH6" s="170"/>
-      <c r="CI6" s="170"/>
-      <c r="CJ6" s="170"/>
-      <c r="CK6" s="170"/>
-      <c r="CL6" s="170"/>
-      <c r="CM6" s="170"/>
-      <c r="CN6" s="171"/>
-      <c r="CO6" s="166">
+      <c r="BL6" s="175"/>
+      <c r="BM6" s="175"/>
+      <c r="BN6" s="175"/>
+      <c r="BO6" s="175"/>
+      <c r="BP6" s="175"/>
+      <c r="BQ6" s="175"/>
+      <c r="BR6" s="175"/>
+      <c r="BS6" s="175"/>
+      <c r="BT6" s="175"/>
+      <c r="BU6" s="175"/>
+      <c r="BV6" s="175"/>
+      <c r="BW6" s="175"/>
+      <c r="BX6" s="175"/>
+      <c r="BY6" s="175"/>
+      <c r="BZ6" s="175"/>
+      <c r="CA6" s="175"/>
+      <c r="CB6" s="175"/>
+      <c r="CC6" s="175"/>
+      <c r="CD6" s="175"/>
+      <c r="CE6" s="175"/>
+      <c r="CF6" s="175"/>
+      <c r="CG6" s="175"/>
+      <c r="CH6" s="175"/>
+      <c r="CI6" s="175"/>
+      <c r="CJ6" s="175"/>
+      <c r="CK6" s="175"/>
+      <c r="CL6" s="175"/>
+      <c r="CM6" s="175"/>
+      <c r="CN6" s="176"/>
+      <c r="CO6" s="171">
         <v>12</v>
       </c>
-      <c r="CP6" s="166"/>
-      <c r="CQ6" s="166"/>
-      <c r="CR6" s="166"/>
-      <c r="CS6" s="166"/>
-      <c r="CT6" s="166"/>
-      <c r="CU6" s="166"/>
-      <c r="CV6" s="166"/>
-      <c r="CW6" s="166"/>
-      <c r="CX6" s="166"/>
-      <c r="CY6" s="166"/>
-      <c r="CZ6" s="166"/>
-      <c r="DA6" s="166"/>
-      <c r="DB6" s="166"/>
-      <c r="DC6" s="166"/>
-      <c r="DD6" s="166"/>
-      <c r="DE6" s="166"/>
-      <c r="DF6" s="166"/>
-      <c r="DG6" s="166"/>
-      <c r="DH6" s="166"/>
-      <c r="DI6" s="166"/>
-      <c r="DJ6" s="166"/>
-      <c r="DK6" s="166"/>
-      <c r="DL6" s="166"/>
-      <c r="DM6" s="166"/>
-      <c r="DN6" s="166"/>
-      <c r="DO6" s="166"/>
-      <c r="DP6" s="166"/>
-      <c r="DQ6" s="166"/>
-      <c r="DR6" s="166"/>
-      <c r="DS6" s="167"/>
-      <c r="DT6" s="166">
+      <c r="CP6" s="171"/>
+      <c r="CQ6" s="171"/>
+      <c r="CR6" s="171"/>
+      <c r="CS6" s="171"/>
+      <c r="CT6" s="171"/>
+      <c r="CU6" s="171"/>
+      <c r="CV6" s="171"/>
+      <c r="CW6" s="171"/>
+      <c r="CX6" s="171"/>
+      <c r="CY6" s="171"/>
+      <c r="CZ6" s="171"/>
+      <c r="DA6" s="171"/>
+      <c r="DB6" s="171"/>
+      <c r="DC6" s="171"/>
+      <c r="DD6" s="171"/>
+      <c r="DE6" s="171"/>
+      <c r="DF6" s="171"/>
+      <c r="DG6" s="171"/>
+      <c r="DH6" s="171"/>
+      <c r="DI6" s="171"/>
+      <c r="DJ6" s="171"/>
+      <c r="DK6" s="171"/>
+      <c r="DL6" s="171"/>
+      <c r="DM6" s="171"/>
+      <c r="DN6" s="171"/>
+      <c r="DO6" s="171"/>
+      <c r="DP6" s="171"/>
+      <c r="DQ6" s="171"/>
+      <c r="DR6" s="171"/>
+      <c r="DS6" s="172"/>
+      <c r="DT6" s="171">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="166"/>
-      <c r="DV6" s="166"/>
-      <c r="DW6" s="166"/>
-      <c r="DX6" s="166"/>
-      <c r="DY6" s="166"/>
-      <c r="DZ6" s="166"/>
-      <c r="EA6" s="166"/>
-      <c r="EB6" s="166"/>
-      <c r="EC6" s="166"/>
-      <c r="ED6" s="166"/>
-      <c r="EE6" s="166"/>
-      <c r="EF6" s="166"/>
-      <c r="EG6" s="166"/>
-      <c r="EH6" s="166"/>
-      <c r="EI6" s="166"/>
-      <c r="EJ6" s="166"/>
-      <c r="EK6" s="166"/>
-      <c r="EL6" s="166"/>
-      <c r="EM6" s="166"/>
-      <c r="EN6" s="166"/>
-      <c r="EO6" s="166"/>
-      <c r="EP6" s="166"/>
-      <c r="EQ6" s="166"/>
-      <c r="ER6" s="166"/>
-      <c r="ES6" s="166"/>
-      <c r="ET6" s="166"/>
-      <c r="EU6" s="166"/>
-      <c r="EV6" s="166"/>
-      <c r="EW6" s="166"/>
-      <c r="EX6" s="167"/>
-      <c r="EY6" s="168">
+      <c r="DU6" s="171"/>
+      <c r="DV6" s="171"/>
+      <c r="DW6" s="171"/>
+      <c r="DX6" s="171"/>
+      <c r="DY6" s="171"/>
+      <c r="DZ6" s="171"/>
+      <c r="EA6" s="171"/>
+      <c r="EB6" s="171"/>
+      <c r="EC6" s="171"/>
+      <c r="ED6" s="171"/>
+      <c r="EE6" s="171"/>
+      <c r="EF6" s="171"/>
+      <c r="EG6" s="171"/>
+      <c r="EH6" s="171"/>
+      <c r="EI6" s="171"/>
+      <c r="EJ6" s="171"/>
+      <c r="EK6" s="171"/>
+      <c r="EL6" s="171"/>
+      <c r="EM6" s="171"/>
+      <c r="EN6" s="171"/>
+      <c r="EO6" s="171"/>
+      <c r="EP6" s="171"/>
+      <c r="EQ6" s="171"/>
+      <c r="ER6" s="171"/>
+      <c r="ES6" s="171"/>
+      <c r="ET6" s="171"/>
+      <c r="EU6" s="171"/>
+      <c r="EV6" s="171"/>
+      <c r="EW6" s="171"/>
+      <c r="EX6" s="172"/>
+      <c r="EY6" s="173">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="166"/>
-      <c r="FA6" s="166"/>
-      <c r="FB6" s="166"/>
-      <c r="FC6" s="166"/>
-      <c r="FD6" s="166"/>
-      <c r="FE6" s="166"/>
-      <c r="FF6" s="166"/>
-      <c r="FG6" s="166"/>
-      <c r="FH6" s="166"/>
-      <c r="FI6" s="166"/>
-      <c r="FJ6" s="166"/>
-      <c r="FK6" s="166"/>
-      <c r="FL6" s="166"/>
-      <c r="FM6" s="166"/>
-      <c r="FN6" s="166"/>
-      <c r="FO6" s="166"/>
-      <c r="FP6" s="166"/>
-      <c r="FQ6" s="166"/>
-      <c r="FR6" s="166"/>
-      <c r="FS6" s="166"/>
-      <c r="FT6" s="166"/>
-      <c r="FU6" s="166"/>
-      <c r="FV6" s="166"/>
-      <c r="FW6" s="166"/>
-      <c r="FX6" s="166"/>
-      <c r="FY6" s="166"/>
-      <c r="FZ6" s="167"/>
-      <c r="GA6" s="159">
+      <c r="EZ6" s="171"/>
+      <c r="FA6" s="171"/>
+      <c r="FB6" s="171"/>
+      <c r="FC6" s="171"/>
+      <c r="FD6" s="171"/>
+      <c r="FE6" s="171"/>
+      <c r="FF6" s="171"/>
+      <c r="FG6" s="171"/>
+      <c r="FH6" s="171"/>
+      <c r="FI6" s="171"/>
+      <c r="FJ6" s="171"/>
+      <c r="FK6" s="171"/>
+      <c r="FL6" s="171"/>
+      <c r="FM6" s="171"/>
+      <c r="FN6" s="171"/>
+      <c r="FO6" s="171"/>
+      <c r="FP6" s="171"/>
+      <c r="FQ6" s="171"/>
+      <c r="FR6" s="171"/>
+      <c r="FS6" s="171"/>
+      <c r="FT6" s="171"/>
+      <c r="FU6" s="171"/>
+      <c r="FV6" s="171"/>
+      <c r="FW6" s="171"/>
+      <c r="FX6" s="171"/>
+      <c r="FY6" s="171"/>
+      <c r="FZ6" s="172"/>
+      <c r="GA6" s="164">
         <v>3</v>
       </c>
-      <c r="GB6" s="159"/>
-      <c r="GC6" s="159"/>
-      <c r="GD6" s="159"/>
-      <c r="GE6" s="159"/>
-      <c r="GF6" s="159"/>
-      <c r="GG6" s="159"/>
-      <c r="GH6" s="159"/>
-      <c r="GI6" s="159"/>
-      <c r="GJ6" s="159"/>
-      <c r="GK6" s="159"/>
-      <c r="GL6" s="159"/>
-      <c r="GM6" s="159"/>
-      <c r="GN6" s="159"/>
-      <c r="GO6" s="159"/>
-      <c r="GP6" s="159"/>
-      <c r="GQ6" s="159"/>
-      <c r="GR6" s="159"/>
-      <c r="GS6" s="159"/>
-      <c r="GT6" s="159"/>
-      <c r="GU6" s="159"/>
-      <c r="GV6" s="159"/>
-      <c r="GW6" s="159"/>
-      <c r="GX6" s="159"/>
-      <c r="GY6" s="159"/>
-      <c r="GZ6" s="159"/>
-      <c r="HA6" s="159"/>
-      <c r="HB6" s="159"/>
-      <c r="HC6" s="159"/>
-      <c r="HD6" s="159"/>
-      <c r="HE6" s="159"/>
-      <c r="HF6" s="163">
+      <c r="GB6" s="164"/>
+      <c r="GC6" s="164"/>
+      <c r="GD6" s="164"/>
+      <c r="GE6" s="164"/>
+      <c r="GF6" s="164"/>
+      <c r="GG6" s="164"/>
+      <c r="GH6" s="164"/>
+      <c r="GI6" s="164"/>
+      <c r="GJ6" s="164"/>
+      <c r="GK6" s="164"/>
+      <c r="GL6" s="164"/>
+      <c r="GM6" s="164"/>
+      <c r="GN6" s="164"/>
+      <c r="GO6" s="164"/>
+      <c r="GP6" s="164"/>
+      <c r="GQ6" s="164"/>
+      <c r="GR6" s="164"/>
+      <c r="GS6" s="164"/>
+      <c r="GT6" s="164"/>
+      <c r="GU6" s="164"/>
+      <c r="GV6" s="164"/>
+      <c r="GW6" s="164"/>
+      <c r="GX6" s="164"/>
+      <c r="GY6" s="164"/>
+      <c r="GZ6" s="164"/>
+      <c r="HA6" s="164"/>
+      <c r="HB6" s="164"/>
+      <c r="HC6" s="164"/>
+      <c r="HD6" s="164"/>
+      <c r="HE6" s="164"/>
+      <c r="HF6" s="168">
         <v>4</v>
       </c>
-      <c r="HG6" s="164"/>
-      <c r="HH6" s="164"/>
-      <c r="HI6" s="164"/>
-      <c r="HJ6" s="164"/>
-      <c r="HK6" s="164"/>
-      <c r="HL6" s="164"/>
-      <c r="HM6" s="164"/>
-      <c r="HN6" s="164"/>
-      <c r="HO6" s="164"/>
-      <c r="HP6" s="164"/>
-      <c r="HQ6" s="164"/>
-      <c r="HR6" s="164"/>
-      <c r="HS6" s="164"/>
-      <c r="HT6" s="164"/>
-      <c r="HU6" s="164"/>
-      <c r="HV6" s="164"/>
-      <c r="HW6" s="164"/>
-      <c r="HX6" s="164"/>
-      <c r="HY6" s="164"/>
-      <c r="HZ6" s="164"/>
-      <c r="IA6" s="164"/>
-      <c r="IB6" s="164"/>
-      <c r="IC6" s="164"/>
-      <c r="ID6" s="164"/>
-      <c r="IE6" s="164"/>
-      <c r="IF6" s="164"/>
-      <c r="IG6" s="164"/>
-      <c r="IH6" s="164"/>
-      <c r="II6" s="165"/>
-      <c r="IJ6" s="158">
+      <c r="HG6" s="169"/>
+      <c r="HH6" s="169"/>
+      <c r="HI6" s="169"/>
+      <c r="HJ6" s="169"/>
+      <c r="HK6" s="169"/>
+      <c r="HL6" s="169"/>
+      <c r="HM6" s="169"/>
+      <c r="HN6" s="169"/>
+      <c r="HO6" s="169"/>
+      <c r="HP6" s="169"/>
+      <c r="HQ6" s="169"/>
+      <c r="HR6" s="169"/>
+      <c r="HS6" s="169"/>
+      <c r="HT6" s="169"/>
+      <c r="HU6" s="169"/>
+      <c r="HV6" s="169"/>
+      <c r="HW6" s="169"/>
+      <c r="HX6" s="169"/>
+      <c r="HY6" s="169"/>
+      <c r="HZ6" s="169"/>
+      <c r="IA6" s="169"/>
+      <c r="IB6" s="169"/>
+      <c r="IC6" s="169"/>
+      <c r="ID6" s="169"/>
+      <c r="IE6" s="169"/>
+      <c r="IF6" s="169"/>
+      <c r="IG6" s="169"/>
+      <c r="IH6" s="169"/>
+      <c r="II6" s="170"/>
+      <c r="IJ6" s="163">
         <v>5</v>
       </c>
-      <c r="IK6" s="159"/>
-      <c r="IL6" s="159"/>
-      <c r="IM6" s="159"/>
-      <c r="IN6" s="159"/>
-      <c r="IO6" s="159"/>
-      <c r="IP6" s="159"/>
-      <c r="IQ6" s="159"/>
-      <c r="IR6" s="159"/>
-      <c r="IS6" s="159"/>
-      <c r="IT6" s="159"/>
-      <c r="IU6" s="159"/>
-      <c r="IV6" s="159"/>
-      <c r="IW6" s="159"/>
-      <c r="IX6" s="159"/>
-      <c r="IY6" s="159"/>
-      <c r="IZ6" s="159"/>
-      <c r="JA6" s="159"/>
-      <c r="JB6" s="159"/>
-      <c r="JC6" s="159"/>
-      <c r="JD6" s="159"/>
-      <c r="JE6" s="159"/>
-      <c r="JF6" s="159"/>
-      <c r="JG6" s="159"/>
-      <c r="JH6" s="159"/>
-      <c r="JI6" s="159"/>
-      <c r="JJ6" s="159"/>
-      <c r="JK6" s="159"/>
-      <c r="JL6" s="159"/>
-      <c r="JM6" s="159"/>
-      <c r="JN6" s="160"/>
+      <c r="IK6" s="164"/>
+      <c r="IL6" s="164"/>
+      <c r="IM6" s="164"/>
+      <c r="IN6" s="164"/>
+      <c r="IO6" s="164"/>
+      <c r="IP6" s="164"/>
+      <c r="IQ6" s="164"/>
+      <c r="IR6" s="164"/>
+      <c r="IS6" s="164"/>
+      <c r="IT6" s="164"/>
+      <c r="IU6" s="164"/>
+      <c r="IV6" s="164"/>
+      <c r="IW6" s="164"/>
+      <c r="IX6" s="164"/>
+      <c r="IY6" s="164"/>
+      <c r="IZ6" s="164"/>
+      <c r="JA6" s="164"/>
+      <c r="JB6" s="164"/>
+      <c r="JC6" s="164"/>
+      <c r="JD6" s="164"/>
+      <c r="JE6" s="164"/>
+      <c r="JF6" s="164"/>
+      <c r="JG6" s="164"/>
+      <c r="JH6" s="164"/>
+      <c r="JI6" s="164"/>
+      <c r="JJ6" s="164"/>
+      <c r="JK6" s="164"/>
+      <c r="JL6" s="164"/>
+      <c r="JM6" s="164"/>
+      <c r="JN6" s="165"/>
     </row>
     <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
@@ -4002,7 +4114,7 @@
       </c>
     </row>
     <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="166" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42"/>
@@ -4227,7 +4339,9 @@
       <c r="HC8" s="8"/>
       <c r="HD8" s="42"/>
       <c r="HE8" s="10"/>
-      <c r="HF8" s="21"/>
+      <c r="HF8" s="162" t="s">
+        <v>84</v>
+      </c>
       <c r="HG8" s="8"/>
       <c r="HH8" s="8"/>
       <c r="HI8" s="8"/>
@@ -4290,7 +4404,7 @@
       <c r="JN8" s="40"/>
     </row>
     <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="161"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4582,7 +4696,7 @@
       <c r="JN9" s="7"/>
     </row>
     <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="161"/>
+      <c r="A10" s="166"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -4768,7 +4882,7 @@
       <c r="FX10" s="75"/>
       <c r="FY10" s="75"/>
       <c r="FZ10" s="75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="GA10" s="33"/>
       <c r="GB10" s="6"/>
@@ -4781,7 +4895,7 @@
       <c r="GI10" s="6"/>
       <c r="GJ10" s="6"/>
       <c r="GK10" s="75" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="GL10" s="5"/>
       <c r="GM10" s="5"/>
@@ -4866,7 +4980,7 @@
       <c r="JN10" s="7"/>
     </row>
     <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="161"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -5064,7 +5178,7 @@
       <c r="GL11" s="5"/>
       <c r="GM11" s="5"/>
       <c r="GN11" s="117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="GO11" s="5"/>
       <c r="GP11" s="6"/>
@@ -5083,7 +5197,9 @@
       <c r="HC11" s="5"/>
       <c r="HD11" s="6"/>
       <c r="HE11" s="6"/>
-      <c r="HF11" s="16"/>
+      <c r="HF11" s="117" t="s">
+        <v>82</v>
+      </c>
       <c r="HG11" s="5"/>
       <c r="HH11" s="5"/>
       <c r="HI11" s="5"/>
@@ -5146,7 +5262,7 @@
       <c r="JN11" s="7"/>
     </row>
     <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161"/>
+      <c r="A12" s="166"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -5332,8 +5448,8 @@
       <c r="FZ12" s="79"/>
       <c r="GA12" s="33"/>
       <c r="GB12" s="6"/>
-      <c r="GC12" s="179" t="s">
-        <v>78</v>
+      <c r="GC12" s="158" t="s">
+        <v>77</v>
       </c>
       <c r="GD12" s="5"/>
       <c r="GE12" s="5"/>
@@ -5347,8 +5463,8 @@
       <c r="GM12" s="5"/>
       <c r="GN12" s="5"/>
       <c r="GO12" s="5"/>
-      <c r="GP12" s="181" t="s">
-        <v>79</v>
+      <c r="GP12" s="160" t="s">
+        <v>78</v>
       </c>
       <c r="GQ12" s="6"/>
       <c r="GR12" s="5"/>
@@ -5365,7 +5481,9 @@
       <c r="HC12" s="5"/>
       <c r="HD12" s="6"/>
       <c r="HE12" s="6"/>
-      <c r="HF12" s="16"/>
+      <c r="HF12" s="117" t="s">
+        <v>85</v>
+      </c>
       <c r="HG12" s="5"/>
       <c r="HH12" s="5"/>
       <c r="HI12" s="5"/>
@@ -5428,7 +5546,7 @@
       <c r="JN12" s="7"/>
     </row>
     <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="161"/>
+      <c r="A13" s="166"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5612,8 +5730,8 @@
       <c r="FZ13" s="79"/>
       <c r="GA13" s="33"/>
       <c r="GB13" s="6"/>
-      <c r="GC13" s="179" t="s">
-        <v>76</v>
+      <c r="GC13" s="158" t="s">
+        <v>75</v>
       </c>
       <c r="GD13" s="5"/>
       <c r="GE13" s="5"/>
@@ -5643,7 +5761,9 @@
       <c r="HC13" s="5"/>
       <c r="HD13" s="6"/>
       <c r="HE13" s="6"/>
-      <c r="HF13" s="16"/>
+      <c r="HF13" s="161" t="s">
+        <v>86</v>
+      </c>
       <c r="HG13" s="5"/>
       <c r="HH13" s="5"/>
       <c r="HI13" s="5"/>
@@ -5706,7 +5826,7 @@
       <c r="JN13" s="7"/>
     </row>
     <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="161"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -5893,8 +6013,8 @@
       <c r="GC14" s="15"/>
       <c r="GD14" s="14"/>
       <c r="GE14" s="14"/>
-      <c r="GF14" s="180" t="s">
-        <v>77</v>
+      <c r="GF14" s="159" t="s">
+        <v>76</v>
       </c>
       <c r="GG14" s="14"/>
       <c r="GH14" s="14"/>
@@ -5984,7 +6104,7 @@
       <c r="JN14" s="18"/>
     </row>
     <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="167" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -6264,7 +6384,7 @@
       <c r="JN15" s="29"/>
     </row>
     <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="161"/>
+      <c r="A16" s="166"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6480,7 +6600,9 @@
       <c r="GX16" s="12"/>
       <c r="GY16" s="11"/>
       <c r="GZ16" s="11"/>
-      <c r="HA16" s="11"/>
+      <c r="HA16" s="100" t="s">
+        <v>6</v>
+      </c>
       <c r="HB16" s="11"/>
       <c r="HC16" s="11"/>
       <c r="HD16" s="12"/>
@@ -6497,7 +6619,9 @@
       <c r="HO16" s="11"/>
       <c r="HP16" s="11"/>
       <c r="HQ16" s="11"/>
-      <c r="HR16" s="12"/>
+      <c r="HR16" s="97" t="s">
+        <v>11</v>
+      </c>
       <c r="HS16" s="12"/>
       <c r="HT16" s="11"/>
       <c r="HU16" s="11"/>
@@ -6548,7 +6672,7 @@
       <c r="JN16" s="13"/>
     </row>
     <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="161"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -6759,7 +6883,9 @@
       <c r="GX17" s="1"/>
       <c r="GY17" s="2"/>
       <c r="GZ17" s="2"/>
-      <c r="HA17" s="2"/>
+      <c r="HA17" s="100" t="s">
+        <v>10</v>
+      </c>
       <c r="HB17" s="2"/>
       <c r="HC17" s="2"/>
       <c r="HD17" s="1"/>
@@ -6827,7 +6953,7 @@
       <c r="JN17" s="4"/>
     </row>
     <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="161"/>
+      <c r="A18" s="166"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -7104,7 +7230,7 @@
       <c r="JN18" s="4"/>
     </row>
     <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="161"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7380,7 +7506,7 @@
       <c r="JN19" s="4"/>
     </row>
     <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="161"/>
+      <c r="A20" s="166"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7656,7 +7782,7 @@
       <c r="JN20" s="4"/>
     </row>
     <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="161"/>
+      <c r="A21" s="166"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -7932,7 +8058,7 @@
       <c r="JN21" s="127"/>
     </row>
     <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="161"/>
+      <c r="A22" s="166"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -8208,7 +8334,7 @@
       <c r="JN22" s="25"/>
     </row>
     <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="166" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="108"/>
@@ -8490,7 +8616,7 @@
       <c r="JN23" s="29"/>
     </row>
     <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="161"/>
+      <c r="A24" s="166"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8768,7 +8894,7 @@
       <c r="JN24" s="4"/>
     </row>
     <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="161"/>
+      <c r="A25" s="166"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -9046,7 +9172,7 @@
       <c r="JN25" s="4"/>
     </row>
     <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161"/>
+      <c r="A26" s="166"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -9330,7 +9456,7 @@
       <c r="JN26" s="4"/>
     </row>
     <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="161"/>
+      <c r="A27" s="166"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9612,7 +9738,7 @@
       <c r="JN27" s="4"/>
     </row>
     <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="161"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -9890,7 +10016,7 @@
       <c r="JN28" s="4"/>
     </row>
     <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="161"/>
+      <c r="A29" s="166"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -10168,7 +10294,7 @@
       <c r="JN29" s="4"/>
     </row>
     <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="161"/>
+      <c r="A30" s="166"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -11717,9 +11843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11750,10 +11876,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="172">
+      <c r="B4" s="177">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="178"/>
       <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -11761,7 +11887,7 @@
       <c r="E4" s="140"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="176">
+      <c r="B5" s="181">
         <v>12</v>
       </c>
       <c r="C5" s="143">
@@ -11775,7 +11901,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="177"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="141">
         <v>17</v>
       </c>
@@ -11787,7 +11913,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="177"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="141">
         <v>19</v>
       </c>
@@ -11799,7 +11925,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="177"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="134">
         <v>22</v>
       </c>
@@ -11811,7 +11937,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="177"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="134">
         <v>23</v>
       </c>
@@ -11823,7 +11949,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="177"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="134">
         <v>25</v>
       </c>
@@ -11835,7 +11961,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="177"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="134">
         <v>26</v>
       </c>
@@ -11847,7 +11973,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="177"/>
+      <c r="B12" s="182"/>
       <c r="C12" s="134">
         <v>29</v>
       </c>
@@ -11859,7 +11985,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="178"/>
+      <c r="B13" s="183"/>
       <c r="C13" s="137">
         <v>30</v>
       </c>
@@ -11871,10 +11997,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="174">
+      <c r="B14" s="179">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="175"/>
+      <c r="C14" s="180"/>
       <c r="D14" s="154">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -11882,7 +12008,7 @@
       <c r="E14" s="155"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="133">
+      <c r="B15" s="184">
         <v>1</v>
       </c>
       <c r="C15" s="134">
@@ -11896,9 +12022,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="133">
-        <v>1</v>
-      </c>
+      <c r="B16" s="185"/>
       <c r="C16" s="134">
         <v>5</v>
       </c>
@@ -11910,9 +12034,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="133">
-        <v>1</v>
-      </c>
+      <c r="B17" s="185"/>
       <c r="C17" s="134">
         <v>13</v>
       </c>
@@ -11924,9 +12046,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="133">
-        <v>1</v>
-      </c>
+      <c r="B18" s="185"/>
       <c r="C18" s="134">
         <v>15</v>
       </c>
@@ -11938,9 +12058,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="133">
-        <v>1</v>
-      </c>
+      <c r="B19" s="185"/>
       <c r="C19" s="134">
         <v>17</v>
       </c>
@@ -11952,9 +12070,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="133">
-        <v>1</v>
-      </c>
+      <c r="B20" s="185"/>
       <c r="C20" s="134">
         <v>18</v>
       </c>
@@ -11966,9 +12082,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="133">
-        <v>1</v>
-      </c>
+      <c r="B21" s="185"/>
       <c r="C21" s="134">
         <v>21</v>
       </c>
@@ -11980,9 +12094,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="133">
-        <v>1</v>
-      </c>
+      <c r="B22" s="185"/>
       <c r="C22" s="134">
         <v>22</v>
       </c>
@@ -11994,9 +12106,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="136">
-        <v>1</v>
-      </c>
+      <c r="B23" s="186"/>
       <c r="C23" s="137">
         <v>28</v>
       </c>
@@ -12008,10 +12118,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="172">
+      <c r="B24" s="177">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="173"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="139">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -12019,7 +12129,7 @@
       <c r="E24" s="142"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="133">
+      <c r="B25" s="184">
         <v>2</v>
       </c>
       <c r="C25" s="134">
@@ -12033,7 +12143,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="133"/>
+      <c r="B26" s="185"/>
       <c r="C26" s="134">
         <v>11</v>
       </c>
@@ -12045,7 +12155,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="133"/>
+      <c r="B27" s="185"/>
       <c r="C27" s="134">
         <v>12</v>
       </c>
@@ -12057,7 +12167,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="133"/>
+      <c r="B28" s="185"/>
       <c r="C28" s="134">
         <v>12</v>
       </c>
@@ -12069,7 +12179,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="133"/>
+      <c r="B29" s="185"/>
       <c r="C29" s="134">
         <v>24</v>
       </c>
@@ -12081,7 +12191,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="133"/>
+      <c r="B30" s="187"/>
       <c r="C30" s="134">
         <v>26</v>
       </c>
@@ -12089,22 +12199,24 @@
         <v>5</v>
       </c>
       <c r="E30" s="142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="172">
-        <v>2019.02</v>
-      </c>
-      <c r="C31" s="173"/>
+      <c r="B31" s="177">
+        <v>2019.03</v>
+      </c>
+      <c r="C31" s="178"/>
       <c r="D31" s="139">
-        <f>SUM(D32:D70)</f>
-        <v>30</v>
+        <f>SUM(D32:D43)</f>
+        <v>51</v>
       </c>
       <c r="E31" s="142"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="133"/>
+      <c r="B32" s="133">
+        <v>3</v>
+      </c>
       <c r="C32" s="134">
         <v>2</v>
       </c>
@@ -12112,7 +12224,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -12122,7 +12234,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -12134,7 +12246,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -12146,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="142" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -12158,7 +12270,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="142" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -12170,7 +12282,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -12182,80 +12294,151 @@
         <v>5</v>
       </c>
       <c r="E38" s="142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="142"/>
+      <c r="C39" s="134">
+        <v>17</v>
+      </c>
+      <c r="D39" s="135">
+        <v>8</v>
+      </c>
+      <c r="E39" s="142" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="133"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="142"/>
+      <c r="C40" s="134">
+        <v>18</v>
+      </c>
+      <c r="D40" s="135">
+        <v>4</v>
+      </c>
+      <c r="E40" s="142" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="133"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="142"/>
+      <c r="C41" s="134">
+        <v>26</v>
+      </c>
+      <c r="D41" s="135">
+        <v>4</v>
+      </c>
+      <c r="E41" s="142" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="133"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="142"/>
+      <c r="C42" s="134">
+        <v>27</v>
+      </c>
+      <c r="D42" s="135">
+        <v>2</v>
+      </c>
+      <c r="E42" s="142" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="133"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="142"/>
+      <c r="C43" s="134">
+        <v>29</v>
+      </c>
+      <c r="D43" s="135">
+        <v>3</v>
+      </c>
+      <c r="E43" s="142" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="133"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="135"/>
+      <c r="B44" s="177">
+        <v>2019.04</v>
+      </c>
+      <c r="C44" s="178"/>
+      <c r="D44" s="139">
+        <f>SUM(D45:D56)</f>
+        <v>20</v>
+      </c>
       <c r="E44" s="142"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="133"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="142"/>
+      <c r="C45" s="134">
+        <v>1</v>
+      </c>
+      <c r="D45" s="135">
+        <v>3</v>
+      </c>
+      <c r="E45" s="142" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="133"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="142"/>
+      <c r="C46" s="134">
+        <v>3</v>
+      </c>
+      <c r="D46" s="135">
+        <v>3</v>
+      </c>
+      <c r="E46" s="142" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="133"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="142"/>
+      <c r="C47" s="134">
+        <v>4</v>
+      </c>
+      <c r="D47" s="135">
+        <v>4</v>
+      </c>
+      <c r="E47" s="142" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="133"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="142"/>
+      <c r="C48" s="134">
+        <v>9</v>
+      </c>
+      <c r="D48" s="135">
+        <v>2</v>
+      </c>
+      <c r="E48" s="142" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="133"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="142"/>
+      <c r="C49" s="134">
+        <v>10</v>
+      </c>
+      <c r="D49" s="135">
+        <v>4</v>
+      </c>
+      <c r="E49" s="142" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="133"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="142"/>
+      <c r="C50" s="134">
+        <v>11</v>
+      </c>
+      <c r="D50" s="135">
+        <v>4</v>
+      </c>
+      <c r="E50" s="142" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="133"/>
@@ -12300,12 +12483,15 @@
       <c r="E57" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B25:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +495,31 @@
   </si>
   <si>
     <t>RF Gen - PL 작성, 부품 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen - 부품 구매 목록 list 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Sch&amp;PCB 수정 - Femto 요청 사항 update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen CPU PCb 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen 부품 check, Pipette Freq 수정 검토 - RF Gen에서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen 부품 check, Pipette Freq 수정 검토 - RF Gen에서 사용
+PWR PCB 제작중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen Power PCB debugging - Pre-amp Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1588,6 +1613,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2999,297 +3027,297 @@
     </row>
     <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="174">
+      <c r="B6" s="175">
         <v>9</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="175"/>
-      <c r="AE6" s="176"/>
-      <c r="AF6" s="171">
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="176"/>
+      <c r="AA6" s="176"/>
+      <c r="AB6" s="176"/>
+      <c r="AC6" s="176"/>
+      <c r="AD6" s="176"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="172">
         <v>10</v>
       </c>
-      <c r="AG6" s="171"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="171"/>
-      <c r="AK6" s="171"/>
-      <c r="AL6" s="171"/>
-      <c r="AM6" s="171"/>
-      <c r="AN6" s="171"/>
-      <c r="AO6" s="171"/>
-      <c r="AP6" s="171"/>
-      <c r="AQ6" s="171"/>
-      <c r="AR6" s="171"/>
-      <c r="AS6" s="171"/>
-      <c r="AT6" s="171"/>
-      <c r="AU6" s="171"/>
-      <c r="AV6" s="171"/>
-      <c r="AW6" s="171"/>
-      <c r="AX6" s="171"/>
-      <c r="AY6" s="171"/>
-      <c r="AZ6" s="171"/>
-      <c r="BA6" s="171"/>
-      <c r="BB6" s="171"/>
-      <c r="BC6" s="171"/>
-      <c r="BD6" s="171"/>
-      <c r="BE6" s="171"/>
-      <c r="BF6" s="171"/>
-      <c r="BG6" s="171"/>
-      <c r="BH6" s="171"/>
-      <c r="BI6" s="171"/>
-      <c r="BJ6" s="172"/>
-      <c r="BK6" s="174">
+      <c r="AG6" s="172"/>
+      <c r="AH6" s="172"/>
+      <c r="AI6" s="172"/>
+      <c r="AJ6" s="172"/>
+      <c r="AK6" s="172"/>
+      <c r="AL6" s="172"/>
+      <c r="AM6" s="172"/>
+      <c r="AN6" s="172"/>
+      <c r="AO6" s="172"/>
+      <c r="AP6" s="172"/>
+      <c r="AQ6" s="172"/>
+      <c r="AR6" s="172"/>
+      <c r="AS6" s="172"/>
+      <c r="AT6" s="172"/>
+      <c r="AU6" s="172"/>
+      <c r="AV6" s="172"/>
+      <c r="AW6" s="172"/>
+      <c r="AX6" s="172"/>
+      <c r="AY6" s="172"/>
+      <c r="AZ6" s="172"/>
+      <c r="BA6" s="172"/>
+      <c r="BB6" s="172"/>
+      <c r="BC6" s="172"/>
+      <c r="BD6" s="172"/>
+      <c r="BE6" s="172"/>
+      <c r="BF6" s="172"/>
+      <c r="BG6" s="172"/>
+      <c r="BH6" s="172"/>
+      <c r="BI6" s="172"/>
+      <c r="BJ6" s="173"/>
+      <c r="BK6" s="175">
         <v>11</v>
       </c>
-      <c r="BL6" s="175"/>
-      <c r="BM6" s="175"/>
-      <c r="BN6" s="175"/>
-      <c r="BO6" s="175"/>
-      <c r="BP6" s="175"/>
-      <c r="BQ6" s="175"/>
-      <c r="BR6" s="175"/>
-      <c r="BS6" s="175"/>
-      <c r="BT6" s="175"/>
-      <c r="BU6" s="175"/>
-      <c r="BV6" s="175"/>
-      <c r="BW6" s="175"/>
-      <c r="BX6" s="175"/>
-      <c r="BY6" s="175"/>
-      <c r="BZ6" s="175"/>
-      <c r="CA6" s="175"/>
-      <c r="CB6" s="175"/>
-      <c r="CC6" s="175"/>
-      <c r="CD6" s="175"/>
-      <c r="CE6" s="175"/>
-      <c r="CF6" s="175"/>
-      <c r="CG6" s="175"/>
-      <c r="CH6" s="175"/>
-      <c r="CI6" s="175"/>
-      <c r="CJ6" s="175"/>
-      <c r="CK6" s="175"/>
-      <c r="CL6" s="175"/>
-      <c r="CM6" s="175"/>
-      <c r="CN6" s="176"/>
-      <c r="CO6" s="171">
+      <c r="BL6" s="176"/>
+      <c r="BM6" s="176"/>
+      <c r="BN6" s="176"/>
+      <c r="BO6" s="176"/>
+      <c r="BP6" s="176"/>
+      <c r="BQ6" s="176"/>
+      <c r="BR6" s="176"/>
+      <c r="BS6" s="176"/>
+      <c r="BT6" s="176"/>
+      <c r="BU6" s="176"/>
+      <c r="BV6" s="176"/>
+      <c r="BW6" s="176"/>
+      <c r="BX6" s="176"/>
+      <c r="BY6" s="176"/>
+      <c r="BZ6" s="176"/>
+      <c r="CA6" s="176"/>
+      <c r="CB6" s="176"/>
+      <c r="CC6" s="176"/>
+      <c r="CD6" s="176"/>
+      <c r="CE6" s="176"/>
+      <c r="CF6" s="176"/>
+      <c r="CG6" s="176"/>
+      <c r="CH6" s="176"/>
+      <c r="CI6" s="176"/>
+      <c r="CJ6" s="176"/>
+      <c r="CK6" s="176"/>
+      <c r="CL6" s="176"/>
+      <c r="CM6" s="176"/>
+      <c r="CN6" s="177"/>
+      <c r="CO6" s="172">
         <v>12</v>
       </c>
-      <c r="CP6" s="171"/>
-      <c r="CQ6" s="171"/>
-      <c r="CR6" s="171"/>
-      <c r="CS6" s="171"/>
-      <c r="CT6" s="171"/>
-      <c r="CU6" s="171"/>
-      <c r="CV6" s="171"/>
-      <c r="CW6" s="171"/>
-      <c r="CX6" s="171"/>
-      <c r="CY6" s="171"/>
-      <c r="CZ6" s="171"/>
-      <c r="DA6" s="171"/>
-      <c r="DB6" s="171"/>
-      <c r="DC6" s="171"/>
-      <c r="DD6" s="171"/>
-      <c r="DE6" s="171"/>
-      <c r="DF6" s="171"/>
-      <c r="DG6" s="171"/>
-      <c r="DH6" s="171"/>
-      <c r="DI6" s="171"/>
-      <c r="DJ6" s="171"/>
-      <c r="DK6" s="171"/>
-      <c r="DL6" s="171"/>
-      <c r="DM6" s="171"/>
-      <c r="DN6" s="171"/>
-      <c r="DO6" s="171"/>
-      <c r="DP6" s="171"/>
-      <c r="DQ6" s="171"/>
-      <c r="DR6" s="171"/>
-      <c r="DS6" s="172"/>
-      <c r="DT6" s="171">
+      <c r="CP6" s="172"/>
+      <c r="CQ6" s="172"/>
+      <c r="CR6" s="172"/>
+      <c r="CS6" s="172"/>
+      <c r="CT6" s="172"/>
+      <c r="CU6" s="172"/>
+      <c r="CV6" s="172"/>
+      <c r="CW6" s="172"/>
+      <c r="CX6" s="172"/>
+      <c r="CY6" s="172"/>
+      <c r="CZ6" s="172"/>
+      <c r="DA6" s="172"/>
+      <c r="DB6" s="172"/>
+      <c r="DC6" s="172"/>
+      <c r="DD6" s="172"/>
+      <c r="DE6" s="172"/>
+      <c r="DF6" s="172"/>
+      <c r="DG6" s="172"/>
+      <c r="DH6" s="172"/>
+      <c r="DI6" s="172"/>
+      <c r="DJ6" s="172"/>
+      <c r="DK6" s="172"/>
+      <c r="DL6" s="172"/>
+      <c r="DM6" s="172"/>
+      <c r="DN6" s="172"/>
+      <c r="DO6" s="172"/>
+      <c r="DP6" s="172"/>
+      <c r="DQ6" s="172"/>
+      <c r="DR6" s="172"/>
+      <c r="DS6" s="173"/>
+      <c r="DT6" s="172">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="171"/>
-      <c r="DV6" s="171"/>
-      <c r="DW6" s="171"/>
-      <c r="DX6" s="171"/>
-      <c r="DY6" s="171"/>
-      <c r="DZ6" s="171"/>
-      <c r="EA6" s="171"/>
-      <c r="EB6" s="171"/>
-      <c r="EC6" s="171"/>
-      <c r="ED6" s="171"/>
-      <c r="EE6" s="171"/>
-      <c r="EF6" s="171"/>
-      <c r="EG6" s="171"/>
-      <c r="EH6" s="171"/>
-      <c r="EI6" s="171"/>
-      <c r="EJ6" s="171"/>
-      <c r="EK6" s="171"/>
-      <c r="EL6" s="171"/>
-      <c r="EM6" s="171"/>
-      <c r="EN6" s="171"/>
-      <c r="EO6" s="171"/>
-      <c r="EP6" s="171"/>
-      <c r="EQ6" s="171"/>
-      <c r="ER6" s="171"/>
-      <c r="ES6" s="171"/>
-      <c r="ET6" s="171"/>
-      <c r="EU6" s="171"/>
-      <c r="EV6" s="171"/>
-      <c r="EW6" s="171"/>
-      <c r="EX6" s="172"/>
-      <c r="EY6" s="173">
+      <c r="DU6" s="172"/>
+      <c r="DV6" s="172"/>
+      <c r="DW6" s="172"/>
+      <c r="DX6" s="172"/>
+      <c r="DY6" s="172"/>
+      <c r="DZ6" s="172"/>
+      <c r="EA6" s="172"/>
+      <c r="EB6" s="172"/>
+      <c r="EC6" s="172"/>
+      <c r="ED6" s="172"/>
+      <c r="EE6" s="172"/>
+      <c r="EF6" s="172"/>
+      <c r="EG6" s="172"/>
+      <c r="EH6" s="172"/>
+      <c r="EI6" s="172"/>
+      <c r="EJ6" s="172"/>
+      <c r="EK6" s="172"/>
+      <c r="EL6" s="172"/>
+      <c r="EM6" s="172"/>
+      <c r="EN6" s="172"/>
+      <c r="EO6" s="172"/>
+      <c r="EP6" s="172"/>
+      <c r="EQ6" s="172"/>
+      <c r="ER6" s="172"/>
+      <c r="ES6" s="172"/>
+      <c r="ET6" s="172"/>
+      <c r="EU6" s="172"/>
+      <c r="EV6" s="172"/>
+      <c r="EW6" s="172"/>
+      <c r="EX6" s="173"/>
+      <c r="EY6" s="174">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="171"/>
-      <c r="FA6" s="171"/>
-      <c r="FB6" s="171"/>
-      <c r="FC6" s="171"/>
-      <c r="FD6" s="171"/>
-      <c r="FE6" s="171"/>
-      <c r="FF6" s="171"/>
-      <c r="FG6" s="171"/>
-      <c r="FH6" s="171"/>
-      <c r="FI6" s="171"/>
-      <c r="FJ6" s="171"/>
-      <c r="FK6" s="171"/>
-      <c r="FL6" s="171"/>
-      <c r="FM6" s="171"/>
-      <c r="FN6" s="171"/>
-      <c r="FO6" s="171"/>
-      <c r="FP6" s="171"/>
-      <c r="FQ6" s="171"/>
-      <c r="FR6" s="171"/>
-      <c r="FS6" s="171"/>
-      <c r="FT6" s="171"/>
-      <c r="FU6" s="171"/>
-      <c r="FV6" s="171"/>
-      <c r="FW6" s="171"/>
-      <c r="FX6" s="171"/>
-      <c r="FY6" s="171"/>
-      <c r="FZ6" s="172"/>
-      <c r="GA6" s="164">
+      <c r="EZ6" s="172"/>
+      <c r="FA6" s="172"/>
+      <c r="FB6" s="172"/>
+      <c r="FC6" s="172"/>
+      <c r="FD6" s="172"/>
+      <c r="FE6" s="172"/>
+      <c r="FF6" s="172"/>
+      <c r="FG6" s="172"/>
+      <c r="FH6" s="172"/>
+      <c r="FI6" s="172"/>
+      <c r="FJ6" s="172"/>
+      <c r="FK6" s="172"/>
+      <c r="FL6" s="172"/>
+      <c r="FM6" s="172"/>
+      <c r="FN6" s="172"/>
+      <c r="FO6" s="172"/>
+      <c r="FP6" s="172"/>
+      <c r="FQ6" s="172"/>
+      <c r="FR6" s="172"/>
+      <c r="FS6" s="172"/>
+      <c r="FT6" s="172"/>
+      <c r="FU6" s="172"/>
+      <c r="FV6" s="172"/>
+      <c r="FW6" s="172"/>
+      <c r="FX6" s="172"/>
+      <c r="FY6" s="172"/>
+      <c r="FZ6" s="173"/>
+      <c r="GA6" s="165">
         <v>3</v>
       </c>
-      <c r="GB6" s="164"/>
-      <c r="GC6" s="164"/>
-      <c r="GD6" s="164"/>
-      <c r="GE6" s="164"/>
-      <c r="GF6" s="164"/>
-      <c r="GG6" s="164"/>
-      <c r="GH6" s="164"/>
-      <c r="GI6" s="164"/>
-      <c r="GJ6" s="164"/>
-      <c r="GK6" s="164"/>
-      <c r="GL6" s="164"/>
-      <c r="GM6" s="164"/>
-      <c r="GN6" s="164"/>
-      <c r="GO6" s="164"/>
-      <c r="GP6" s="164"/>
-      <c r="GQ6" s="164"/>
-      <c r="GR6" s="164"/>
-      <c r="GS6" s="164"/>
-      <c r="GT6" s="164"/>
-      <c r="GU6" s="164"/>
-      <c r="GV6" s="164"/>
-      <c r="GW6" s="164"/>
-      <c r="GX6" s="164"/>
-      <c r="GY6" s="164"/>
-      <c r="GZ6" s="164"/>
-      <c r="HA6" s="164"/>
-      <c r="HB6" s="164"/>
-      <c r="HC6" s="164"/>
-      <c r="HD6" s="164"/>
-      <c r="HE6" s="164"/>
-      <c r="HF6" s="168">
+      <c r="GB6" s="165"/>
+      <c r="GC6" s="165"/>
+      <c r="GD6" s="165"/>
+      <c r="GE6" s="165"/>
+      <c r="GF6" s="165"/>
+      <c r="GG6" s="165"/>
+      <c r="GH6" s="165"/>
+      <c r="GI6" s="165"/>
+      <c r="GJ6" s="165"/>
+      <c r="GK6" s="165"/>
+      <c r="GL6" s="165"/>
+      <c r="GM6" s="165"/>
+      <c r="GN6" s="165"/>
+      <c r="GO6" s="165"/>
+      <c r="GP6" s="165"/>
+      <c r="GQ6" s="165"/>
+      <c r="GR6" s="165"/>
+      <c r="GS6" s="165"/>
+      <c r="GT6" s="165"/>
+      <c r="GU6" s="165"/>
+      <c r="GV6" s="165"/>
+      <c r="GW6" s="165"/>
+      <c r="GX6" s="165"/>
+      <c r="GY6" s="165"/>
+      <c r="GZ6" s="165"/>
+      <c r="HA6" s="165"/>
+      <c r="HB6" s="165"/>
+      <c r="HC6" s="165"/>
+      <c r="HD6" s="165"/>
+      <c r="HE6" s="165"/>
+      <c r="HF6" s="169">
         <v>4</v>
       </c>
-      <c r="HG6" s="169"/>
-      <c r="HH6" s="169"/>
-      <c r="HI6" s="169"/>
-      <c r="HJ6" s="169"/>
-      <c r="HK6" s="169"/>
-      <c r="HL6" s="169"/>
-      <c r="HM6" s="169"/>
-      <c r="HN6" s="169"/>
-      <c r="HO6" s="169"/>
-      <c r="HP6" s="169"/>
-      <c r="HQ6" s="169"/>
-      <c r="HR6" s="169"/>
-      <c r="HS6" s="169"/>
-      <c r="HT6" s="169"/>
-      <c r="HU6" s="169"/>
-      <c r="HV6" s="169"/>
-      <c r="HW6" s="169"/>
-      <c r="HX6" s="169"/>
-      <c r="HY6" s="169"/>
-      <c r="HZ6" s="169"/>
-      <c r="IA6" s="169"/>
-      <c r="IB6" s="169"/>
-      <c r="IC6" s="169"/>
-      <c r="ID6" s="169"/>
-      <c r="IE6" s="169"/>
-      <c r="IF6" s="169"/>
-      <c r="IG6" s="169"/>
-      <c r="IH6" s="169"/>
-      <c r="II6" s="170"/>
-      <c r="IJ6" s="163">
+      <c r="HG6" s="170"/>
+      <c r="HH6" s="170"/>
+      <c r="HI6" s="170"/>
+      <c r="HJ6" s="170"/>
+      <c r="HK6" s="170"/>
+      <c r="HL6" s="170"/>
+      <c r="HM6" s="170"/>
+      <c r="HN6" s="170"/>
+      <c r="HO6" s="170"/>
+      <c r="HP6" s="170"/>
+      <c r="HQ6" s="170"/>
+      <c r="HR6" s="170"/>
+      <c r="HS6" s="170"/>
+      <c r="HT6" s="170"/>
+      <c r="HU6" s="170"/>
+      <c r="HV6" s="170"/>
+      <c r="HW6" s="170"/>
+      <c r="HX6" s="170"/>
+      <c r="HY6" s="170"/>
+      <c r="HZ6" s="170"/>
+      <c r="IA6" s="170"/>
+      <c r="IB6" s="170"/>
+      <c r="IC6" s="170"/>
+      <c r="ID6" s="170"/>
+      <c r="IE6" s="170"/>
+      <c r="IF6" s="170"/>
+      <c r="IG6" s="170"/>
+      <c r="IH6" s="170"/>
+      <c r="II6" s="171"/>
+      <c r="IJ6" s="164">
         <v>5</v>
       </c>
-      <c r="IK6" s="164"/>
-      <c r="IL6" s="164"/>
-      <c r="IM6" s="164"/>
-      <c r="IN6" s="164"/>
-      <c r="IO6" s="164"/>
-      <c r="IP6" s="164"/>
-      <c r="IQ6" s="164"/>
-      <c r="IR6" s="164"/>
-      <c r="IS6" s="164"/>
-      <c r="IT6" s="164"/>
-      <c r="IU6" s="164"/>
-      <c r="IV6" s="164"/>
-      <c r="IW6" s="164"/>
-      <c r="IX6" s="164"/>
-      <c r="IY6" s="164"/>
-      <c r="IZ6" s="164"/>
-      <c r="JA6" s="164"/>
-      <c r="JB6" s="164"/>
-      <c r="JC6" s="164"/>
-      <c r="JD6" s="164"/>
-      <c r="JE6" s="164"/>
-      <c r="JF6" s="164"/>
-      <c r="JG6" s="164"/>
-      <c r="JH6" s="164"/>
-      <c r="JI6" s="164"/>
-      <c r="JJ6" s="164"/>
-      <c r="JK6" s="164"/>
-      <c r="JL6" s="164"/>
-      <c r="JM6" s="164"/>
-      <c r="JN6" s="165"/>
+      <c r="IK6" s="165"/>
+      <c r="IL6" s="165"/>
+      <c r="IM6" s="165"/>
+      <c r="IN6" s="165"/>
+      <c r="IO6" s="165"/>
+      <c r="IP6" s="165"/>
+      <c r="IQ6" s="165"/>
+      <c r="IR6" s="165"/>
+      <c r="IS6" s="165"/>
+      <c r="IT6" s="165"/>
+      <c r="IU6" s="165"/>
+      <c r="IV6" s="165"/>
+      <c r="IW6" s="165"/>
+      <c r="IX6" s="165"/>
+      <c r="IY6" s="165"/>
+      <c r="IZ6" s="165"/>
+      <c r="JA6" s="165"/>
+      <c r="JB6" s="165"/>
+      <c r="JC6" s="165"/>
+      <c r="JD6" s="165"/>
+      <c r="JE6" s="165"/>
+      <c r="JF6" s="165"/>
+      <c r="JG6" s="165"/>
+      <c r="JH6" s="165"/>
+      <c r="JI6" s="165"/>
+      <c r="JJ6" s="165"/>
+      <c r="JK6" s="165"/>
+      <c r="JL6" s="165"/>
+      <c r="JM6" s="165"/>
+      <c r="JN6" s="166"/>
     </row>
     <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
@@ -4114,7 +4142,7 @@
       </c>
     </row>
     <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="167" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42"/>
@@ -4404,7 +4432,7 @@
       <c r="JN8" s="40"/>
     </row>
     <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="166"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4696,7 +4724,7 @@
       <c r="JN9" s="7"/>
     </row>
     <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="166"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -4980,7 +5008,7 @@
       <c r="JN10" s="7"/>
     </row>
     <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="166"/>
+      <c r="A11" s="167"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -5262,7 +5290,7 @@
       <c r="JN11" s="7"/>
     </row>
     <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="166"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -5546,7 +5574,7 @@
       <c r="JN12" s="7"/>
     </row>
     <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="166"/>
+      <c r="A13" s="167"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5826,7 +5854,7 @@
       <c r="JN13" s="7"/>
     </row>
     <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="166"/>
+      <c r="A14" s="167"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -6104,7 +6132,7 @@
       <c r="JN14" s="18"/>
     </row>
     <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="168" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -6384,7 +6412,7 @@
       <c r="JN15" s="29"/>
     </row>
     <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="166"/>
+      <c r="A16" s="167"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6672,7 +6700,7 @@
       <c r="JN16" s="13"/>
     </row>
     <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="166"/>
+      <c r="A17" s="167"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -6953,7 +6981,7 @@
       <c r="JN17" s="4"/>
     </row>
     <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="166"/>
+      <c r="A18" s="167"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -7230,7 +7258,7 @@
       <c r="JN18" s="4"/>
     </row>
     <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="166"/>
+      <c r="A19" s="167"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7506,7 +7534,7 @@
       <c r="JN19" s="4"/>
     </row>
     <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="166"/>
+      <c r="A20" s="167"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7782,7 +7810,7 @@
       <c r="JN20" s="4"/>
     </row>
     <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="166"/>
+      <c r="A21" s="167"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -8058,7 +8086,7 @@
       <c r="JN21" s="127"/>
     </row>
     <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="166"/>
+      <c r="A22" s="167"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -8334,7 +8362,7 @@
       <c r="JN22" s="25"/>
     </row>
     <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="167" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="108"/>
@@ -8616,7 +8644,7 @@
       <c r="JN23" s="29"/>
     </row>
     <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="166"/>
+      <c r="A24" s="167"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8894,7 +8922,7 @@
       <c r="JN24" s="4"/>
     </row>
     <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="166"/>
+      <c r="A25" s="167"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -9172,7 +9200,7 @@
       <c r="JN25" s="4"/>
     </row>
     <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="166"/>
+      <c r="A26" s="167"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -9456,7 +9484,7 @@
       <c r="JN26" s="4"/>
     </row>
     <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="166"/>
+      <c r="A27" s="167"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9738,7 +9766,7 @@
       <c r="JN27" s="4"/>
     </row>
     <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="166"/>
+      <c r="A28" s="167"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -10016,7 +10044,7 @@
       <c r="JN28" s="4"/>
     </row>
     <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="166"/>
+      <c r="A29" s="167"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -10294,7 +10322,7 @@
       <c r="JN29" s="4"/>
     </row>
     <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="166"/>
+      <c r="A30" s="167"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -11841,11 +11869,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E57"/>
+  <dimension ref="B2:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11876,10 +11904,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="177">
+      <c r="B4" s="178">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="179"/>
       <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -11887,7 +11915,7 @@
       <c r="E4" s="140"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="181">
+      <c r="B5" s="182">
         <v>12</v>
       </c>
       <c r="C5" s="143">
@@ -11901,7 +11929,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="182"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="141">
         <v>17</v>
       </c>
@@ -11913,7 +11941,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="182"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="141">
         <v>19</v>
       </c>
@@ -11925,7 +11953,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="182"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="134">
         <v>22</v>
       </c>
@@ -11937,7 +11965,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="182"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="134">
         <v>23</v>
       </c>
@@ -11949,7 +11977,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="182"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="134">
         <v>25</v>
       </c>
@@ -11961,7 +11989,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="182"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="134">
         <v>26</v>
       </c>
@@ -11973,7 +12001,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="182"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="134">
         <v>29</v>
       </c>
@@ -11985,7 +12013,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="183"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="137">
         <v>30</v>
       </c>
@@ -11997,10 +12025,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="179">
+      <c r="B14" s="180">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="180"/>
+      <c r="C14" s="181"/>
       <c r="D14" s="154">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -12008,7 +12036,7 @@
       <c r="E14" s="155"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="184">
+      <c r="B15" s="185">
         <v>1</v>
       </c>
       <c r="C15" s="134">
@@ -12022,7 +12050,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="185"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="134">
         <v>5</v>
       </c>
@@ -12034,7 +12062,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="185"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="134">
         <v>13</v>
       </c>
@@ -12046,7 +12074,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="185"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="134">
         <v>15</v>
       </c>
@@ -12058,7 +12086,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="185"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="134">
         <v>17</v>
       </c>
@@ -12070,7 +12098,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="185"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="134">
         <v>18</v>
       </c>
@@ -12082,7 +12110,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="185"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="134">
         <v>21</v>
       </c>
@@ -12094,7 +12122,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="185"/>
+      <c r="B22" s="186"/>
       <c r="C22" s="134">
         <v>22</v>
       </c>
@@ -12106,7 +12134,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="186"/>
+      <c r="B23" s="187"/>
       <c r="C23" s="137">
         <v>28</v>
       </c>
@@ -12118,10 +12146,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="177">
+      <c r="B24" s="178">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="178"/>
+      <c r="C24" s="179"/>
       <c r="D24" s="139">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -12129,7 +12157,7 @@
       <c r="E24" s="142"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="184">
+      <c r="B25" s="185">
         <v>2</v>
       </c>
       <c r="C25" s="134">
@@ -12143,7 +12171,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="185"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="134">
         <v>11</v>
       </c>
@@ -12155,7 +12183,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="185"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="134">
         <v>12</v>
       </c>
@@ -12167,7 +12195,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="185"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="134">
         <v>12</v>
       </c>
@@ -12179,7 +12207,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="185"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="134">
         <v>24</v>
       </c>
@@ -12191,7 +12219,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="187"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="134">
         <v>26</v>
       </c>
@@ -12203,10 +12231,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="177">
+      <c r="B31" s="178">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="178"/>
+      <c r="C31" s="179"/>
       <c r="D31" s="139">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -12358,13 +12386,13 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="177">
+      <c r="B44" s="178">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="178"/>
+      <c r="C44" s="179"/>
       <c r="D44" s="139">
-        <f>SUM(D45:D56)</f>
-        <v>20</v>
+        <f>SUM(D45:D58)</f>
+        <v>50</v>
       </c>
       <c r="E44" s="142"/>
     </row>
@@ -12442,45 +12470,105 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="133"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="142"/>
+      <c r="C51" s="134">
+        <v>12</v>
+      </c>
+      <c r="D51" s="135">
+        <v>4</v>
+      </c>
+      <c r="E51" s="142" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="133"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="142"/>
+      <c r="C52" s="134">
+        <v>15</v>
+      </c>
+      <c r="D52" s="135">
+        <v>3</v>
+      </c>
+      <c r="E52" s="142" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="133"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="142"/>
+      <c r="C53" s="134">
+        <v>16</v>
+      </c>
+      <c r="D53" s="135">
+        <v>2</v>
+      </c>
+      <c r="E53" s="142" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="133"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="142"/>
+      <c r="C54" s="134">
+        <v>17</v>
+      </c>
+      <c r="D54" s="135">
+        <v>3</v>
+      </c>
+      <c r="E54" s="142" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="133"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="142"/>
+      <c r="C55" s="134">
+        <v>22</v>
+      </c>
+      <c r="D55" s="135">
+        <v>4</v>
+      </c>
+      <c r="E55" s="142" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B56" s="133"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="129"/>
+      <c r="C56" s="134">
+        <v>23</v>
+      </c>
+      <c r="D56" s="135">
+        <v>4</v>
+      </c>
+      <c r="E56" s="163" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="57" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="136"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="130"/>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="133"/>
+      <c r="C57" s="134">
+        <v>27</v>
+      </c>
+      <c r="D57" s="135">
+        <v>6</v>
+      </c>
+      <c r="E57" s="142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="133"/>
+      <c r="C58" s="134">
+        <v>29</v>
+      </c>
+      <c r="D58" s="135">
+        <v>4</v>
+      </c>
+      <c r="E58" s="142" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="136"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +522,18 @@
     <t>RF Gen Power PCB debugging - Pre-amp Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RF Gen Power PCB debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen CPU PCB 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen CPU PCB 회로 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -679,7 +691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1363,14 +1375,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1379,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1688,9 +1724,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1734,7 +1779,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1836,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1893,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1950,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +2007,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2064,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2121,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2178,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2235,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2292,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2349,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2406,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2463,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2520,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2577,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2634,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2691,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11869,11 +11914,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E59"/>
+  <dimension ref="B2:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12218,28 +12263,28 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="188"/>
-      <c r="C30" s="134">
+    <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="186"/>
+      <c r="C30" s="189">
         <v>26</v>
       </c>
-      <c r="D30" s="135">
+      <c r="D30" s="190">
         <v>5</v>
       </c>
-      <c r="E30" s="142" t="s">
+      <c r="E30" s="191" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="178">
+      <c r="B31" s="180">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="179"/>
-      <c r="D31" s="139">
+      <c r="C31" s="181"/>
+      <c r="D31" s="154">
         <f>SUM(D32:D43)</f>
         <v>51</v>
       </c>
-      <c r="E31" s="142"/>
+      <c r="E31" s="155"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="133">
@@ -12373,15 +12418,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="133"/>
-      <c r="C43" s="134">
+    <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="136"/>
+      <c r="C43" s="137">
         <v>29</v>
       </c>
-      <c r="D43" s="135">
+      <c r="D43" s="138">
         <v>3</v>
       </c>
-      <c r="E43" s="142" t="s">
+      <c r="E43" s="193" t="s">
         <v>81</v>
       </c>
     </row>
@@ -12561,17 +12606,167 @@
         <v>4</v>
       </c>
       <c r="E58" s="142" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="136"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="130"/>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="178">
+        <v>2019.05</v>
+      </c>
+      <c r="C59" s="179"/>
+      <c r="D59" s="139">
+        <f>SUM(D60:D88)</f>
+        <v>11</v>
+      </c>
+      <c r="E59" s="142"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="188"/>
+      <c r="C60" s="189">
+        <v>1</v>
+      </c>
+      <c r="D60" s="190">
+        <v>8</v>
+      </c>
+      <c r="E60" s="192" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="188"/>
+      <c r="C61" s="189">
+        <v>2</v>
+      </c>
+      <c r="D61" s="190">
+        <v>3</v>
+      </c>
+      <c r="E61" s="142" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="188"/>
+      <c r="C62" s="189"/>
+      <c r="D62" s="190"/>
+      <c r="E62" s="192"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="188"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="192"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="188"/>
+      <c r="C64" s="189"/>
+      <c r="D64" s="190"/>
+      <c r="E64" s="192"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="188"/>
+      <c r="C65" s="189"/>
+      <c r="D65" s="190"/>
+      <c r="E65" s="192"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="188"/>
+      <c r="C66" s="189"/>
+      <c r="D66" s="190"/>
+      <c r="E66" s="192"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="188"/>
+      <c r="C67" s="189"/>
+      <c r="D67" s="190"/>
+      <c r="E67" s="192"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="188"/>
+      <c r="C68" s="189"/>
+      <c r="D68" s="190"/>
+      <c r="E68" s="192"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="188"/>
+      <c r="C69" s="189"/>
+      <c r="D69" s="190"/>
+      <c r="E69" s="192"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="188"/>
+      <c r="C70" s="189"/>
+      <c r="D70" s="190"/>
+      <c r="E70" s="192"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="188"/>
+      <c r="C71" s="189"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="192"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="188"/>
+      <c r="C72" s="189"/>
+      <c r="D72" s="190"/>
+      <c r="E72" s="192"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="188"/>
+      <c r="C73" s="189"/>
+      <c r="D73" s="190"/>
+      <c r="E73" s="192"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="188"/>
+      <c r="C74" s="189"/>
+      <c r="D74" s="190"/>
+      <c r="E74" s="192"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="188"/>
+      <c r="C75" s="189"/>
+      <c r="D75" s="190"/>
+      <c r="E75" s="192"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="188"/>
+      <c r="C76" s="189"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="192"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="188"/>
+      <c r="C77" s="189"/>
+      <c r="D77" s="190"/>
+      <c r="E77" s="192"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="188"/>
+      <c r="C78" s="189"/>
+      <c r="D78" s="190"/>
+      <c r="E78" s="192"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="188"/>
+      <c r="C79" s="189"/>
+      <c r="D79" s="190"/>
+      <c r="E79" s="192"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="188"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="192"/>
+    </row>
+    <row r="81" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="136"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1652,6 +1652,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1724,18 +1736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3072,297 +3072,297 @@
     </row>
     <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="175">
+      <c r="B6" s="181">
         <v>9</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="176"/>
-      <c r="U6" s="176"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="176"/>
-      <c r="X6" s="176"/>
-      <c r="Y6" s="176"/>
-      <c r="Z6" s="176"/>
-      <c r="AA6" s="176"/>
-      <c r="AB6" s="176"/>
-      <c r="AC6" s="176"/>
-      <c r="AD6" s="176"/>
-      <c r="AE6" s="177"/>
-      <c r="AF6" s="172">
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="182"/>
+      <c r="AB6" s="182"/>
+      <c r="AC6" s="182"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="178">
         <v>10</v>
       </c>
-      <c r="AG6" s="172"/>
-      <c r="AH6" s="172"/>
-      <c r="AI6" s="172"/>
-      <c r="AJ6" s="172"/>
-      <c r="AK6" s="172"/>
-      <c r="AL6" s="172"/>
-      <c r="AM6" s="172"/>
-      <c r="AN6" s="172"/>
-      <c r="AO6" s="172"/>
-      <c r="AP6" s="172"/>
-      <c r="AQ6" s="172"/>
-      <c r="AR6" s="172"/>
-      <c r="AS6" s="172"/>
-      <c r="AT6" s="172"/>
-      <c r="AU6" s="172"/>
-      <c r="AV6" s="172"/>
-      <c r="AW6" s="172"/>
-      <c r="AX6" s="172"/>
-      <c r="AY6" s="172"/>
-      <c r="AZ6" s="172"/>
-      <c r="BA6" s="172"/>
-      <c r="BB6" s="172"/>
-      <c r="BC6" s="172"/>
-      <c r="BD6" s="172"/>
-      <c r="BE6" s="172"/>
-      <c r="BF6" s="172"/>
-      <c r="BG6" s="172"/>
-      <c r="BH6" s="172"/>
-      <c r="BI6" s="172"/>
-      <c r="BJ6" s="173"/>
-      <c r="BK6" s="175">
+      <c r="AG6" s="178"/>
+      <c r="AH6" s="178"/>
+      <c r="AI6" s="178"/>
+      <c r="AJ6" s="178"/>
+      <c r="AK6" s="178"/>
+      <c r="AL6" s="178"/>
+      <c r="AM6" s="178"/>
+      <c r="AN6" s="178"/>
+      <c r="AO6" s="178"/>
+      <c r="AP6" s="178"/>
+      <c r="AQ6" s="178"/>
+      <c r="AR6" s="178"/>
+      <c r="AS6" s="178"/>
+      <c r="AT6" s="178"/>
+      <c r="AU6" s="178"/>
+      <c r="AV6" s="178"/>
+      <c r="AW6" s="178"/>
+      <c r="AX6" s="178"/>
+      <c r="AY6" s="178"/>
+      <c r="AZ6" s="178"/>
+      <c r="BA6" s="178"/>
+      <c r="BB6" s="178"/>
+      <c r="BC6" s="178"/>
+      <c r="BD6" s="178"/>
+      <c r="BE6" s="178"/>
+      <c r="BF6" s="178"/>
+      <c r="BG6" s="178"/>
+      <c r="BH6" s="178"/>
+      <c r="BI6" s="178"/>
+      <c r="BJ6" s="179"/>
+      <c r="BK6" s="181">
         <v>11</v>
       </c>
-      <c r="BL6" s="176"/>
-      <c r="BM6" s="176"/>
-      <c r="BN6" s="176"/>
-      <c r="BO6" s="176"/>
-      <c r="BP6" s="176"/>
-      <c r="BQ6" s="176"/>
-      <c r="BR6" s="176"/>
-      <c r="BS6" s="176"/>
-      <c r="BT6" s="176"/>
-      <c r="BU6" s="176"/>
-      <c r="BV6" s="176"/>
-      <c r="BW6" s="176"/>
-      <c r="BX6" s="176"/>
-      <c r="BY6" s="176"/>
-      <c r="BZ6" s="176"/>
-      <c r="CA6" s="176"/>
-      <c r="CB6" s="176"/>
-      <c r="CC6" s="176"/>
-      <c r="CD6" s="176"/>
-      <c r="CE6" s="176"/>
-      <c r="CF6" s="176"/>
-      <c r="CG6" s="176"/>
-      <c r="CH6" s="176"/>
-      <c r="CI6" s="176"/>
-      <c r="CJ6" s="176"/>
-      <c r="CK6" s="176"/>
-      <c r="CL6" s="176"/>
-      <c r="CM6" s="176"/>
-      <c r="CN6" s="177"/>
-      <c r="CO6" s="172">
+      <c r="BL6" s="182"/>
+      <c r="BM6" s="182"/>
+      <c r="BN6" s="182"/>
+      <c r="BO6" s="182"/>
+      <c r="BP6" s="182"/>
+      <c r="BQ6" s="182"/>
+      <c r="BR6" s="182"/>
+      <c r="BS6" s="182"/>
+      <c r="BT6" s="182"/>
+      <c r="BU6" s="182"/>
+      <c r="BV6" s="182"/>
+      <c r="BW6" s="182"/>
+      <c r="BX6" s="182"/>
+      <c r="BY6" s="182"/>
+      <c r="BZ6" s="182"/>
+      <c r="CA6" s="182"/>
+      <c r="CB6" s="182"/>
+      <c r="CC6" s="182"/>
+      <c r="CD6" s="182"/>
+      <c r="CE6" s="182"/>
+      <c r="CF6" s="182"/>
+      <c r="CG6" s="182"/>
+      <c r="CH6" s="182"/>
+      <c r="CI6" s="182"/>
+      <c r="CJ6" s="182"/>
+      <c r="CK6" s="182"/>
+      <c r="CL6" s="182"/>
+      <c r="CM6" s="182"/>
+      <c r="CN6" s="183"/>
+      <c r="CO6" s="178">
         <v>12</v>
       </c>
-      <c r="CP6" s="172"/>
-      <c r="CQ6" s="172"/>
-      <c r="CR6" s="172"/>
-      <c r="CS6" s="172"/>
-      <c r="CT6" s="172"/>
-      <c r="CU6" s="172"/>
-      <c r="CV6" s="172"/>
-      <c r="CW6" s="172"/>
-      <c r="CX6" s="172"/>
-      <c r="CY6" s="172"/>
-      <c r="CZ6" s="172"/>
-      <c r="DA6" s="172"/>
-      <c r="DB6" s="172"/>
-      <c r="DC6" s="172"/>
-      <c r="DD6" s="172"/>
-      <c r="DE6" s="172"/>
-      <c r="DF6" s="172"/>
-      <c r="DG6" s="172"/>
-      <c r="DH6" s="172"/>
-      <c r="DI6" s="172"/>
-      <c r="DJ6" s="172"/>
-      <c r="DK6" s="172"/>
-      <c r="DL6" s="172"/>
-      <c r="DM6" s="172"/>
-      <c r="DN6" s="172"/>
-      <c r="DO6" s="172"/>
-      <c r="DP6" s="172"/>
-      <c r="DQ6" s="172"/>
-      <c r="DR6" s="172"/>
-      <c r="DS6" s="173"/>
-      <c r="DT6" s="172">
+      <c r="CP6" s="178"/>
+      <c r="CQ6" s="178"/>
+      <c r="CR6" s="178"/>
+      <c r="CS6" s="178"/>
+      <c r="CT6" s="178"/>
+      <c r="CU6" s="178"/>
+      <c r="CV6" s="178"/>
+      <c r="CW6" s="178"/>
+      <c r="CX6" s="178"/>
+      <c r="CY6" s="178"/>
+      <c r="CZ6" s="178"/>
+      <c r="DA6" s="178"/>
+      <c r="DB6" s="178"/>
+      <c r="DC6" s="178"/>
+      <c r="DD6" s="178"/>
+      <c r="DE6" s="178"/>
+      <c r="DF6" s="178"/>
+      <c r="DG6" s="178"/>
+      <c r="DH6" s="178"/>
+      <c r="DI6" s="178"/>
+      <c r="DJ6" s="178"/>
+      <c r="DK6" s="178"/>
+      <c r="DL6" s="178"/>
+      <c r="DM6" s="178"/>
+      <c r="DN6" s="178"/>
+      <c r="DO6" s="178"/>
+      <c r="DP6" s="178"/>
+      <c r="DQ6" s="178"/>
+      <c r="DR6" s="178"/>
+      <c r="DS6" s="179"/>
+      <c r="DT6" s="178">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="172"/>
-      <c r="DV6" s="172"/>
-      <c r="DW6" s="172"/>
-      <c r="DX6" s="172"/>
-      <c r="DY6" s="172"/>
-      <c r="DZ6" s="172"/>
-      <c r="EA6" s="172"/>
-      <c r="EB6" s="172"/>
-      <c r="EC6" s="172"/>
-      <c r="ED6" s="172"/>
-      <c r="EE6" s="172"/>
-      <c r="EF6" s="172"/>
-      <c r="EG6" s="172"/>
-      <c r="EH6" s="172"/>
-      <c r="EI6" s="172"/>
-      <c r="EJ6" s="172"/>
-      <c r="EK6" s="172"/>
-      <c r="EL6" s="172"/>
-      <c r="EM6" s="172"/>
-      <c r="EN6" s="172"/>
-      <c r="EO6" s="172"/>
-      <c r="EP6" s="172"/>
-      <c r="EQ6" s="172"/>
-      <c r="ER6" s="172"/>
-      <c r="ES6" s="172"/>
-      <c r="ET6" s="172"/>
-      <c r="EU6" s="172"/>
-      <c r="EV6" s="172"/>
-      <c r="EW6" s="172"/>
-      <c r="EX6" s="173"/>
-      <c r="EY6" s="174">
+      <c r="DU6" s="178"/>
+      <c r="DV6" s="178"/>
+      <c r="DW6" s="178"/>
+      <c r="DX6" s="178"/>
+      <c r="DY6" s="178"/>
+      <c r="DZ6" s="178"/>
+      <c r="EA6" s="178"/>
+      <c r="EB6" s="178"/>
+      <c r="EC6" s="178"/>
+      <c r="ED6" s="178"/>
+      <c r="EE6" s="178"/>
+      <c r="EF6" s="178"/>
+      <c r="EG6" s="178"/>
+      <c r="EH6" s="178"/>
+      <c r="EI6" s="178"/>
+      <c r="EJ6" s="178"/>
+      <c r="EK6" s="178"/>
+      <c r="EL6" s="178"/>
+      <c r="EM6" s="178"/>
+      <c r="EN6" s="178"/>
+      <c r="EO6" s="178"/>
+      <c r="EP6" s="178"/>
+      <c r="EQ6" s="178"/>
+      <c r="ER6" s="178"/>
+      <c r="ES6" s="178"/>
+      <c r="ET6" s="178"/>
+      <c r="EU6" s="178"/>
+      <c r="EV6" s="178"/>
+      <c r="EW6" s="178"/>
+      <c r="EX6" s="179"/>
+      <c r="EY6" s="180">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="172"/>
-      <c r="FA6" s="172"/>
-      <c r="FB6" s="172"/>
-      <c r="FC6" s="172"/>
-      <c r="FD6" s="172"/>
-      <c r="FE6" s="172"/>
-      <c r="FF6" s="172"/>
-      <c r="FG6" s="172"/>
-      <c r="FH6" s="172"/>
-      <c r="FI6" s="172"/>
-      <c r="FJ6" s="172"/>
-      <c r="FK6" s="172"/>
-      <c r="FL6" s="172"/>
-      <c r="FM6" s="172"/>
-      <c r="FN6" s="172"/>
-      <c r="FO6" s="172"/>
-      <c r="FP6" s="172"/>
-      <c r="FQ6" s="172"/>
-      <c r="FR6" s="172"/>
-      <c r="FS6" s="172"/>
-      <c r="FT6" s="172"/>
-      <c r="FU6" s="172"/>
-      <c r="FV6" s="172"/>
-      <c r="FW6" s="172"/>
-      <c r="FX6" s="172"/>
-      <c r="FY6" s="172"/>
-      <c r="FZ6" s="173"/>
-      <c r="GA6" s="165">
+      <c r="EZ6" s="178"/>
+      <c r="FA6" s="178"/>
+      <c r="FB6" s="178"/>
+      <c r="FC6" s="178"/>
+      <c r="FD6" s="178"/>
+      <c r="FE6" s="178"/>
+      <c r="FF6" s="178"/>
+      <c r="FG6" s="178"/>
+      <c r="FH6" s="178"/>
+      <c r="FI6" s="178"/>
+      <c r="FJ6" s="178"/>
+      <c r="FK6" s="178"/>
+      <c r="FL6" s="178"/>
+      <c r="FM6" s="178"/>
+      <c r="FN6" s="178"/>
+      <c r="FO6" s="178"/>
+      <c r="FP6" s="178"/>
+      <c r="FQ6" s="178"/>
+      <c r="FR6" s="178"/>
+      <c r="FS6" s="178"/>
+      <c r="FT6" s="178"/>
+      <c r="FU6" s="178"/>
+      <c r="FV6" s="178"/>
+      <c r="FW6" s="178"/>
+      <c r="FX6" s="178"/>
+      <c r="FY6" s="178"/>
+      <c r="FZ6" s="179"/>
+      <c r="GA6" s="171">
         <v>3</v>
       </c>
-      <c r="GB6" s="165"/>
-      <c r="GC6" s="165"/>
-      <c r="GD6" s="165"/>
-      <c r="GE6" s="165"/>
-      <c r="GF6" s="165"/>
-      <c r="GG6" s="165"/>
-      <c r="GH6" s="165"/>
-      <c r="GI6" s="165"/>
-      <c r="GJ6" s="165"/>
-      <c r="GK6" s="165"/>
-      <c r="GL6" s="165"/>
-      <c r="GM6" s="165"/>
-      <c r="GN6" s="165"/>
-      <c r="GO6" s="165"/>
-      <c r="GP6" s="165"/>
-      <c r="GQ6" s="165"/>
-      <c r="GR6" s="165"/>
-      <c r="GS6" s="165"/>
-      <c r="GT6" s="165"/>
-      <c r="GU6" s="165"/>
-      <c r="GV6" s="165"/>
-      <c r="GW6" s="165"/>
-      <c r="GX6" s="165"/>
-      <c r="GY6" s="165"/>
-      <c r="GZ6" s="165"/>
-      <c r="HA6" s="165"/>
-      <c r="HB6" s="165"/>
-      <c r="HC6" s="165"/>
-      <c r="HD6" s="165"/>
-      <c r="HE6" s="165"/>
-      <c r="HF6" s="169">
+      <c r="GB6" s="171"/>
+      <c r="GC6" s="171"/>
+      <c r="GD6" s="171"/>
+      <c r="GE6" s="171"/>
+      <c r="GF6" s="171"/>
+      <c r="GG6" s="171"/>
+      <c r="GH6" s="171"/>
+      <c r="GI6" s="171"/>
+      <c r="GJ6" s="171"/>
+      <c r="GK6" s="171"/>
+      <c r="GL6" s="171"/>
+      <c r="GM6" s="171"/>
+      <c r="GN6" s="171"/>
+      <c r="GO6" s="171"/>
+      <c r="GP6" s="171"/>
+      <c r="GQ6" s="171"/>
+      <c r="GR6" s="171"/>
+      <c r="GS6" s="171"/>
+      <c r="GT6" s="171"/>
+      <c r="GU6" s="171"/>
+      <c r="GV6" s="171"/>
+      <c r="GW6" s="171"/>
+      <c r="GX6" s="171"/>
+      <c r="GY6" s="171"/>
+      <c r="GZ6" s="171"/>
+      <c r="HA6" s="171"/>
+      <c r="HB6" s="171"/>
+      <c r="HC6" s="171"/>
+      <c r="HD6" s="171"/>
+      <c r="HE6" s="171"/>
+      <c r="HF6" s="175">
         <v>4</v>
       </c>
-      <c r="HG6" s="170"/>
-      <c r="HH6" s="170"/>
-      <c r="HI6" s="170"/>
-      <c r="HJ6" s="170"/>
-      <c r="HK6" s="170"/>
-      <c r="HL6" s="170"/>
-      <c r="HM6" s="170"/>
-      <c r="HN6" s="170"/>
-      <c r="HO6" s="170"/>
-      <c r="HP6" s="170"/>
-      <c r="HQ6" s="170"/>
-      <c r="HR6" s="170"/>
-      <c r="HS6" s="170"/>
-      <c r="HT6" s="170"/>
-      <c r="HU6" s="170"/>
-      <c r="HV6" s="170"/>
-      <c r="HW6" s="170"/>
-      <c r="HX6" s="170"/>
-      <c r="HY6" s="170"/>
-      <c r="HZ6" s="170"/>
-      <c r="IA6" s="170"/>
-      <c r="IB6" s="170"/>
-      <c r="IC6" s="170"/>
-      <c r="ID6" s="170"/>
-      <c r="IE6" s="170"/>
-      <c r="IF6" s="170"/>
-      <c r="IG6" s="170"/>
-      <c r="IH6" s="170"/>
-      <c r="II6" s="171"/>
-      <c r="IJ6" s="164">
+      <c r="HG6" s="176"/>
+      <c r="HH6" s="176"/>
+      <c r="HI6" s="176"/>
+      <c r="HJ6" s="176"/>
+      <c r="HK6" s="176"/>
+      <c r="HL6" s="176"/>
+      <c r="HM6" s="176"/>
+      <c r="HN6" s="176"/>
+      <c r="HO6" s="176"/>
+      <c r="HP6" s="176"/>
+      <c r="HQ6" s="176"/>
+      <c r="HR6" s="176"/>
+      <c r="HS6" s="176"/>
+      <c r="HT6" s="176"/>
+      <c r="HU6" s="176"/>
+      <c r="HV6" s="176"/>
+      <c r="HW6" s="176"/>
+      <c r="HX6" s="176"/>
+      <c r="HY6" s="176"/>
+      <c r="HZ6" s="176"/>
+      <c r="IA6" s="176"/>
+      <c r="IB6" s="176"/>
+      <c r="IC6" s="176"/>
+      <c r="ID6" s="176"/>
+      <c r="IE6" s="176"/>
+      <c r="IF6" s="176"/>
+      <c r="IG6" s="176"/>
+      <c r="IH6" s="176"/>
+      <c r="II6" s="177"/>
+      <c r="IJ6" s="170">
         <v>5</v>
       </c>
-      <c r="IK6" s="165"/>
-      <c r="IL6" s="165"/>
-      <c r="IM6" s="165"/>
-      <c r="IN6" s="165"/>
-      <c r="IO6" s="165"/>
-      <c r="IP6" s="165"/>
-      <c r="IQ6" s="165"/>
-      <c r="IR6" s="165"/>
-      <c r="IS6" s="165"/>
-      <c r="IT6" s="165"/>
-      <c r="IU6" s="165"/>
-      <c r="IV6" s="165"/>
-      <c r="IW6" s="165"/>
-      <c r="IX6" s="165"/>
-      <c r="IY6" s="165"/>
-      <c r="IZ6" s="165"/>
-      <c r="JA6" s="165"/>
-      <c r="JB6" s="165"/>
-      <c r="JC6" s="165"/>
-      <c r="JD6" s="165"/>
-      <c r="JE6" s="165"/>
-      <c r="JF6" s="165"/>
-      <c r="JG6" s="165"/>
-      <c r="JH6" s="165"/>
-      <c r="JI6" s="165"/>
-      <c r="JJ6" s="165"/>
-      <c r="JK6" s="165"/>
-      <c r="JL6" s="165"/>
-      <c r="JM6" s="165"/>
-      <c r="JN6" s="166"/>
+      <c r="IK6" s="171"/>
+      <c r="IL6" s="171"/>
+      <c r="IM6" s="171"/>
+      <c r="IN6" s="171"/>
+      <c r="IO6" s="171"/>
+      <c r="IP6" s="171"/>
+      <c r="IQ6" s="171"/>
+      <c r="IR6" s="171"/>
+      <c r="IS6" s="171"/>
+      <c r="IT6" s="171"/>
+      <c r="IU6" s="171"/>
+      <c r="IV6" s="171"/>
+      <c r="IW6" s="171"/>
+      <c r="IX6" s="171"/>
+      <c r="IY6" s="171"/>
+      <c r="IZ6" s="171"/>
+      <c r="JA6" s="171"/>
+      <c r="JB6" s="171"/>
+      <c r="JC6" s="171"/>
+      <c r="JD6" s="171"/>
+      <c r="JE6" s="171"/>
+      <c r="JF6" s="171"/>
+      <c r="JG6" s="171"/>
+      <c r="JH6" s="171"/>
+      <c r="JI6" s="171"/>
+      <c r="JJ6" s="171"/>
+      <c r="JK6" s="171"/>
+      <c r="JL6" s="171"/>
+      <c r="JM6" s="171"/>
+      <c r="JN6" s="172"/>
     </row>
     <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
@@ -4187,7 +4187,7 @@
       </c>
     </row>
     <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="173" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42"/>
@@ -4477,7 +4477,7 @@
       <c r="JN8" s="40"/>
     </row>
     <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4769,7 +4769,7 @@
       <c r="JN9" s="7"/>
     </row>
     <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167"/>
+      <c r="A10" s="173"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -5053,7 +5053,7 @@
       <c r="JN10" s="7"/>
     </row>
     <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="167"/>
+      <c r="A11" s="173"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -5335,7 +5335,7 @@
       <c r="JN11" s="7"/>
     </row>
     <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
+      <c r="A12" s="173"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -5619,7 +5619,7 @@
       <c r="JN12" s="7"/>
     </row>
     <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
+      <c r="A13" s="173"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5899,7 +5899,7 @@
       <c r="JN13" s="7"/>
     </row>
     <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167"/>
+      <c r="A14" s="173"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -6177,7 +6177,7 @@
       <c r="JN14" s="18"/>
     </row>
     <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="174" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -6457,7 +6457,7 @@
       <c r="JN15" s="29"/>
     </row>
     <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="167"/>
+      <c r="A16" s="173"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6745,7 +6745,7 @@
       <c r="JN16" s="13"/>
     </row>
     <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="167"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -7026,7 +7026,7 @@
       <c r="JN17" s="4"/>
     </row>
     <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="167"/>
+      <c r="A18" s="173"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -7303,7 +7303,7 @@
       <c r="JN18" s="4"/>
     </row>
     <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="167"/>
+      <c r="A19" s="173"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7579,7 +7579,7 @@
       <c r="JN19" s="4"/>
     </row>
     <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7855,7 +7855,7 @@
       <c r="JN20" s="4"/>
     </row>
     <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="167"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -8131,7 +8131,7 @@
       <c r="JN21" s="127"/>
     </row>
     <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -8407,7 +8407,7 @@
       <c r="JN22" s="25"/>
     </row>
     <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="173" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="108"/>
@@ -8689,7 +8689,7 @@
       <c r="JN23" s="29"/>
     </row>
     <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="167"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8967,7 +8967,7 @@
       <c r="JN24" s="4"/>
     </row>
     <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="167"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -9245,7 +9245,7 @@
       <c r="JN25" s="4"/>
     </row>
     <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="167"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -9529,7 +9529,7 @@
       <c r="JN26" s="4"/>
     </row>
     <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="167"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9811,7 +9811,7 @@
       <c r="JN27" s="4"/>
     </row>
     <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="167"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -10089,7 +10089,7 @@
       <c r="JN28" s="4"/>
     </row>
     <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="167"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -10367,7 +10367,7 @@
       <c r="JN29" s="4"/>
     </row>
     <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="167"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -11918,7 +11918,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11949,10 +11949,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="178">
+      <c r="B4" s="184">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -11960,7 +11960,7 @@
       <c r="E4" s="140"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="182">
+      <c r="B5" s="188">
         <v>12</v>
       </c>
       <c r="C5" s="143">
@@ -11974,7 +11974,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="183"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="141">
         <v>17</v>
       </c>
@@ -11986,7 +11986,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="183"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="141">
         <v>19</v>
       </c>
@@ -11998,7 +11998,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="183"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="134">
         <v>22</v>
       </c>
@@ -12010,7 +12010,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="183"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="134">
         <v>23</v>
       </c>
@@ -12022,7 +12022,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="183"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="134">
         <v>25</v>
       </c>
@@ -12034,7 +12034,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="183"/>
+      <c r="B11" s="189"/>
       <c r="C11" s="134">
         <v>26</v>
       </c>
@@ -12046,7 +12046,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="183"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="134">
         <v>29</v>
       </c>
@@ -12058,7 +12058,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="184"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="137">
         <v>30</v>
       </c>
@@ -12070,10 +12070,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="180">
+      <c r="B14" s="186">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="181"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="154">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -12081,7 +12081,7 @@
       <c r="E14" s="155"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="185">
+      <c r="B15" s="191">
         <v>1</v>
       </c>
       <c r="C15" s="134">
@@ -12095,7 +12095,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="186"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="134">
         <v>5</v>
       </c>
@@ -12107,7 +12107,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="186"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="134">
         <v>13</v>
       </c>
@@ -12119,7 +12119,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="186"/>
+      <c r="B18" s="192"/>
       <c r="C18" s="134">
         <v>15</v>
       </c>
@@ -12131,7 +12131,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="186"/>
+      <c r="B19" s="192"/>
       <c r="C19" s="134">
         <v>17</v>
       </c>
@@ -12143,7 +12143,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="186"/>
+      <c r="B20" s="192"/>
       <c r="C20" s="134">
         <v>18</v>
       </c>
@@ -12155,7 +12155,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="186"/>
+      <c r="B21" s="192"/>
       <c r="C21" s="134">
         <v>21</v>
       </c>
@@ -12167,7 +12167,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="186"/>
+      <c r="B22" s="192"/>
       <c r="C22" s="134">
         <v>22</v>
       </c>
@@ -12179,7 +12179,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="187"/>
+      <c r="B23" s="193"/>
       <c r="C23" s="137">
         <v>28</v>
       </c>
@@ -12191,10 +12191,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="178">
+      <c r="B24" s="184">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="179"/>
+      <c r="C24" s="185"/>
       <c r="D24" s="139">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -12202,7 +12202,7 @@
       <c r="E24" s="142"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="185">
+      <c r="B25" s="191">
         <v>2</v>
       </c>
       <c r="C25" s="134">
@@ -12216,7 +12216,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="186"/>
+      <c r="B26" s="192"/>
       <c r="C26" s="134">
         <v>11</v>
       </c>
@@ -12228,7 +12228,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="186"/>
+      <c r="B27" s="192"/>
       <c r="C27" s="134">
         <v>12</v>
       </c>
@@ -12240,7 +12240,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="186"/>
+      <c r="B28" s="192"/>
       <c r="C28" s="134">
         <v>12</v>
       </c>
@@ -12252,7 +12252,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="186"/>
+      <c r="B29" s="192"/>
       <c r="C29" s="134">
         <v>24</v>
       </c>
@@ -12264,22 +12264,22 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="186"/>
-      <c r="C30" s="189">
+      <c r="B30" s="192"/>
+      <c r="C30" s="165">
         <v>26</v>
       </c>
-      <c r="D30" s="190">
+      <c r="D30" s="166">
         <v>5</v>
       </c>
-      <c r="E30" s="191" t="s">
+      <c r="E30" s="167" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="180">
+      <c r="B31" s="186">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="181"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="154">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -12426,15 +12426,15 @@
       <c r="D43" s="138">
         <v>3</v>
       </c>
-      <c r="E43" s="193" t="s">
+      <c r="E43" s="169" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="178">
+      <c r="B44" s="184">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="179"/>
+      <c r="C44" s="185"/>
       <c r="D44" s="139">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -12610,34 +12610,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="178">
+      <c r="B59" s="184">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="179"/>
+      <c r="C59" s="185"/>
       <c r="D59" s="139">
         <f>SUM(D60:D88)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E59" s="142"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="188"/>
-      <c r="C60" s="189">
+      <c r="B60" s="164"/>
+      <c r="C60" s="165">
         <v>1</v>
       </c>
-      <c r="D60" s="190">
+      <c r="D60" s="166">
         <v>8</v>
       </c>
-      <c r="E60" s="192" t="s">
+      <c r="E60" s="168" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="188"/>
-      <c r="C61" s="189">
+      <c r="B61" s="164"/>
+      <c r="C61" s="165">
         <v>2</v>
       </c>
-      <c r="D61" s="190">
+      <c r="D61" s="166">
         <v>3</v>
       </c>
       <c r="E61" s="142" t="s">
@@ -12645,118 +12645,136 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="188"/>
-      <c r="C62" s="189"/>
-      <c r="D62" s="190"/>
-      <c r="E62" s="192"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="165">
+        <v>4</v>
+      </c>
+      <c r="D62" s="166">
+        <v>6</v>
+      </c>
+      <c r="E62" s="168" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="188"/>
-      <c r="C63" s="189"/>
-      <c r="D63" s="190"/>
-      <c r="E63" s="192"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="165">
+        <v>5</v>
+      </c>
+      <c r="D63" s="166">
+        <v>6</v>
+      </c>
+      <c r="E63" s="168" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="188"/>
-      <c r="C64" s="189"/>
-      <c r="D64" s="190"/>
-      <c r="E64" s="192"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="165">
+        <v>7</v>
+      </c>
+      <c r="D64" s="166">
+        <v>5</v>
+      </c>
+      <c r="E64" s="142" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="188"/>
-      <c r="C65" s="189"/>
-      <c r="D65" s="190"/>
-      <c r="E65" s="192"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="166"/>
+      <c r="E65" s="168"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="188"/>
-      <c r="C66" s="189"/>
-      <c r="D66" s="190"/>
-      <c r="E66" s="192"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="166"/>
+      <c r="E66" s="168"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="188"/>
-      <c r="C67" s="189"/>
-      <c r="D67" s="190"/>
-      <c r="E67" s="192"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="166"/>
+      <c r="E67" s="168"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="188"/>
-      <c r="C68" s="189"/>
-      <c r="D68" s="190"/>
-      <c r="E68" s="192"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="166"/>
+      <c r="E68" s="168"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="188"/>
-      <c r="C69" s="189"/>
-      <c r="D69" s="190"/>
-      <c r="E69" s="192"/>
+      <c r="B69" s="164"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="166"/>
+      <c r="E69" s="168"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="188"/>
-      <c r="C70" s="189"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="192"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="166"/>
+      <c r="E70" s="168"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="188"/>
-      <c r="C71" s="189"/>
-      <c r="D71" s="190"/>
-      <c r="E71" s="192"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="166"/>
+      <c r="E71" s="168"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="188"/>
-      <c r="C72" s="189"/>
-      <c r="D72" s="190"/>
-      <c r="E72" s="192"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="166"/>
+      <c r="E72" s="168"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="188"/>
-      <c r="C73" s="189"/>
-      <c r="D73" s="190"/>
-      <c r="E73" s="192"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="168"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="188"/>
-      <c r="C74" s="189"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="192"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="166"/>
+      <c r="E74" s="168"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="188"/>
-      <c r="C75" s="189"/>
-      <c r="D75" s="190"/>
-      <c r="E75" s="192"/>
+      <c r="B75" s="164"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="166"/>
+      <c r="E75" s="168"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="188"/>
-      <c r="C76" s="189"/>
-      <c r="D76" s="190"/>
-      <c r="E76" s="192"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="166"/>
+      <c r="E76" s="168"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="188"/>
-      <c r="C77" s="189"/>
-      <c r="D77" s="190"/>
-      <c r="E77" s="192"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="166"/>
+      <c r="E77" s="168"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="188"/>
-      <c r="C78" s="189"/>
-      <c r="D78" s="190"/>
-      <c r="E78" s="192"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="166"/>
+      <c r="E78" s="168"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="188"/>
-      <c r="C79" s="189"/>
-      <c r="D79" s="190"/>
-      <c r="E79" s="192"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="166"/>
+      <c r="E79" s="168"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="188"/>
-      <c r="C80" s="189"/>
-      <c r="D80" s="190"/>
-      <c r="E80" s="192"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="166"/>
+      <c r="E80" s="168"/>
     </row>
     <row r="81" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="136"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,12 +534,16 @@
     <t>RF Gen CPU PCB 회로 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Pipette V4.0 SMT issue debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +657,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1415,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1736,6 +1749,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1779,7 +1795,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1852,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1909,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1966,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2023,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2080,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2137,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2194,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2251,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2308,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2365,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2422,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2479,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2536,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2593,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2650,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2707,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11918,7 +11934,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11930,7 +11946,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="194" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12616,7 +12632,7 @@
       <c r="C59" s="185"/>
       <c r="D59" s="139">
         <f>SUM(D60:D88)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E59" s="142"/>
     </row>
@@ -12682,15 +12698,27 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="164"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="166"/>
-      <c r="E65" s="168"/>
+      <c r="C65" s="165">
+        <v>9</v>
+      </c>
+      <c r="D65" s="166">
+        <v>2</v>
+      </c>
+      <c r="E65" s="168" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="164"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="166"/>
-      <c r="E66" s="168"/>
+      <c r="C66" s="165">
+        <v>9</v>
+      </c>
+      <c r="D66" s="166">
+        <v>3</v>
+      </c>
+      <c r="E66" s="142" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="164"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +536,14 @@
   </si>
   <si>
     <t>Pipette V4.0 SMT issue debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen PWR - Fwd, Rev voltage sensor review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette MP4 Data 작업 및 전달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,6 +1685,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1748,9 +1759,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3088,297 +3096,297 @@
     </row>
     <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="181">
+      <c r="B6" s="182">
         <v>9</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="182"/>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="183"/>
-      <c r="AF6" s="178">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="183"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="184"/>
+      <c r="AF6" s="179">
         <v>10</v>
       </c>
-      <c r="AG6" s="178"/>
-      <c r="AH6" s="178"/>
-      <c r="AI6" s="178"/>
-      <c r="AJ6" s="178"/>
-      <c r="AK6" s="178"/>
-      <c r="AL6" s="178"/>
-      <c r="AM6" s="178"/>
-      <c r="AN6" s="178"/>
-      <c r="AO6" s="178"/>
-      <c r="AP6" s="178"/>
-      <c r="AQ6" s="178"/>
-      <c r="AR6" s="178"/>
-      <c r="AS6" s="178"/>
-      <c r="AT6" s="178"/>
-      <c r="AU6" s="178"/>
-      <c r="AV6" s="178"/>
-      <c r="AW6" s="178"/>
-      <c r="AX6" s="178"/>
-      <c r="AY6" s="178"/>
-      <c r="AZ6" s="178"/>
-      <c r="BA6" s="178"/>
-      <c r="BB6" s="178"/>
-      <c r="BC6" s="178"/>
-      <c r="BD6" s="178"/>
-      <c r="BE6" s="178"/>
-      <c r="BF6" s="178"/>
-      <c r="BG6" s="178"/>
-      <c r="BH6" s="178"/>
-      <c r="BI6" s="178"/>
-      <c r="BJ6" s="179"/>
-      <c r="BK6" s="181">
+      <c r="AG6" s="179"/>
+      <c r="AH6" s="179"/>
+      <c r="AI6" s="179"/>
+      <c r="AJ6" s="179"/>
+      <c r="AK6" s="179"/>
+      <c r="AL6" s="179"/>
+      <c r="AM6" s="179"/>
+      <c r="AN6" s="179"/>
+      <c r="AO6" s="179"/>
+      <c r="AP6" s="179"/>
+      <c r="AQ6" s="179"/>
+      <c r="AR6" s="179"/>
+      <c r="AS6" s="179"/>
+      <c r="AT6" s="179"/>
+      <c r="AU6" s="179"/>
+      <c r="AV6" s="179"/>
+      <c r="AW6" s="179"/>
+      <c r="AX6" s="179"/>
+      <c r="AY6" s="179"/>
+      <c r="AZ6" s="179"/>
+      <c r="BA6" s="179"/>
+      <c r="BB6" s="179"/>
+      <c r="BC6" s="179"/>
+      <c r="BD6" s="179"/>
+      <c r="BE6" s="179"/>
+      <c r="BF6" s="179"/>
+      <c r="BG6" s="179"/>
+      <c r="BH6" s="179"/>
+      <c r="BI6" s="179"/>
+      <c r="BJ6" s="180"/>
+      <c r="BK6" s="182">
         <v>11</v>
       </c>
-      <c r="BL6" s="182"/>
-      <c r="BM6" s="182"/>
-      <c r="BN6" s="182"/>
-      <c r="BO6" s="182"/>
-      <c r="BP6" s="182"/>
-      <c r="BQ6" s="182"/>
-      <c r="BR6" s="182"/>
-      <c r="BS6" s="182"/>
-      <c r="BT6" s="182"/>
-      <c r="BU6" s="182"/>
-      <c r="BV6" s="182"/>
-      <c r="BW6" s="182"/>
-      <c r="BX6" s="182"/>
-      <c r="BY6" s="182"/>
-      <c r="BZ6" s="182"/>
-      <c r="CA6" s="182"/>
-      <c r="CB6" s="182"/>
-      <c r="CC6" s="182"/>
-      <c r="CD6" s="182"/>
-      <c r="CE6" s="182"/>
-      <c r="CF6" s="182"/>
-      <c r="CG6" s="182"/>
-      <c r="CH6" s="182"/>
-      <c r="CI6" s="182"/>
-      <c r="CJ6" s="182"/>
-      <c r="CK6" s="182"/>
-      <c r="CL6" s="182"/>
-      <c r="CM6" s="182"/>
-      <c r="CN6" s="183"/>
-      <c r="CO6" s="178">
+      <c r="BL6" s="183"/>
+      <c r="BM6" s="183"/>
+      <c r="BN6" s="183"/>
+      <c r="BO6" s="183"/>
+      <c r="BP6" s="183"/>
+      <c r="BQ6" s="183"/>
+      <c r="BR6" s="183"/>
+      <c r="BS6" s="183"/>
+      <c r="BT6" s="183"/>
+      <c r="BU6" s="183"/>
+      <c r="BV6" s="183"/>
+      <c r="BW6" s="183"/>
+      <c r="BX6" s="183"/>
+      <c r="BY6" s="183"/>
+      <c r="BZ6" s="183"/>
+      <c r="CA6" s="183"/>
+      <c r="CB6" s="183"/>
+      <c r="CC6" s="183"/>
+      <c r="CD6" s="183"/>
+      <c r="CE6" s="183"/>
+      <c r="CF6" s="183"/>
+      <c r="CG6" s="183"/>
+      <c r="CH6" s="183"/>
+      <c r="CI6" s="183"/>
+      <c r="CJ6" s="183"/>
+      <c r="CK6" s="183"/>
+      <c r="CL6" s="183"/>
+      <c r="CM6" s="183"/>
+      <c r="CN6" s="184"/>
+      <c r="CO6" s="179">
         <v>12</v>
       </c>
-      <c r="CP6" s="178"/>
-      <c r="CQ6" s="178"/>
-      <c r="CR6" s="178"/>
-      <c r="CS6" s="178"/>
-      <c r="CT6" s="178"/>
-      <c r="CU6" s="178"/>
-      <c r="CV6" s="178"/>
-      <c r="CW6" s="178"/>
-      <c r="CX6" s="178"/>
-      <c r="CY6" s="178"/>
-      <c r="CZ6" s="178"/>
-      <c r="DA6" s="178"/>
-      <c r="DB6" s="178"/>
-      <c r="DC6" s="178"/>
-      <c r="DD6" s="178"/>
-      <c r="DE6" s="178"/>
-      <c r="DF6" s="178"/>
-      <c r="DG6" s="178"/>
-      <c r="DH6" s="178"/>
-      <c r="DI6" s="178"/>
-      <c r="DJ6" s="178"/>
-      <c r="DK6" s="178"/>
-      <c r="DL6" s="178"/>
-      <c r="DM6" s="178"/>
-      <c r="DN6" s="178"/>
-      <c r="DO6" s="178"/>
-      <c r="DP6" s="178"/>
-      <c r="DQ6" s="178"/>
-      <c r="DR6" s="178"/>
-      <c r="DS6" s="179"/>
-      <c r="DT6" s="178">
+      <c r="CP6" s="179"/>
+      <c r="CQ6" s="179"/>
+      <c r="CR6" s="179"/>
+      <c r="CS6" s="179"/>
+      <c r="CT6" s="179"/>
+      <c r="CU6" s="179"/>
+      <c r="CV6" s="179"/>
+      <c r="CW6" s="179"/>
+      <c r="CX6" s="179"/>
+      <c r="CY6" s="179"/>
+      <c r="CZ6" s="179"/>
+      <c r="DA6" s="179"/>
+      <c r="DB6" s="179"/>
+      <c r="DC6" s="179"/>
+      <c r="DD6" s="179"/>
+      <c r="DE6" s="179"/>
+      <c r="DF6" s="179"/>
+      <c r="DG6" s="179"/>
+      <c r="DH6" s="179"/>
+      <c r="DI6" s="179"/>
+      <c r="DJ6" s="179"/>
+      <c r="DK6" s="179"/>
+      <c r="DL6" s="179"/>
+      <c r="DM6" s="179"/>
+      <c r="DN6" s="179"/>
+      <c r="DO6" s="179"/>
+      <c r="DP6" s="179"/>
+      <c r="DQ6" s="179"/>
+      <c r="DR6" s="179"/>
+      <c r="DS6" s="180"/>
+      <c r="DT6" s="179">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="178"/>
-      <c r="DV6" s="178"/>
-      <c r="DW6" s="178"/>
-      <c r="DX6" s="178"/>
-      <c r="DY6" s="178"/>
-      <c r="DZ6" s="178"/>
-      <c r="EA6" s="178"/>
-      <c r="EB6" s="178"/>
-      <c r="EC6" s="178"/>
-      <c r="ED6" s="178"/>
-      <c r="EE6" s="178"/>
-      <c r="EF6" s="178"/>
-      <c r="EG6" s="178"/>
-      <c r="EH6" s="178"/>
-      <c r="EI6" s="178"/>
-      <c r="EJ6" s="178"/>
-      <c r="EK6" s="178"/>
-      <c r="EL6" s="178"/>
-      <c r="EM6" s="178"/>
-      <c r="EN6" s="178"/>
-      <c r="EO6" s="178"/>
-      <c r="EP6" s="178"/>
-      <c r="EQ6" s="178"/>
-      <c r="ER6" s="178"/>
-      <c r="ES6" s="178"/>
-      <c r="ET6" s="178"/>
-      <c r="EU6" s="178"/>
-      <c r="EV6" s="178"/>
-      <c r="EW6" s="178"/>
-      <c r="EX6" s="179"/>
-      <c r="EY6" s="180">
+      <c r="DU6" s="179"/>
+      <c r="DV6" s="179"/>
+      <c r="DW6" s="179"/>
+      <c r="DX6" s="179"/>
+      <c r="DY6" s="179"/>
+      <c r="DZ6" s="179"/>
+      <c r="EA6" s="179"/>
+      <c r="EB6" s="179"/>
+      <c r="EC6" s="179"/>
+      <c r="ED6" s="179"/>
+      <c r="EE6" s="179"/>
+      <c r="EF6" s="179"/>
+      <c r="EG6" s="179"/>
+      <c r="EH6" s="179"/>
+      <c r="EI6" s="179"/>
+      <c r="EJ6" s="179"/>
+      <c r="EK6" s="179"/>
+      <c r="EL6" s="179"/>
+      <c r="EM6" s="179"/>
+      <c r="EN6" s="179"/>
+      <c r="EO6" s="179"/>
+      <c r="EP6" s="179"/>
+      <c r="EQ6" s="179"/>
+      <c r="ER6" s="179"/>
+      <c r="ES6" s="179"/>
+      <c r="ET6" s="179"/>
+      <c r="EU6" s="179"/>
+      <c r="EV6" s="179"/>
+      <c r="EW6" s="179"/>
+      <c r="EX6" s="180"/>
+      <c r="EY6" s="181">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="178"/>
-      <c r="FA6" s="178"/>
-      <c r="FB6" s="178"/>
-      <c r="FC6" s="178"/>
-      <c r="FD6" s="178"/>
-      <c r="FE6" s="178"/>
-      <c r="FF6" s="178"/>
-      <c r="FG6" s="178"/>
-      <c r="FH6" s="178"/>
-      <c r="FI6" s="178"/>
-      <c r="FJ6" s="178"/>
-      <c r="FK6" s="178"/>
-      <c r="FL6" s="178"/>
-      <c r="FM6" s="178"/>
-      <c r="FN6" s="178"/>
-      <c r="FO6" s="178"/>
-      <c r="FP6" s="178"/>
-      <c r="FQ6" s="178"/>
-      <c r="FR6" s="178"/>
-      <c r="FS6" s="178"/>
-      <c r="FT6" s="178"/>
-      <c r="FU6" s="178"/>
-      <c r="FV6" s="178"/>
-      <c r="FW6" s="178"/>
-      <c r="FX6" s="178"/>
-      <c r="FY6" s="178"/>
-      <c r="FZ6" s="179"/>
-      <c r="GA6" s="171">
+      <c r="EZ6" s="179"/>
+      <c r="FA6" s="179"/>
+      <c r="FB6" s="179"/>
+      <c r="FC6" s="179"/>
+      <c r="FD6" s="179"/>
+      <c r="FE6" s="179"/>
+      <c r="FF6" s="179"/>
+      <c r="FG6" s="179"/>
+      <c r="FH6" s="179"/>
+      <c r="FI6" s="179"/>
+      <c r="FJ6" s="179"/>
+      <c r="FK6" s="179"/>
+      <c r="FL6" s="179"/>
+      <c r="FM6" s="179"/>
+      <c r="FN6" s="179"/>
+      <c r="FO6" s="179"/>
+      <c r="FP6" s="179"/>
+      <c r="FQ6" s="179"/>
+      <c r="FR6" s="179"/>
+      <c r="FS6" s="179"/>
+      <c r="FT6" s="179"/>
+      <c r="FU6" s="179"/>
+      <c r="FV6" s="179"/>
+      <c r="FW6" s="179"/>
+      <c r="FX6" s="179"/>
+      <c r="FY6" s="179"/>
+      <c r="FZ6" s="180"/>
+      <c r="GA6" s="172">
         <v>3</v>
       </c>
-      <c r="GB6" s="171"/>
-      <c r="GC6" s="171"/>
-      <c r="GD6" s="171"/>
-      <c r="GE6" s="171"/>
-      <c r="GF6" s="171"/>
-      <c r="GG6" s="171"/>
-      <c r="GH6" s="171"/>
-      <c r="GI6" s="171"/>
-      <c r="GJ6" s="171"/>
-      <c r="GK6" s="171"/>
-      <c r="GL6" s="171"/>
-      <c r="GM6" s="171"/>
-      <c r="GN6" s="171"/>
-      <c r="GO6" s="171"/>
-      <c r="GP6" s="171"/>
-      <c r="GQ6" s="171"/>
-      <c r="GR6" s="171"/>
-      <c r="GS6" s="171"/>
-      <c r="GT6" s="171"/>
-      <c r="GU6" s="171"/>
-      <c r="GV6" s="171"/>
-      <c r="GW6" s="171"/>
-      <c r="GX6" s="171"/>
-      <c r="GY6" s="171"/>
-      <c r="GZ6" s="171"/>
-      <c r="HA6" s="171"/>
-      <c r="HB6" s="171"/>
-      <c r="HC6" s="171"/>
-      <c r="HD6" s="171"/>
-      <c r="HE6" s="171"/>
-      <c r="HF6" s="175">
+      <c r="GB6" s="172"/>
+      <c r="GC6" s="172"/>
+      <c r="GD6" s="172"/>
+      <c r="GE6" s="172"/>
+      <c r="GF6" s="172"/>
+      <c r="GG6" s="172"/>
+      <c r="GH6" s="172"/>
+      <c r="GI6" s="172"/>
+      <c r="GJ6" s="172"/>
+      <c r="GK6" s="172"/>
+      <c r="GL6" s="172"/>
+      <c r="GM6" s="172"/>
+      <c r="GN6" s="172"/>
+      <c r="GO6" s="172"/>
+      <c r="GP6" s="172"/>
+      <c r="GQ6" s="172"/>
+      <c r="GR6" s="172"/>
+      <c r="GS6" s="172"/>
+      <c r="GT6" s="172"/>
+      <c r="GU6" s="172"/>
+      <c r="GV6" s="172"/>
+      <c r="GW6" s="172"/>
+      <c r="GX6" s="172"/>
+      <c r="GY6" s="172"/>
+      <c r="GZ6" s="172"/>
+      <c r="HA6" s="172"/>
+      <c r="HB6" s="172"/>
+      <c r="HC6" s="172"/>
+      <c r="HD6" s="172"/>
+      <c r="HE6" s="172"/>
+      <c r="HF6" s="176">
         <v>4</v>
       </c>
-      <c r="HG6" s="176"/>
-      <c r="HH6" s="176"/>
-      <c r="HI6" s="176"/>
-      <c r="HJ6" s="176"/>
-      <c r="HK6" s="176"/>
-      <c r="HL6" s="176"/>
-      <c r="HM6" s="176"/>
-      <c r="HN6" s="176"/>
-      <c r="HO6" s="176"/>
-      <c r="HP6" s="176"/>
-      <c r="HQ6" s="176"/>
-      <c r="HR6" s="176"/>
-      <c r="HS6" s="176"/>
-      <c r="HT6" s="176"/>
-      <c r="HU6" s="176"/>
-      <c r="HV6" s="176"/>
-      <c r="HW6" s="176"/>
-      <c r="HX6" s="176"/>
-      <c r="HY6" s="176"/>
-      <c r="HZ6" s="176"/>
-      <c r="IA6" s="176"/>
-      <c r="IB6" s="176"/>
-      <c r="IC6" s="176"/>
-      <c r="ID6" s="176"/>
-      <c r="IE6" s="176"/>
-      <c r="IF6" s="176"/>
-      <c r="IG6" s="176"/>
-      <c r="IH6" s="176"/>
-      <c r="II6" s="177"/>
-      <c r="IJ6" s="170">
+      <c r="HG6" s="177"/>
+      <c r="HH6" s="177"/>
+      <c r="HI6" s="177"/>
+      <c r="HJ6" s="177"/>
+      <c r="HK6" s="177"/>
+      <c r="HL6" s="177"/>
+      <c r="HM6" s="177"/>
+      <c r="HN6" s="177"/>
+      <c r="HO6" s="177"/>
+      <c r="HP6" s="177"/>
+      <c r="HQ6" s="177"/>
+      <c r="HR6" s="177"/>
+      <c r="HS6" s="177"/>
+      <c r="HT6" s="177"/>
+      <c r="HU6" s="177"/>
+      <c r="HV6" s="177"/>
+      <c r="HW6" s="177"/>
+      <c r="HX6" s="177"/>
+      <c r="HY6" s="177"/>
+      <c r="HZ6" s="177"/>
+      <c r="IA6" s="177"/>
+      <c r="IB6" s="177"/>
+      <c r="IC6" s="177"/>
+      <c r="ID6" s="177"/>
+      <c r="IE6" s="177"/>
+      <c r="IF6" s="177"/>
+      <c r="IG6" s="177"/>
+      <c r="IH6" s="177"/>
+      <c r="II6" s="178"/>
+      <c r="IJ6" s="171">
         <v>5</v>
       </c>
-      <c r="IK6" s="171"/>
-      <c r="IL6" s="171"/>
-      <c r="IM6" s="171"/>
-      <c r="IN6" s="171"/>
-      <c r="IO6" s="171"/>
-      <c r="IP6" s="171"/>
-      <c r="IQ6" s="171"/>
-      <c r="IR6" s="171"/>
-      <c r="IS6" s="171"/>
-      <c r="IT6" s="171"/>
-      <c r="IU6" s="171"/>
-      <c r="IV6" s="171"/>
-      <c r="IW6" s="171"/>
-      <c r="IX6" s="171"/>
-      <c r="IY6" s="171"/>
-      <c r="IZ6" s="171"/>
-      <c r="JA6" s="171"/>
-      <c r="JB6" s="171"/>
-      <c r="JC6" s="171"/>
-      <c r="JD6" s="171"/>
-      <c r="JE6" s="171"/>
-      <c r="JF6" s="171"/>
-      <c r="JG6" s="171"/>
-      <c r="JH6" s="171"/>
-      <c r="JI6" s="171"/>
-      <c r="JJ6" s="171"/>
-      <c r="JK6" s="171"/>
-      <c r="JL6" s="171"/>
-      <c r="JM6" s="171"/>
-      <c r="JN6" s="172"/>
+      <c r="IK6" s="172"/>
+      <c r="IL6" s="172"/>
+      <c r="IM6" s="172"/>
+      <c r="IN6" s="172"/>
+      <c r="IO6" s="172"/>
+      <c r="IP6" s="172"/>
+      <c r="IQ6" s="172"/>
+      <c r="IR6" s="172"/>
+      <c r="IS6" s="172"/>
+      <c r="IT6" s="172"/>
+      <c r="IU6" s="172"/>
+      <c r="IV6" s="172"/>
+      <c r="IW6" s="172"/>
+      <c r="IX6" s="172"/>
+      <c r="IY6" s="172"/>
+      <c r="IZ6" s="172"/>
+      <c r="JA6" s="172"/>
+      <c r="JB6" s="172"/>
+      <c r="JC6" s="172"/>
+      <c r="JD6" s="172"/>
+      <c r="JE6" s="172"/>
+      <c r="JF6" s="172"/>
+      <c r="JG6" s="172"/>
+      <c r="JH6" s="172"/>
+      <c r="JI6" s="172"/>
+      <c r="JJ6" s="172"/>
+      <c r="JK6" s="172"/>
+      <c r="JL6" s="172"/>
+      <c r="JM6" s="172"/>
+      <c r="JN6" s="173"/>
     </row>
     <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
@@ -4203,7 +4211,7 @@
       </c>
     </row>
     <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="174" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42"/>
@@ -4493,7 +4501,7 @@
       <c r="JN8" s="40"/>
     </row>
     <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
+      <c r="A9" s="174"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
@@ -4785,7 +4793,7 @@
       <c r="JN9" s="7"/>
     </row>
     <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="173"/>
+      <c r="A10" s="174"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75"/>
@@ -5069,7 +5077,7 @@
       <c r="JN10" s="7"/>
     </row>
     <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="173"/>
+      <c r="A11" s="174"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -5351,7 +5359,7 @@
       <c r="JN11" s="7"/>
     </row>
     <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="75"/>
@@ -5635,7 +5643,7 @@
       <c r="JN12" s="7"/>
     </row>
     <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="173"/>
+      <c r="A13" s="174"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="75"/>
@@ -5915,7 +5923,7 @@
       <c r="JN13" s="7"/>
     </row>
     <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173"/>
+      <c r="A14" s="174"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="83"/>
@@ -6193,7 +6201,7 @@
       <c r="JN14" s="18"/>
     </row>
     <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="175" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="89"/>
@@ -6473,7 +6481,7 @@
       <c r="JN15" s="29"/>
     </row>
     <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="173"/>
+      <c r="A16" s="174"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
@@ -6761,7 +6769,7 @@
       <c r="JN16" s="13"/>
     </row>
     <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="173"/>
+      <c r="A17" s="174"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
@@ -7042,7 +7050,7 @@
       <c r="JN17" s="4"/>
     </row>
     <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="173"/>
+      <c r="A18" s="174"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
@@ -7319,7 +7327,7 @@
       <c r="JN18" s="4"/>
     </row>
     <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
+      <c r="A19" s="174"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97"/>
@@ -7595,7 +7603,7 @@
       <c r="JN19" s="4"/>
     </row>
     <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="173"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
@@ -7871,7 +7879,7 @@
       <c r="JN20" s="4"/>
     </row>
     <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
+      <c r="A21" s="174"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
       <c r="D21" s="97"/>
@@ -8147,7 +8155,7 @@
       <c r="JN21" s="127"/>
     </row>
     <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="173"/>
+      <c r="A22" s="174"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
       <c r="D22" s="104"/>
@@ -8423,7 +8431,7 @@
       <c r="JN22" s="25"/>
     </row>
     <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="173" t="s">
+      <c r="A23" s="174" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="108"/>
@@ -8705,7 +8713,7 @@
       <c r="JN23" s="29"/>
     </row>
     <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="97"/>
@@ -8983,7 +8991,7 @@
       <c r="JN24" s="4"/>
     </row>
     <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="173"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
       <c r="D25" s="97"/>
@@ -9261,7 +9269,7 @@
       <c r="JN25" s="4"/>
     </row>
     <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="173"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
       <c r="D26" s="97"/>
@@ -9545,7 +9553,7 @@
       <c r="JN26" s="4"/>
     </row>
     <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="173"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="97"/>
@@ -9827,7 +9835,7 @@
       <c r="JN27" s="4"/>
     </row>
     <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="173"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
       <c r="D28" s="97"/>
@@ -10105,7 +10113,7 @@
       <c r="JN28" s="4"/>
     </row>
     <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="173"/>
+      <c r="A29" s="174"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
       <c r="D29" s="97"/>
@@ -10383,7 +10391,7 @@
       <c r="JN29" s="4"/>
     </row>
     <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="173"/>
+      <c r="A30" s="174"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
@@ -11933,8 +11941,8 @@
   <dimension ref="B2:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11946,7 +11954,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="170" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11965,10 +11973,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="184">
+      <c r="B4" s="185">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="185"/>
+      <c r="C4" s="186"/>
       <c r="D4" s="139">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -11976,7 +11984,7 @@
       <c r="E4" s="140"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="188">
+      <c r="B5" s="189">
         <v>12</v>
       </c>
       <c r="C5" s="143">
@@ -11990,7 +11998,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="189"/>
+      <c r="B6" s="190"/>
       <c r="C6" s="141">
         <v>17</v>
       </c>
@@ -12002,7 +12010,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="189"/>
+      <c r="B7" s="190"/>
       <c r="C7" s="141">
         <v>19</v>
       </c>
@@ -12014,7 +12022,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="189"/>
+      <c r="B8" s="190"/>
       <c r="C8" s="134">
         <v>22</v>
       </c>
@@ -12026,7 +12034,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="189"/>
+      <c r="B9" s="190"/>
       <c r="C9" s="134">
         <v>23</v>
       </c>
@@ -12038,7 +12046,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="189"/>
+      <c r="B10" s="190"/>
       <c r="C10" s="134">
         <v>25</v>
       </c>
@@ -12050,7 +12058,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="189"/>
+      <c r="B11" s="190"/>
       <c r="C11" s="134">
         <v>26</v>
       </c>
@@ -12062,7 +12070,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="189"/>
+      <c r="B12" s="190"/>
       <c r="C12" s="134">
         <v>29</v>
       </c>
@@ -12074,7 +12082,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="190"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="137">
         <v>30</v>
       </c>
@@ -12086,10 +12094,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="186">
+      <c r="B14" s="187">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="187"/>
+      <c r="C14" s="188"/>
       <c r="D14" s="154">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -12097,7 +12105,7 @@
       <c r="E14" s="155"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="191">
+      <c r="B15" s="192">
         <v>1</v>
       </c>
       <c r="C15" s="134">
@@ -12111,7 +12119,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="192"/>
+      <c r="B16" s="193"/>
       <c r="C16" s="134">
         <v>5</v>
       </c>
@@ -12123,7 +12131,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="192"/>
+      <c r="B17" s="193"/>
       <c r="C17" s="134">
         <v>13</v>
       </c>
@@ -12135,7 +12143,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="192"/>
+      <c r="B18" s="193"/>
       <c r="C18" s="134">
         <v>15</v>
       </c>
@@ -12147,7 +12155,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="192"/>
+      <c r="B19" s="193"/>
       <c r="C19" s="134">
         <v>17</v>
       </c>
@@ -12159,7 +12167,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="192"/>
+      <c r="B20" s="193"/>
       <c r="C20" s="134">
         <v>18</v>
       </c>
@@ -12171,7 +12179,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="192"/>
+      <c r="B21" s="193"/>
       <c r="C21" s="134">
         <v>21</v>
       </c>
@@ -12183,7 +12191,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="192"/>
+      <c r="B22" s="193"/>
       <c r="C22" s="134">
         <v>22</v>
       </c>
@@ -12195,7 +12203,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="193"/>
+      <c r="B23" s="194"/>
       <c r="C23" s="137">
         <v>28</v>
       </c>
@@ -12207,10 +12215,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="184">
+      <c r="B24" s="185">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="185"/>
+      <c r="C24" s="186"/>
       <c r="D24" s="139">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -12218,7 +12226,7 @@
       <c r="E24" s="142"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="191">
+      <c r="B25" s="192">
         <v>2</v>
       </c>
       <c r="C25" s="134">
@@ -12232,7 +12240,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="192"/>
+      <c r="B26" s="193"/>
       <c r="C26" s="134">
         <v>11</v>
       </c>
@@ -12244,7 +12252,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="192"/>
+      <c r="B27" s="193"/>
       <c r="C27" s="134">
         <v>12</v>
       </c>
@@ -12256,7 +12264,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="192"/>
+      <c r="B28" s="193"/>
       <c r="C28" s="134">
         <v>12</v>
       </c>
@@ -12268,7 +12276,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="192"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="134">
         <v>24</v>
       </c>
@@ -12280,7 +12288,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="192"/>
+      <c r="B30" s="193"/>
       <c r="C30" s="165">
         <v>26</v>
       </c>
@@ -12292,10 +12300,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="186">
+      <c r="B31" s="187">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="187"/>
+      <c r="C31" s="188"/>
       <c r="D31" s="154">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -12447,10 +12455,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="184">
+      <c r="B44" s="185">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="185"/>
+      <c r="C44" s="186"/>
       <c r="D44" s="139">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -12626,13 +12634,13 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="184">
+      <c r="B59" s="185">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="185"/>
+      <c r="C59" s="186"/>
       <c r="D59" s="139">
         <f>SUM(D60:D88)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E59" s="142"/>
     </row>
@@ -12722,15 +12730,27 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="164"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="166"/>
-      <c r="E67" s="168"/>
+      <c r="C67" s="165">
+        <v>12</v>
+      </c>
+      <c r="D67" s="166">
+        <v>3</v>
+      </c>
+      <c r="E67" s="168" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="164"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="166"/>
-      <c r="E68" s="168"/>
+      <c r="C68" s="165">
+        <v>20</v>
+      </c>
+      <c r="D68" s="166">
+        <v>3</v>
+      </c>
+      <c r="E68" s="168" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="164"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,38 @@
   </si>
   <si>
     <t>Pipette MP4 Data 작업 및 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ MP3 Data release(V4.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ MP4 Data release(V5.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ MP4 Data release(V5.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Plasma Off delay Issue 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPD concept review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen F/W 요청 사항 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Plasma Off delay Issue 검토 - Trans,전극 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Plasma Off delay Issue 검토 - Main PCB, F/W 검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1803,7 +1835,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1892,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1949,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +2006,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2063,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2120,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2177,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2234,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2291,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2348,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2405,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2462,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2519,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2576,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2633,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2690,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2747,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,11 +3076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JN47"/>
+  <dimension ref="A1:KR47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HR11" sqref="HR11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="IH35" sqref="IH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3069,32 +3101,32 @@
     <col min="183" max="16384" width="2.625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:274" s="54" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:304" s="54" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:304" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:304" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:304" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:274" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:304" s="54" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:304" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="182">
         <v>9</v>
@@ -3387,8 +3419,40 @@
       <c r="JL6" s="172"/>
       <c r="JM6" s="172"/>
       <c r="JN6" s="173"/>
+      <c r="JO6" s="176">
+        <v>6</v>
+      </c>
+      <c r="JP6" s="177"/>
+      <c r="JQ6" s="177"/>
+      <c r="JR6" s="177"/>
+      <c r="JS6" s="177"/>
+      <c r="JT6" s="177"/>
+      <c r="JU6" s="177"/>
+      <c r="JV6" s="177"/>
+      <c r="JW6" s="177"/>
+      <c r="JX6" s="177"/>
+      <c r="JY6" s="177"/>
+      <c r="JZ6" s="177"/>
+      <c r="KA6" s="177"/>
+      <c r="KB6" s="177"/>
+      <c r="KC6" s="177"/>
+      <c r="KD6" s="177"/>
+      <c r="KE6" s="177"/>
+      <c r="KF6" s="177"/>
+      <c r="KG6" s="177"/>
+      <c r="KH6" s="177"/>
+      <c r="KI6" s="177"/>
+      <c r="KJ6" s="177"/>
+      <c r="KK6" s="177"/>
+      <c r="KL6" s="177"/>
+      <c r="KM6" s="177"/>
+      <c r="KN6" s="177"/>
+      <c r="KO6" s="177"/>
+      <c r="KP6" s="177"/>
+      <c r="KQ6" s="177"/>
+      <c r="KR6" s="178"/>
     </row>
-    <row r="7" spans="1:274" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:304" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
       <c r="B7" s="56">
         <v>1</v>
@@ -4209,8 +4273,98 @@
       <c r="JN7" s="122">
         <v>31</v>
       </c>
+      <c r="JO7" s="121">
+        <v>1</v>
+      </c>
+      <c r="JP7" s="120">
+        <v>2</v>
+      </c>
+      <c r="JQ7" s="120">
+        <v>3</v>
+      </c>
+      <c r="JR7" s="120">
+        <v>4</v>
+      </c>
+      <c r="JS7" s="120">
+        <v>5</v>
+      </c>
+      <c r="JT7" s="120">
+        <v>6</v>
+      </c>
+      <c r="JU7" s="120">
+        <v>7</v>
+      </c>
+      <c r="JV7" s="120">
+        <v>8</v>
+      </c>
+      <c r="JW7" s="120">
+        <v>9</v>
+      </c>
+      <c r="JX7" s="120">
+        <v>10</v>
+      </c>
+      <c r="JY7" s="120">
+        <v>11</v>
+      </c>
+      <c r="JZ7" s="120">
+        <v>12</v>
+      </c>
+      <c r="KA7" s="120">
+        <v>13</v>
+      </c>
+      <c r="KB7" s="120">
+        <v>14</v>
+      </c>
+      <c r="KC7" s="120">
+        <v>15</v>
+      </c>
+      <c r="KD7" s="120">
+        <v>16</v>
+      </c>
+      <c r="KE7" s="120">
+        <v>17</v>
+      </c>
+      <c r="KF7" s="120">
+        <v>18</v>
+      </c>
+      <c r="KG7" s="120">
+        <v>19</v>
+      </c>
+      <c r="KH7" s="120">
+        <v>20</v>
+      </c>
+      <c r="KI7" s="120">
+        <v>21</v>
+      </c>
+      <c r="KJ7" s="120">
+        <v>22</v>
+      </c>
+      <c r="KK7" s="120">
+        <v>23</v>
+      </c>
+      <c r="KL7" s="120">
+        <v>24</v>
+      </c>
+      <c r="KM7" s="120">
+        <v>25</v>
+      </c>
+      <c r="KN7" s="120">
+        <v>26</v>
+      </c>
+      <c r="KO7" s="120">
+        <v>27</v>
+      </c>
+      <c r="KP7" s="120">
+        <v>28</v>
+      </c>
+      <c r="KQ7" s="120">
+        <v>29</v>
+      </c>
+      <c r="KR7" s="120">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="174" t="s">
         <v>28</v>
       </c>
@@ -4499,8 +4653,38 @@
       <c r="JL8" s="8"/>
       <c r="JM8" s="8"/>
       <c r="JN8" s="40"/>
+      <c r="JO8" s="21"/>
+      <c r="JP8" s="8"/>
+      <c r="JQ8" s="8"/>
+      <c r="JR8" s="8"/>
+      <c r="JS8" s="8"/>
+      <c r="JT8" s="42"/>
+      <c r="JU8" s="10"/>
+      <c r="JV8" s="8"/>
+      <c r="JW8" s="8"/>
+      <c r="JX8" s="8"/>
+      <c r="JY8" s="8"/>
+      <c r="JZ8" s="8"/>
+      <c r="KA8" s="42"/>
+      <c r="KB8" s="10"/>
+      <c r="KC8" s="8"/>
+      <c r="KD8" s="8"/>
+      <c r="KE8" s="8"/>
+      <c r="KF8" s="8"/>
+      <c r="KG8" s="8"/>
+      <c r="KH8" s="42"/>
+      <c r="KI8" s="10"/>
+      <c r="KJ8" s="8"/>
+      <c r="KK8" s="8"/>
+      <c r="KL8" s="8"/>
+      <c r="KM8" s="8"/>
+      <c r="KN8" s="8"/>
+      <c r="KO8" s="42"/>
+      <c r="KP8" s="10"/>
+      <c r="KQ8" s="8"/>
+      <c r="KR8" s="8"/>
     </row>
-    <row r="9" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="174"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
@@ -4791,8 +4975,38 @@
       <c r="JL9" s="5"/>
       <c r="JM9" s="5"/>
       <c r="JN9" s="7"/>
+      <c r="JO9" s="16"/>
+      <c r="JP9" s="5"/>
+      <c r="JQ9" s="5"/>
+      <c r="JR9" s="5"/>
+      <c r="JS9" s="5"/>
+      <c r="JT9" s="6"/>
+      <c r="JU9" s="6"/>
+      <c r="JV9" s="5"/>
+      <c r="JW9" s="5"/>
+      <c r="JX9" s="5"/>
+      <c r="JY9" s="5"/>
+      <c r="JZ9" s="5"/>
+      <c r="KA9" s="6"/>
+      <c r="KB9" s="6"/>
+      <c r="KC9" s="5"/>
+      <c r="KD9" s="5"/>
+      <c r="KE9" s="5"/>
+      <c r="KF9" s="5"/>
+      <c r="KG9" s="5"/>
+      <c r="KH9" s="6"/>
+      <c r="KI9" s="6"/>
+      <c r="KJ9" s="5"/>
+      <c r="KK9" s="5"/>
+      <c r="KL9" s="5"/>
+      <c r="KM9" s="5"/>
+      <c r="KN9" s="5"/>
+      <c r="KO9" s="6"/>
+      <c r="KP9" s="6"/>
+      <c r="KQ9" s="5"/>
+      <c r="KR9" s="5"/>
     </row>
-    <row r="10" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="174"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
@@ -5075,8 +5289,38 @@
       <c r="JL10" s="5"/>
       <c r="JM10" s="5"/>
       <c r="JN10" s="7"/>
+      <c r="JO10" s="16"/>
+      <c r="JP10" s="5"/>
+      <c r="JQ10" s="5"/>
+      <c r="JR10" s="5"/>
+      <c r="JS10" s="5"/>
+      <c r="JT10" s="6"/>
+      <c r="JU10" s="6"/>
+      <c r="JV10" s="5"/>
+      <c r="JW10" s="5"/>
+      <c r="JX10" s="5"/>
+      <c r="JY10" s="5"/>
+      <c r="JZ10" s="5"/>
+      <c r="KA10" s="6"/>
+      <c r="KB10" s="6"/>
+      <c r="KC10" s="5"/>
+      <c r="KD10" s="5"/>
+      <c r="KE10" s="5"/>
+      <c r="KF10" s="5"/>
+      <c r="KG10" s="5"/>
+      <c r="KH10" s="6"/>
+      <c r="KI10" s="6"/>
+      <c r="KJ10" s="5"/>
+      <c r="KK10" s="5"/>
+      <c r="KL10" s="5"/>
+      <c r="KM10" s="5"/>
+      <c r="KN10" s="5"/>
+      <c r="KO10" s="6"/>
+      <c r="KP10" s="6"/>
+      <c r="KQ10" s="5"/>
+      <c r="KR10" s="5"/>
     </row>
-    <row r="11" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="174"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
@@ -5310,7 +5554,9 @@
       <c r="HQ11" s="5"/>
       <c r="HR11" s="6"/>
       <c r="HS11" s="6"/>
-      <c r="HT11" s="5"/>
+      <c r="HT11" s="117" t="s">
+        <v>105</v>
+      </c>
       <c r="HU11" s="5"/>
       <c r="HV11" s="5"/>
       <c r="HW11" s="5"/>
@@ -5346,7 +5592,9 @@
       <c r="JA11" s="6"/>
       <c r="JB11" s="6"/>
       <c r="JC11" s="5"/>
-      <c r="JD11" s="5"/>
+      <c r="JD11" s="117" t="s">
+        <v>106</v>
+      </c>
       <c r="JE11" s="5"/>
       <c r="JF11" s="5"/>
       <c r="JG11" s="5"/>
@@ -5357,8 +5605,40 @@
       <c r="JL11" s="5"/>
       <c r="JM11" s="5"/>
       <c r="JN11" s="7"/>
+      <c r="JO11" s="75"/>
+      <c r="JP11" s="5"/>
+      <c r="JQ11" s="5"/>
+      <c r="JR11" s="5"/>
+      <c r="JS11" s="5"/>
+      <c r="JT11" s="6"/>
+      <c r="JU11" s="6"/>
+      <c r="JV11" s="5"/>
+      <c r="JW11" s="5"/>
+      <c r="JX11" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="JY11" s="5"/>
+      <c r="JZ11" s="5"/>
+      <c r="KA11" s="6"/>
+      <c r="KB11" s="6"/>
+      <c r="KC11" s="5"/>
+      <c r="KD11" s="5"/>
+      <c r="KE11" s="5"/>
+      <c r="KF11" s="5"/>
+      <c r="KG11" s="5"/>
+      <c r="KH11" s="6"/>
+      <c r="KI11" s="6"/>
+      <c r="KJ11" s="5"/>
+      <c r="KK11" s="5"/>
+      <c r="KL11" s="5"/>
+      <c r="KM11" s="5"/>
+      <c r="KN11" s="5"/>
+      <c r="KO11" s="6"/>
+      <c r="KP11" s="6"/>
+      <c r="KQ11" s="5"/>
+      <c r="KR11" s="5"/>
     </row>
-    <row r="12" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="174"/>
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
@@ -5641,8 +5921,38 @@
       <c r="JL12" s="5"/>
       <c r="JM12" s="5"/>
       <c r="JN12" s="7"/>
+      <c r="JO12" s="75"/>
+      <c r="JP12" s="5"/>
+      <c r="JQ12" s="5"/>
+      <c r="JR12" s="5"/>
+      <c r="JS12" s="5"/>
+      <c r="JT12" s="6"/>
+      <c r="JU12" s="6"/>
+      <c r="JV12" s="5"/>
+      <c r="JW12" s="5"/>
+      <c r="JX12" s="5"/>
+      <c r="JY12" s="5"/>
+      <c r="JZ12" s="5"/>
+      <c r="KA12" s="6"/>
+      <c r="KB12" s="6"/>
+      <c r="KC12" s="5"/>
+      <c r="KD12" s="5"/>
+      <c r="KE12" s="5"/>
+      <c r="KF12" s="5"/>
+      <c r="KG12" s="5"/>
+      <c r="KH12" s="6"/>
+      <c r="KI12" s="6"/>
+      <c r="KJ12" s="5"/>
+      <c r="KK12" s="5"/>
+      <c r="KL12" s="5"/>
+      <c r="KM12" s="5"/>
+      <c r="KN12" s="5"/>
+      <c r="KO12" s="6"/>
+      <c r="KP12" s="6"/>
+      <c r="KQ12" s="5"/>
+      <c r="KR12" s="5"/>
     </row>
-    <row r="13" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="174"/>
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
@@ -5921,8 +6231,38 @@
       <c r="JL13" s="5"/>
       <c r="JM13" s="5"/>
       <c r="JN13" s="7"/>
+      <c r="JO13" s="16"/>
+      <c r="JP13" s="5"/>
+      <c r="JQ13" s="5"/>
+      <c r="JR13" s="5"/>
+      <c r="JS13" s="5"/>
+      <c r="JT13" s="6"/>
+      <c r="JU13" s="6"/>
+      <c r="JV13" s="5"/>
+      <c r="JW13" s="5"/>
+      <c r="JX13" s="5"/>
+      <c r="JY13" s="5"/>
+      <c r="JZ13" s="5"/>
+      <c r="KA13" s="6"/>
+      <c r="KB13" s="6"/>
+      <c r="KC13" s="5"/>
+      <c r="KD13" s="5"/>
+      <c r="KE13" s="5"/>
+      <c r="KF13" s="5"/>
+      <c r="KG13" s="5"/>
+      <c r="KH13" s="6"/>
+      <c r="KI13" s="6"/>
+      <c r="KJ13" s="5"/>
+      <c r="KK13" s="5"/>
+      <c r="KL13" s="5"/>
+      <c r="KM13" s="5"/>
+      <c r="KN13" s="5"/>
+      <c r="KO13" s="6"/>
+      <c r="KP13" s="6"/>
+      <c r="KQ13" s="5"/>
+      <c r="KR13" s="5"/>
     </row>
-    <row r="14" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="174"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
@@ -6199,8 +6539,38 @@
       <c r="JL14" s="14"/>
       <c r="JM14" s="14"/>
       <c r="JN14" s="18"/>
+      <c r="JO14" s="17"/>
+      <c r="JP14" s="14"/>
+      <c r="JQ14" s="14"/>
+      <c r="JR14" s="14"/>
+      <c r="JS14" s="14"/>
+      <c r="JT14" s="15"/>
+      <c r="JU14" s="15"/>
+      <c r="JV14" s="14"/>
+      <c r="JW14" s="14"/>
+      <c r="JX14" s="14"/>
+      <c r="JY14" s="14"/>
+      <c r="JZ14" s="14"/>
+      <c r="KA14" s="15"/>
+      <c r="KB14" s="15"/>
+      <c r="KC14" s="14"/>
+      <c r="KD14" s="14"/>
+      <c r="KE14" s="14"/>
+      <c r="KF14" s="14"/>
+      <c r="KG14" s="14"/>
+      <c r="KH14" s="15"/>
+      <c r="KI14" s="15"/>
+      <c r="KJ14" s="14"/>
+      <c r="KK14" s="14"/>
+      <c r="KL14" s="14"/>
+      <c r="KM14" s="14"/>
+      <c r="KN14" s="14"/>
+      <c r="KO14" s="15"/>
+      <c r="KP14" s="15"/>
+      <c r="KQ14" s="14"/>
+      <c r="KR14" s="14"/>
     </row>
-    <row r="15" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="175" t="s">
         <v>5</v>
       </c>
@@ -6479,8 +6849,38 @@
       <c r="JL15" s="26"/>
       <c r="JM15" s="26"/>
       <c r="JN15" s="29"/>
+      <c r="JO15" s="28"/>
+      <c r="JP15" s="26"/>
+      <c r="JQ15" s="26"/>
+      <c r="JR15" s="26"/>
+      <c r="JS15" s="26"/>
+      <c r="JT15" s="27"/>
+      <c r="JU15" s="27"/>
+      <c r="JV15" s="26"/>
+      <c r="JW15" s="26"/>
+      <c r="JX15" s="26"/>
+      <c r="JY15" s="26"/>
+      <c r="JZ15" s="26"/>
+      <c r="KA15" s="27"/>
+      <c r="KB15" s="27"/>
+      <c r="KC15" s="26"/>
+      <c r="KD15" s="26"/>
+      <c r="KE15" s="26"/>
+      <c r="KF15" s="26"/>
+      <c r="KG15" s="26"/>
+      <c r="KH15" s="27"/>
+      <c r="KI15" s="27"/>
+      <c r="KJ15" s="26"/>
+      <c r="KK15" s="26"/>
+      <c r="KL15" s="26"/>
+      <c r="KM15" s="26"/>
+      <c r="KN15" s="26"/>
+      <c r="KO15" s="27"/>
+      <c r="KP15" s="27"/>
+      <c r="KQ15" s="26"/>
+      <c r="KR15" s="26"/>
     </row>
-    <row r="16" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="174"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
@@ -6767,8 +7167,38 @@
       <c r="JL16" s="11"/>
       <c r="JM16" s="11"/>
       <c r="JN16" s="13"/>
+      <c r="JO16" s="19"/>
+      <c r="JP16" s="11"/>
+      <c r="JQ16" s="11"/>
+      <c r="JR16" s="11"/>
+      <c r="JS16" s="11"/>
+      <c r="JT16" s="12"/>
+      <c r="JU16" s="12"/>
+      <c r="JV16" s="11"/>
+      <c r="JW16" s="11"/>
+      <c r="JX16" s="11"/>
+      <c r="JY16" s="11"/>
+      <c r="JZ16" s="11"/>
+      <c r="KA16" s="1"/>
+      <c r="KB16" s="12"/>
+      <c r="KC16" s="11"/>
+      <c r="KD16" s="11"/>
+      <c r="KE16" s="11"/>
+      <c r="KF16" s="11"/>
+      <c r="KG16" s="11"/>
+      <c r="KH16" s="12"/>
+      <c r="KI16" s="12"/>
+      <c r="KJ16" s="11"/>
+      <c r="KK16" s="11"/>
+      <c r="KL16" s="11"/>
+      <c r="KM16" s="11"/>
+      <c r="KN16" s="11"/>
+      <c r="KO16" s="12"/>
+      <c r="KP16" s="12"/>
+      <c r="KQ16" s="11"/>
+      <c r="KR16" s="11"/>
     </row>
-    <row r="17" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="174"/>
       <c r="B17" s="95"/>
       <c r="C17" s="96"/>
@@ -7048,8 +7478,38 @@
       <c r="JL17" s="2"/>
       <c r="JM17" s="2"/>
       <c r="JN17" s="4"/>
+      <c r="JO17" s="20"/>
+      <c r="JP17" s="2"/>
+      <c r="JQ17" s="2"/>
+      <c r="JR17" s="2"/>
+      <c r="JS17" s="2"/>
+      <c r="JT17" s="1"/>
+      <c r="JU17" s="1"/>
+      <c r="JV17" s="2"/>
+      <c r="JW17" s="2"/>
+      <c r="JX17" s="2"/>
+      <c r="JY17" s="2"/>
+      <c r="JZ17" s="2"/>
+      <c r="KA17" s="1"/>
+      <c r="KB17" s="1"/>
+      <c r="KC17" s="2"/>
+      <c r="KD17" s="2"/>
+      <c r="KE17" s="2"/>
+      <c r="KF17" s="2"/>
+      <c r="KG17" s="2"/>
+      <c r="KH17" s="1"/>
+      <c r="KI17" s="1"/>
+      <c r="KJ17" s="2"/>
+      <c r="KK17" s="2"/>
+      <c r="KL17" s="2"/>
+      <c r="KM17" s="2"/>
+      <c r="KN17" s="2"/>
+      <c r="KO17" s="1"/>
+      <c r="KP17" s="1"/>
+      <c r="KQ17" s="2"/>
+      <c r="KR17" s="2"/>
     </row>
-    <row r="18" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="174"/>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
@@ -7325,8 +7785,38 @@
       <c r="JL18" s="2"/>
       <c r="JM18" s="2"/>
       <c r="JN18" s="4"/>
+      <c r="JO18" s="20"/>
+      <c r="JP18" s="2"/>
+      <c r="JQ18" s="2"/>
+      <c r="JR18" s="2"/>
+      <c r="JS18" s="2"/>
+      <c r="JT18" s="1"/>
+      <c r="JU18" s="1"/>
+      <c r="JV18" s="2"/>
+      <c r="JW18" s="2"/>
+      <c r="JX18" s="2"/>
+      <c r="JY18" s="2"/>
+      <c r="JZ18" s="2"/>
+      <c r="KA18" s="1"/>
+      <c r="KB18" s="1"/>
+      <c r="KC18" s="2"/>
+      <c r="KD18" s="2"/>
+      <c r="KE18" s="2"/>
+      <c r="KF18" s="2"/>
+      <c r="KG18" s="2"/>
+      <c r="KH18" s="1"/>
+      <c r="KI18" s="1"/>
+      <c r="KJ18" s="2"/>
+      <c r="KK18" s="2"/>
+      <c r="KL18" s="2"/>
+      <c r="KM18" s="2"/>
+      <c r="KN18" s="2"/>
+      <c r="KO18" s="1"/>
+      <c r="KP18" s="1"/>
+      <c r="KQ18" s="2"/>
+      <c r="KR18" s="2"/>
     </row>
-    <row r="19" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="174"/>
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
@@ -7601,8 +8091,38 @@
       <c r="JL19" s="2"/>
       <c r="JM19" s="2"/>
       <c r="JN19" s="4"/>
+      <c r="JO19" s="20"/>
+      <c r="JP19" s="2"/>
+      <c r="JQ19" s="2"/>
+      <c r="JR19" s="2"/>
+      <c r="JS19" s="2"/>
+      <c r="JT19" s="1"/>
+      <c r="JU19" s="1"/>
+      <c r="JV19" s="2"/>
+      <c r="JW19" s="2"/>
+      <c r="JX19" s="2"/>
+      <c r="JY19" s="2"/>
+      <c r="JZ19" s="2"/>
+      <c r="KA19" s="1"/>
+      <c r="KB19" s="1"/>
+      <c r="KC19" s="2"/>
+      <c r="KD19" s="2"/>
+      <c r="KE19" s="2"/>
+      <c r="KF19" s="2"/>
+      <c r="KG19" s="2"/>
+      <c r="KH19" s="1"/>
+      <c r="KI19" s="1"/>
+      <c r="KJ19" s="2"/>
+      <c r="KK19" s="2"/>
+      <c r="KL19" s="2"/>
+      <c r="KM19" s="2"/>
+      <c r="KN19" s="2"/>
+      <c r="KO19" s="1"/>
+      <c r="KP19" s="1"/>
+      <c r="KQ19" s="2"/>
+      <c r="KR19" s="2"/>
     </row>
-    <row r="20" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="174"/>
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
@@ -7877,8 +8397,38 @@
       <c r="JL20" s="2"/>
       <c r="JM20" s="2"/>
       <c r="JN20" s="4"/>
+      <c r="JO20" s="20"/>
+      <c r="JP20" s="2"/>
+      <c r="JQ20" s="2"/>
+      <c r="JR20" s="2"/>
+      <c r="JS20" s="2"/>
+      <c r="JT20" s="1"/>
+      <c r="JU20" s="1"/>
+      <c r="JV20" s="2"/>
+      <c r="JW20" s="2"/>
+      <c r="JX20" s="2"/>
+      <c r="JY20" s="2"/>
+      <c r="JZ20" s="2"/>
+      <c r="KA20" s="1"/>
+      <c r="KB20" s="1"/>
+      <c r="KC20" s="2"/>
+      <c r="KD20" s="2"/>
+      <c r="KE20" s="2"/>
+      <c r="KF20" s="2"/>
+      <c r="KG20" s="2"/>
+      <c r="KH20" s="1"/>
+      <c r="KI20" s="1"/>
+      <c r="KJ20" s="2"/>
+      <c r="KK20" s="2"/>
+      <c r="KL20" s="2"/>
+      <c r="KM20" s="2"/>
+      <c r="KN20" s="2"/>
+      <c r="KO20" s="1"/>
+      <c r="KP20" s="1"/>
+      <c r="KQ20" s="2"/>
+      <c r="KR20" s="2"/>
     </row>
-    <row r="21" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="174"/>
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
@@ -8153,8 +8703,38 @@
       <c r="JL21" s="125"/>
       <c r="JM21" s="125"/>
       <c r="JN21" s="127"/>
+      <c r="JO21" s="126"/>
+      <c r="JP21" s="125"/>
+      <c r="JQ21" s="125"/>
+      <c r="JR21" s="125"/>
+      <c r="JS21" s="125"/>
+      <c r="JT21" s="124"/>
+      <c r="JU21" s="124"/>
+      <c r="JV21" s="125"/>
+      <c r="JW21" s="125"/>
+      <c r="JX21" s="125"/>
+      <c r="JY21" s="125"/>
+      <c r="JZ21" s="125"/>
+      <c r="KA21" s="124"/>
+      <c r="KB21" s="124"/>
+      <c r="KC21" s="125"/>
+      <c r="KD21" s="125"/>
+      <c r="KE21" s="125"/>
+      <c r="KF21" s="125"/>
+      <c r="KG21" s="125"/>
+      <c r="KH21" s="124"/>
+      <c r="KI21" s="124"/>
+      <c r="KJ21" s="125"/>
+      <c r="KK21" s="125"/>
+      <c r="KL21" s="125"/>
+      <c r="KM21" s="125"/>
+      <c r="KN21" s="125"/>
+      <c r="KO21" s="124"/>
+      <c r="KP21" s="124"/>
+      <c r="KQ21" s="125"/>
+      <c r="KR21" s="125"/>
     </row>
-    <row r="22" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="174"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
@@ -8429,8 +9009,38 @@
       <c r="JL22" s="23"/>
       <c r="JM22" s="23"/>
       <c r="JN22" s="25"/>
+      <c r="JO22" s="22"/>
+      <c r="JP22" s="23"/>
+      <c r="JQ22" s="23"/>
+      <c r="JR22" s="23"/>
+      <c r="JS22" s="23"/>
+      <c r="JT22" s="24"/>
+      <c r="JU22" s="24"/>
+      <c r="JV22" s="23"/>
+      <c r="JW22" s="23"/>
+      <c r="JX22" s="23"/>
+      <c r="JY22" s="23"/>
+      <c r="JZ22" s="23"/>
+      <c r="KA22" s="24"/>
+      <c r="KB22" s="24"/>
+      <c r="KC22" s="23"/>
+      <c r="KD22" s="23"/>
+      <c r="KE22" s="23"/>
+      <c r="KF22" s="23"/>
+      <c r="KG22" s="23"/>
+      <c r="KH22" s="24"/>
+      <c r="KI22" s="24"/>
+      <c r="KJ22" s="23"/>
+      <c r="KK22" s="23"/>
+      <c r="KL22" s="23"/>
+      <c r="KM22" s="23"/>
+      <c r="KN22" s="23"/>
+      <c r="KO22" s="24"/>
+      <c r="KP22" s="24"/>
+      <c r="KQ22" s="23"/>
+      <c r="KR22" s="23"/>
     </row>
-    <row r="23" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="174" t="s">
         <v>29</v>
       </c>
@@ -8711,8 +9321,38 @@
       <c r="JL23" s="26"/>
       <c r="JM23" s="26"/>
       <c r="JN23" s="29"/>
+      <c r="JO23" s="28"/>
+      <c r="JP23" s="26"/>
+      <c r="JQ23" s="26"/>
+      <c r="JR23" s="26"/>
+      <c r="JS23" s="26"/>
+      <c r="JT23" s="27"/>
+      <c r="JU23" s="27"/>
+      <c r="JV23" s="26"/>
+      <c r="JW23" s="26"/>
+      <c r="JX23" s="26"/>
+      <c r="JY23" s="26"/>
+      <c r="JZ23" s="26"/>
+      <c r="KA23" s="27"/>
+      <c r="KB23" s="27"/>
+      <c r="KC23" s="26"/>
+      <c r="KD23" s="26"/>
+      <c r="KE23" s="26"/>
+      <c r="KF23" s="26"/>
+      <c r="KG23" s="26"/>
+      <c r="KH23" s="27"/>
+      <c r="KI23" s="27"/>
+      <c r="KJ23" s="26"/>
+      <c r="KK23" s="26"/>
+      <c r="KL23" s="26"/>
+      <c r="KM23" s="26"/>
+      <c r="KN23" s="26"/>
+      <c r="KO23" s="27"/>
+      <c r="KP23" s="27"/>
+      <c r="KQ23" s="26"/>
+      <c r="KR23" s="26"/>
     </row>
-    <row r="24" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="174"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
@@ -8989,8 +9629,38 @@
       <c r="JL24" s="2"/>
       <c r="JM24" s="2"/>
       <c r="JN24" s="4"/>
+      <c r="JO24" s="20"/>
+      <c r="JP24" s="2"/>
+      <c r="JQ24" s="2"/>
+      <c r="JR24" s="2"/>
+      <c r="JS24" s="2"/>
+      <c r="JT24" s="1"/>
+      <c r="JU24" s="1"/>
+      <c r="JV24" s="2"/>
+      <c r="JW24" s="2"/>
+      <c r="JX24" s="2"/>
+      <c r="JY24" s="2"/>
+      <c r="JZ24" s="2"/>
+      <c r="KA24" s="1"/>
+      <c r="KB24" s="1"/>
+      <c r="KC24" s="2"/>
+      <c r="KD24" s="2"/>
+      <c r="KE24" s="2"/>
+      <c r="KF24" s="2"/>
+      <c r="KG24" s="2"/>
+      <c r="KH24" s="1"/>
+      <c r="KI24" s="1"/>
+      <c r="KJ24" s="2"/>
+      <c r="KK24" s="2"/>
+      <c r="KL24" s="2"/>
+      <c r="KM24" s="2"/>
+      <c r="KN24" s="2"/>
+      <c r="KO24" s="1"/>
+      <c r="KP24" s="1"/>
+      <c r="KQ24" s="2"/>
+      <c r="KR24" s="2"/>
     </row>
-    <row r="25" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="174"/>
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
@@ -9267,8 +9937,38 @@
       <c r="JL25" s="2"/>
       <c r="JM25" s="2"/>
       <c r="JN25" s="4"/>
+      <c r="JO25" s="20"/>
+      <c r="JP25" s="2"/>
+      <c r="JQ25" s="2"/>
+      <c r="JR25" s="2"/>
+      <c r="JS25" s="2"/>
+      <c r="JT25" s="1"/>
+      <c r="JU25" s="1"/>
+      <c r="JV25" s="2"/>
+      <c r="JW25" s="2"/>
+      <c r="JX25" s="2"/>
+      <c r="JY25" s="2"/>
+      <c r="JZ25" s="2"/>
+      <c r="KA25" s="1"/>
+      <c r="KB25" s="1"/>
+      <c r="KC25" s="2"/>
+      <c r="KD25" s="2"/>
+      <c r="KE25" s="2"/>
+      <c r="KF25" s="2"/>
+      <c r="KG25" s="2"/>
+      <c r="KH25" s="1"/>
+      <c r="KI25" s="1"/>
+      <c r="KJ25" s="2"/>
+      <c r="KK25" s="2"/>
+      <c r="KL25" s="2"/>
+      <c r="KM25" s="2"/>
+      <c r="KN25" s="2"/>
+      <c r="KO25" s="1"/>
+      <c r="KP25" s="1"/>
+      <c r="KQ25" s="2"/>
+      <c r="KR25" s="2"/>
     </row>
-    <row r="26" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="174"/>
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
@@ -9551,8 +10251,38 @@
       <c r="JL26" s="2"/>
       <c r="JM26" s="2"/>
       <c r="JN26" s="4"/>
+      <c r="JO26" s="20"/>
+      <c r="JP26" s="2"/>
+      <c r="JQ26" s="2"/>
+      <c r="JR26" s="2"/>
+      <c r="JS26" s="2"/>
+      <c r="JT26" s="1"/>
+      <c r="JU26" s="1"/>
+      <c r="JV26" s="2"/>
+      <c r="JW26" s="2"/>
+      <c r="JX26" s="2"/>
+      <c r="JY26" s="2"/>
+      <c r="JZ26" s="2"/>
+      <c r="KA26" s="1"/>
+      <c r="KB26" s="1"/>
+      <c r="KC26" s="2"/>
+      <c r="KD26" s="2"/>
+      <c r="KE26" s="2"/>
+      <c r="KF26" s="2"/>
+      <c r="KG26" s="2"/>
+      <c r="KH26" s="1"/>
+      <c r="KI26" s="1"/>
+      <c r="KJ26" s="2"/>
+      <c r="KK26" s="2"/>
+      <c r="KL26" s="2"/>
+      <c r="KM26" s="2"/>
+      <c r="KN26" s="2"/>
+      <c r="KO26" s="1"/>
+      <c r="KP26" s="1"/>
+      <c r="KQ26" s="2"/>
+      <c r="KR26" s="2"/>
     </row>
-    <row r="27" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="174"/>
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
@@ -9833,8 +10563,38 @@
       <c r="JL27" s="2"/>
       <c r="JM27" s="2"/>
       <c r="JN27" s="4"/>
+      <c r="JO27" s="20"/>
+      <c r="JP27" s="2"/>
+      <c r="JQ27" s="2"/>
+      <c r="JR27" s="2"/>
+      <c r="JS27" s="2"/>
+      <c r="JT27" s="1"/>
+      <c r="JU27" s="1"/>
+      <c r="JV27" s="2"/>
+      <c r="JW27" s="2"/>
+      <c r="JX27" s="2"/>
+      <c r="JY27" s="2"/>
+      <c r="JZ27" s="2"/>
+      <c r="KA27" s="1"/>
+      <c r="KB27" s="1"/>
+      <c r="KC27" s="2"/>
+      <c r="KD27" s="2"/>
+      <c r="KE27" s="2"/>
+      <c r="KF27" s="2"/>
+      <c r="KG27" s="2"/>
+      <c r="KH27" s="1"/>
+      <c r="KI27" s="1"/>
+      <c r="KJ27" s="2"/>
+      <c r="KK27" s="2"/>
+      <c r="KL27" s="2"/>
+      <c r="KM27" s="2"/>
+      <c r="KN27" s="2"/>
+      <c r="KO27" s="1"/>
+      <c r="KP27" s="1"/>
+      <c r="KQ27" s="2"/>
+      <c r="KR27" s="2"/>
     </row>
-    <row r="28" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="174"/>
       <c r="B28" s="95"/>
       <c r="C28" s="96"/>
@@ -10111,8 +10871,38 @@
       <c r="JL28" s="2"/>
       <c r="JM28" s="2"/>
       <c r="JN28" s="4"/>
+      <c r="JO28" s="20"/>
+      <c r="JP28" s="2"/>
+      <c r="JQ28" s="2"/>
+      <c r="JR28" s="2"/>
+      <c r="JS28" s="2"/>
+      <c r="JT28" s="1"/>
+      <c r="JU28" s="1"/>
+      <c r="JV28" s="2"/>
+      <c r="JW28" s="2"/>
+      <c r="JX28" s="2"/>
+      <c r="JY28" s="2"/>
+      <c r="JZ28" s="2"/>
+      <c r="KA28" s="1"/>
+      <c r="KB28" s="1"/>
+      <c r="KC28" s="2"/>
+      <c r="KD28" s="2"/>
+      <c r="KE28" s="2"/>
+      <c r="KF28" s="2"/>
+      <c r="KG28" s="2"/>
+      <c r="KH28" s="1"/>
+      <c r="KI28" s="1"/>
+      <c r="KJ28" s="2"/>
+      <c r="KK28" s="2"/>
+      <c r="KL28" s="2"/>
+      <c r="KM28" s="2"/>
+      <c r="KN28" s="2"/>
+      <c r="KO28" s="1"/>
+      <c r="KP28" s="1"/>
+      <c r="KQ28" s="2"/>
+      <c r="KR28" s="2"/>
     </row>
-    <row r="29" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="174"/>
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
@@ -10389,8 +11179,38 @@
       <c r="JL29" s="2"/>
       <c r="JM29" s="2"/>
       <c r="JN29" s="4"/>
+      <c r="JO29" s="20"/>
+      <c r="JP29" s="2"/>
+      <c r="JQ29" s="2"/>
+      <c r="JR29" s="2"/>
+      <c r="JS29" s="2"/>
+      <c r="JT29" s="1"/>
+      <c r="JU29" s="1"/>
+      <c r="JV29" s="2"/>
+      <c r="JW29" s="2"/>
+      <c r="JX29" s="2"/>
+      <c r="JY29" s="2"/>
+      <c r="JZ29" s="2"/>
+      <c r="KA29" s="1"/>
+      <c r="KB29" s="1"/>
+      <c r="KC29" s="2"/>
+      <c r="KD29" s="2"/>
+      <c r="KE29" s="2"/>
+      <c r="KF29" s="2"/>
+      <c r="KG29" s="2"/>
+      <c r="KH29" s="1"/>
+      <c r="KI29" s="1"/>
+      <c r="KJ29" s="2"/>
+      <c r="KK29" s="2"/>
+      <c r="KL29" s="2"/>
+      <c r="KM29" s="2"/>
+      <c r="KN29" s="2"/>
+      <c r="KO29" s="1"/>
+      <c r="KP29" s="1"/>
+      <c r="KQ29" s="2"/>
+      <c r="KR29" s="2"/>
     </row>
-    <row r="30" spans="1:274" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="174"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
@@ -10665,11 +11485,41 @@
       <c r="JL30" s="23"/>
       <c r="JM30" s="23"/>
       <c r="JN30" s="25"/>
+      <c r="JO30" s="22"/>
+      <c r="JP30" s="23"/>
+      <c r="JQ30" s="23"/>
+      <c r="JR30" s="23"/>
+      <c r="JS30" s="23"/>
+      <c r="JT30" s="24"/>
+      <c r="JU30" s="24"/>
+      <c r="JV30" s="23"/>
+      <c r="JW30" s="23"/>
+      <c r="JX30" s="23"/>
+      <c r="JY30" s="23"/>
+      <c r="JZ30" s="23"/>
+      <c r="KA30" s="24"/>
+      <c r="KB30" s="24"/>
+      <c r="KC30" s="23"/>
+      <c r="KD30" s="23"/>
+      <c r="KE30" s="23"/>
+      <c r="KF30" s="23"/>
+      <c r="KG30" s="23"/>
+      <c r="KH30" s="24"/>
+      <c r="KI30" s="24"/>
+      <c r="KJ30" s="23"/>
+      <c r="KK30" s="23"/>
+      <c r="KL30" s="23"/>
+      <c r="KM30" s="23"/>
+      <c r="KN30" s="23"/>
+      <c r="KO30" s="24"/>
+      <c r="KP30" s="24"/>
+      <c r="KQ30" s="23"/>
+      <c r="KR30" s="23"/>
     </row>
-    <row r="31" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:304" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
     </row>
-    <row r="32" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:304" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
     </row>
     <row r="33" spans="1:274" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -11914,7 +12764,8 @@
       <c r="JN47" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="JO6:KR6"/>
     <mergeCell ref="IJ6:JN6"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A22"/>
@@ -11938,11 +12789,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E81"/>
+  <dimension ref="B2:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12639,8 +13490,8 @@
       </c>
       <c r="C59" s="186"/>
       <c r="D59" s="139">
-        <f>SUM(D60:D88)</f>
-        <v>39</v>
+        <f>SUM(D60:D71)</f>
+        <v>43</v>
       </c>
       <c r="E59" s="142"/>
     </row>
@@ -12754,45 +13605,86 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="164"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="166"/>
-      <c r="E69" s="168"/>
+      <c r="C69" s="165">
+        <v>27</v>
+      </c>
+      <c r="D69" s="166">
+        <v>2</v>
+      </c>
+      <c r="E69" s="168" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="164"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="166"/>
-      <c r="E70" s="168"/>
+      <c r="C70" s="165">
+        <v>27</v>
+      </c>
+      <c r="D70" s="166">
+        <v>1</v>
+      </c>
+      <c r="E70" s="168" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="164"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="166"/>
-      <c r="E71" s="168"/>
+      <c r="C71" s="165">
+        <v>28</v>
+      </c>
+      <c r="D71" s="166">
+        <v>1</v>
+      </c>
+      <c r="E71" s="168" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="164"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="166"/>
-      <c r="E72" s="168"/>
+      <c r="B72" s="185">
+        <v>2019.06</v>
+      </c>
+      <c r="C72" s="186"/>
+      <c r="D72" s="139">
+        <f>SUM(D73:D101)</f>
+        <v>16</v>
+      </c>
+      <c r="E72" s="142"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="164"/>
-      <c r="C73" s="165"/>
-      <c r="D73" s="166"/>
-      <c r="E73" s="168"/>
+      <c r="C73" s="165">
+        <v>1</v>
+      </c>
+      <c r="D73" s="166">
+        <v>8</v>
+      </c>
+      <c r="E73" s="168" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="164"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="166"/>
-      <c r="E74" s="168"/>
+      <c r="C74" s="165">
+        <v>6</v>
+      </c>
+      <c r="D74" s="166">
+        <v>6</v>
+      </c>
+      <c r="E74" s="168" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="164"/>
-      <c r="C75" s="165"/>
-      <c r="D75" s="166"/>
-      <c r="E75" s="168"/>
+      <c r="C75" s="165">
+        <v>10</v>
+      </c>
+      <c r="D75" s="166">
+        <v>2</v>
+      </c>
+      <c r="E75" s="168" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="164"/>
@@ -12824,14 +13716,57 @@
       <c r="D80" s="166"/>
       <c r="E80" s="168"/>
     </row>
-    <row r="81" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="136"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="130"/>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="164"/>
+      <c r="C81" s="165"/>
+      <c r="D81" s="166"/>
+      <c r="E81" s="168"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="164"/>
+      <c r="C82" s="165"/>
+      <c r="D82" s="166"/>
+      <c r="E82" s="168"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="164"/>
+      <c r="C83" s="165"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="168"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="164"/>
+      <c r="C84" s="165"/>
+      <c r="D84" s="166"/>
+      <c r="E84" s="168"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="164"/>
+      <c r="C85" s="165"/>
+      <c r="D85" s="166"/>
+      <c r="E85" s="168"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="164"/>
+      <c r="C86" s="165"/>
+      <c r="D86" s="166"/>
+      <c r="E86" s="168"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="164"/>
+      <c r="C87" s="165"/>
+      <c r="D87" s="166"/>
+      <c r="E87" s="168"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="164"/>
+      <c r="C88" s="165"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="168"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B4:C4"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,18 @@
   </si>
   <si>
     <t>▶디자인 관련 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME 2D Update &amp; Size review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ PCB 2D 입수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ PCB 2D 2차입수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1502,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1852,6 +1864,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3137,11 +3158,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KR47"/>
+  <dimension ref="A1:LW47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KL34" sqref="KL34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="IQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="LJ27" sqref="LJ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3162,32 +3183,32 @@
     <col min="183" max="16384" width="2.625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:304" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:335" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:304" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:335" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:304" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:335" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:304" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:335" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:304" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:335" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:304" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:335" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
       <c r="B6" s="197">
         <v>9</v>
@@ -3512,8 +3533,41 @@
       <c r="KP6" s="187"/>
       <c r="KQ6" s="187"/>
       <c r="KR6" s="188"/>
+      <c r="KS6" s="210">
+        <v>5</v>
+      </c>
+      <c r="KT6" s="211"/>
+      <c r="KU6" s="211"/>
+      <c r="KV6" s="211"/>
+      <c r="KW6" s="211"/>
+      <c r="KX6" s="211"/>
+      <c r="KY6" s="211"/>
+      <c r="KZ6" s="211"/>
+      <c r="LA6" s="211"/>
+      <c r="LB6" s="211"/>
+      <c r="LC6" s="211"/>
+      <c r="LD6" s="211"/>
+      <c r="LE6" s="211"/>
+      <c r="LF6" s="211"/>
+      <c r="LG6" s="211"/>
+      <c r="LH6" s="211"/>
+      <c r="LI6" s="211"/>
+      <c r="LJ6" s="211"/>
+      <c r="LK6" s="211"/>
+      <c r="LL6" s="211"/>
+      <c r="LM6" s="211"/>
+      <c r="LN6" s="211"/>
+      <c r="LO6" s="211"/>
+      <c r="LP6" s="211"/>
+      <c r="LQ6" s="211"/>
+      <c r="LR6" s="211"/>
+      <c r="LS6" s="211"/>
+      <c r="LT6" s="211"/>
+      <c r="LU6" s="211"/>
+      <c r="LV6" s="211"/>
+      <c r="LW6" s="212"/>
     </row>
-    <row r="7" spans="1:304" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:335" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
       <c r="B7" s="55">
         <v>1</v>
@@ -4424,8 +4478,101 @@
       <c r="KR7" s="119">
         <v>30</v>
       </c>
+      <c r="KS7" s="120">
+        <v>1</v>
+      </c>
+      <c r="KT7" s="119">
+        <v>2</v>
+      </c>
+      <c r="KU7" s="119">
+        <v>3</v>
+      </c>
+      <c r="KV7" s="119">
+        <v>4</v>
+      </c>
+      <c r="KW7" s="119">
+        <v>5</v>
+      </c>
+      <c r="KX7" s="119">
+        <v>6</v>
+      </c>
+      <c r="KY7" s="119">
+        <v>7</v>
+      </c>
+      <c r="KZ7" s="119">
+        <v>8</v>
+      </c>
+      <c r="LA7" s="119">
+        <v>9</v>
+      </c>
+      <c r="LB7" s="119">
+        <v>10</v>
+      </c>
+      <c r="LC7" s="119">
+        <v>11</v>
+      </c>
+      <c r="LD7" s="119">
+        <v>12</v>
+      </c>
+      <c r="LE7" s="119">
+        <v>13</v>
+      </c>
+      <c r="LF7" s="119">
+        <v>14</v>
+      </c>
+      <c r="LG7" s="119">
+        <v>15</v>
+      </c>
+      <c r="LH7" s="119">
+        <v>16</v>
+      </c>
+      <c r="LI7" s="119">
+        <v>17</v>
+      </c>
+      <c r="LJ7" s="119">
+        <v>18</v>
+      </c>
+      <c r="LK7" s="119">
+        <v>19</v>
+      </c>
+      <c r="LL7" s="119">
+        <v>20</v>
+      </c>
+      <c r="LM7" s="119">
+        <v>21</v>
+      </c>
+      <c r="LN7" s="119">
+        <v>22</v>
+      </c>
+      <c r="LO7" s="119">
+        <v>23</v>
+      </c>
+      <c r="LP7" s="119">
+        <v>24</v>
+      </c>
+      <c r="LQ7" s="119">
+        <v>25</v>
+      </c>
+      <c r="LR7" s="119">
+        <v>26</v>
+      </c>
+      <c r="LS7" s="119">
+        <v>27</v>
+      </c>
+      <c r="LT7" s="119">
+        <v>28</v>
+      </c>
+      <c r="LU7" s="119">
+        <v>29</v>
+      </c>
+      <c r="LV7" s="119">
+        <v>30</v>
+      </c>
+      <c r="LW7" s="121">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="192" t="s">
         <v>28</v>
       </c>
@@ -4744,8 +4891,39 @@
       <c r="KP8" s="8"/>
       <c r="KQ8" s="41"/>
       <c r="KR8" s="10"/>
+      <c r="KS8" s="21"/>
+      <c r="KT8" s="8"/>
+      <c r="KU8" s="8"/>
+      <c r="KV8" s="9"/>
+      <c r="KW8" s="8"/>
+      <c r="KX8" s="8"/>
+      <c r="KY8" s="8"/>
+      <c r="KZ8" s="8"/>
+      <c r="LA8" s="8"/>
+      <c r="LB8" s="8"/>
+      <c r="LC8" s="9"/>
+      <c r="LD8" s="8"/>
+      <c r="LE8" s="8"/>
+      <c r="LF8" s="8"/>
+      <c r="LG8" s="8"/>
+      <c r="LH8" s="8"/>
+      <c r="LI8" s="8"/>
+      <c r="LJ8" s="9"/>
+      <c r="LK8" s="8"/>
+      <c r="LL8" s="8"/>
+      <c r="LM8" s="8"/>
+      <c r="LN8" s="8"/>
+      <c r="LO8" s="8"/>
+      <c r="LP8" s="8"/>
+      <c r="LQ8" s="9"/>
+      <c r="LR8" s="8"/>
+      <c r="LS8" s="8"/>
+      <c r="LT8" s="8"/>
+      <c r="LU8" s="8"/>
+      <c r="LV8" s="8"/>
+      <c r="LW8" s="8"/>
     </row>
-    <row r="9" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="192"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
@@ -5066,8 +5244,39 @@
       <c r="KP9" s="5"/>
       <c r="KQ9" s="6"/>
       <c r="KR9" s="6"/>
+      <c r="KS9" s="16"/>
+      <c r="KT9" s="5"/>
+      <c r="KU9" s="5"/>
+      <c r="KV9" s="5"/>
+      <c r="KW9" s="5"/>
+      <c r="KX9" s="5"/>
+      <c r="KY9" s="5"/>
+      <c r="KZ9" s="5"/>
+      <c r="LA9" s="5"/>
+      <c r="LB9" s="5"/>
+      <c r="LC9" s="5"/>
+      <c r="LD9" s="5"/>
+      <c r="LE9" s="5"/>
+      <c r="LF9" s="5"/>
+      <c r="LG9" s="5"/>
+      <c r="LH9" s="5"/>
+      <c r="LI9" s="5"/>
+      <c r="LJ9" s="5"/>
+      <c r="LK9" s="5"/>
+      <c r="LL9" s="5"/>
+      <c r="LM9" s="5"/>
+      <c r="LN9" s="5"/>
+      <c r="LO9" s="5"/>
+      <c r="LP9" s="5"/>
+      <c r="LQ9" s="5"/>
+      <c r="LR9" s="5"/>
+      <c r="LS9" s="5"/>
+      <c r="LT9" s="5"/>
+      <c r="LU9" s="5"/>
+      <c r="LV9" s="5"/>
+      <c r="LW9" s="5"/>
     </row>
-    <row r="10" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="192"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
@@ -5380,8 +5589,39 @@
       <c r="KP10" s="5"/>
       <c r="KQ10" s="6"/>
       <c r="KR10" s="6"/>
+      <c r="KS10" s="16"/>
+      <c r="KT10" s="5"/>
+      <c r="KU10" s="5"/>
+      <c r="KV10" s="5"/>
+      <c r="KW10" s="5"/>
+      <c r="KX10" s="5"/>
+      <c r="KY10" s="5"/>
+      <c r="KZ10" s="5"/>
+      <c r="LA10" s="5"/>
+      <c r="LB10" s="5"/>
+      <c r="LC10" s="5"/>
+      <c r="LD10" s="5"/>
+      <c r="LE10" s="5"/>
+      <c r="LF10" s="5"/>
+      <c r="LG10" s="5"/>
+      <c r="LH10" s="5"/>
+      <c r="LI10" s="5"/>
+      <c r="LJ10" s="5"/>
+      <c r="LK10" s="5"/>
+      <c r="LL10" s="5"/>
+      <c r="LM10" s="5"/>
+      <c r="LN10" s="5"/>
+      <c r="LO10" s="5"/>
+      <c r="LP10" s="5"/>
+      <c r="LQ10" s="5"/>
+      <c r="LR10" s="5"/>
+      <c r="LS10" s="5"/>
+      <c r="LT10" s="5"/>
+      <c r="LU10" s="5"/>
+      <c r="LV10" s="5"/>
+      <c r="LW10" s="7"/>
     </row>
-    <row r="11" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="192"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
@@ -5696,8 +5936,39 @@
       <c r="KP11" s="5"/>
       <c r="KQ11" s="6"/>
       <c r="KR11" s="6"/>
+      <c r="KS11" s="16"/>
+      <c r="KT11" s="5"/>
+      <c r="KU11" s="5"/>
+      <c r="KV11" s="5"/>
+      <c r="KW11" s="5"/>
+      <c r="KX11" s="5"/>
+      <c r="KY11" s="5"/>
+      <c r="KZ11" s="5"/>
+      <c r="LA11" s="5"/>
+      <c r="LB11" s="5"/>
+      <c r="LC11" s="5"/>
+      <c r="LD11" s="5"/>
+      <c r="LE11" s="5"/>
+      <c r="LF11" s="5"/>
+      <c r="LG11" s="5"/>
+      <c r="LH11" s="5"/>
+      <c r="LI11" s="5"/>
+      <c r="LJ11" s="5"/>
+      <c r="LK11" s="5"/>
+      <c r="LL11" s="5"/>
+      <c r="LM11" s="74"/>
+      <c r="LN11" s="5"/>
+      <c r="LO11" s="5"/>
+      <c r="LP11" s="5"/>
+      <c r="LQ11" s="5"/>
+      <c r="LR11" s="5"/>
+      <c r="LS11" s="5"/>
+      <c r="LT11" s="5"/>
+      <c r="LU11" s="5"/>
+      <c r="LV11" s="5"/>
+      <c r="LW11" s="7"/>
     </row>
-    <row r="12" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="192"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
@@ -6010,8 +6281,39 @@
       <c r="KP12" s="5"/>
       <c r="KQ12" s="6"/>
       <c r="KR12" s="6"/>
+      <c r="KS12" s="16"/>
+      <c r="KT12" s="5"/>
+      <c r="KU12" s="5"/>
+      <c r="KV12" s="5"/>
+      <c r="KW12" s="5"/>
+      <c r="KX12" s="5"/>
+      <c r="KY12" s="5"/>
+      <c r="KZ12" s="5"/>
+      <c r="LA12" s="5"/>
+      <c r="LB12" s="5"/>
+      <c r="LC12" s="5"/>
+      <c r="LD12" s="5"/>
+      <c r="LE12" s="5"/>
+      <c r="LF12" s="5"/>
+      <c r="LG12" s="5"/>
+      <c r="LH12" s="5"/>
+      <c r="LI12" s="5"/>
+      <c r="LJ12" s="5"/>
+      <c r="LK12" s="5"/>
+      <c r="LL12" s="5"/>
+      <c r="LM12" s="5"/>
+      <c r="LN12" s="5"/>
+      <c r="LO12" s="5"/>
+      <c r="LP12" s="5"/>
+      <c r="LQ12" s="5"/>
+      <c r="LR12" s="5"/>
+      <c r="LS12" s="5"/>
+      <c r="LT12" s="5"/>
+      <c r="LU12" s="5"/>
+      <c r="LV12" s="5"/>
+      <c r="LW12" s="7"/>
     </row>
-    <row r="13" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="192"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
@@ -6320,8 +6622,39 @@
       <c r="KP13" s="5"/>
       <c r="KQ13" s="6"/>
       <c r="KR13" s="6"/>
+      <c r="KS13" s="16"/>
+      <c r="KT13" s="5"/>
+      <c r="KU13" s="5"/>
+      <c r="KV13" s="5"/>
+      <c r="KW13" s="5"/>
+      <c r="KX13" s="5"/>
+      <c r="KY13" s="5"/>
+      <c r="KZ13" s="5"/>
+      <c r="LA13" s="5"/>
+      <c r="LB13" s="5"/>
+      <c r="LC13" s="5"/>
+      <c r="LD13" s="5"/>
+      <c r="LE13" s="5"/>
+      <c r="LF13" s="5"/>
+      <c r="LG13" s="5"/>
+      <c r="LH13" s="5"/>
+      <c r="LI13" s="5"/>
+      <c r="LJ13" s="5"/>
+      <c r="LK13" s="5"/>
+      <c r="LL13" s="5"/>
+      <c r="LM13" s="5"/>
+      <c r="LN13" s="5"/>
+      <c r="LO13" s="5"/>
+      <c r="LP13" s="5"/>
+      <c r="LQ13" s="5"/>
+      <c r="LR13" s="5"/>
+      <c r="LS13" s="5"/>
+      <c r="LT13" s="5"/>
+      <c r="LU13" s="5"/>
+      <c r="LV13" s="5"/>
+      <c r="LW13" s="7"/>
     </row>
-    <row r="14" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="192"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -6628,8 +6961,39 @@
       <c r="KP14" s="14"/>
       <c r="KQ14" s="15"/>
       <c r="KR14" s="15"/>
+      <c r="KS14" s="17"/>
+      <c r="KT14" s="14"/>
+      <c r="KU14" s="14"/>
+      <c r="KV14" s="14"/>
+      <c r="KW14" s="14"/>
+      <c r="KX14" s="14"/>
+      <c r="KY14" s="14"/>
+      <c r="KZ14" s="14"/>
+      <c r="LA14" s="14"/>
+      <c r="LB14" s="14"/>
+      <c r="LC14" s="14"/>
+      <c r="LD14" s="14"/>
+      <c r="LE14" s="14"/>
+      <c r="LF14" s="14"/>
+      <c r="LG14" s="14"/>
+      <c r="LH14" s="14"/>
+      <c r="LI14" s="14"/>
+      <c r="LJ14" s="14"/>
+      <c r="LK14" s="14"/>
+      <c r="LL14" s="14"/>
+      <c r="LM14" s="14"/>
+      <c r="LN14" s="14"/>
+      <c r="LO14" s="14"/>
+      <c r="LP14" s="14"/>
+      <c r="LQ14" s="14"/>
+      <c r="LR14" s="14"/>
+      <c r="LS14" s="14"/>
+      <c r="LT14" s="14"/>
+      <c r="LU14" s="14"/>
+      <c r="LV14" s="14"/>
+      <c r="LW14" s="18"/>
     </row>
-    <row r="15" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="193" t="s">
         <v>5</v>
       </c>
@@ -6938,8 +7302,39 @@
       <c r="KP15" s="26"/>
       <c r="KQ15" s="27"/>
       <c r="KR15" s="27"/>
+      <c r="KS15" s="28"/>
+      <c r="KT15" s="26"/>
+      <c r="KU15" s="26"/>
+      <c r="KV15" s="26"/>
+      <c r="KW15" s="26"/>
+      <c r="KX15" s="26"/>
+      <c r="KY15" s="26"/>
+      <c r="KZ15" s="26"/>
+      <c r="LA15" s="26"/>
+      <c r="LB15" s="26"/>
+      <c r="LC15" s="26"/>
+      <c r="LD15" s="26"/>
+      <c r="LE15" s="26"/>
+      <c r="LF15" s="26"/>
+      <c r="LG15" s="26"/>
+      <c r="LH15" s="26"/>
+      <c r="LI15" s="26"/>
+      <c r="LJ15" s="26"/>
+      <c r="LK15" s="26"/>
+      <c r="LL15" s="26"/>
+      <c r="LM15" s="26"/>
+      <c r="LN15" s="26"/>
+      <c r="LO15" s="26"/>
+      <c r="LP15" s="26"/>
+      <c r="LQ15" s="26"/>
+      <c r="LR15" s="26"/>
+      <c r="LS15" s="26"/>
+      <c r="LT15" s="26"/>
+      <c r="LU15" s="26"/>
+      <c r="LV15" s="26"/>
+      <c r="LW15" s="29"/>
     </row>
-    <row r="16" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="192"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
@@ -7256,8 +7651,39 @@
       <c r="KP16" s="11"/>
       <c r="KQ16" s="12"/>
       <c r="KR16" s="12"/>
+      <c r="KS16" s="19"/>
+      <c r="KT16" s="11"/>
+      <c r="KU16" s="11"/>
+      <c r="KV16" s="11"/>
+      <c r="KW16" s="11"/>
+      <c r="KX16" s="11"/>
+      <c r="KY16" s="11"/>
+      <c r="KZ16" s="11"/>
+      <c r="LA16" s="11"/>
+      <c r="LB16" s="11"/>
+      <c r="LC16" s="11"/>
+      <c r="LD16" s="11"/>
+      <c r="LE16" s="11"/>
+      <c r="LF16" s="11"/>
+      <c r="LG16" s="11"/>
+      <c r="LH16" s="11"/>
+      <c r="LI16" s="11"/>
+      <c r="LJ16" s="11"/>
+      <c r="LK16" s="11"/>
+      <c r="LL16" s="11"/>
+      <c r="LM16" s="11"/>
+      <c r="LN16" s="11"/>
+      <c r="LO16" s="11"/>
+      <c r="LP16" s="11"/>
+      <c r="LQ16" s="11"/>
+      <c r="LR16" s="11"/>
+      <c r="LS16" s="11"/>
+      <c r="LT16" s="11"/>
+      <c r="LU16" s="11"/>
+      <c r="LV16" s="11"/>
+      <c r="LW16" s="13"/>
     </row>
-    <row r="17" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="192"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
@@ -7567,8 +7993,39 @@
       <c r="KP17" s="2"/>
       <c r="KQ17" s="1"/>
       <c r="KR17" s="1"/>
+      <c r="KS17" s="20"/>
+      <c r="KT17" s="2"/>
+      <c r="KU17" s="2"/>
+      <c r="KV17" s="2"/>
+      <c r="KW17" s="2"/>
+      <c r="KX17" s="2"/>
+      <c r="KY17" s="2"/>
+      <c r="KZ17" s="2"/>
+      <c r="LA17" s="2"/>
+      <c r="LB17" s="2"/>
+      <c r="LC17" s="2"/>
+      <c r="LD17" s="2"/>
+      <c r="LE17" s="2"/>
+      <c r="LF17" s="2"/>
+      <c r="LG17" s="2"/>
+      <c r="LH17" s="2"/>
+      <c r="LI17" s="2"/>
+      <c r="LJ17" s="2"/>
+      <c r="LK17" s="2"/>
+      <c r="LL17" s="2"/>
+      <c r="LM17" s="2"/>
+      <c r="LN17" s="2"/>
+      <c r="LO17" s="2"/>
+      <c r="LP17" s="2"/>
+      <c r="LQ17" s="2"/>
+      <c r="LR17" s="2"/>
+      <c r="LS17" s="2"/>
+      <c r="LT17" s="2"/>
+      <c r="LU17" s="2"/>
+      <c r="LV17" s="2"/>
+      <c r="LW17" s="4"/>
     </row>
-    <row r="18" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="192"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
@@ -7874,8 +8331,39 @@
       <c r="KP18" s="2"/>
       <c r="KQ18" s="1"/>
       <c r="KR18" s="1"/>
+      <c r="KS18" s="20"/>
+      <c r="KT18" s="2"/>
+      <c r="KU18" s="2"/>
+      <c r="KV18" s="2"/>
+      <c r="KW18" s="2"/>
+      <c r="KX18" s="2"/>
+      <c r="KY18" s="2"/>
+      <c r="KZ18" s="2"/>
+      <c r="LA18" s="2"/>
+      <c r="LB18" s="2"/>
+      <c r="LC18" s="2"/>
+      <c r="LD18" s="2"/>
+      <c r="LE18" s="2"/>
+      <c r="LF18" s="2"/>
+      <c r="LG18" s="2"/>
+      <c r="LH18" s="2"/>
+      <c r="LI18" s="2"/>
+      <c r="LJ18" s="2"/>
+      <c r="LK18" s="2"/>
+      <c r="LL18" s="2"/>
+      <c r="LM18" s="2"/>
+      <c r="LN18" s="2"/>
+      <c r="LO18" s="2"/>
+      <c r="LP18" s="2"/>
+      <c r="LQ18" s="2"/>
+      <c r="LR18" s="2"/>
+      <c r="LS18" s="2"/>
+      <c r="LT18" s="2"/>
+      <c r="LU18" s="2"/>
+      <c r="LV18" s="2"/>
+      <c r="LW18" s="4"/>
     </row>
-    <row r="19" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="192"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
@@ -8180,8 +8668,39 @@
       <c r="KP19" s="2"/>
       <c r="KQ19" s="1"/>
       <c r="KR19" s="1"/>
+      <c r="KS19" s="20"/>
+      <c r="KT19" s="2"/>
+      <c r="KU19" s="2"/>
+      <c r="KV19" s="2"/>
+      <c r="KW19" s="2"/>
+      <c r="KX19" s="2"/>
+      <c r="KY19" s="2"/>
+      <c r="KZ19" s="2"/>
+      <c r="LA19" s="2"/>
+      <c r="LB19" s="2"/>
+      <c r="LC19" s="2"/>
+      <c r="LD19" s="2"/>
+      <c r="LE19" s="2"/>
+      <c r="LF19" s="2"/>
+      <c r="LG19" s="2"/>
+      <c r="LH19" s="2"/>
+      <c r="LI19" s="2"/>
+      <c r="LJ19" s="2"/>
+      <c r="LK19" s="2"/>
+      <c r="LL19" s="2"/>
+      <c r="LM19" s="2"/>
+      <c r="LN19" s="2"/>
+      <c r="LO19" s="2"/>
+      <c r="LP19" s="2"/>
+      <c r="LQ19" s="2"/>
+      <c r="LR19" s="2"/>
+      <c r="LS19" s="2"/>
+      <c r="LT19" s="2"/>
+      <c r="LU19" s="2"/>
+      <c r="LV19" s="2"/>
+      <c r="LW19" s="4"/>
     </row>
-    <row r="20" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="192"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
@@ -8486,8 +9005,39 @@
       <c r="KP20" s="2"/>
       <c r="KQ20" s="1"/>
       <c r="KR20" s="1"/>
+      <c r="KS20" s="20"/>
+      <c r="KT20" s="2"/>
+      <c r="KU20" s="2"/>
+      <c r="KV20" s="2"/>
+      <c r="KW20" s="2"/>
+      <c r="KX20" s="2"/>
+      <c r="KY20" s="2"/>
+      <c r="KZ20" s="2"/>
+      <c r="LA20" s="2"/>
+      <c r="LB20" s="2"/>
+      <c r="LC20" s="2"/>
+      <c r="LD20" s="2"/>
+      <c r="LE20" s="2"/>
+      <c r="LF20" s="2"/>
+      <c r="LG20" s="2"/>
+      <c r="LH20" s="2"/>
+      <c r="LI20" s="2"/>
+      <c r="LJ20" s="2"/>
+      <c r="LK20" s="2"/>
+      <c r="LL20" s="2"/>
+      <c r="LM20" s="2"/>
+      <c r="LN20" s="2"/>
+      <c r="LO20" s="2"/>
+      <c r="LP20" s="2"/>
+      <c r="LQ20" s="2"/>
+      <c r="LR20" s="2"/>
+      <c r="LS20" s="2"/>
+      <c r="LT20" s="2"/>
+      <c r="LU20" s="2"/>
+      <c r="LV20" s="2"/>
+      <c r="LW20" s="4"/>
     </row>
-    <row r="21" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="192"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
@@ -8792,8 +9342,39 @@
       <c r="KP21" s="124"/>
       <c r="KQ21" s="123"/>
       <c r="KR21" s="123"/>
+      <c r="KS21" s="125"/>
+      <c r="KT21" s="124"/>
+      <c r="KU21" s="124"/>
+      <c r="KV21" s="124"/>
+      <c r="KW21" s="124"/>
+      <c r="KX21" s="124"/>
+      <c r="KY21" s="124"/>
+      <c r="KZ21" s="124"/>
+      <c r="LA21" s="124"/>
+      <c r="LB21" s="124"/>
+      <c r="LC21" s="124"/>
+      <c r="LD21" s="124"/>
+      <c r="LE21" s="124"/>
+      <c r="LF21" s="124"/>
+      <c r="LG21" s="124"/>
+      <c r="LH21" s="124"/>
+      <c r="LI21" s="124"/>
+      <c r="LJ21" s="124"/>
+      <c r="LK21" s="124"/>
+      <c r="LL21" s="124"/>
+      <c r="LM21" s="124"/>
+      <c r="LN21" s="124"/>
+      <c r="LO21" s="124"/>
+      <c r="LP21" s="124"/>
+      <c r="LQ21" s="124"/>
+      <c r="LR21" s="124"/>
+      <c r="LS21" s="124"/>
+      <c r="LT21" s="124"/>
+      <c r="LU21" s="124"/>
+      <c r="LV21" s="124"/>
+      <c r="LW21" s="126"/>
     </row>
-    <row r="22" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="192"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
@@ -9098,8 +9679,39 @@
       <c r="KP22" s="23"/>
       <c r="KQ22" s="24"/>
       <c r="KR22" s="24"/>
+      <c r="KS22" s="22"/>
+      <c r="KT22" s="23"/>
+      <c r="KU22" s="23"/>
+      <c r="KV22" s="23"/>
+      <c r="KW22" s="23"/>
+      <c r="KX22" s="23"/>
+      <c r="KY22" s="23"/>
+      <c r="KZ22" s="23"/>
+      <c r="LA22" s="23"/>
+      <c r="LB22" s="23"/>
+      <c r="LC22" s="23"/>
+      <c r="LD22" s="23"/>
+      <c r="LE22" s="23"/>
+      <c r="LF22" s="23"/>
+      <c r="LG22" s="23"/>
+      <c r="LH22" s="23"/>
+      <c r="LI22" s="23"/>
+      <c r="LJ22" s="23"/>
+      <c r="LK22" s="23"/>
+      <c r="LL22" s="23"/>
+      <c r="LM22" s="23"/>
+      <c r="LN22" s="23"/>
+      <c r="LO22" s="23"/>
+      <c r="LP22" s="23"/>
+      <c r="LQ22" s="23"/>
+      <c r="LR22" s="23"/>
+      <c r="LS22" s="23"/>
+      <c r="LT22" s="23"/>
+      <c r="LU22" s="23"/>
+      <c r="LV22" s="23"/>
+      <c r="LW22" s="25"/>
     </row>
-    <row r="23" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="192" t="s">
         <v>29</v>
       </c>
@@ -9412,8 +10024,41 @@
       <c r="KP23" s="26"/>
       <c r="KQ23" s="27"/>
       <c r="KR23" s="27"/>
+      <c r="KS23" s="28"/>
+      <c r="KT23" s="26"/>
+      <c r="KU23" s="26"/>
+      <c r="KV23" s="26"/>
+      <c r="KW23" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="KX23" s="26"/>
+      <c r="KY23" s="26"/>
+      <c r="KZ23" s="26"/>
+      <c r="LA23" s="26"/>
+      <c r="LB23" s="26"/>
+      <c r="LC23" s="26"/>
+      <c r="LD23" s="26"/>
+      <c r="LE23" s="26"/>
+      <c r="LF23" s="26"/>
+      <c r="LG23" s="26"/>
+      <c r="LH23" s="26"/>
+      <c r="LI23" s="26"/>
+      <c r="LJ23" s="26"/>
+      <c r="LK23" s="26"/>
+      <c r="LL23" s="26"/>
+      <c r="LM23" s="26"/>
+      <c r="LN23" s="26"/>
+      <c r="LO23" s="26"/>
+      <c r="LP23" s="26"/>
+      <c r="LQ23" s="26"/>
+      <c r="LR23" s="26"/>
+      <c r="LS23" s="26"/>
+      <c r="LT23" s="26"/>
+      <c r="LU23" s="26"/>
+      <c r="LV23" s="74"/>
+      <c r="LW23" s="29"/>
     </row>
-    <row r="24" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="192"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
@@ -9722,8 +10367,41 @@
       <c r="KP24" s="2"/>
       <c r="KQ24" s="1"/>
       <c r="KR24" s="1"/>
+      <c r="KS24" s="20"/>
+      <c r="KT24" s="2"/>
+      <c r="KU24" s="2"/>
+      <c r="KV24" s="2"/>
+      <c r="KW24" s="2"/>
+      <c r="KX24" s="2"/>
+      <c r="KY24" s="2"/>
+      <c r="KZ24" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="LA24" s="2"/>
+      <c r="LB24" s="2"/>
+      <c r="LC24" s="2"/>
+      <c r="LD24" s="2"/>
+      <c r="LE24" s="2"/>
+      <c r="LF24" s="2"/>
+      <c r="LG24" s="2"/>
+      <c r="LH24" s="2"/>
+      <c r="LI24" s="2"/>
+      <c r="LJ24" s="2"/>
+      <c r="LK24" s="2"/>
+      <c r="LL24" s="2"/>
+      <c r="LM24" s="2"/>
+      <c r="LN24" s="2"/>
+      <c r="LO24" s="2"/>
+      <c r="LP24" s="2"/>
+      <c r="LQ24" s="2"/>
+      <c r="LR24" s="2"/>
+      <c r="LS24" s="2"/>
+      <c r="LT24" s="2"/>
+      <c r="LU24" s="2"/>
+      <c r="LV24" s="2"/>
+      <c r="LW24" s="4"/>
     </row>
-    <row r="25" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="192"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
@@ -10030,8 +10708,39 @@
       <c r="KP25" s="2"/>
       <c r="KQ25" s="1"/>
       <c r="KR25" s="1"/>
+      <c r="KS25" s="20"/>
+      <c r="KT25" s="2"/>
+      <c r="KU25" s="2"/>
+      <c r="KV25" s="2"/>
+      <c r="KW25" s="2"/>
+      <c r="KX25" s="2"/>
+      <c r="KY25" s="2"/>
+      <c r="KZ25" s="2"/>
+      <c r="LA25" s="2"/>
+      <c r="LB25" s="2"/>
+      <c r="LC25" s="2"/>
+      <c r="LD25" s="2"/>
+      <c r="LE25" s="2"/>
+      <c r="LF25" s="2"/>
+      <c r="LG25" s="2"/>
+      <c r="LH25" s="2"/>
+      <c r="LI25" s="2"/>
+      <c r="LJ25" s="2"/>
+      <c r="LK25" s="2"/>
+      <c r="LL25" s="2"/>
+      <c r="LM25" s="2"/>
+      <c r="LN25" s="2"/>
+      <c r="LO25" s="2"/>
+      <c r="LP25" s="2"/>
+      <c r="LQ25" s="2"/>
+      <c r="LR25" s="2"/>
+      <c r="LS25" s="2"/>
+      <c r="LT25" s="2"/>
+      <c r="LU25" s="2"/>
+      <c r="LV25" s="2"/>
+      <c r="LW25" s="4"/>
     </row>
-    <row r="26" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="192"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
@@ -10344,8 +11053,39 @@
       <c r="KP26" s="2"/>
       <c r="KQ26" s="1"/>
       <c r="KR26" s="1"/>
+      <c r="KS26" s="20"/>
+      <c r="KT26" s="2"/>
+      <c r="KU26" s="2"/>
+      <c r="KV26" s="2"/>
+      <c r="KW26" s="2"/>
+      <c r="KX26" s="2"/>
+      <c r="KY26" s="2"/>
+      <c r="KZ26" s="2"/>
+      <c r="LA26" s="2"/>
+      <c r="LB26" s="2"/>
+      <c r="LC26" s="2"/>
+      <c r="LD26" s="2"/>
+      <c r="LE26" s="2"/>
+      <c r="LF26" s="2"/>
+      <c r="LG26" s="2"/>
+      <c r="LH26" s="2"/>
+      <c r="LI26" s="2"/>
+      <c r="LJ26" s="2"/>
+      <c r="LK26" s="2"/>
+      <c r="LL26" s="2"/>
+      <c r="LM26" s="2"/>
+      <c r="LN26" s="2"/>
+      <c r="LO26" s="2"/>
+      <c r="LP26" s="2"/>
+      <c r="LQ26" s="2"/>
+      <c r="LR26" s="2"/>
+      <c r="LS26" s="2"/>
+      <c r="LT26" s="2"/>
+      <c r="LU26" s="2"/>
+      <c r="LV26" s="2"/>
+      <c r="LW26" s="4"/>
     </row>
-    <row r="27" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="192"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
@@ -10656,8 +11396,39 @@
       <c r="KP27" s="2"/>
       <c r="KQ27" s="1"/>
       <c r="KR27" s="1"/>
+      <c r="KS27" s="20"/>
+      <c r="KT27" s="2"/>
+      <c r="KU27" s="2"/>
+      <c r="KV27" s="2"/>
+      <c r="KW27" s="2"/>
+      <c r="KX27" s="2"/>
+      <c r="KY27" s="2"/>
+      <c r="KZ27" s="2"/>
+      <c r="LA27" s="2"/>
+      <c r="LB27" s="2"/>
+      <c r="LC27" s="2"/>
+      <c r="LD27" s="2"/>
+      <c r="LE27" s="2"/>
+      <c r="LF27" s="2"/>
+      <c r="LG27" s="2"/>
+      <c r="LH27" s="2"/>
+      <c r="LI27" s="2"/>
+      <c r="LJ27" s="2"/>
+      <c r="LK27" s="2"/>
+      <c r="LL27" s="2"/>
+      <c r="LM27" s="2"/>
+      <c r="LN27" s="2"/>
+      <c r="LO27" s="2"/>
+      <c r="LP27" s="2"/>
+      <c r="LQ27" s="2"/>
+      <c r="LR27" s="2"/>
+      <c r="LS27" s="2"/>
+      <c r="LT27" s="2"/>
+      <c r="LU27" s="2"/>
+      <c r="LV27" s="2"/>
+      <c r="LW27" s="4"/>
     </row>
-    <row r="28" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="192"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
@@ -10964,8 +11735,39 @@
       <c r="KP28" s="2"/>
       <c r="KQ28" s="1"/>
       <c r="KR28" s="1"/>
+      <c r="KS28" s="20"/>
+      <c r="KT28" s="2"/>
+      <c r="KU28" s="2"/>
+      <c r="KV28" s="2"/>
+      <c r="KW28" s="2"/>
+      <c r="KX28" s="2"/>
+      <c r="KY28" s="2"/>
+      <c r="KZ28" s="2"/>
+      <c r="LA28" s="2"/>
+      <c r="LB28" s="2"/>
+      <c r="LC28" s="2"/>
+      <c r="LD28" s="2"/>
+      <c r="LE28" s="2"/>
+      <c r="LF28" s="2"/>
+      <c r="LG28" s="2"/>
+      <c r="LH28" s="2"/>
+      <c r="LI28" s="2"/>
+      <c r="LJ28" s="2"/>
+      <c r="LK28" s="2"/>
+      <c r="LL28" s="2"/>
+      <c r="LM28" s="2"/>
+      <c r="LN28" s="2"/>
+      <c r="LO28" s="2"/>
+      <c r="LP28" s="2"/>
+      <c r="LQ28" s="2"/>
+      <c r="LR28" s="2"/>
+      <c r="LS28" s="2"/>
+      <c r="LT28" s="2"/>
+      <c r="LU28" s="2"/>
+      <c r="LV28" s="2"/>
+      <c r="LW28" s="4"/>
     </row>
-    <row r="29" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="192"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
@@ -11272,8 +12074,39 @@
       <c r="KP29" s="2"/>
       <c r="KQ29" s="1"/>
       <c r="KR29" s="1"/>
+      <c r="KS29" s="20"/>
+      <c r="KT29" s="2"/>
+      <c r="KU29" s="2"/>
+      <c r="KV29" s="2"/>
+      <c r="KW29" s="2"/>
+      <c r="KX29" s="2"/>
+      <c r="KY29" s="2"/>
+      <c r="KZ29" s="2"/>
+      <c r="LA29" s="2"/>
+      <c r="LB29" s="2"/>
+      <c r="LC29" s="2"/>
+      <c r="LD29" s="2"/>
+      <c r="LE29" s="2"/>
+      <c r="LF29" s="2"/>
+      <c r="LG29" s="2"/>
+      <c r="LH29" s="2"/>
+      <c r="LI29" s="2"/>
+      <c r="LJ29" s="2"/>
+      <c r="LK29" s="2"/>
+      <c r="LL29" s="2"/>
+      <c r="LM29" s="2"/>
+      <c r="LN29" s="2"/>
+      <c r="LO29" s="2"/>
+      <c r="LP29" s="2"/>
+      <c r="LQ29" s="2"/>
+      <c r="LR29" s="2"/>
+      <c r="LS29" s="2"/>
+      <c r="LT29" s="2"/>
+      <c r="LU29" s="2"/>
+      <c r="LV29" s="2"/>
+      <c r="LW29" s="4"/>
     </row>
-    <row r="30" spans="1:304" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="192"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
@@ -11578,11 +12411,42 @@
       <c r="KP30" s="23"/>
       <c r="KQ30" s="24"/>
       <c r="KR30" s="24"/>
+      <c r="KS30" s="22"/>
+      <c r="KT30" s="23"/>
+      <c r="KU30" s="23"/>
+      <c r="KV30" s="23"/>
+      <c r="KW30" s="23"/>
+      <c r="KX30" s="23"/>
+      <c r="KY30" s="23"/>
+      <c r="KZ30" s="23"/>
+      <c r="LA30" s="23"/>
+      <c r="LB30" s="23"/>
+      <c r="LC30" s="23"/>
+      <c r="LD30" s="23"/>
+      <c r="LE30" s="23"/>
+      <c r="LF30" s="23"/>
+      <c r="LG30" s="23"/>
+      <c r="LH30" s="23"/>
+      <c r="LI30" s="23"/>
+      <c r="LJ30" s="23"/>
+      <c r="LK30" s="23"/>
+      <c r="LL30" s="23"/>
+      <c r="LM30" s="23"/>
+      <c r="LN30" s="23"/>
+      <c r="LO30" s="23"/>
+      <c r="LP30" s="23"/>
+      <c r="LQ30" s="23"/>
+      <c r="LR30" s="23"/>
+      <c r="LS30" s="23"/>
+      <c r="LT30" s="23"/>
+      <c r="LU30" s="23"/>
+      <c r="LV30" s="23"/>
+      <c r="LW30" s="25"/>
     </row>
-    <row r="31" spans="1:304" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:335" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
     </row>
-    <row r="32" spans="1:304" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:335" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:274" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -12827,7 +13691,8 @@
       <c r="JN47" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="KS6:LW6"/>
     <mergeCell ref="JO6:KR6"/>
     <mergeCell ref="IJ6:JN6"/>
     <mergeCell ref="A8:A14"/>
@@ -12854,9 +13719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13768,7 +14633,7 @@
       <c r="C77" s="201"/>
       <c r="D77" s="138">
         <f>SUM(D78:D81)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E77" s="141"/>
     </row>
@@ -13786,21 +14651,39 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="163"/>
-      <c r="C79" s="164"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="167"/>
+      <c r="C79" s="164">
+        <v>5</v>
+      </c>
+      <c r="D79" s="165">
+        <v>2</v>
+      </c>
+      <c r="E79" s="167" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="163"/>
-      <c r="C80" s="164"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="167"/>
+      <c r="C80" s="164">
+        <v>8</v>
+      </c>
+      <c r="D80" s="165">
+        <v>5</v>
+      </c>
+      <c r="E80" s="167" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="163"/>
-      <c r="C81" s="164"/>
-      <c r="D81" s="165"/>
-      <c r="E81" s="167"/>
+      <c r="C81" s="164">
+        <v>12</v>
+      </c>
+      <c r="D81" s="165">
+        <v>5</v>
+      </c>
+      <c r="E81" s="167" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="163"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>▶디자인 관련 질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ME 2D Update &amp; Size review</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,11 +620,30 @@
     <t>◇ PCB 2D 2차입수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>▶디자인 관련 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶PCB 3종 2D 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 pipette에 사용하는 Dome S/W  보다는 tack S/W로 하는것으로 결정했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPD MAIN Artwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1514,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1793,6 +1808,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1801,21 +1823,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1834,6 +1841,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1865,13 +1890,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3160,9 +3180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LW47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LJ27" sqref="LJ27"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="LG17" sqref="LG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3210,362 +3230,362 @@
     </row>
     <row r="6" spans="1:335" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="197">
+      <c r="B6" s="195">
         <v>9</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="198"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="198"/>
-      <c r="X6" s="198"/>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="198"/>
-      <c r="AA6" s="198"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="199"/>
-      <c r="AF6" s="194">
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="192">
         <v>10</v>
       </c>
-      <c r="AG6" s="194"/>
-      <c r="AH6" s="194"/>
-      <c r="AI6" s="194"/>
-      <c r="AJ6" s="194"/>
-      <c r="AK6" s="194"/>
-      <c r="AL6" s="194"/>
-      <c r="AM6" s="194"/>
-      <c r="AN6" s="194"/>
-      <c r="AO6" s="194"/>
-      <c r="AP6" s="194"/>
-      <c r="AQ6" s="194"/>
-      <c r="AR6" s="194"/>
-      <c r="AS6" s="194"/>
-      <c r="AT6" s="194"/>
-      <c r="AU6" s="194"/>
-      <c r="AV6" s="194"/>
-      <c r="AW6" s="194"/>
-      <c r="AX6" s="194"/>
-      <c r="AY6" s="194"/>
-      <c r="AZ6" s="194"/>
-      <c r="BA6" s="194"/>
-      <c r="BB6" s="194"/>
-      <c r="BC6" s="194"/>
-      <c r="BD6" s="194"/>
-      <c r="BE6" s="194"/>
-      <c r="BF6" s="194"/>
-      <c r="BG6" s="194"/>
-      <c r="BH6" s="194"/>
-      <c r="BI6" s="194"/>
-      <c r="BJ6" s="195"/>
-      <c r="BK6" s="197">
+      <c r="AG6" s="192"/>
+      <c r="AH6" s="192"/>
+      <c r="AI6" s="192"/>
+      <c r="AJ6" s="192"/>
+      <c r="AK6" s="192"/>
+      <c r="AL6" s="192"/>
+      <c r="AM6" s="192"/>
+      <c r="AN6" s="192"/>
+      <c r="AO6" s="192"/>
+      <c r="AP6" s="192"/>
+      <c r="AQ6" s="192"/>
+      <c r="AR6" s="192"/>
+      <c r="AS6" s="192"/>
+      <c r="AT6" s="192"/>
+      <c r="AU6" s="192"/>
+      <c r="AV6" s="192"/>
+      <c r="AW6" s="192"/>
+      <c r="AX6" s="192"/>
+      <c r="AY6" s="192"/>
+      <c r="AZ6" s="192"/>
+      <c r="BA6" s="192"/>
+      <c r="BB6" s="192"/>
+      <c r="BC6" s="192"/>
+      <c r="BD6" s="192"/>
+      <c r="BE6" s="192"/>
+      <c r="BF6" s="192"/>
+      <c r="BG6" s="192"/>
+      <c r="BH6" s="192"/>
+      <c r="BI6" s="192"/>
+      <c r="BJ6" s="193"/>
+      <c r="BK6" s="195">
         <v>11</v>
       </c>
-      <c r="BL6" s="198"/>
-      <c r="BM6" s="198"/>
-      <c r="BN6" s="198"/>
-      <c r="BO6" s="198"/>
-      <c r="BP6" s="198"/>
-      <c r="BQ6" s="198"/>
-      <c r="BR6" s="198"/>
-      <c r="BS6" s="198"/>
-      <c r="BT6" s="198"/>
-      <c r="BU6" s="198"/>
-      <c r="BV6" s="198"/>
-      <c r="BW6" s="198"/>
-      <c r="BX6" s="198"/>
-      <c r="BY6" s="198"/>
-      <c r="BZ6" s="198"/>
-      <c r="CA6" s="198"/>
-      <c r="CB6" s="198"/>
-      <c r="CC6" s="198"/>
-      <c r="CD6" s="198"/>
-      <c r="CE6" s="198"/>
-      <c r="CF6" s="198"/>
-      <c r="CG6" s="198"/>
-      <c r="CH6" s="198"/>
-      <c r="CI6" s="198"/>
-      <c r="CJ6" s="198"/>
-      <c r="CK6" s="198"/>
-      <c r="CL6" s="198"/>
-      <c r="CM6" s="198"/>
-      <c r="CN6" s="199"/>
-      <c r="CO6" s="194">
+      <c r="BL6" s="196"/>
+      <c r="BM6" s="196"/>
+      <c r="BN6" s="196"/>
+      <c r="BO6" s="196"/>
+      <c r="BP6" s="196"/>
+      <c r="BQ6" s="196"/>
+      <c r="BR6" s="196"/>
+      <c r="BS6" s="196"/>
+      <c r="BT6" s="196"/>
+      <c r="BU6" s="196"/>
+      <c r="BV6" s="196"/>
+      <c r="BW6" s="196"/>
+      <c r="BX6" s="196"/>
+      <c r="BY6" s="196"/>
+      <c r="BZ6" s="196"/>
+      <c r="CA6" s="196"/>
+      <c r="CB6" s="196"/>
+      <c r="CC6" s="196"/>
+      <c r="CD6" s="196"/>
+      <c r="CE6" s="196"/>
+      <c r="CF6" s="196"/>
+      <c r="CG6" s="196"/>
+      <c r="CH6" s="196"/>
+      <c r="CI6" s="196"/>
+      <c r="CJ6" s="196"/>
+      <c r="CK6" s="196"/>
+      <c r="CL6" s="196"/>
+      <c r="CM6" s="196"/>
+      <c r="CN6" s="197"/>
+      <c r="CO6" s="192">
         <v>12</v>
       </c>
-      <c r="CP6" s="194"/>
-      <c r="CQ6" s="194"/>
-      <c r="CR6" s="194"/>
-      <c r="CS6" s="194"/>
-      <c r="CT6" s="194"/>
-      <c r="CU6" s="194"/>
-      <c r="CV6" s="194"/>
-      <c r="CW6" s="194"/>
-      <c r="CX6" s="194"/>
-      <c r="CY6" s="194"/>
-      <c r="CZ6" s="194"/>
-      <c r="DA6" s="194"/>
-      <c r="DB6" s="194"/>
-      <c r="DC6" s="194"/>
-      <c r="DD6" s="194"/>
-      <c r="DE6" s="194"/>
-      <c r="DF6" s="194"/>
-      <c r="DG6" s="194"/>
-      <c r="DH6" s="194"/>
-      <c r="DI6" s="194"/>
-      <c r="DJ6" s="194"/>
-      <c r="DK6" s="194"/>
-      <c r="DL6" s="194"/>
-      <c r="DM6" s="194"/>
-      <c r="DN6" s="194"/>
-      <c r="DO6" s="194"/>
-      <c r="DP6" s="194"/>
-      <c r="DQ6" s="194"/>
-      <c r="DR6" s="194"/>
-      <c r="DS6" s="195"/>
-      <c r="DT6" s="194">
+      <c r="CP6" s="192"/>
+      <c r="CQ6" s="192"/>
+      <c r="CR6" s="192"/>
+      <c r="CS6" s="192"/>
+      <c r="CT6" s="192"/>
+      <c r="CU6" s="192"/>
+      <c r="CV6" s="192"/>
+      <c r="CW6" s="192"/>
+      <c r="CX6" s="192"/>
+      <c r="CY6" s="192"/>
+      <c r="CZ6" s="192"/>
+      <c r="DA6" s="192"/>
+      <c r="DB6" s="192"/>
+      <c r="DC6" s="192"/>
+      <c r="DD6" s="192"/>
+      <c r="DE6" s="192"/>
+      <c r="DF6" s="192"/>
+      <c r="DG6" s="192"/>
+      <c r="DH6" s="192"/>
+      <c r="DI6" s="192"/>
+      <c r="DJ6" s="192"/>
+      <c r="DK6" s="192"/>
+      <c r="DL6" s="192"/>
+      <c r="DM6" s="192"/>
+      <c r="DN6" s="192"/>
+      <c r="DO6" s="192"/>
+      <c r="DP6" s="192"/>
+      <c r="DQ6" s="192"/>
+      <c r="DR6" s="192"/>
+      <c r="DS6" s="193"/>
+      <c r="DT6" s="192">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="194"/>
-      <c r="DV6" s="194"/>
-      <c r="DW6" s="194"/>
-      <c r="DX6" s="194"/>
-      <c r="DY6" s="194"/>
-      <c r="DZ6" s="194"/>
-      <c r="EA6" s="194"/>
-      <c r="EB6" s="194"/>
-      <c r="EC6" s="194"/>
-      <c r="ED6" s="194"/>
-      <c r="EE6" s="194"/>
-      <c r="EF6" s="194"/>
-      <c r="EG6" s="194"/>
-      <c r="EH6" s="194"/>
-      <c r="EI6" s="194"/>
-      <c r="EJ6" s="194"/>
-      <c r="EK6" s="194"/>
-      <c r="EL6" s="194"/>
-      <c r="EM6" s="194"/>
-      <c r="EN6" s="194"/>
-      <c r="EO6" s="194"/>
-      <c r="EP6" s="194"/>
-      <c r="EQ6" s="194"/>
-      <c r="ER6" s="194"/>
-      <c r="ES6" s="194"/>
-      <c r="ET6" s="194"/>
-      <c r="EU6" s="194"/>
-      <c r="EV6" s="194"/>
-      <c r="EW6" s="194"/>
-      <c r="EX6" s="195"/>
-      <c r="EY6" s="196">
+      <c r="DU6" s="192"/>
+      <c r="DV6" s="192"/>
+      <c r="DW6" s="192"/>
+      <c r="DX6" s="192"/>
+      <c r="DY6" s="192"/>
+      <c r="DZ6" s="192"/>
+      <c r="EA6" s="192"/>
+      <c r="EB6" s="192"/>
+      <c r="EC6" s="192"/>
+      <c r="ED6" s="192"/>
+      <c r="EE6" s="192"/>
+      <c r="EF6" s="192"/>
+      <c r="EG6" s="192"/>
+      <c r="EH6" s="192"/>
+      <c r="EI6" s="192"/>
+      <c r="EJ6" s="192"/>
+      <c r="EK6" s="192"/>
+      <c r="EL6" s="192"/>
+      <c r="EM6" s="192"/>
+      <c r="EN6" s="192"/>
+      <c r="EO6" s="192"/>
+      <c r="EP6" s="192"/>
+      <c r="EQ6" s="192"/>
+      <c r="ER6" s="192"/>
+      <c r="ES6" s="192"/>
+      <c r="ET6" s="192"/>
+      <c r="EU6" s="192"/>
+      <c r="EV6" s="192"/>
+      <c r="EW6" s="192"/>
+      <c r="EX6" s="193"/>
+      <c r="EY6" s="194">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="194"/>
-      <c r="FA6" s="194"/>
-      <c r="FB6" s="194"/>
-      <c r="FC6" s="194"/>
-      <c r="FD6" s="194"/>
-      <c r="FE6" s="194"/>
-      <c r="FF6" s="194"/>
-      <c r="FG6" s="194"/>
-      <c r="FH6" s="194"/>
-      <c r="FI6" s="194"/>
-      <c r="FJ6" s="194"/>
-      <c r="FK6" s="194"/>
-      <c r="FL6" s="194"/>
-      <c r="FM6" s="194"/>
-      <c r="FN6" s="194"/>
-      <c r="FO6" s="194"/>
-      <c r="FP6" s="194"/>
-      <c r="FQ6" s="194"/>
-      <c r="FR6" s="194"/>
-      <c r="FS6" s="194"/>
-      <c r="FT6" s="194"/>
-      <c r="FU6" s="194"/>
-      <c r="FV6" s="194"/>
-      <c r="FW6" s="194"/>
-      <c r="FX6" s="194"/>
-      <c r="FY6" s="194"/>
-      <c r="FZ6" s="195"/>
-      <c r="GA6" s="190">
+      <c r="EZ6" s="192"/>
+      <c r="FA6" s="192"/>
+      <c r="FB6" s="192"/>
+      <c r="FC6" s="192"/>
+      <c r="FD6" s="192"/>
+      <c r="FE6" s="192"/>
+      <c r="FF6" s="192"/>
+      <c r="FG6" s="192"/>
+      <c r="FH6" s="192"/>
+      <c r="FI6" s="192"/>
+      <c r="FJ6" s="192"/>
+      <c r="FK6" s="192"/>
+      <c r="FL6" s="192"/>
+      <c r="FM6" s="192"/>
+      <c r="FN6" s="192"/>
+      <c r="FO6" s="192"/>
+      <c r="FP6" s="192"/>
+      <c r="FQ6" s="192"/>
+      <c r="FR6" s="192"/>
+      <c r="FS6" s="192"/>
+      <c r="FT6" s="192"/>
+      <c r="FU6" s="192"/>
+      <c r="FV6" s="192"/>
+      <c r="FW6" s="192"/>
+      <c r="FX6" s="192"/>
+      <c r="FY6" s="192"/>
+      <c r="FZ6" s="193"/>
+      <c r="GA6" s="188">
         <v>3</v>
       </c>
-      <c r="GB6" s="190"/>
-      <c r="GC6" s="190"/>
-      <c r="GD6" s="190"/>
-      <c r="GE6" s="190"/>
-      <c r="GF6" s="190"/>
-      <c r="GG6" s="190"/>
-      <c r="GH6" s="190"/>
-      <c r="GI6" s="190"/>
-      <c r="GJ6" s="190"/>
-      <c r="GK6" s="190"/>
-      <c r="GL6" s="190"/>
-      <c r="GM6" s="190"/>
-      <c r="GN6" s="190"/>
-      <c r="GO6" s="190"/>
-      <c r="GP6" s="190"/>
-      <c r="GQ6" s="190"/>
-      <c r="GR6" s="190"/>
-      <c r="GS6" s="190"/>
-      <c r="GT6" s="190"/>
-      <c r="GU6" s="190"/>
-      <c r="GV6" s="190"/>
-      <c r="GW6" s="190"/>
-      <c r="GX6" s="190"/>
-      <c r="GY6" s="190"/>
-      <c r="GZ6" s="190"/>
-      <c r="HA6" s="190"/>
-      <c r="HB6" s="190"/>
-      <c r="HC6" s="190"/>
-      <c r="HD6" s="190"/>
-      <c r="HE6" s="190"/>
-      <c r="HF6" s="186">
+      <c r="GB6" s="188"/>
+      <c r="GC6" s="188"/>
+      <c r="GD6" s="188"/>
+      <c r="GE6" s="188"/>
+      <c r="GF6" s="188"/>
+      <c r="GG6" s="188"/>
+      <c r="GH6" s="188"/>
+      <c r="GI6" s="188"/>
+      <c r="GJ6" s="188"/>
+      <c r="GK6" s="188"/>
+      <c r="GL6" s="188"/>
+      <c r="GM6" s="188"/>
+      <c r="GN6" s="188"/>
+      <c r="GO6" s="188"/>
+      <c r="GP6" s="188"/>
+      <c r="GQ6" s="188"/>
+      <c r="GR6" s="188"/>
+      <c r="GS6" s="188"/>
+      <c r="GT6" s="188"/>
+      <c r="GU6" s="188"/>
+      <c r="GV6" s="188"/>
+      <c r="GW6" s="188"/>
+      <c r="GX6" s="188"/>
+      <c r="GY6" s="188"/>
+      <c r="GZ6" s="188"/>
+      <c r="HA6" s="188"/>
+      <c r="HB6" s="188"/>
+      <c r="HC6" s="188"/>
+      <c r="HD6" s="188"/>
+      <c r="HE6" s="188"/>
+      <c r="HF6" s="189">
         <v>4</v>
       </c>
-      <c r="HG6" s="187"/>
-      <c r="HH6" s="187"/>
-      <c r="HI6" s="187"/>
-      <c r="HJ6" s="187"/>
-      <c r="HK6" s="187"/>
-      <c r="HL6" s="187"/>
-      <c r="HM6" s="187"/>
-      <c r="HN6" s="187"/>
-      <c r="HO6" s="187"/>
-      <c r="HP6" s="187"/>
-      <c r="HQ6" s="187"/>
-      <c r="HR6" s="187"/>
-      <c r="HS6" s="187"/>
-      <c r="HT6" s="187"/>
-      <c r="HU6" s="187"/>
-      <c r="HV6" s="187"/>
-      <c r="HW6" s="187"/>
-      <c r="HX6" s="187"/>
-      <c r="HY6" s="187"/>
-      <c r="HZ6" s="187"/>
-      <c r="IA6" s="187"/>
-      <c r="IB6" s="187"/>
-      <c r="IC6" s="187"/>
-      <c r="ID6" s="187"/>
-      <c r="IE6" s="187"/>
-      <c r="IF6" s="187"/>
-      <c r="IG6" s="187"/>
-      <c r="IH6" s="187"/>
-      <c r="II6" s="188"/>
-      <c r="IJ6" s="189">
+      <c r="HG6" s="190"/>
+      <c r="HH6" s="190"/>
+      <c r="HI6" s="190"/>
+      <c r="HJ6" s="190"/>
+      <c r="HK6" s="190"/>
+      <c r="HL6" s="190"/>
+      <c r="HM6" s="190"/>
+      <c r="HN6" s="190"/>
+      <c r="HO6" s="190"/>
+      <c r="HP6" s="190"/>
+      <c r="HQ6" s="190"/>
+      <c r="HR6" s="190"/>
+      <c r="HS6" s="190"/>
+      <c r="HT6" s="190"/>
+      <c r="HU6" s="190"/>
+      <c r="HV6" s="190"/>
+      <c r="HW6" s="190"/>
+      <c r="HX6" s="190"/>
+      <c r="HY6" s="190"/>
+      <c r="HZ6" s="190"/>
+      <c r="IA6" s="190"/>
+      <c r="IB6" s="190"/>
+      <c r="IC6" s="190"/>
+      <c r="ID6" s="190"/>
+      <c r="IE6" s="190"/>
+      <c r="IF6" s="190"/>
+      <c r="IG6" s="190"/>
+      <c r="IH6" s="190"/>
+      <c r="II6" s="191"/>
+      <c r="IJ6" s="201">
         <v>5</v>
       </c>
-      <c r="IK6" s="190"/>
-      <c r="IL6" s="190"/>
-      <c r="IM6" s="190"/>
-      <c r="IN6" s="190"/>
-      <c r="IO6" s="190"/>
-      <c r="IP6" s="190"/>
-      <c r="IQ6" s="190"/>
-      <c r="IR6" s="190"/>
-      <c r="IS6" s="190"/>
-      <c r="IT6" s="190"/>
-      <c r="IU6" s="190"/>
-      <c r="IV6" s="190"/>
-      <c r="IW6" s="190"/>
-      <c r="IX6" s="190"/>
-      <c r="IY6" s="190"/>
-      <c r="IZ6" s="190"/>
-      <c r="JA6" s="190"/>
-      <c r="JB6" s="190"/>
-      <c r="JC6" s="190"/>
-      <c r="JD6" s="190"/>
-      <c r="JE6" s="190"/>
-      <c r="JF6" s="190"/>
-      <c r="JG6" s="190"/>
-      <c r="JH6" s="190"/>
-      <c r="JI6" s="190"/>
-      <c r="JJ6" s="190"/>
-      <c r="JK6" s="190"/>
-      <c r="JL6" s="190"/>
-      <c r="JM6" s="190"/>
-      <c r="JN6" s="191"/>
-      <c r="JO6" s="186">
+      <c r="IK6" s="188"/>
+      <c r="IL6" s="188"/>
+      <c r="IM6" s="188"/>
+      <c r="IN6" s="188"/>
+      <c r="IO6" s="188"/>
+      <c r="IP6" s="188"/>
+      <c r="IQ6" s="188"/>
+      <c r="IR6" s="188"/>
+      <c r="IS6" s="188"/>
+      <c r="IT6" s="188"/>
+      <c r="IU6" s="188"/>
+      <c r="IV6" s="188"/>
+      <c r="IW6" s="188"/>
+      <c r="IX6" s="188"/>
+      <c r="IY6" s="188"/>
+      <c r="IZ6" s="188"/>
+      <c r="JA6" s="188"/>
+      <c r="JB6" s="188"/>
+      <c r="JC6" s="188"/>
+      <c r="JD6" s="188"/>
+      <c r="JE6" s="188"/>
+      <c r="JF6" s="188"/>
+      <c r="JG6" s="188"/>
+      <c r="JH6" s="188"/>
+      <c r="JI6" s="188"/>
+      <c r="JJ6" s="188"/>
+      <c r="JK6" s="188"/>
+      <c r="JL6" s="188"/>
+      <c r="JM6" s="188"/>
+      <c r="JN6" s="202"/>
+      <c r="JO6" s="189">
         <v>6</v>
       </c>
-      <c r="JP6" s="187"/>
-      <c r="JQ6" s="187"/>
-      <c r="JR6" s="187"/>
-      <c r="JS6" s="187"/>
-      <c r="JT6" s="187"/>
-      <c r="JU6" s="187"/>
-      <c r="JV6" s="187"/>
-      <c r="JW6" s="187"/>
-      <c r="JX6" s="187"/>
-      <c r="JY6" s="187"/>
-      <c r="JZ6" s="187"/>
-      <c r="KA6" s="187"/>
-      <c r="KB6" s="187"/>
-      <c r="KC6" s="187"/>
-      <c r="KD6" s="187"/>
-      <c r="KE6" s="187"/>
-      <c r="KF6" s="187"/>
-      <c r="KG6" s="187"/>
-      <c r="KH6" s="187"/>
-      <c r="KI6" s="187"/>
-      <c r="KJ6" s="187"/>
-      <c r="KK6" s="187"/>
-      <c r="KL6" s="187"/>
-      <c r="KM6" s="187"/>
-      <c r="KN6" s="187"/>
-      <c r="KO6" s="187"/>
-      <c r="KP6" s="187"/>
-      <c r="KQ6" s="187"/>
-      <c r="KR6" s="188"/>
-      <c r="KS6" s="210">
-        <v>5</v>
-      </c>
-      <c r="KT6" s="211"/>
-      <c r="KU6" s="211"/>
-      <c r="KV6" s="211"/>
-      <c r="KW6" s="211"/>
-      <c r="KX6" s="211"/>
-      <c r="KY6" s="211"/>
-      <c r="KZ6" s="211"/>
-      <c r="LA6" s="211"/>
-      <c r="LB6" s="211"/>
-      <c r="LC6" s="211"/>
-      <c r="LD6" s="211"/>
-      <c r="LE6" s="211"/>
-      <c r="LF6" s="211"/>
-      <c r="LG6" s="211"/>
-      <c r="LH6" s="211"/>
-      <c r="LI6" s="211"/>
-      <c r="LJ6" s="211"/>
-      <c r="LK6" s="211"/>
-      <c r="LL6" s="211"/>
-      <c r="LM6" s="211"/>
-      <c r="LN6" s="211"/>
-      <c r="LO6" s="211"/>
-      <c r="LP6" s="211"/>
-      <c r="LQ6" s="211"/>
-      <c r="LR6" s="211"/>
-      <c r="LS6" s="211"/>
-      <c r="LT6" s="211"/>
-      <c r="LU6" s="211"/>
-      <c r="LV6" s="211"/>
-      <c r="LW6" s="212"/>
+      <c r="JP6" s="190"/>
+      <c r="JQ6" s="190"/>
+      <c r="JR6" s="190"/>
+      <c r="JS6" s="190"/>
+      <c r="JT6" s="190"/>
+      <c r="JU6" s="190"/>
+      <c r="JV6" s="190"/>
+      <c r="JW6" s="190"/>
+      <c r="JX6" s="190"/>
+      <c r="JY6" s="190"/>
+      <c r="JZ6" s="190"/>
+      <c r="KA6" s="190"/>
+      <c r="KB6" s="190"/>
+      <c r="KC6" s="190"/>
+      <c r="KD6" s="190"/>
+      <c r="KE6" s="190"/>
+      <c r="KF6" s="190"/>
+      <c r="KG6" s="190"/>
+      <c r="KH6" s="190"/>
+      <c r="KI6" s="190"/>
+      <c r="KJ6" s="190"/>
+      <c r="KK6" s="190"/>
+      <c r="KL6" s="190"/>
+      <c r="KM6" s="190"/>
+      <c r="KN6" s="190"/>
+      <c r="KO6" s="190"/>
+      <c r="KP6" s="190"/>
+      <c r="KQ6" s="190"/>
+      <c r="KR6" s="191"/>
+      <c r="KS6" s="198">
+        <v>7</v>
+      </c>
+      <c r="KT6" s="199"/>
+      <c r="KU6" s="199"/>
+      <c r="KV6" s="199"/>
+      <c r="KW6" s="199"/>
+      <c r="KX6" s="199"/>
+      <c r="KY6" s="199"/>
+      <c r="KZ6" s="199"/>
+      <c r="LA6" s="199"/>
+      <c r="LB6" s="199"/>
+      <c r="LC6" s="199"/>
+      <c r="LD6" s="199"/>
+      <c r="LE6" s="199"/>
+      <c r="LF6" s="199"/>
+      <c r="LG6" s="199"/>
+      <c r="LH6" s="199"/>
+      <c r="LI6" s="199"/>
+      <c r="LJ6" s="199"/>
+      <c r="LK6" s="199"/>
+      <c r="LL6" s="199"/>
+      <c r="LM6" s="199"/>
+      <c r="LN6" s="199"/>
+      <c r="LO6" s="199"/>
+      <c r="LP6" s="199"/>
+      <c r="LQ6" s="199"/>
+      <c r="LR6" s="199"/>
+      <c r="LS6" s="199"/>
+      <c r="LT6" s="199"/>
+      <c r="LU6" s="199"/>
+      <c r="LV6" s="199"/>
+      <c r="LW6" s="200"/>
     </row>
     <row r="7" spans="1:335" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
@@ -4493,10 +4513,10 @@
       <c r="KW7" s="119">
         <v>5</v>
       </c>
-      <c r="KX7" s="119">
+      <c r="KX7" s="215">
         <v>6</v>
       </c>
-      <c r="KY7" s="119">
+      <c r="KY7" s="215">
         <v>7</v>
       </c>
       <c r="KZ7" s="119">
@@ -4514,10 +4534,10 @@
       <c r="LD7" s="119">
         <v>12</v>
       </c>
-      <c r="LE7" s="119">
+      <c r="LE7" s="215">
         <v>13</v>
       </c>
-      <c r="LF7" s="119">
+      <c r="LF7" s="215">
         <v>14</v>
       </c>
       <c r="LG7" s="119">
@@ -4535,10 +4555,10 @@
       <c r="LK7" s="119">
         <v>19</v>
       </c>
-      <c r="LL7" s="119">
+      <c r="LL7" s="215">
         <v>20</v>
       </c>
-      <c r="LM7" s="119">
+      <c r="LM7" s="215">
         <v>21</v>
       </c>
       <c r="LN7" s="119">
@@ -4556,10 +4576,10 @@
       <c r="LR7" s="119">
         <v>26</v>
       </c>
-      <c r="LS7" s="119">
+      <c r="LS7" s="215">
         <v>27</v>
       </c>
-      <c r="LT7" s="119">
+      <c r="LT7" s="215">
         <v>28</v>
       </c>
       <c r="LU7" s="119">
@@ -4573,7 +4593,7 @@
       </c>
     </row>
     <row r="8" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="187" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -4896,35 +4916,35 @@
       <c r="KU8" s="8"/>
       <c r="KV8" s="9"/>
       <c r="KW8" s="8"/>
-      <c r="KX8" s="8"/>
-      <c r="KY8" s="8"/>
+      <c r="KX8" s="10"/>
+      <c r="KY8" s="10"/>
       <c r="KZ8" s="8"/>
       <c r="LA8" s="8"/>
       <c r="LB8" s="8"/>
       <c r="LC8" s="9"/>
       <c r="LD8" s="8"/>
-      <c r="LE8" s="8"/>
-      <c r="LF8" s="8"/>
+      <c r="LE8" s="10"/>
+      <c r="LF8" s="10"/>
       <c r="LG8" s="8"/>
       <c r="LH8" s="8"/>
       <c r="LI8" s="8"/>
       <c r="LJ8" s="9"/>
       <c r="LK8" s="8"/>
-      <c r="LL8" s="8"/>
-      <c r="LM8" s="8"/>
+      <c r="LL8" s="10"/>
+      <c r="LM8" s="10"/>
       <c r="LN8" s="8"/>
       <c r="LO8" s="8"/>
       <c r="LP8" s="8"/>
       <c r="LQ8" s="9"/>
       <c r="LR8" s="8"/>
-      <c r="LS8" s="8"/>
-      <c r="LT8" s="8"/>
+      <c r="LS8" s="10"/>
+      <c r="LT8" s="10"/>
       <c r="LU8" s="8"/>
       <c r="LV8" s="8"/>
       <c r="LW8" s="8"/>
     </row>
     <row r="9" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="192"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -5249,35 +5269,35 @@
       <c r="KU9" s="5"/>
       <c r="KV9" s="5"/>
       <c r="KW9" s="5"/>
-      <c r="KX9" s="5"/>
-      <c r="KY9" s="5"/>
+      <c r="KX9" s="6"/>
+      <c r="KY9" s="6"/>
       <c r="KZ9" s="5"/>
       <c r="LA9" s="5"/>
       <c r="LB9" s="5"/>
       <c r="LC9" s="5"/>
       <c r="LD9" s="5"/>
-      <c r="LE9" s="5"/>
-      <c r="LF9" s="5"/>
+      <c r="LE9" s="6"/>
+      <c r="LF9" s="6"/>
       <c r="LG9" s="5"/>
       <c r="LH9" s="5"/>
       <c r="LI9" s="5"/>
       <c r="LJ9" s="5"/>
       <c r="LK9" s="5"/>
-      <c r="LL9" s="5"/>
-      <c r="LM9" s="5"/>
+      <c r="LL9" s="6"/>
+      <c r="LM9" s="6"/>
       <c r="LN9" s="5"/>
       <c r="LO9" s="5"/>
       <c r="LP9" s="5"/>
       <c r="LQ9" s="5"/>
       <c r="LR9" s="5"/>
-      <c r="LS9" s="5"/>
-      <c r="LT9" s="5"/>
+      <c r="LS9" s="6"/>
+      <c r="LT9" s="6"/>
       <c r="LU9" s="5"/>
       <c r="LV9" s="5"/>
       <c r="LW9" s="5"/>
     </row>
     <row r="10" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
+      <c r="A10" s="187"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -5594,35 +5614,35 @@
       <c r="KU10" s="5"/>
       <c r="KV10" s="5"/>
       <c r="KW10" s="5"/>
-      <c r="KX10" s="5"/>
-      <c r="KY10" s="5"/>
+      <c r="KX10" s="6"/>
+      <c r="KY10" s="6"/>
       <c r="KZ10" s="5"/>
       <c r="LA10" s="5"/>
       <c r="LB10" s="5"/>
       <c r="LC10" s="5"/>
       <c r="LD10" s="5"/>
-      <c r="LE10" s="5"/>
-      <c r="LF10" s="5"/>
+      <c r="LE10" s="6"/>
+      <c r="LF10" s="6"/>
       <c r="LG10" s="5"/>
       <c r="LH10" s="5"/>
       <c r="LI10" s="5"/>
       <c r="LJ10" s="5"/>
       <c r="LK10" s="5"/>
-      <c r="LL10" s="5"/>
-      <c r="LM10" s="5"/>
+      <c r="LL10" s="6"/>
+      <c r="LM10" s="6"/>
       <c r="LN10" s="5"/>
       <c r="LO10" s="5"/>
       <c r="LP10" s="5"/>
       <c r="LQ10" s="5"/>
       <c r="LR10" s="5"/>
-      <c r="LS10" s="5"/>
-      <c r="LT10" s="5"/>
+      <c r="LS10" s="6"/>
+      <c r="LT10" s="6"/>
       <c r="LU10" s="5"/>
       <c r="LV10" s="5"/>
       <c r="LW10" s="7"/>
     </row>
     <row r="11" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -5936,40 +5956,40 @@
       <c r="KP11" s="5"/>
       <c r="KQ11" s="6"/>
       <c r="KR11" s="6"/>
-      <c r="KS11" s="16"/>
+      <c r="KS11" s="5"/>
       <c r="KT11" s="5"/>
       <c r="KU11" s="5"/>
       <c r="KV11" s="5"/>
       <c r="KW11" s="5"/>
-      <c r="KX11" s="5"/>
-      <c r="KY11" s="5"/>
+      <c r="KX11" s="6"/>
+      <c r="KY11" s="6"/>
       <c r="KZ11" s="5"/>
       <c r="LA11" s="5"/>
       <c r="LB11" s="5"/>
       <c r="LC11" s="5"/>
       <c r="LD11" s="5"/>
-      <c r="LE11" s="5"/>
-      <c r="LF11" s="5"/>
+      <c r="LE11" s="6"/>
+      <c r="LF11" s="6"/>
       <c r="LG11" s="5"/>
       <c r="LH11" s="5"/>
       <c r="LI11" s="5"/>
       <c r="LJ11" s="5"/>
       <c r="LK11" s="5"/>
-      <c r="LL11" s="5"/>
-      <c r="LM11" s="74"/>
+      <c r="LL11" s="6"/>
+      <c r="LM11" s="6"/>
       <c r="LN11" s="5"/>
       <c r="LO11" s="5"/>
       <c r="LP11" s="5"/>
       <c r="LQ11" s="5"/>
       <c r="LR11" s="5"/>
-      <c r="LS11" s="5"/>
-      <c r="LT11" s="5"/>
+      <c r="LS11" s="6"/>
+      <c r="LT11" s="6"/>
       <c r="LU11" s="5"/>
       <c r="LV11" s="5"/>
       <c r="LW11" s="7"/>
     </row>
     <row r="12" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -6286,35 +6306,35 @@
       <c r="KU12" s="5"/>
       <c r="KV12" s="5"/>
       <c r="KW12" s="5"/>
-      <c r="KX12" s="5"/>
-      <c r="KY12" s="5"/>
+      <c r="KX12" s="6"/>
+      <c r="KY12" s="6"/>
       <c r="KZ12" s="5"/>
       <c r="LA12" s="5"/>
       <c r="LB12" s="5"/>
       <c r="LC12" s="5"/>
       <c r="LD12" s="5"/>
-      <c r="LE12" s="5"/>
-      <c r="LF12" s="5"/>
+      <c r="LE12" s="6"/>
+      <c r="LF12" s="6"/>
       <c r="LG12" s="5"/>
       <c r="LH12" s="5"/>
       <c r="LI12" s="5"/>
       <c r="LJ12" s="5"/>
       <c r="LK12" s="5"/>
-      <c r="LL12" s="5"/>
-      <c r="LM12" s="5"/>
+      <c r="LL12" s="6"/>
+      <c r="LM12" s="6"/>
       <c r="LN12" s="5"/>
       <c r="LO12" s="5"/>
       <c r="LP12" s="5"/>
       <c r="LQ12" s="5"/>
       <c r="LR12" s="5"/>
-      <c r="LS12" s="5"/>
-      <c r="LT12" s="5"/>
+      <c r="LS12" s="6"/>
+      <c r="LT12" s="6"/>
       <c r="LU12" s="5"/>
       <c r="LV12" s="5"/>
       <c r="LW12" s="7"/>
     </row>
     <row r="13" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="192"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -6627,35 +6647,35 @@
       <c r="KU13" s="5"/>
       <c r="KV13" s="5"/>
       <c r="KW13" s="5"/>
-      <c r="KX13" s="5"/>
-      <c r="KY13" s="5"/>
+      <c r="KX13" s="6"/>
+      <c r="KY13" s="6"/>
       <c r="KZ13" s="5"/>
       <c r="LA13" s="5"/>
       <c r="LB13" s="5"/>
       <c r="LC13" s="5"/>
       <c r="LD13" s="5"/>
-      <c r="LE13" s="5"/>
-      <c r="LF13" s="5"/>
+      <c r="LE13" s="6"/>
+      <c r="LF13" s="6"/>
       <c r="LG13" s="5"/>
       <c r="LH13" s="5"/>
       <c r="LI13" s="5"/>
       <c r="LJ13" s="5"/>
       <c r="LK13" s="5"/>
-      <c r="LL13" s="5"/>
-      <c r="LM13" s="5"/>
+      <c r="LL13" s="6"/>
+      <c r="LM13" s="6"/>
       <c r="LN13" s="5"/>
       <c r="LO13" s="5"/>
       <c r="LP13" s="5"/>
       <c r="LQ13" s="5"/>
       <c r="LR13" s="5"/>
-      <c r="LS13" s="5"/>
-      <c r="LT13" s="5"/>
+      <c r="LS13" s="6"/>
+      <c r="LT13" s="6"/>
       <c r="LU13" s="5"/>
       <c r="LV13" s="5"/>
       <c r="LW13" s="7"/>
     </row>
     <row r="14" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="192"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -6966,35 +6986,35 @@
       <c r="KU14" s="14"/>
       <c r="KV14" s="14"/>
       <c r="KW14" s="14"/>
-      <c r="KX14" s="14"/>
-      <c r="KY14" s="14"/>
+      <c r="KX14" s="15"/>
+      <c r="KY14" s="15"/>
       <c r="KZ14" s="14"/>
       <c r="LA14" s="14"/>
       <c r="LB14" s="14"/>
       <c r="LC14" s="14"/>
       <c r="LD14" s="14"/>
-      <c r="LE14" s="14"/>
-      <c r="LF14" s="14"/>
+      <c r="LE14" s="15"/>
+      <c r="LF14" s="15"/>
       <c r="LG14" s="14"/>
       <c r="LH14" s="14"/>
       <c r="LI14" s="14"/>
       <c r="LJ14" s="14"/>
       <c r="LK14" s="14"/>
-      <c r="LL14" s="14"/>
-      <c r="LM14" s="14"/>
+      <c r="LL14" s="15"/>
+      <c r="LM14" s="15"/>
       <c r="LN14" s="14"/>
       <c r="LO14" s="14"/>
       <c r="LP14" s="14"/>
       <c r="LQ14" s="14"/>
       <c r="LR14" s="14"/>
-      <c r="LS14" s="14"/>
-      <c r="LT14" s="14"/>
+      <c r="LS14" s="15"/>
+      <c r="LT14" s="15"/>
       <c r="LU14" s="14"/>
       <c r="LV14" s="14"/>
       <c r="LW14" s="18"/>
     </row>
     <row r="15" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="203" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -7307,35 +7327,35 @@
       <c r="KU15" s="26"/>
       <c r="KV15" s="26"/>
       <c r="KW15" s="26"/>
-      <c r="KX15" s="26"/>
-      <c r="KY15" s="26"/>
+      <c r="KX15" s="27"/>
+      <c r="KY15" s="27"/>
       <c r="KZ15" s="26"/>
       <c r="LA15" s="26"/>
       <c r="LB15" s="26"/>
       <c r="LC15" s="26"/>
       <c r="LD15" s="26"/>
-      <c r="LE15" s="26"/>
-      <c r="LF15" s="26"/>
+      <c r="LE15" s="27"/>
+      <c r="LF15" s="27"/>
       <c r="LG15" s="26"/>
       <c r="LH15" s="26"/>
       <c r="LI15" s="26"/>
       <c r="LJ15" s="26"/>
       <c r="LK15" s="26"/>
-      <c r="LL15" s="26"/>
-      <c r="LM15" s="26"/>
+      <c r="LL15" s="27"/>
+      <c r="LM15" s="27"/>
       <c r="LN15" s="26"/>
       <c r="LO15" s="26"/>
       <c r="LP15" s="26"/>
       <c r="LQ15" s="26"/>
       <c r="LR15" s="26"/>
-      <c r="LS15" s="26"/>
-      <c r="LT15" s="26"/>
+      <c r="LS15" s="27"/>
+      <c r="LT15" s="27"/>
       <c r="LU15" s="26"/>
       <c r="LV15" s="26"/>
       <c r="LW15" s="29"/>
     </row>
     <row r="16" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="192"/>
+      <c r="A16" s="187"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -7656,35 +7676,35 @@
       <c r="KU16" s="11"/>
       <c r="KV16" s="11"/>
       <c r="KW16" s="11"/>
-      <c r="KX16" s="11"/>
-      <c r="KY16" s="11"/>
+      <c r="KX16" s="12"/>
+      <c r="KY16" s="12"/>
       <c r="KZ16" s="11"/>
       <c r="LA16" s="11"/>
       <c r="LB16" s="11"/>
       <c r="LC16" s="11"/>
       <c r="LD16" s="11"/>
-      <c r="LE16" s="11"/>
-      <c r="LF16" s="11"/>
+      <c r="LE16" s="12"/>
+      <c r="LF16" s="12"/>
       <c r="LG16" s="11"/>
       <c r="LH16" s="11"/>
       <c r="LI16" s="11"/>
       <c r="LJ16" s="11"/>
       <c r="LK16" s="11"/>
-      <c r="LL16" s="11"/>
-      <c r="LM16" s="11"/>
+      <c r="LL16" s="12"/>
+      <c r="LM16" s="12"/>
       <c r="LN16" s="11"/>
       <c r="LO16" s="11"/>
       <c r="LP16" s="11"/>
       <c r="LQ16" s="11"/>
       <c r="LR16" s="11"/>
-      <c r="LS16" s="11"/>
-      <c r="LT16" s="11"/>
+      <c r="LS16" s="12"/>
+      <c r="LT16" s="12"/>
       <c r="LU16" s="11"/>
       <c r="LV16" s="11"/>
       <c r="LW16" s="13"/>
     </row>
     <row r="17" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="192"/>
+      <c r="A17" s="187"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -7998,35 +8018,35 @@
       <c r="KU17" s="2"/>
       <c r="KV17" s="2"/>
       <c r="KW17" s="2"/>
-      <c r="KX17" s="2"/>
-      <c r="KY17" s="2"/>
+      <c r="KX17" s="1"/>
+      <c r="KY17" s="1"/>
       <c r="KZ17" s="2"/>
       <c r="LA17" s="2"/>
       <c r="LB17" s="2"/>
       <c r="LC17" s="2"/>
       <c r="LD17" s="2"/>
-      <c r="LE17" s="2"/>
-      <c r="LF17" s="2"/>
+      <c r="LE17" s="1"/>
+      <c r="LF17" s="1"/>
       <c r="LG17" s="2"/>
       <c r="LH17" s="2"/>
       <c r="LI17" s="2"/>
       <c r="LJ17" s="2"/>
       <c r="LK17" s="2"/>
-      <c r="LL17" s="2"/>
-      <c r="LM17" s="2"/>
+      <c r="LL17" s="1"/>
+      <c r="LM17" s="1"/>
       <c r="LN17" s="2"/>
       <c r="LO17" s="2"/>
       <c r="LP17" s="2"/>
       <c r="LQ17" s="2"/>
       <c r="LR17" s="2"/>
-      <c r="LS17" s="2"/>
-      <c r="LT17" s="2"/>
+      <c r="LS17" s="1"/>
+      <c r="LT17" s="1"/>
       <c r="LU17" s="2"/>
       <c r="LV17" s="2"/>
       <c r="LW17" s="4"/>
     </row>
     <row r="18" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="192"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -8336,35 +8356,35 @@
       <c r="KU18" s="2"/>
       <c r="KV18" s="2"/>
       <c r="KW18" s="2"/>
-      <c r="KX18" s="2"/>
-      <c r="KY18" s="2"/>
+      <c r="KX18" s="1"/>
+      <c r="KY18" s="1"/>
       <c r="KZ18" s="2"/>
       <c r="LA18" s="2"/>
       <c r="LB18" s="2"/>
       <c r="LC18" s="2"/>
       <c r="LD18" s="2"/>
-      <c r="LE18" s="2"/>
-      <c r="LF18" s="2"/>
+      <c r="LE18" s="1"/>
+      <c r="LF18" s="1"/>
       <c r="LG18" s="2"/>
       <c r="LH18" s="2"/>
       <c r="LI18" s="2"/>
       <c r="LJ18" s="2"/>
       <c r="LK18" s="2"/>
-      <c r="LL18" s="2"/>
-      <c r="LM18" s="2"/>
+      <c r="LL18" s="1"/>
+      <c r="LM18" s="1"/>
       <c r="LN18" s="2"/>
       <c r="LO18" s="2"/>
       <c r="LP18" s="2"/>
       <c r="LQ18" s="2"/>
       <c r="LR18" s="2"/>
-      <c r="LS18" s="2"/>
-      <c r="LT18" s="2"/>
+      <c r="LS18" s="1"/>
+      <c r="LT18" s="1"/>
       <c r="LU18" s="2"/>
       <c r="LV18" s="2"/>
       <c r="LW18" s="4"/>
     </row>
     <row r="19" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="192"/>
+      <c r="A19" s="187"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -8673,35 +8693,35 @@
       <c r="KU19" s="2"/>
       <c r="KV19" s="2"/>
       <c r="KW19" s="2"/>
-      <c r="KX19" s="2"/>
-      <c r="KY19" s="2"/>
+      <c r="KX19" s="1"/>
+      <c r="KY19" s="1"/>
       <c r="KZ19" s="2"/>
       <c r="LA19" s="2"/>
       <c r="LB19" s="2"/>
       <c r="LC19" s="2"/>
       <c r="LD19" s="2"/>
-      <c r="LE19" s="2"/>
-      <c r="LF19" s="2"/>
+      <c r="LE19" s="1"/>
+      <c r="LF19" s="1"/>
       <c r="LG19" s="2"/>
       <c r="LH19" s="2"/>
       <c r="LI19" s="2"/>
       <c r="LJ19" s="2"/>
       <c r="LK19" s="2"/>
-      <c r="LL19" s="2"/>
-      <c r="LM19" s="2"/>
+      <c r="LL19" s="1"/>
+      <c r="LM19" s="1"/>
       <c r="LN19" s="2"/>
       <c r="LO19" s="2"/>
       <c r="LP19" s="2"/>
       <c r="LQ19" s="2"/>
       <c r="LR19" s="2"/>
-      <c r="LS19" s="2"/>
-      <c r="LT19" s="2"/>
+      <c r="LS19" s="1"/>
+      <c r="LT19" s="1"/>
       <c r="LU19" s="2"/>
       <c r="LV19" s="2"/>
       <c r="LW19" s="4"/>
     </row>
     <row r="20" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="192"/>
+      <c r="A20" s="187"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -9010,35 +9030,35 @@
       <c r="KU20" s="2"/>
       <c r="KV20" s="2"/>
       <c r="KW20" s="2"/>
-      <c r="KX20" s="2"/>
-      <c r="KY20" s="2"/>
+      <c r="KX20" s="1"/>
+      <c r="KY20" s="1"/>
       <c r="KZ20" s="2"/>
       <c r="LA20" s="2"/>
       <c r="LB20" s="2"/>
       <c r="LC20" s="2"/>
       <c r="LD20" s="2"/>
-      <c r="LE20" s="2"/>
-      <c r="LF20" s="2"/>
+      <c r="LE20" s="1"/>
+      <c r="LF20" s="1"/>
       <c r="LG20" s="2"/>
       <c r="LH20" s="2"/>
       <c r="LI20" s="2"/>
       <c r="LJ20" s="2"/>
       <c r="LK20" s="2"/>
-      <c r="LL20" s="2"/>
-      <c r="LM20" s="2"/>
+      <c r="LL20" s="1"/>
+      <c r="LM20" s="1"/>
       <c r="LN20" s="2"/>
       <c r="LO20" s="2"/>
       <c r="LP20" s="2"/>
       <c r="LQ20" s="2"/>
       <c r="LR20" s="2"/>
-      <c r="LS20" s="2"/>
-      <c r="LT20" s="2"/>
+      <c r="LS20" s="1"/>
+      <c r="LT20" s="1"/>
       <c r="LU20" s="2"/>
       <c r="LV20" s="2"/>
       <c r="LW20" s="4"/>
     </row>
     <row r="21" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="192"/>
+      <c r="A21" s="187"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -9347,35 +9367,35 @@
       <c r="KU21" s="124"/>
       <c r="KV21" s="124"/>
       <c r="KW21" s="124"/>
-      <c r="KX21" s="124"/>
-      <c r="KY21" s="124"/>
+      <c r="KX21" s="123"/>
+      <c r="KY21" s="123"/>
       <c r="KZ21" s="124"/>
       <c r="LA21" s="124"/>
       <c r="LB21" s="124"/>
       <c r="LC21" s="124"/>
       <c r="LD21" s="124"/>
-      <c r="LE21" s="124"/>
-      <c r="LF21" s="124"/>
+      <c r="LE21" s="123"/>
+      <c r="LF21" s="123"/>
       <c r="LG21" s="124"/>
       <c r="LH21" s="124"/>
       <c r="LI21" s="124"/>
       <c r="LJ21" s="124"/>
       <c r="LK21" s="124"/>
-      <c r="LL21" s="124"/>
-      <c r="LM21" s="124"/>
+      <c r="LL21" s="123"/>
+      <c r="LM21" s="123"/>
       <c r="LN21" s="124"/>
       <c r="LO21" s="124"/>
       <c r="LP21" s="124"/>
       <c r="LQ21" s="124"/>
       <c r="LR21" s="124"/>
-      <c r="LS21" s="124"/>
-      <c r="LT21" s="124"/>
+      <c r="LS21" s="123"/>
+      <c r="LT21" s="123"/>
       <c r="LU21" s="124"/>
       <c r="LV21" s="124"/>
       <c r="LW21" s="126"/>
     </row>
     <row r="22" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="192"/>
+      <c r="A22" s="187"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -9684,35 +9704,35 @@
       <c r="KU22" s="23"/>
       <c r="KV22" s="23"/>
       <c r="KW22" s="23"/>
-      <c r="KX22" s="23"/>
-      <c r="KY22" s="23"/>
+      <c r="KX22" s="24"/>
+      <c r="KY22" s="24"/>
       <c r="KZ22" s="23"/>
       <c r="LA22" s="23"/>
       <c r="LB22" s="23"/>
       <c r="LC22" s="23"/>
       <c r="LD22" s="23"/>
-      <c r="LE22" s="23"/>
-      <c r="LF22" s="23"/>
+      <c r="LE22" s="24"/>
+      <c r="LF22" s="24"/>
       <c r="LG22" s="23"/>
       <c r="LH22" s="23"/>
       <c r="LI22" s="23"/>
       <c r="LJ22" s="23"/>
       <c r="LK22" s="23"/>
-      <c r="LL22" s="23"/>
-      <c r="LM22" s="23"/>
+      <c r="LL22" s="24"/>
+      <c r="LM22" s="24"/>
       <c r="LN22" s="23"/>
       <c r="LO22" s="23"/>
       <c r="LP22" s="23"/>
       <c r="LQ22" s="23"/>
       <c r="LR22" s="23"/>
-      <c r="LS22" s="23"/>
-      <c r="LT22" s="23"/>
+      <c r="LS22" s="24"/>
+      <c r="LT22" s="24"/>
       <c r="LU22" s="23"/>
       <c r="LV22" s="23"/>
       <c r="LW22" s="25"/>
     </row>
     <row r="23" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="187" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -10029,37 +10049,37 @@
       <c r="KU23" s="26"/>
       <c r="KV23" s="26"/>
       <c r="KW23" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="KX23" s="26"/>
-      <c r="KY23" s="26"/>
+        <v>119</v>
+      </c>
+      <c r="KX23" s="27"/>
+      <c r="KY23" s="27"/>
       <c r="KZ23" s="26"/>
       <c r="LA23" s="26"/>
       <c r="LB23" s="26"/>
       <c r="LC23" s="26"/>
       <c r="LD23" s="26"/>
-      <c r="LE23" s="26"/>
-      <c r="LF23" s="26"/>
+      <c r="LE23" s="27"/>
+      <c r="LF23" s="27"/>
       <c r="LG23" s="26"/>
       <c r="LH23" s="26"/>
       <c r="LI23" s="26"/>
       <c r="LJ23" s="26"/>
       <c r="LK23" s="26"/>
-      <c r="LL23" s="26"/>
-      <c r="LM23" s="26"/>
+      <c r="LL23" s="27"/>
+      <c r="LM23" s="27"/>
       <c r="LN23" s="26"/>
       <c r="LO23" s="26"/>
       <c r="LP23" s="26"/>
       <c r="LQ23" s="26"/>
       <c r="LR23" s="26"/>
-      <c r="LS23" s="26"/>
-      <c r="LT23" s="26"/>
+      <c r="LS23" s="27"/>
+      <c r="LT23" s="27"/>
       <c r="LU23" s="26"/>
       <c r="LV23" s="74"/>
       <c r="LW23" s="29"/>
     </row>
     <row r="24" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="192"/>
+      <c r="A24" s="187"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -10353,7 +10373,7 @@
       <c r="KD24" s="1"/>
       <c r="KE24" s="2"/>
       <c r="KF24" s="157" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="KG24" s="2"/>
       <c r="KH24" s="2"/>
@@ -10372,37 +10392,37 @@
       <c r="KU24" s="2"/>
       <c r="KV24" s="2"/>
       <c r="KW24" s="2"/>
-      <c r="KX24" s="2"/>
-      <c r="KY24" s="2"/>
+      <c r="KX24" s="1"/>
+      <c r="KY24" s="1"/>
       <c r="KZ24" s="116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="LA24" s="2"/>
       <c r="LB24" s="2"/>
       <c r="LC24" s="2"/>
       <c r="LD24" s="2"/>
-      <c r="LE24" s="2"/>
-      <c r="LF24" s="2"/>
+      <c r="LE24" s="1"/>
+      <c r="LF24" s="1"/>
       <c r="LG24" s="2"/>
       <c r="LH24" s="2"/>
       <c r="LI24" s="2"/>
       <c r="LJ24" s="2"/>
       <c r="LK24" s="2"/>
-      <c r="LL24" s="2"/>
-      <c r="LM24" s="2"/>
+      <c r="LL24" s="1"/>
+      <c r="LM24" s="1"/>
       <c r="LN24" s="2"/>
       <c r="LO24" s="2"/>
       <c r="LP24" s="2"/>
       <c r="LQ24" s="2"/>
       <c r="LR24" s="2"/>
-      <c r="LS24" s="2"/>
-      <c r="LT24" s="2"/>
+      <c r="LS24" s="1"/>
+      <c r="LT24" s="1"/>
       <c r="LU24" s="2"/>
       <c r="LV24" s="2"/>
       <c r="LW24" s="4"/>
     </row>
     <row r="25" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="192"/>
+      <c r="A25" s="187"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -10713,35 +10733,37 @@
       <c r="KU25" s="2"/>
       <c r="KV25" s="2"/>
       <c r="KW25" s="2"/>
-      <c r="KX25" s="2"/>
-      <c r="KY25" s="2"/>
+      <c r="KX25" s="1"/>
+      <c r="KY25" s="1"/>
       <c r="KZ25" s="2"/>
       <c r="LA25" s="2"/>
       <c r="LB25" s="2"/>
       <c r="LC25" s="2"/>
       <c r="LD25" s="2"/>
-      <c r="LE25" s="2"/>
-      <c r="LF25" s="2"/>
+      <c r="LE25" s="1"/>
+      <c r="LF25" s="186" t="s">
+        <v>122</v>
+      </c>
       <c r="LG25" s="2"/>
       <c r="LH25" s="2"/>
       <c r="LI25" s="2"/>
       <c r="LJ25" s="2"/>
       <c r="LK25" s="2"/>
-      <c r="LL25" s="2"/>
-      <c r="LM25" s="2"/>
+      <c r="LL25" s="1"/>
+      <c r="LM25" s="1"/>
       <c r="LN25" s="2"/>
       <c r="LO25" s="2"/>
       <c r="LP25" s="2"/>
       <c r="LQ25" s="2"/>
       <c r="LR25" s="2"/>
-      <c r="LS25" s="2"/>
-      <c r="LT25" s="2"/>
+      <c r="LS25" s="1"/>
+      <c r="LT25" s="1"/>
       <c r="LU25" s="2"/>
       <c r="LV25" s="2"/>
       <c r="LW25" s="4"/>
     </row>
     <row r="26" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="192"/>
+      <c r="A26" s="187"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -11058,35 +11080,35 @@
       <c r="KU26" s="2"/>
       <c r="KV26" s="2"/>
       <c r="KW26" s="2"/>
-      <c r="KX26" s="2"/>
-      <c r="KY26" s="2"/>
+      <c r="KX26" s="1"/>
+      <c r="KY26" s="1"/>
       <c r="KZ26" s="2"/>
       <c r="LA26" s="2"/>
       <c r="LB26" s="2"/>
       <c r="LC26" s="2"/>
       <c r="LD26" s="2"/>
-      <c r="LE26" s="2"/>
-      <c r="LF26" s="2"/>
+      <c r="LE26" s="1"/>
+      <c r="LF26" s="1"/>
       <c r="LG26" s="2"/>
       <c r="LH26" s="2"/>
       <c r="LI26" s="2"/>
       <c r="LJ26" s="2"/>
       <c r="LK26" s="2"/>
-      <c r="LL26" s="2"/>
-      <c r="LM26" s="2"/>
+      <c r="LL26" s="1"/>
+      <c r="LM26" s="1"/>
       <c r="LN26" s="2"/>
       <c r="LO26" s="2"/>
       <c r="LP26" s="2"/>
       <c r="LQ26" s="2"/>
       <c r="LR26" s="2"/>
-      <c r="LS26" s="2"/>
-      <c r="LT26" s="2"/>
+      <c r="LS26" s="1"/>
+      <c r="LT26" s="1"/>
       <c r="LU26" s="2"/>
       <c r="LV26" s="2"/>
       <c r="LW26" s="4"/>
     </row>
     <row r="27" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="192"/>
+      <c r="A27" s="187"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -11401,35 +11423,35 @@
       <c r="KU27" s="2"/>
       <c r="KV27" s="2"/>
       <c r="KW27" s="2"/>
-      <c r="KX27" s="2"/>
-      <c r="KY27" s="2"/>
+      <c r="KX27" s="1"/>
+      <c r="KY27" s="1"/>
       <c r="KZ27" s="2"/>
       <c r="LA27" s="2"/>
       <c r="LB27" s="2"/>
       <c r="LC27" s="2"/>
       <c r="LD27" s="2"/>
-      <c r="LE27" s="2"/>
-      <c r="LF27" s="2"/>
+      <c r="LE27" s="1"/>
+      <c r="LF27" s="1"/>
       <c r="LG27" s="2"/>
       <c r="LH27" s="2"/>
       <c r="LI27" s="2"/>
       <c r="LJ27" s="2"/>
       <c r="LK27" s="2"/>
-      <c r="LL27" s="2"/>
-      <c r="LM27" s="2"/>
+      <c r="LL27" s="1"/>
+      <c r="LM27" s="1"/>
       <c r="LN27" s="2"/>
       <c r="LO27" s="2"/>
       <c r="LP27" s="2"/>
       <c r="LQ27" s="2"/>
       <c r="LR27" s="2"/>
-      <c r="LS27" s="2"/>
-      <c r="LT27" s="2"/>
+      <c r="LS27" s="1"/>
+      <c r="LT27" s="1"/>
       <c r="LU27" s="2"/>
       <c r="LV27" s="2"/>
       <c r="LW27" s="4"/>
     </row>
     <row r="28" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="192"/>
+      <c r="A28" s="187"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -11740,35 +11762,35 @@
       <c r="KU28" s="2"/>
       <c r="KV28" s="2"/>
       <c r="KW28" s="2"/>
-      <c r="KX28" s="2"/>
-      <c r="KY28" s="2"/>
+      <c r="KX28" s="1"/>
+      <c r="KY28" s="1"/>
       <c r="KZ28" s="2"/>
       <c r="LA28" s="2"/>
       <c r="LB28" s="2"/>
       <c r="LC28" s="2"/>
       <c r="LD28" s="2"/>
-      <c r="LE28" s="2"/>
-      <c r="LF28" s="2"/>
+      <c r="LE28" s="1"/>
+      <c r="LF28" s="1"/>
       <c r="LG28" s="2"/>
       <c r="LH28" s="2"/>
       <c r="LI28" s="2"/>
       <c r="LJ28" s="2"/>
       <c r="LK28" s="2"/>
-      <c r="LL28" s="2"/>
-      <c r="LM28" s="2"/>
+      <c r="LL28" s="1"/>
+      <c r="LM28" s="1"/>
       <c r="LN28" s="2"/>
       <c r="LO28" s="2"/>
       <c r="LP28" s="2"/>
       <c r="LQ28" s="2"/>
       <c r="LR28" s="2"/>
-      <c r="LS28" s="2"/>
-      <c r="LT28" s="2"/>
+      <c r="LS28" s="1"/>
+      <c r="LT28" s="1"/>
       <c r="LU28" s="2"/>
       <c r="LV28" s="2"/>
       <c r="LW28" s="4"/>
     </row>
     <row r="29" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="192"/>
+      <c r="A29" s="187"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -12079,35 +12101,35 @@
       <c r="KU29" s="2"/>
       <c r="KV29" s="2"/>
       <c r="KW29" s="2"/>
-      <c r="KX29" s="2"/>
-      <c r="KY29" s="2"/>
+      <c r="KX29" s="1"/>
+      <c r="KY29" s="1"/>
       <c r="KZ29" s="2"/>
       <c r="LA29" s="2"/>
       <c r="LB29" s="2"/>
       <c r="LC29" s="2"/>
       <c r="LD29" s="2"/>
-      <c r="LE29" s="2"/>
-      <c r="LF29" s="2"/>
+      <c r="LE29" s="1"/>
+      <c r="LF29" s="1"/>
       <c r="LG29" s="2"/>
       <c r="LH29" s="2"/>
       <c r="LI29" s="2"/>
       <c r="LJ29" s="2"/>
       <c r="LK29" s="2"/>
-      <c r="LL29" s="2"/>
-      <c r="LM29" s="2"/>
+      <c r="LL29" s="1"/>
+      <c r="LM29" s="1"/>
       <c r="LN29" s="2"/>
       <c r="LO29" s="2"/>
       <c r="LP29" s="2"/>
       <c r="LQ29" s="2"/>
       <c r="LR29" s="2"/>
-      <c r="LS29" s="2"/>
-      <c r="LT29" s="2"/>
+      <c r="LS29" s="1"/>
+      <c r="LT29" s="1"/>
       <c r="LU29" s="2"/>
       <c r="LV29" s="2"/>
       <c r="LW29" s="4"/>
     </row>
     <row r="30" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="192"/>
+      <c r="A30" s="187"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -12416,29 +12438,29 @@
       <c r="KU30" s="23"/>
       <c r="KV30" s="23"/>
       <c r="KW30" s="23"/>
-      <c r="KX30" s="23"/>
-      <c r="KY30" s="23"/>
+      <c r="KX30" s="24"/>
+      <c r="KY30" s="24"/>
       <c r="KZ30" s="23"/>
       <c r="LA30" s="23"/>
       <c r="LB30" s="23"/>
       <c r="LC30" s="23"/>
       <c r="LD30" s="23"/>
-      <c r="LE30" s="23"/>
-      <c r="LF30" s="23"/>
+      <c r="LE30" s="24"/>
+      <c r="LF30" s="24"/>
       <c r="LG30" s="23"/>
       <c r="LH30" s="23"/>
       <c r="LI30" s="23"/>
       <c r="LJ30" s="23"/>
       <c r="LK30" s="23"/>
-      <c r="LL30" s="23"/>
-      <c r="LM30" s="23"/>
+      <c r="LL30" s="24"/>
+      <c r="LM30" s="24"/>
       <c r="LN30" s="23"/>
       <c r="LO30" s="23"/>
       <c r="LP30" s="23"/>
       <c r="LQ30" s="23"/>
       <c r="LR30" s="23"/>
-      <c r="LS30" s="23"/>
-      <c r="LT30" s="23"/>
+      <c r="LS30" s="24"/>
+      <c r="LT30" s="24"/>
       <c r="LU30" s="23"/>
       <c r="LV30" s="23"/>
       <c r="LW30" s="25"/>
@@ -13719,7 +13741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
@@ -13752,10 +13774,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="200">
+      <c r="B4" s="204">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="201"/>
+      <c r="C4" s="205"/>
       <c r="D4" s="138">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -13763,7 +13785,7 @@
       <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="204">
+      <c r="B5" s="208">
         <v>12</v>
       </c>
       <c r="C5" s="142">
@@ -13777,7 +13799,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="205"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="140">
         <v>17</v>
       </c>
@@ -13789,7 +13811,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="205"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="140">
         <v>19</v>
       </c>
@@ -13801,7 +13823,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="205"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="133">
         <v>22</v>
       </c>
@@ -13813,7 +13835,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="205"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="133">
         <v>23</v>
       </c>
@@ -13825,7 +13847,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="205"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="133">
         <v>25</v>
       </c>
@@ -13837,7 +13859,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="205"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="133">
         <v>26</v>
       </c>
@@ -13849,7 +13871,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="205"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="133">
         <v>29</v>
       </c>
@@ -13861,7 +13883,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="206"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="136">
         <v>30</v>
       </c>
@@ -13873,10 +13895,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="202">
+      <c r="B14" s="206">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="203"/>
+      <c r="C14" s="207"/>
       <c r="D14" s="153">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -13884,7 +13906,7 @@
       <c r="E14" s="154"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="207">
+      <c r="B15" s="211">
         <v>1</v>
       </c>
       <c r="C15" s="133">
@@ -13898,7 +13920,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="208"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="133">
         <v>5</v>
       </c>
@@ -13910,7 +13932,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="208"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="133">
         <v>13</v>
       </c>
@@ -13922,7 +13944,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="208"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="133">
         <v>15</v>
       </c>
@@ -13934,7 +13956,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="208"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="133">
         <v>17</v>
       </c>
@@ -13946,7 +13968,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="208"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="133">
         <v>18</v>
       </c>
@@ -13958,7 +13980,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="208"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="133">
         <v>21</v>
       </c>
@@ -13970,7 +13992,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="208"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="133">
         <v>22</v>
       </c>
@@ -13982,7 +14004,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="209"/>
+      <c r="B23" s="213"/>
       <c r="C23" s="136">
         <v>28</v>
       </c>
@@ -13994,10 +14016,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="200">
+      <c r="B24" s="204">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="201"/>
+      <c r="C24" s="205"/>
       <c r="D24" s="138">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -14005,7 +14027,7 @@
       <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="207">
+      <c r="B25" s="211">
         <v>2</v>
       </c>
       <c r="C25" s="133">
@@ -14019,7 +14041,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="208"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="133">
         <v>11</v>
       </c>
@@ -14031,7 +14053,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="208"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="133">
         <v>12</v>
       </c>
@@ -14043,7 +14065,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="208"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="133">
         <v>12</v>
       </c>
@@ -14055,7 +14077,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="208"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="133">
         <v>24</v>
       </c>
@@ -14067,7 +14089,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="208"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="164">
         <v>26</v>
       </c>
@@ -14079,10 +14101,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="202">
+      <c r="B31" s="206">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="203"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="153">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -14234,10 +14256,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="200">
+      <c r="B44" s="204">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="201"/>
+      <c r="C44" s="205"/>
       <c r="D44" s="138">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -14413,10 +14435,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="200">
+      <c r="B59" s="204">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="201"/>
+      <c r="C59" s="205"/>
       <c r="D59" s="138">
         <f>SUM(D60:D71)</f>
         <v>43</v>
@@ -14568,10 +14590,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="200">
+      <c r="B72" s="204">
         <v>2019.06</v>
       </c>
-      <c r="C72" s="201"/>
+      <c r="C72" s="205"/>
       <c r="D72" s="138">
         <f>SUM(D73:D76)</f>
         <v>18</v>
@@ -14627,10 +14649,10 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="200">
+      <c r="B77" s="204">
         <v>2019.07</v>
       </c>
-      <c r="C77" s="201"/>
+      <c r="C77" s="205"/>
       <c r="D77" s="138">
         <f>SUM(D78:D81)</f>
         <v>16</v>
@@ -14658,7 +14680,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -14670,7 +14692,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -14687,15 +14709,27 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="163"/>
-      <c r="C82" s="164"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="167"/>
+      <c r="C82" s="164">
+        <v>14</v>
+      </c>
+      <c r="D82" s="165">
+        <v>10</v>
+      </c>
+      <c r="E82" s="167" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="163"/>
-      <c r="C83" s="164"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="167"/>
+      <c r="C83" s="164">
+        <v>17</v>
+      </c>
+      <c r="D83" s="165">
+        <v>4</v>
+      </c>
+      <c r="E83" s="167" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="163"/>
@@ -14752,14 +14786,14 @@
   <dimension ref="B3:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="97.5" customWidth="1"/>
-    <col min="4" max="4" width="67.25" customWidth="1"/>
+    <col min="4" max="4" width="77.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14784,9 +14818,13 @@
       <c r="D5" s="154"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="176"/>
+      <c r="B6" s="214">
+        <v>43661</v>
+      </c>
       <c r="C6" s="167"/>
-      <c r="D6" s="128"/>
+      <c r="D6" s="128" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="176"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,10 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◇ 사양서 입수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MPD 회로 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,14 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◇ PCB 2D 입수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◇ PCB 2D 2차입수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>▶디자인 관련 질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,6 +622,26 @@
   </si>
   <si>
     <t>MPD MAIN Artwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ 사양서 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ PCB 2D 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ PCB 2D 2차수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ 3D 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB 배치 재검토 : ME 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1809,10 +1817,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,6 +1838,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1841,24 +1871,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1889,10 +1901,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1937,7 +1945,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +2002,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2059,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2116,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2173,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2230,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2287,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2344,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2401,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2458,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2515,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2572,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2629,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2686,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2743,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2800,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2857,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,8 +3189,8 @@
   <dimension ref="A1:LW47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LG17" sqref="LG17"/>
+      <pane xSplit="1" topLeftCell="IQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KO19" sqref="KO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3230,362 +3238,362 @@
     </row>
     <row r="6" spans="1:335" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="195">
+      <c r="B6" s="203">
         <v>9</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="192">
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="204"/>
+      <c r="X6" s="204"/>
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204"/>
+      <c r="AA6" s="204"/>
+      <c r="AB6" s="204"/>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="205"/>
+      <c r="AF6" s="200">
         <v>10</v>
       </c>
-      <c r="AG6" s="192"/>
-      <c r="AH6" s="192"/>
-      <c r="AI6" s="192"/>
-      <c r="AJ6" s="192"/>
-      <c r="AK6" s="192"/>
-      <c r="AL6" s="192"/>
-      <c r="AM6" s="192"/>
-      <c r="AN6" s="192"/>
-      <c r="AO6" s="192"/>
-      <c r="AP6" s="192"/>
-      <c r="AQ6" s="192"/>
-      <c r="AR6" s="192"/>
-      <c r="AS6" s="192"/>
-      <c r="AT6" s="192"/>
-      <c r="AU6" s="192"/>
-      <c r="AV6" s="192"/>
-      <c r="AW6" s="192"/>
-      <c r="AX6" s="192"/>
-      <c r="AY6" s="192"/>
-      <c r="AZ6" s="192"/>
-      <c r="BA6" s="192"/>
-      <c r="BB6" s="192"/>
-      <c r="BC6" s="192"/>
-      <c r="BD6" s="192"/>
-      <c r="BE6" s="192"/>
-      <c r="BF6" s="192"/>
-      <c r="BG6" s="192"/>
-      <c r="BH6" s="192"/>
-      <c r="BI6" s="192"/>
-      <c r="BJ6" s="193"/>
-      <c r="BK6" s="195">
+      <c r="AG6" s="200"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="200"/>
+      <c r="AK6" s="200"/>
+      <c r="AL6" s="200"/>
+      <c r="AM6" s="200"/>
+      <c r="AN6" s="200"/>
+      <c r="AO6" s="200"/>
+      <c r="AP6" s="200"/>
+      <c r="AQ6" s="200"/>
+      <c r="AR6" s="200"/>
+      <c r="AS6" s="200"/>
+      <c r="AT6" s="200"/>
+      <c r="AU6" s="200"/>
+      <c r="AV6" s="200"/>
+      <c r="AW6" s="200"/>
+      <c r="AX6" s="200"/>
+      <c r="AY6" s="200"/>
+      <c r="AZ6" s="200"/>
+      <c r="BA6" s="200"/>
+      <c r="BB6" s="200"/>
+      <c r="BC6" s="200"/>
+      <c r="BD6" s="200"/>
+      <c r="BE6" s="200"/>
+      <c r="BF6" s="200"/>
+      <c r="BG6" s="200"/>
+      <c r="BH6" s="200"/>
+      <c r="BI6" s="200"/>
+      <c r="BJ6" s="201"/>
+      <c r="BK6" s="203">
         <v>11</v>
       </c>
-      <c r="BL6" s="196"/>
-      <c r="BM6" s="196"/>
-      <c r="BN6" s="196"/>
-      <c r="BO6" s="196"/>
-      <c r="BP6" s="196"/>
-      <c r="BQ6" s="196"/>
-      <c r="BR6" s="196"/>
-      <c r="BS6" s="196"/>
-      <c r="BT6" s="196"/>
-      <c r="BU6" s="196"/>
-      <c r="BV6" s="196"/>
-      <c r="BW6" s="196"/>
-      <c r="BX6" s="196"/>
-      <c r="BY6" s="196"/>
-      <c r="BZ6" s="196"/>
-      <c r="CA6" s="196"/>
-      <c r="CB6" s="196"/>
-      <c r="CC6" s="196"/>
-      <c r="CD6" s="196"/>
-      <c r="CE6" s="196"/>
-      <c r="CF6" s="196"/>
-      <c r="CG6" s="196"/>
-      <c r="CH6" s="196"/>
-      <c r="CI6" s="196"/>
-      <c r="CJ6" s="196"/>
-      <c r="CK6" s="196"/>
-      <c r="CL6" s="196"/>
-      <c r="CM6" s="196"/>
-      <c r="CN6" s="197"/>
-      <c r="CO6" s="192">
+      <c r="BL6" s="204"/>
+      <c r="BM6" s="204"/>
+      <c r="BN6" s="204"/>
+      <c r="BO6" s="204"/>
+      <c r="BP6" s="204"/>
+      <c r="BQ6" s="204"/>
+      <c r="BR6" s="204"/>
+      <c r="BS6" s="204"/>
+      <c r="BT6" s="204"/>
+      <c r="BU6" s="204"/>
+      <c r="BV6" s="204"/>
+      <c r="BW6" s="204"/>
+      <c r="BX6" s="204"/>
+      <c r="BY6" s="204"/>
+      <c r="BZ6" s="204"/>
+      <c r="CA6" s="204"/>
+      <c r="CB6" s="204"/>
+      <c r="CC6" s="204"/>
+      <c r="CD6" s="204"/>
+      <c r="CE6" s="204"/>
+      <c r="CF6" s="204"/>
+      <c r="CG6" s="204"/>
+      <c r="CH6" s="204"/>
+      <c r="CI6" s="204"/>
+      <c r="CJ6" s="204"/>
+      <c r="CK6" s="204"/>
+      <c r="CL6" s="204"/>
+      <c r="CM6" s="204"/>
+      <c r="CN6" s="205"/>
+      <c r="CO6" s="200">
         <v>12</v>
       </c>
-      <c r="CP6" s="192"/>
-      <c r="CQ6" s="192"/>
-      <c r="CR6" s="192"/>
-      <c r="CS6" s="192"/>
-      <c r="CT6" s="192"/>
-      <c r="CU6" s="192"/>
-      <c r="CV6" s="192"/>
-      <c r="CW6" s="192"/>
-      <c r="CX6" s="192"/>
-      <c r="CY6" s="192"/>
-      <c r="CZ6" s="192"/>
-      <c r="DA6" s="192"/>
-      <c r="DB6" s="192"/>
-      <c r="DC6" s="192"/>
-      <c r="DD6" s="192"/>
-      <c r="DE6" s="192"/>
-      <c r="DF6" s="192"/>
-      <c r="DG6" s="192"/>
-      <c r="DH6" s="192"/>
-      <c r="DI6" s="192"/>
-      <c r="DJ6" s="192"/>
-      <c r="DK6" s="192"/>
-      <c r="DL6" s="192"/>
-      <c r="DM6" s="192"/>
-      <c r="DN6" s="192"/>
-      <c r="DO6" s="192"/>
-      <c r="DP6" s="192"/>
-      <c r="DQ6" s="192"/>
-      <c r="DR6" s="192"/>
-      <c r="DS6" s="193"/>
-      <c r="DT6" s="192">
+      <c r="CP6" s="200"/>
+      <c r="CQ6" s="200"/>
+      <c r="CR6" s="200"/>
+      <c r="CS6" s="200"/>
+      <c r="CT6" s="200"/>
+      <c r="CU6" s="200"/>
+      <c r="CV6" s="200"/>
+      <c r="CW6" s="200"/>
+      <c r="CX6" s="200"/>
+      <c r="CY6" s="200"/>
+      <c r="CZ6" s="200"/>
+      <c r="DA6" s="200"/>
+      <c r="DB6" s="200"/>
+      <c r="DC6" s="200"/>
+      <c r="DD6" s="200"/>
+      <c r="DE6" s="200"/>
+      <c r="DF6" s="200"/>
+      <c r="DG6" s="200"/>
+      <c r="DH6" s="200"/>
+      <c r="DI6" s="200"/>
+      <c r="DJ6" s="200"/>
+      <c r="DK6" s="200"/>
+      <c r="DL6" s="200"/>
+      <c r="DM6" s="200"/>
+      <c r="DN6" s="200"/>
+      <c r="DO6" s="200"/>
+      <c r="DP6" s="200"/>
+      <c r="DQ6" s="200"/>
+      <c r="DR6" s="200"/>
+      <c r="DS6" s="201"/>
+      <c r="DT6" s="200">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="192"/>
-      <c r="DV6" s="192"/>
-      <c r="DW6" s="192"/>
-      <c r="DX6" s="192"/>
-      <c r="DY6" s="192"/>
-      <c r="DZ6" s="192"/>
-      <c r="EA6" s="192"/>
-      <c r="EB6" s="192"/>
-      <c r="EC6" s="192"/>
-      <c r="ED6" s="192"/>
-      <c r="EE6" s="192"/>
-      <c r="EF6" s="192"/>
-      <c r="EG6" s="192"/>
-      <c r="EH6" s="192"/>
-      <c r="EI6" s="192"/>
-      <c r="EJ6" s="192"/>
-      <c r="EK6" s="192"/>
-      <c r="EL6" s="192"/>
-      <c r="EM6" s="192"/>
-      <c r="EN6" s="192"/>
-      <c r="EO6" s="192"/>
-      <c r="EP6" s="192"/>
-      <c r="EQ6" s="192"/>
-      <c r="ER6" s="192"/>
-      <c r="ES6" s="192"/>
-      <c r="ET6" s="192"/>
-      <c r="EU6" s="192"/>
-      <c r="EV6" s="192"/>
-      <c r="EW6" s="192"/>
-      <c r="EX6" s="193"/>
-      <c r="EY6" s="194">
+      <c r="DU6" s="200"/>
+      <c r="DV6" s="200"/>
+      <c r="DW6" s="200"/>
+      <c r="DX6" s="200"/>
+      <c r="DY6" s="200"/>
+      <c r="DZ6" s="200"/>
+      <c r="EA6" s="200"/>
+      <c r="EB6" s="200"/>
+      <c r="EC6" s="200"/>
+      <c r="ED6" s="200"/>
+      <c r="EE6" s="200"/>
+      <c r="EF6" s="200"/>
+      <c r="EG6" s="200"/>
+      <c r="EH6" s="200"/>
+      <c r="EI6" s="200"/>
+      <c r="EJ6" s="200"/>
+      <c r="EK6" s="200"/>
+      <c r="EL6" s="200"/>
+      <c r="EM6" s="200"/>
+      <c r="EN6" s="200"/>
+      <c r="EO6" s="200"/>
+      <c r="EP6" s="200"/>
+      <c r="EQ6" s="200"/>
+      <c r="ER6" s="200"/>
+      <c r="ES6" s="200"/>
+      <c r="ET6" s="200"/>
+      <c r="EU6" s="200"/>
+      <c r="EV6" s="200"/>
+      <c r="EW6" s="200"/>
+      <c r="EX6" s="201"/>
+      <c r="EY6" s="202">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="192"/>
-      <c r="FA6" s="192"/>
-      <c r="FB6" s="192"/>
-      <c r="FC6" s="192"/>
-      <c r="FD6" s="192"/>
-      <c r="FE6" s="192"/>
-      <c r="FF6" s="192"/>
-      <c r="FG6" s="192"/>
-      <c r="FH6" s="192"/>
-      <c r="FI6" s="192"/>
-      <c r="FJ6" s="192"/>
-      <c r="FK6" s="192"/>
-      <c r="FL6" s="192"/>
-      <c r="FM6" s="192"/>
-      <c r="FN6" s="192"/>
-      <c r="FO6" s="192"/>
-      <c r="FP6" s="192"/>
-      <c r="FQ6" s="192"/>
-      <c r="FR6" s="192"/>
-      <c r="FS6" s="192"/>
-      <c r="FT6" s="192"/>
-      <c r="FU6" s="192"/>
-      <c r="FV6" s="192"/>
-      <c r="FW6" s="192"/>
-      <c r="FX6" s="192"/>
-      <c r="FY6" s="192"/>
-      <c r="FZ6" s="193"/>
-      <c r="GA6" s="188">
+      <c r="EZ6" s="200"/>
+      <c r="FA6" s="200"/>
+      <c r="FB6" s="200"/>
+      <c r="FC6" s="200"/>
+      <c r="FD6" s="200"/>
+      <c r="FE6" s="200"/>
+      <c r="FF6" s="200"/>
+      <c r="FG6" s="200"/>
+      <c r="FH6" s="200"/>
+      <c r="FI6" s="200"/>
+      <c r="FJ6" s="200"/>
+      <c r="FK6" s="200"/>
+      <c r="FL6" s="200"/>
+      <c r="FM6" s="200"/>
+      <c r="FN6" s="200"/>
+      <c r="FO6" s="200"/>
+      <c r="FP6" s="200"/>
+      <c r="FQ6" s="200"/>
+      <c r="FR6" s="200"/>
+      <c r="FS6" s="200"/>
+      <c r="FT6" s="200"/>
+      <c r="FU6" s="200"/>
+      <c r="FV6" s="200"/>
+      <c r="FW6" s="200"/>
+      <c r="FX6" s="200"/>
+      <c r="FY6" s="200"/>
+      <c r="FZ6" s="201"/>
+      <c r="GA6" s="196">
         <v>3</v>
       </c>
-      <c r="GB6" s="188"/>
-      <c r="GC6" s="188"/>
-      <c r="GD6" s="188"/>
-      <c r="GE6" s="188"/>
-      <c r="GF6" s="188"/>
-      <c r="GG6" s="188"/>
-      <c r="GH6" s="188"/>
-      <c r="GI6" s="188"/>
-      <c r="GJ6" s="188"/>
-      <c r="GK6" s="188"/>
-      <c r="GL6" s="188"/>
-      <c r="GM6" s="188"/>
-      <c r="GN6" s="188"/>
-      <c r="GO6" s="188"/>
-      <c r="GP6" s="188"/>
-      <c r="GQ6" s="188"/>
-      <c r="GR6" s="188"/>
-      <c r="GS6" s="188"/>
-      <c r="GT6" s="188"/>
-      <c r="GU6" s="188"/>
-      <c r="GV6" s="188"/>
-      <c r="GW6" s="188"/>
-      <c r="GX6" s="188"/>
-      <c r="GY6" s="188"/>
-      <c r="GZ6" s="188"/>
-      <c r="HA6" s="188"/>
-      <c r="HB6" s="188"/>
-      <c r="HC6" s="188"/>
-      <c r="HD6" s="188"/>
-      <c r="HE6" s="188"/>
-      <c r="HF6" s="189">
+      <c r="GB6" s="196"/>
+      <c r="GC6" s="196"/>
+      <c r="GD6" s="196"/>
+      <c r="GE6" s="196"/>
+      <c r="GF6" s="196"/>
+      <c r="GG6" s="196"/>
+      <c r="GH6" s="196"/>
+      <c r="GI6" s="196"/>
+      <c r="GJ6" s="196"/>
+      <c r="GK6" s="196"/>
+      <c r="GL6" s="196"/>
+      <c r="GM6" s="196"/>
+      <c r="GN6" s="196"/>
+      <c r="GO6" s="196"/>
+      <c r="GP6" s="196"/>
+      <c r="GQ6" s="196"/>
+      <c r="GR6" s="196"/>
+      <c r="GS6" s="196"/>
+      <c r="GT6" s="196"/>
+      <c r="GU6" s="196"/>
+      <c r="GV6" s="196"/>
+      <c r="GW6" s="196"/>
+      <c r="GX6" s="196"/>
+      <c r="GY6" s="196"/>
+      <c r="GZ6" s="196"/>
+      <c r="HA6" s="196"/>
+      <c r="HB6" s="196"/>
+      <c r="HC6" s="196"/>
+      <c r="HD6" s="196"/>
+      <c r="HE6" s="196"/>
+      <c r="HF6" s="192">
         <v>4</v>
       </c>
-      <c r="HG6" s="190"/>
-      <c r="HH6" s="190"/>
-      <c r="HI6" s="190"/>
-      <c r="HJ6" s="190"/>
-      <c r="HK6" s="190"/>
-      <c r="HL6" s="190"/>
-      <c r="HM6" s="190"/>
-      <c r="HN6" s="190"/>
-      <c r="HO6" s="190"/>
-      <c r="HP6" s="190"/>
-      <c r="HQ6" s="190"/>
-      <c r="HR6" s="190"/>
-      <c r="HS6" s="190"/>
-      <c r="HT6" s="190"/>
-      <c r="HU6" s="190"/>
-      <c r="HV6" s="190"/>
-      <c r="HW6" s="190"/>
-      <c r="HX6" s="190"/>
-      <c r="HY6" s="190"/>
-      <c r="HZ6" s="190"/>
-      <c r="IA6" s="190"/>
-      <c r="IB6" s="190"/>
-      <c r="IC6" s="190"/>
-      <c r="ID6" s="190"/>
-      <c r="IE6" s="190"/>
-      <c r="IF6" s="190"/>
-      <c r="IG6" s="190"/>
-      <c r="IH6" s="190"/>
-      <c r="II6" s="191"/>
-      <c r="IJ6" s="201">
+      <c r="HG6" s="193"/>
+      <c r="HH6" s="193"/>
+      <c r="HI6" s="193"/>
+      <c r="HJ6" s="193"/>
+      <c r="HK6" s="193"/>
+      <c r="HL6" s="193"/>
+      <c r="HM6" s="193"/>
+      <c r="HN6" s="193"/>
+      <c r="HO6" s="193"/>
+      <c r="HP6" s="193"/>
+      <c r="HQ6" s="193"/>
+      <c r="HR6" s="193"/>
+      <c r="HS6" s="193"/>
+      <c r="HT6" s="193"/>
+      <c r="HU6" s="193"/>
+      <c r="HV6" s="193"/>
+      <c r="HW6" s="193"/>
+      <c r="HX6" s="193"/>
+      <c r="HY6" s="193"/>
+      <c r="HZ6" s="193"/>
+      <c r="IA6" s="193"/>
+      <c r="IB6" s="193"/>
+      <c r="IC6" s="193"/>
+      <c r="ID6" s="193"/>
+      <c r="IE6" s="193"/>
+      <c r="IF6" s="193"/>
+      <c r="IG6" s="193"/>
+      <c r="IH6" s="193"/>
+      <c r="II6" s="194"/>
+      <c r="IJ6" s="195">
         <v>5</v>
       </c>
-      <c r="IK6" s="188"/>
-      <c r="IL6" s="188"/>
-      <c r="IM6" s="188"/>
-      <c r="IN6" s="188"/>
-      <c r="IO6" s="188"/>
-      <c r="IP6" s="188"/>
-      <c r="IQ6" s="188"/>
-      <c r="IR6" s="188"/>
-      <c r="IS6" s="188"/>
-      <c r="IT6" s="188"/>
-      <c r="IU6" s="188"/>
-      <c r="IV6" s="188"/>
-      <c r="IW6" s="188"/>
-      <c r="IX6" s="188"/>
-      <c r="IY6" s="188"/>
-      <c r="IZ6" s="188"/>
-      <c r="JA6" s="188"/>
-      <c r="JB6" s="188"/>
-      <c r="JC6" s="188"/>
-      <c r="JD6" s="188"/>
-      <c r="JE6" s="188"/>
-      <c r="JF6" s="188"/>
-      <c r="JG6" s="188"/>
-      <c r="JH6" s="188"/>
-      <c r="JI6" s="188"/>
-      <c r="JJ6" s="188"/>
-      <c r="JK6" s="188"/>
-      <c r="JL6" s="188"/>
-      <c r="JM6" s="188"/>
-      <c r="JN6" s="202"/>
-      <c r="JO6" s="189">
+      <c r="IK6" s="196"/>
+      <c r="IL6" s="196"/>
+      <c r="IM6" s="196"/>
+      <c r="IN6" s="196"/>
+      <c r="IO6" s="196"/>
+      <c r="IP6" s="196"/>
+      <c r="IQ6" s="196"/>
+      <c r="IR6" s="196"/>
+      <c r="IS6" s="196"/>
+      <c r="IT6" s="196"/>
+      <c r="IU6" s="196"/>
+      <c r="IV6" s="196"/>
+      <c r="IW6" s="196"/>
+      <c r="IX6" s="196"/>
+      <c r="IY6" s="196"/>
+      <c r="IZ6" s="196"/>
+      <c r="JA6" s="196"/>
+      <c r="JB6" s="196"/>
+      <c r="JC6" s="196"/>
+      <c r="JD6" s="196"/>
+      <c r="JE6" s="196"/>
+      <c r="JF6" s="196"/>
+      <c r="JG6" s="196"/>
+      <c r="JH6" s="196"/>
+      <c r="JI6" s="196"/>
+      <c r="JJ6" s="196"/>
+      <c r="JK6" s="196"/>
+      <c r="JL6" s="196"/>
+      <c r="JM6" s="196"/>
+      <c r="JN6" s="197"/>
+      <c r="JO6" s="192">
         <v>6</v>
       </c>
-      <c r="JP6" s="190"/>
-      <c r="JQ6" s="190"/>
-      <c r="JR6" s="190"/>
-      <c r="JS6" s="190"/>
-      <c r="JT6" s="190"/>
-      <c r="JU6" s="190"/>
-      <c r="JV6" s="190"/>
-      <c r="JW6" s="190"/>
-      <c r="JX6" s="190"/>
-      <c r="JY6" s="190"/>
-      <c r="JZ6" s="190"/>
-      <c r="KA6" s="190"/>
-      <c r="KB6" s="190"/>
-      <c r="KC6" s="190"/>
-      <c r="KD6" s="190"/>
-      <c r="KE6" s="190"/>
-      <c r="KF6" s="190"/>
-      <c r="KG6" s="190"/>
-      <c r="KH6" s="190"/>
-      <c r="KI6" s="190"/>
-      <c r="KJ6" s="190"/>
-      <c r="KK6" s="190"/>
-      <c r="KL6" s="190"/>
-      <c r="KM6" s="190"/>
-      <c r="KN6" s="190"/>
-      <c r="KO6" s="190"/>
-      <c r="KP6" s="190"/>
-      <c r="KQ6" s="190"/>
-      <c r="KR6" s="191"/>
-      <c r="KS6" s="198">
+      <c r="JP6" s="193"/>
+      <c r="JQ6" s="193"/>
+      <c r="JR6" s="193"/>
+      <c r="JS6" s="193"/>
+      <c r="JT6" s="193"/>
+      <c r="JU6" s="193"/>
+      <c r="JV6" s="193"/>
+      <c r="JW6" s="193"/>
+      <c r="JX6" s="193"/>
+      <c r="JY6" s="193"/>
+      <c r="JZ6" s="193"/>
+      <c r="KA6" s="193"/>
+      <c r="KB6" s="193"/>
+      <c r="KC6" s="193"/>
+      <c r="KD6" s="193"/>
+      <c r="KE6" s="193"/>
+      <c r="KF6" s="193"/>
+      <c r="KG6" s="193"/>
+      <c r="KH6" s="193"/>
+      <c r="KI6" s="193"/>
+      <c r="KJ6" s="193"/>
+      <c r="KK6" s="193"/>
+      <c r="KL6" s="193"/>
+      <c r="KM6" s="193"/>
+      <c r="KN6" s="193"/>
+      <c r="KO6" s="193"/>
+      <c r="KP6" s="193"/>
+      <c r="KQ6" s="193"/>
+      <c r="KR6" s="194"/>
+      <c r="KS6" s="189">
         <v>7</v>
       </c>
-      <c r="KT6" s="199"/>
-      <c r="KU6" s="199"/>
-      <c r="KV6" s="199"/>
-      <c r="KW6" s="199"/>
-      <c r="KX6" s="199"/>
-      <c r="KY6" s="199"/>
-      <c r="KZ6" s="199"/>
-      <c r="LA6" s="199"/>
-      <c r="LB6" s="199"/>
-      <c r="LC6" s="199"/>
-      <c r="LD6" s="199"/>
-      <c r="LE6" s="199"/>
-      <c r="LF6" s="199"/>
-      <c r="LG6" s="199"/>
-      <c r="LH6" s="199"/>
-      <c r="LI6" s="199"/>
-      <c r="LJ6" s="199"/>
-      <c r="LK6" s="199"/>
-      <c r="LL6" s="199"/>
-      <c r="LM6" s="199"/>
-      <c r="LN6" s="199"/>
-      <c r="LO6" s="199"/>
-      <c r="LP6" s="199"/>
-      <c r="LQ6" s="199"/>
-      <c r="LR6" s="199"/>
-      <c r="LS6" s="199"/>
-      <c r="LT6" s="199"/>
-      <c r="LU6" s="199"/>
-      <c r="LV6" s="199"/>
-      <c r="LW6" s="200"/>
+      <c r="KT6" s="190"/>
+      <c r="KU6" s="190"/>
+      <c r="KV6" s="190"/>
+      <c r="KW6" s="190"/>
+      <c r="KX6" s="190"/>
+      <c r="KY6" s="190"/>
+      <c r="KZ6" s="190"/>
+      <c r="LA6" s="190"/>
+      <c r="LB6" s="190"/>
+      <c r="LC6" s="190"/>
+      <c r="LD6" s="190"/>
+      <c r="LE6" s="190"/>
+      <c r="LF6" s="190"/>
+      <c r="LG6" s="190"/>
+      <c r="LH6" s="190"/>
+      <c r="LI6" s="190"/>
+      <c r="LJ6" s="190"/>
+      <c r="LK6" s="190"/>
+      <c r="LL6" s="190"/>
+      <c r="LM6" s="190"/>
+      <c r="LN6" s="190"/>
+      <c r="LO6" s="190"/>
+      <c r="LP6" s="190"/>
+      <c r="LQ6" s="190"/>
+      <c r="LR6" s="190"/>
+      <c r="LS6" s="190"/>
+      <c r="LT6" s="190"/>
+      <c r="LU6" s="190"/>
+      <c r="LV6" s="190"/>
+      <c r="LW6" s="191"/>
     </row>
     <row r="7" spans="1:335" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
@@ -4513,10 +4521,10 @@
       <c r="KW7" s="119">
         <v>5</v>
       </c>
-      <c r="KX7" s="215">
+      <c r="KX7" s="188">
         <v>6</v>
       </c>
-      <c r="KY7" s="215">
+      <c r="KY7" s="188">
         <v>7</v>
       </c>
       <c r="KZ7" s="119">
@@ -4534,10 +4542,10 @@
       <c r="LD7" s="119">
         <v>12</v>
       </c>
-      <c r="LE7" s="215">
+      <c r="LE7" s="188">
         <v>13</v>
       </c>
-      <c r="LF7" s="215">
+      <c r="LF7" s="188">
         <v>14</v>
       </c>
       <c r="LG7" s="119">
@@ -4555,10 +4563,10 @@
       <c r="LK7" s="119">
         <v>19</v>
       </c>
-      <c r="LL7" s="215">
+      <c r="LL7" s="188">
         <v>20</v>
       </c>
-      <c r="LM7" s="215">
+      <c r="LM7" s="188">
         <v>21</v>
       </c>
       <c r="LN7" s="119">
@@ -4576,10 +4584,10 @@
       <c r="LR7" s="119">
         <v>26</v>
       </c>
-      <c r="LS7" s="215">
+      <c r="LS7" s="188">
         <v>27</v>
       </c>
-      <c r="LT7" s="215">
+      <c r="LT7" s="188">
         <v>28</v>
       </c>
       <c r="LU7" s="119">
@@ -4593,7 +4601,7 @@
       </c>
     </row>
     <row r="8" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="198" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -4944,7 +4952,7 @@
       <c r="LW8" s="8"/>
     </row>
     <row r="9" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
+      <c r="A9" s="198"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -5297,7 +5305,7 @@
       <c r="LW9" s="5"/>
     </row>
     <row r="10" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
+      <c r="A10" s="198"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -5642,7 +5650,7 @@
       <c r="LW10" s="7"/>
     </row>
     <row r="11" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -5989,7 +5997,7 @@
       <c r="LW11" s="7"/>
     </row>
     <row r="12" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="187"/>
+      <c r="A12" s="198"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -6334,7 +6342,7 @@
       <c r="LW12" s="7"/>
     </row>
     <row r="13" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="187"/>
+      <c r="A13" s="198"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -6675,7 +6683,7 @@
       <c r="LW13" s="7"/>
     </row>
     <row r="14" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
+      <c r="A14" s="198"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -7014,7 +7022,7 @@
       <c r="LW14" s="18"/>
     </row>
     <row r="15" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="199" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -7355,7 +7363,7 @@
       <c r="LW15" s="29"/>
     </row>
     <row r="16" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
+      <c r="A16" s="198"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -7704,7 +7712,7 @@
       <c r="LW16" s="13"/>
     </row>
     <row r="17" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
+      <c r="A17" s="198"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -8046,7 +8054,7 @@
       <c r="LW17" s="4"/>
     </row>
     <row r="18" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="187"/>
+      <c r="A18" s="198"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -8384,7 +8392,7 @@
       <c r="LW18" s="4"/>
     </row>
     <row r="19" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="187"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -8721,7 +8729,7 @@
       <c r="LW19" s="4"/>
     </row>
     <row r="20" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="187"/>
+      <c r="A20" s="198"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -9058,7 +9066,7 @@
       <c r="LW20" s="4"/>
     </row>
     <row r="21" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="187"/>
+      <c r="A21" s="198"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -9395,7 +9403,7 @@
       <c r="LW21" s="126"/>
     </row>
     <row r="22" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="187"/>
+      <c r="A22" s="198"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -9732,7 +9740,7 @@
       <c r="LW22" s="25"/>
     </row>
     <row r="23" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="198" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -10011,7 +10019,7 @@
       <c r="JK23" s="26"/>
       <c r="JL23" s="26"/>
       <c r="JM23" s="116" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="JN23" s="29"/>
       <c r="JO23" s="181"/>
@@ -10049,7 +10057,7 @@
       <c r="KU23" s="26"/>
       <c r="KV23" s="26"/>
       <c r="KW23" s="116" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="KX23" s="27"/>
       <c r="KY23" s="27"/>
@@ -10069,7 +10077,9 @@
       <c r="LM23" s="27"/>
       <c r="LN23" s="26"/>
       <c r="LO23" s="26"/>
-      <c r="LP23" s="26"/>
+      <c r="LP23" s="116" t="s">
+        <v>125</v>
+      </c>
       <c r="LQ23" s="26"/>
       <c r="LR23" s="26"/>
       <c r="LS23" s="27"/>
@@ -10079,7 +10089,7 @@
       <c r="LW23" s="29"/>
     </row>
     <row r="24" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="187"/>
+      <c r="A24" s="198"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -10373,7 +10383,7 @@
       <c r="KD24" s="1"/>
       <c r="KE24" s="2"/>
       <c r="KF24" s="157" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="KG24" s="2"/>
       <c r="KH24" s="2"/>
@@ -10395,7 +10405,7 @@
       <c r="KX24" s="1"/>
       <c r="KY24" s="1"/>
       <c r="KZ24" s="116" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="LA24" s="2"/>
       <c r="LB24" s="2"/>
@@ -10422,7 +10432,7 @@
       <c r="LW24" s="4"/>
     </row>
     <row r="25" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="187"/>
+      <c r="A25" s="198"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -10742,7 +10752,7 @@
       <c r="LD25" s="2"/>
       <c r="LE25" s="1"/>
       <c r="LF25" s="186" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="LG25" s="2"/>
       <c r="LH25" s="2"/>
@@ -10763,7 +10773,7 @@
       <c r="LW25" s="4"/>
     </row>
     <row r="26" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="187"/>
+      <c r="A26" s="198"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -11108,7 +11118,7 @@
       <c r="LW26" s="4"/>
     </row>
     <row r="27" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="187"/>
+      <c r="A27" s="198"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -11451,7 +11461,7 @@
       <c r="LW27" s="4"/>
     </row>
     <row r="28" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="187"/>
+      <c r="A28" s="198"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -11790,7 +11800,7 @@
       <c r="LW28" s="4"/>
     </row>
     <row r="29" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="187"/>
+      <c r="A29" s="198"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -12129,7 +12139,7 @@
       <c r="LW29" s="4"/>
     </row>
     <row r="30" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="187"/>
+      <c r="A30" s="198"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -13714,11 +13724,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -13728,6 +13733,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13742,8 +13752,8 @@
   <dimension ref="B2:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13774,10 +13784,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="204">
+      <c r="B4" s="206">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="205"/>
+      <c r="C4" s="207"/>
       <c r="D4" s="138">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -13785,7 +13795,7 @@
       <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="208">
+      <c r="B5" s="210">
         <v>12</v>
       </c>
       <c r="C5" s="142">
@@ -13799,7 +13809,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="209"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="140">
         <v>17</v>
       </c>
@@ -13811,7 +13821,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="209"/>
+      <c r="B7" s="211"/>
       <c r="C7" s="140">
         <v>19</v>
       </c>
@@ -13823,7 +13833,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="209"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="133">
         <v>22</v>
       </c>
@@ -13835,7 +13845,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="209"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="133">
         <v>23</v>
       </c>
@@ -13847,7 +13857,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="209"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="133">
         <v>25</v>
       </c>
@@ -13859,7 +13869,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="209"/>
+      <c r="B11" s="211"/>
       <c r="C11" s="133">
         <v>26</v>
       </c>
@@ -13871,7 +13881,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="209"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="133">
         <v>29</v>
       </c>
@@ -13883,7 +13893,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="210"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="136">
         <v>30</v>
       </c>
@@ -13895,10 +13905,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="206">
+      <c r="B14" s="208">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="207"/>
+      <c r="C14" s="209"/>
       <c r="D14" s="153">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -13906,7 +13916,7 @@
       <c r="E14" s="154"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="211">
+      <c r="B15" s="213">
         <v>1</v>
       </c>
       <c r="C15" s="133">
@@ -13920,7 +13930,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="212"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="133">
         <v>5</v>
       </c>
@@ -13932,7 +13942,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="212"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="133">
         <v>13</v>
       </c>
@@ -13944,7 +13954,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="212"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="133">
         <v>15</v>
       </c>
@@ -13956,7 +13966,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="212"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="133">
         <v>17</v>
       </c>
@@ -13968,7 +13978,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="212"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="133">
         <v>18</v>
       </c>
@@ -13980,7 +13990,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="212"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="133">
         <v>21</v>
       </c>
@@ -13992,7 +14002,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="212"/>
+      <c r="B22" s="214"/>
       <c r="C22" s="133">
         <v>22</v>
       </c>
@@ -14004,7 +14014,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="213"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="136">
         <v>28</v>
       </c>
@@ -14016,10 +14026,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="204">
+      <c r="B24" s="206">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="205"/>
+      <c r="C24" s="207"/>
       <c r="D24" s="138">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -14027,7 +14037,7 @@
       <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="211">
+      <c r="B25" s="213">
         <v>2</v>
       </c>
       <c r="C25" s="133">
@@ -14041,7 +14051,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="212"/>
+      <c r="B26" s="214"/>
       <c r="C26" s="133">
         <v>11</v>
       </c>
@@ -14053,7 +14063,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="212"/>
+      <c r="B27" s="214"/>
       <c r="C27" s="133">
         <v>12</v>
       </c>
@@ -14065,7 +14075,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="212"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="133">
         <v>12</v>
       </c>
@@ -14077,7 +14087,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="212"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="133">
         <v>24</v>
       </c>
@@ -14089,7 +14099,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="212"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="164">
         <v>26</v>
       </c>
@@ -14101,10 +14111,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="206">
+      <c r="B31" s="208">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="207"/>
+      <c r="C31" s="209"/>
       <c r="D31" s="153">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -14256,15 +14266,15 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="204">
+      <c r="B44" s="208">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="205"/>
-      <c r="D44" s="138">
+      <c r="C44" s="209"/>
+      <c r="D44" s="153">
         <f>SUM(D45:D58)</f>
         <v>50</v>
       </c>
-      <c r="E44" s="141"/>
+      <c r="E44" s="154"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="132"/>
@@ -14422,28 +14432,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="132"/>
-      <c r="C58" s="133">
+    <row r="58" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="135"/>
+      <c r="C58" s="136">
         <v>29</v>
       </c>
-      <c r="D58" s="134">
+      <c r="D58" s="137">
         <v>4</v>
       </c>
-      <c r="E58" s="141" t="s">
+      <c r="E58" s="168" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="204">
+      <c r="B59" s="208">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="205"/>
-      <c r="D59" s="138">
+      <c r="C59" s="209"/>
+      <c r="D59" s="153">
         <f>SUM(D60:D71)</f>
         <v>43</v>
       </c>
-      <c r="E59" s="141"/>
+      <c r="E59" s="154"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="163"/>
@@ -14453,7 +14463,7 @@
       <c r="D60" s="165">
         <v>8</v>
       </c>
-      <c r="E60" s="167" t="s">
+      <c r="E60" s="128" t="s">
         <v>99</v>
       </c>
     </row>
@@ -14477,7 +14487,7 @@
       <c r="D62" s="165">
         <v>6</v>
       </c>
-      <c r="E62" s="167" t="s">
+      <c r="E62" s="128" t="s">
         <v>99</v>
       </c>
     </row>
@@ -14489,7 +14499,7 @@
       <c r="D63" s="165">
         <v>6</v>
       </c>
-      <c r="E63" s="167" t="s">
+      <c r="E63" s="128" t="s">
         <v>99</v>
       </c>
     </row>
@@ -14513,7 +14523,7 @@
       <c r="D65" s="165">
         <v>2</v>
       </c>
-      <c r="E65" s="167" t="s">
+      <c r="E65" s="128" t="s">
         <v>102</v>
       </c>
     </row>
@@ -14537,7 +14547,7 @@
       <c r="D67" s="165">
         <v>3</v>
       </c>
-      <c r="E67" s="167" t="s">
+      <c r="E67" s="128" t="s">
         <v>103</v>
       </c>
     </row>
@@ -14549,7 +14559,7 @@
       <c r="D68" s="165">
         <v>3</v>
       </c>
-      <c r="E68" s="167" t="s">
+      <c r="E68" s="128" t="s">
         <v>104</v>
       </c>
     </row>
@@ -14561,7 +14571,7 @@
       <c r="D69" s="165">
         <v>2</v>
       </c>
-      <c r="E69" s="167" t="s">
+      <c r="E69" s="128" t="s">
         <v>107</v>
       </c>
     </row>
@@ -14573,32 +14583,32 @@
       <c r="D70" s="165">
         <v>1</v>
       </c>
-      <c r="E70" s="167" t="s">
+      <c r="E70" s="128" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="163"/>
-      <c r="C71" s="164">
+    <row r="71" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="135"/>
+      <c r="C71" s="136">
         <v>28</v>
       </c>
-      <c r="D71" s="165">
+      <c r="D71" s="137">
         <v>1</v>
       </c>
-      <c r="E71" s="167" t="s">
+      <c r="E71" s="129" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="204">
+      <c r="B72" s="208">
         <v>2019.06</v>
       </c>
-      <c r="C72" s="205"/>
-      <c r="D72" s="138">
+      <c r="C72" s="209"/>
+      <c r="D72" s="153">
         <f>SUM(D73:D76)</f>
         <v>18</v>
       </c>
-      <c r="E72" s="141"/>
+      <c r="E72" s="154"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="163"/>
@@ -14608,7 +14618,7 @@
       <c r="D73" s="165">
         <v>8</v>
       </c>
-      <c r="E73" s="167" t="s">
+      <c r="E73" s="128" t="s">
         <v>111</v>
       </c>
     </row>
@@ -14620,7 +14630,7 @@
       <c r="D74" s="165">
         <v>6</v>
       </c>
-      <c r="E74" s="167" t="s">
+      <c r="E74" s="128" t="s">
         <v>99</v>
       </c>
     </row>
@@ -14632,30 +14642,30 @@
       <c r="D75" s="165">
         <v>2</v>
       </c>
-      <c r="E75" s="167" t="s">
+      <c r="E75" s="128" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="163"/>
-      <c r="C76" s="164">
+    <row r="76" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="135"/>
+      <c r="C76" s="136">
         <v>17</v>
       </c>
-      <c r="D76" s="165">
+      <c r="D76" s="137">
         <v>2</v>
       </c>
-      <c r="E76" s="167" t="s">
-        <v>113</v>
+      <c r="E76" s="129" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="204">
+      <c r="B77" s="206">
         <v>2019.07</v>
       </c>
-      <c r="C77" s="205"/>
+      <c r="C77" s="207"/>
       <c r="D77" s="138">
-        <f>SUM(D78:D81)</f>
-        <v>16</v>
+        <f>SUM(D78:D88)</f>
+        <v>38</v>
       </c>
       <c r="E77" s="141"/>
     </row>
@@ -14668,7 +14678,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="167" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
@@ -14680,7 +14690,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="167" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -14692,7 +14702,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="167" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -14704,7 +14714,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="167" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
@@ -14716,7 +14726,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="167" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
@@ -14728,20 +14738,32 @@
         <v>4</v>
       </c>
       <c r="E83" s="167" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="163"/>
-      <c r="C84" s="164"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="167"/>
+      <c r="C84" s="164">
+        <v>18</v>
+      </c>
+      <c r="D84" s="165">
+        <v>4</v>
+      </c>
+      <c r="E84" s="167" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="163"/>
-      <c r="C85" s="164"/>
-      <c r="D85" s="165"/>
-      <c r="E85" s="167"/>
+      <c r="C85" s="164">
+        <v>24</v>
+      </c>
+      <c r="D85" s="165">
+        <v>4</v>
+      </c>
+      <c r="E85" s="167" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="163"/>
@@ -14799,13 +14821,13 @@
     <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:4" s="170" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="171" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="172" t="s">
-        <v>115</v>
-      </c>
       <c r="D4" s="173" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="198" x14ac:dyDescent="0.3">
@@ -14813,17 +14835,17 @@
         <v>43634</v>
       </c>
       <c r="C5" s="175" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="154"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="214">
+      <c r="B6" s="187">
         <v>43661</v>
       </c>
       <c r="C6" s="167"/>
       <c r="D6" s="128" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,26 @@
   </si>
   <si>
     <t>Main PCB 배치 재검토 : ME 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB Gerber 작업 및 2D 자료 송부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶Main PCB 2D 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶V1.0 Gerber 및 PL 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPD V1.0 설계 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen CPU 회로 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1537,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1821,6 +1841,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1828,6 +1858,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1838,21 +1874,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1871,6 +1892,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1945,7 +1975,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2032,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2089,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2146,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2203,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2260,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2317,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2374,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2431,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2488,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2545,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2602,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2659,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2716,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2773,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2830,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,7 +2887,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,11 +3216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LW47"/>
+  <dimension ref="A1:NC47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KO19" sqref="KO19"/>
+      <pane xSplit="1" topLeftCell="KQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="MT16" sqref="MT16:MT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3211,391 +3241,424 @@
     <col min="183" max="16384" width="2.625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:335" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:367" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:335" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:367" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:335" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:367" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:335" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:367" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:335" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:367" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:335" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:367" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="203">
+      <c r="B6" s="208">
         <v>9</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-      <c r="AA6" s="204"/>
-      <c r="AB6" s="204"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="205"/>
-      <c r="AF6" s="200">
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="209"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="209"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="209"/>
+      <c r="U6" s="209"/>
+      <c r="V6" s="209"/>
+      <c r="W6" s="209"/>
+      <c r="X6" s="209"/>
+      <c r="Y6" s="209"/>
+      <c r="Z6" s="209"/>
+      <c r="AA6" s="209"/>
+      <c r="AB6" s="209"/>
+      <c r="AC6" s="209"/>
+      <c r="AD6" s="209"/>
+      <c r="AE6" s="210"/>
+      <c r="AF6" s="205">
         <v>10</v>
       </c>
-      <c r="AG6" s="200"/>
-      <c r="AH6" s="200"/>
-      <c r="AI6" s="200"/>
-      <c r="AJ6" s="200"/>
-      <c r="AK6" s="200"/>
-      <c r="AL6" s="200"/>
-      <c r="AM6" s="200"/>
-      <c r="AN6" s="200"/>
-      <c r="AO6" s="200"/>
-      <c r="AP6" s="200"/>
-      <c r="AQ6" s="200"/>
-      <c r="AR6" s="200"/>
-      <c r="AS6" s="200"/>
-      <c r="AT6" s="200"/>
-      <c r="AU6" s="200"/>
-      <c r="AV6" s="200"/>
-      <c r="AW6" s="200"/>
-      <c r="AX6" s="200"/>
-      <c r="AY6" s="200"/>
-      <c r="AZ6" s="200"/>
-      <c r="BA6" s="200"/>
-      <c r="BB6" s="200"/>
-      <c r="BC6" s="200"/>
-      <c r="BD6" s="200"/>
-      <c r="BE6" s="200"/>
-      <c r="BF6" s="200"/>
-      <c r="BG6" s="200"/>
-      <c r="BH6" s="200"/>
-      <c r="BI6" s="200"/>
-      <c r="BJ6" s="201"/>
-      <c r="BK6" s="203">
+      <c r="AG6" s="205"/>
+      <c r="AH6" s="205"/>
+      <c r="AI6" s="205"/>
+      <c r="AJ6" s="205"/>
+      <c r="AK6" s="205"/>
+      <c r="AL6" s="205"/>
+      <c r="AM6" s="205"/>
+      <c r="AN6" s="205"/>
+      <c r="AO6" s="205"/>
+      <c r="AP6" s="205"/>
+      <c r="AQ6" s="205"/>
+      <c r="AR6" s="205"/>
+      <c r="AS6" s="205"/>
+      <c r="AT6" s="205"/>
+      <c r="AU6" s="205"/>
+      <c r="AV6" s="205"/>
+      <c r="AW6" s="205"/>
+      <c r="AX6" s="205"/>
+      <c r="AY6" s="205"/>
+      <c r="AZ6" s="205"/>
+      <c r="BA6" s="205"/>
+      <c r="BB6" s="205"/>
+      <c r="BC6" s="205"/>
+      <c r="BD6" s="205"/>
+      <c r="BE6" s="205"/>
+      <c r="BF6" s="205"/>
+      <c r="BG6" s="205"/>
+      <c r="BH6" s="205"/>
+      <c r="BI6" s="205"/>
+      <c r="BJ6" s="206"/>
+      <c r="BK6" s="208">
         <v>11</v>
       </c>
-      <c r="BL6" s="204"/>
-      <c r="BM6" s="204"/>
-      <c r="BN6" s="204"/>
-      <c r="BO6" s="204"/>
-      <c r="BP6" s="204"/>
-      <c r="BQ6" s="204"/>
-      <c r="BR6" s="204"/>
-      <c r="BS6" s="204"/>
-      <c r="BT6" s="204"/>
-      <c r="BU6" s="204"/>
-      <c r="BV6" s="204"/>
-      <c r="BW6" s="204"/>
-      <c r="BX6" s="204"/>
-      <c r="BY6" s="204"/>
-      <c r="BZ6" s="204"/>
-      <c r="CA6" s="204"/>
-      <c r="CB6" s="204"/>
-      <c r="CC6" s="204"/>
-      <c r="CD6" s="204"/>
-      <c r="CE6" s="204"/>
-      <c r="CF6" s="204"/>
-      <c r="CG6" s="204"/>
-      <c r="CH6" s="204"/>
-      <c r="CI6" s="204"/>
-      <c r="CJ6" s="204"/>
-      <c r="CK6" s="204"/>
-      <c r="CL6" s="204"/>
-      <c r="CM6" s="204"/>
-      <c r="CN6" s="205"/>
-      <c r="CO6" s="200">
+      <c r="BL6" s="209"/>
+      <c r="BM6" s="209"/>
+      <c r="BN6" s="209"/>
+      <c r="BO6" s="209"/>
+      <c r="BP6" s="209"/>
+      <c r="BQ6" s="209"/>
+      <c r="BR6" s="209"/>
+      <c r="BS6" s="209"/>
+      <c r="BT6" s="209"/>
+      <c r="BU6" s="209"/>
+      <c r="BV6" s="209"/>
+      <c r="BW6" s="209"/>
+      <c r="BX6" s="209"/>
+      <c r="BY6" s="209"/>
+      <c r="BZ6" s="209"/>
+      <c r="CA6" s="209"/>
+      <c r="CB6" s="209"/>
+      <c r="CC6" s="209"/>
+      <c r="CD6" s="209"/>
+      <c r="CE6" s="209"/>
+      <c r="CF6" s="209"/>
+      <c r="CG6" s="209"/>
+      <c r="CH6" s="209"/>
+      <c r="CI6" s="209"/>
+      <c r="CJ6" s="209"/>
+      <c r="CK6" s="209"/>
+      <c r="CL6" s="209"/>
+      <c r="CM6" s="209"/>
+      <c r="CN6" s="210"/>
+      <c r="CO6" s="205">
         <v>12</v>
       </c>
-      <c r="CP6" s="200"/>
-      <c r="CQ6" s="200"/>
-      <c r="CR6" s="200"/>
-      <c r="CS6" s="200"/>
-      <c r="CT6" s="200"/>
-      <c r="CU6" s="200"/>
-      <c r="CV6" s="200"/>
-      <c r="CW6" s="200"/>
-      <c r="CX6" s="200"/>
-      <c r="CY6" s="200"/>
-      <c r="CZ6" s="200"/>
-      <c r="DA6" s="200"/>
-      <c r="DB6" s="200"/>
-      <c r="DC6" s="200"/>
-      <c r="DD6" s="200"/>
-      <c r="DE6" s="200"/>
-      <c r="DF6" s="200"/>
-      <c r="DG6" s="200"/>
-      <c r="DH6" s="200"/>
-      <c r="DI6" s="200"/>
-      <c r="DJ6" s="200"/>
-      <c r="DK6" s="200"/>
-      <c r="DL6" s="200"/>
-      <c r="DM6" s="200"/>
-      <c r="DN6" s="200"/>
-      <c r="DO6" s="200"/>
-      <c r="DP6" s="200"/>
-      <c r="DQ6" s="200"/>
-      <c r="DR6" s="200"/>
-      <c r="DS6" s="201"/>
-      <c r="DT6" s="200">
+      <c r="CP6" s="205"/>
+      <c r="CQ6" s="205"/>
+      <c r="CR6" s="205"/>
+      <c r="CS6" s="205"/>
+      <c r="CT6" s="205"/>
+      <c r="CU6" s="205"/>
+      <c r="CV6" s="205"/>
+      <c r="CW6" s="205"/>
+      <c r="CX6" s="205"/>
+      <c r="CY6" s="205"/>
+      <c r="CZ6" s="205"/>
+      <c r="DA6" s="205"/>
+      <c r="DB6" s="205"/>
+      <c r="DC6" s="205"/>
+      <c r="DD6" s="205"/>
+      <c r="DE6" s="205"/>
+      <c r="DF6" s="205"/>
+      <c r="DG6" s="205"/>
+      <c r="DH6" s="205"/>
+      <c r="DI6" s="205"/>
+      <c r="DJ6" s="205"/>
+      <c r="DK6" s="205"/>
+      <c r="DL6" s="205"/>
+      <c r="DM6" s="205"/>
+      <c r="DN6" s="205"/>
+      <c r="DO6" s="205"/>
+      <c r="DP6" s="205"/>
+      <c r="DQ6" s="205"/>
+      <c r="DR6" s="205"/>
+      <c r="DS6" s="206"/>
+      <c r="DT6" s="205">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="200"/>
-      <c r="DV6" s="200"/>
-      <c r="DW6" s="200"/>
-      <c r="DX6" s="200"/>
-      <c r="DY6" s="200"/>
-      <c r="DZ6" s="200"/>
-      <c r="EA6" s="200"/>
-      <c r="EB6" s="200"/>
-      <c r="EC6" s="200"/>
-      <c r="ED6" s="200"/>
-      <c r="EE6" s="200"/>
-      <c r="EF6" s="200"/>
-      <c r="EG6" s="200"/>
-      <c r="EH6" s="200"/>
-      <c r="EI6" s="200"/>
-      <c r="EJ6" s="200"/>
-      <c r="EK6" s="200"/>
-      <c r="EL6" s="200"/>
-      <c r="EM6" s="200"/>
-      <c r="EN6" s="200"/>
-      <c r="EO6" s="200"/>
-      <c r="EP6" s="200"/>
-      <c r="EQ6" s="200"/>
-      <c r="ER6" s="200"/>
-      <c r="ES6" s="200"/>
-      <c r="ET6" s="200"/>
-      <c r="EU6" s="200"/>
-      <c r="EV6" s="200"/>
-      <c r="EW6" s="200"/>
-      <c r="EX6" s="201"/>
-      <c r="EY6" s="202">
+      <c r="DU6" s="205"/>
+      <c r="DV6" s="205"/>
+      <c r="DW6" s="205"/>
+      <c r="DX6" s="205"/>
+      <c r="DY6" s="205"/>
+      <c r="DZ6" s="205"/>
+      <c r="EA6" s="205"/>
+      <c r="EB6" s="205"/>
+      <c r="EC6" s="205"/>
+      <c r="ED6" s="205"/>
+      <c r="EE6" s="205"/>
+      <c r="EF6" s="205"/>
+      <c r="EG6" s="205"/>
+      <c r="EH6" s="205"/>
+      <c r="EI6" s="205"/>
+      <c r="EJ6" s="205"/>
+      <c r="EK6" s="205"/>
+      <c r="EL6" s="205"/>
+      <c r="EM6" s="205"/>
+      <c r="EN6" s="205"/>
+      <c r="EO6" s="205"/>
+      <c r="EP6" s="205"/>
+      <c r="EQ6" s="205"/>
+      <c r="ER6" s="205"/>
+      <c r="ES6" s="205"/>
+      <c r="ET6" s="205"/>
+      <c r="EU6" s="205"/>
+      <c r="EV6" s="205"/>
+      <c r="EW6" s="205"/>
+      <c r="EX6" s="206"/>
+      <c r="EY6" s="207">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="200"/>
-      <c r="FA6" s="200"/>
-      <c r="FB6" s="200"/>
-      <c r="FC6" s="200"/>
-      <c r="FD6" s="200"/>
-      <c r="FE6" s="200"/>
-      <c r="FF6" s="200"/>
-      <c r="FG6" s="200"/>
-      <c r="FH6" s="200"/>
-      <c r="FI6" s="200"/>
-      <c r="FJ6" s="200"/>
-      <c r="FK6" s="200"/>
-      <c r="FL6" s="200"/>
-      <c r="FM6" s="200"/>
-      <c r="FN6" s="200"/>
-      <c r="FO6" s="200"/>
-      <c r="FP6" s="200"/>
-      <c r="FQ6" s="200"/>
-      <c r="FR6" s="200"/>
-      <c r="FS6" s="200"/>
-      <c r="FT6" s="200"/>
-      <c r="FU6" s="200"/>
-      <c r="FV6" s="200"/>
-      <c r="FW6" s="200"/>
-      <c r="FX6" s="200"/>
-      <c r="FY6" s="200"/>
-      <c r="FZ6" s="201"/>
-      <c r="GA6" s="196">
+      <c r="EZ6" s="205"/>
+      <c r="FA6" s="205"/>
+      <c r="FB6" s="205"/>
+      <c r="FC6" s="205"/>
+      <c r="FD6" s="205"/>
+      <c r="FE6" s="205"/>
+      <c r="FF6" s="205"/>
+      <c r="FG6" s="205"/>
+      <c r="FH6" s="205"/>
+      <c r="FI6" s="205"/>
+      <c r="FJ6" s="205"/>
+      <c r="FK6" s="205"/>
+      <c r="FL6" s="205"/>
+      <c r="FM6" s="205"/>
+      <c r="FN6" s="205"/>
+      <c r="FO6" s="205"/>
+      <c r="FP6" s="205"/>
+      <c r="FQ6" s="205"/>
+      <c r="FR6" s="205"/>
+      <c r="FS6" s="205"/>
+      <c r="FT6" s="205"/>
+      <c r="FU6" s="205"/>
+      <c r="FV6" s="205"/>
+      <c r="FW6" s="205"/>
+      <c r="FX6" s="205"/>
+      <c r="FY6" s="205"/>
+      <c r="FZ6" s="206"/>
+      <c r="GA6" s="201">
         <v>3</v>
       </c>
-      <c r="GB6" s="196"/>
-      <c r="GC6" s="196"/>
-      <c r="GD6" s="196"/>
-      <c r="GE6" s="196"/>
-      <c r="GF6" s="196"/>
-      <c r="GG6" s="196"/>
-      <c r="GH6" s="196"/>
-      <c r="GI6" s="196"/>
-      <c r="GJ6" s="196"/>
-      <c r="GK6" s="196"/>
-      <c r="GL6" s="196"/>
-      <c r="GM6" s="196"/>
-      <c r="GN6" s="196"/>
-      <c r="GO6" s="196"/>
-      <c r="GP6" s="196"/>
-      <c r="GQ6" s="196"/>
-      <c r="GR6" s="196"/>
-      <c r="GS6" s="196"/>
-      <c r="GT6" s="196"/>
-      <c r="GU6" s="196"/>
-      <c r="GV6" s="196"/>
-      <c r="GW6" s="196"/>
-      <c r="GX6" s="196"/>
-      <c r="GY6" s="196"/>
-      <c r="GZ6" s="196"/>
-      <c r="HA6" s="196"/>
-      <c r="HB6" s="196"/>
-      <c r="HC6" s="196"/>
-      <c r="HD6" s="196"/>
-      <c r="HE6" s="196"/>
-      <c r="HF6" s="192">
+      <c r="GB6" s="201"/>
+      <c r="GC6" s="201"/>
+      <c r="GD6" s="201"/>
+      <c r="GE6" s="201"/>
+      <c r="GF6" s="201"/>
+      <c r="GG6" s="201"/>
+      <c r="GH6" s="201"/>
+      <c r="GI6" s="201"/>
+      <c r="GJ6" s="201"/>
+      <c r="GK6" s="201"/>
+      <c r="GL6" s="201"/>
+      <c r="GM6" s="201"/>
+      <c r="GN6" s="201"/>
+      <c r="GO6" s="201"/>
+      <c r="GP6" s="201"/>
+      <c r="GQ6" s="201"/>
+      <c r="GR6" s="201"/>
+      <c r="GS6" s="201"/>
+      <c r="GT6" s="201"/>
+      <c r="GU6" s="201"/>
+      <c r="GV6" s="201"/>
+      <c r="GW6" s="201"/>
+      <c r="GX6" s="201"/>
+      <c r="GY6" s="201"/>
+      <c r="GZ6" s="201"/>
+      <c r="HA6" s="201"/>
+      <c r="HB6" s="201"/>
+      <c r="HC6" s="201"/>
+      <c r="HD6" s="201"/>
+      <c r="HE6" s="201"/>
+      <c r="HF6" s="202">
         <v>4</v>
       </c>
-      <c r="HG6" s="193"/>
-      <c r="HH6" s="193"/>
-      <c r="HI6" s="193"/>
-      <c r="HJ6" s="193"/>
-      <c r="HK6" s="193"/>
-      <c r="HL6" s="193"/>
-      <c r="HM6" s="193"/>
-      <c r="HN6" s="193"/>
-      <c r="HO6" s="193"/>
-      <c r="HP6" s="193"/>
-      <c r="HQ6" s="193"/>
-      <c r="HR6" s="193"/>
-      <c r="HS6" s="193"/>
-      <c r="HT6" s="193"/>
-      <c r="HU6" s="193"/>
-      <c r="HV6" s="193"/>
-      <c r="HW6" s="193"/>
-      <c r="HX6" s="193"/>
-      <c r="HY6" s="193"/>
-      <c r="HZ6" s="193"/>
-      <c r="IA6" s="193"/>
-      <c r="IB6" s="193"/>
-      <c r="IC6" s="193"/>
-      <c r="ID6" s="193"/>
-      <c r="IE6" s="193"/>
-      <c r="IF6" s="193"/>
-      <c r="IG6" s="193"/>
-      <c r="IH6" s="193"/>
-      <c r="II6" s="194"/>
-      <c r="IJ6" s="195">
+      <c r="HG6" s="203"/>
+      <c r="HH6" s="203"/>
+      <c r="HI6" s="203"/>
+      <c r="HJ6" s="203"/>
+      <c r="HK6" s="203"/>
+      <c r="HL6" s="203"/>
+      <c r="HM6" s="203"/>
+      <c r="HN6" s="203"/>
+      <c r="HO6" s="203"/>
+      <c r="HP6" s="203"/>
+      <c r="HQ6" s="203"/>
+      <c r="HR6" s="203"/>
+      <c r="HS6" s="203"/>
+      <c r="HT6" s="203"/>
+      <c r="HU6" s="203"/>
+      <c r="HV6" s="203"/>
+      <c r="HW6" s="203"/>
+      <c r="HX6" s="203"/>
+      <c r="HY6" s="203"/>
+      <c r="HZ6" s="203"/>
+      <c r="IA6" s="203"/>
+      <c r="IB6" s="203"/>
+      <c r="IC6" s="203"/>
+      <c r="ID6" s="203"/>
+      <c r="IE6" s="203"/>
+      <c r="IF6" s="203"/>
+      <c r="IG6" s="203"/>
+      <c r="IH6" s="203"/>
+      <c r="II6" s="204"/>
+      <c r="IJ6" s="211">
         <v>5</v>
       </c>
-      <c r="IK6" s="196"/>
-      <c r="IL6" s="196"/>
-      <c r="IM6" s="196"/>
-      <c r="IN6" s="196"/>
-      <c r="IO6" s="196"/>
-      <c r="IP6" s="196"/>
-      <c r="IQ6" s="196"/>
-      <c r="IR6" s="196"/>
-      <c r="IS6" s="196"/>
-      <c r="IT6" s="196"/>
-      <c r="IU6" s="196"/>
-      <c r="IV6" s="196"/>
-      <c r="IW6" s="196"/>
-      <c r="IX6" s="196"/>
-      <c r="IY6" s="196"/>
-      <c r="IZ6" s="196"/>
-      <c r="JA6" s="196"/>
-      <c r="JB6" s="196"/>
-      <c r="JC6" s="196"/>
-      <c r="JD6" s="196"/>
-      <c r="JE6" s="196"/>
-      <c r="JF6" s="196"/>
-      <c r="JG6" s="196"/>
-      <c r="JH6" s="196"/>
-      <c r="JI6" s="196"/>
-      <c r="JJ6" s="196"/>
-      <c r="JK6" s="196"/>
-      <c r="JL6" s="196"/>
-      <c r="JM6" s="196"/>
-      <c r="JN6" s="197"/>
-      <c r="JO6" s="192">
+      <c r="IK6" s="201"/>
+      <c r="IL6" s="201"/>
+      <c r="IM6" s="201"/>
+      <c r="IN6" s="201"/>
+      <c r="IO6" s="201"/>
+      <c r="IP6" s="201"/>
+      <c r="IQ6" s="201"/>
+      <c r="IR6" s="201"/>
+      <c r="IS6" s="201"/>
+      <c r="IT6" s="201"/>
+      <c r="IU6" s="201"/>
+      <c r="IV6" s="201"/>
+      <c r="IW6" s="201"/>
+      <c r="IX6" s="201"/>
+      <c r="IY6" s="201"/>
+      <c r="IZ6" s="201"/>
+      <c r="JA6" s="201"/>
+      <c r="JB6" s="201"/>
+      <c r="JC6" s="201"/>
+      <c r="JD6" s="201"/>
+      <c r="JE6" s="201"/>
+      <c r="JF6" s="201"/>
+      <c r="JG6" s="201"/>
+      <c r="JH6" s="201"/>
+      <c r="JI6" s="201"/>
+      <c r="JJ6" s="201"/>
+      <c r="JK6" s="201"/>
+      <c r="JL6" s="201"/>
+      <c r="JM6" s="201"/>
+      <c r="JN6" s="212"/>
+      <c r="JO6" s="202">
         <v>6</v>
       </c>
-      <c r="JP6" s="193"/>
-      <c r="JQ6" s="193"/>
-      <c r="JR6" s="193"/>
-      <c r="JS6" s="193"/>
-      <c r="JT6" s="193"/>
-      <c r="JU6" s="193"/>
-      <c r="JV6" s="193"/>
-      <c r="JW6" s="193"/>
-      <c r="JX6" s="193"/>
-      <c r="JY6" s="193"/>
-      <c r="JZ6" s="193"/>
-      <c r="KA6" s="193"/>
-      <c r="KB6" s="193"/>
-      <c r="KC6" s="193"/>
-      <c r="KD6" s="193"/>
-      <c r="KE6" s="193"/>
-      <c r="KF6" s="193"/>
-      <c r="KG6" s="193"/>
-      <c r="KH6" s="193"/>
-      <c r="KI6" s="193"/>
-      <c r="KJ6" s="193"/>
-      <c r="KK6" s="193"/>
-      <c r="KL6" s="193"/>
-      <c r="KM6" s="193"/>
-      <c r="KN6" s="193"/>
-      <c r="KO6" s="193"/>
-      <c r="KP6" s="193"/>
-      <c r="KQ6" s="193"/>
-      <c r="KR6" s="194"/>
-      <c r="KS6" s="189">
+      <c r="JP6" s="203"/>
+      <c r="JQ6" s="203"/>
+      <c r="JR6" s="203"/>
+      <c r="JS6" s="203"/>
+      <c r="JT6" s="203"/>
+      <c r="JU6" s="203"/>
+      <c r="JV6" s="203"/>
+      <c r="JW6" s="203"/>
+      <c r="JX6" s="203"/>
+      <c r="JY6" s="203"/>
+      <c r="JZ6" s="203"/>
+      <c r="KA6" s="203"/>
+      <c r="KB6" s="203"/>
+      <c r="KC6" s="203"/>
+      <c r="KD6" s="203"/>
+      <c r="KE6" s="203"/>
+      <c r="KF6" s="203"/>
+      <c r="KG6" s="203"/>
+      <c r="KH6" s="203"/>
+      <c r="KI6" s="203"/>
+      <c r="KJ6" s="203"/>
+      <c r="KK6" s="203"/>
+      <c r="KL6" s="203"/>
+      <c r="KM6" s="203"/>
+      <c r="KN6" s="203"/>
+      <c r="KO6" s="203"/>
+      <c r="KP6" s="203"/>
+      <c r="KQ6" s="203"/>
+      <c r="KR6" s="204"/>
+      <c r="KS6" s="197">
         <v>7</v>
       </c>
-      <c r="KT6" s="190"/>
-      <c r="KU6" s="190"/>
-      <c r="KV6" s="190"/>
-      <c r="KW6" s="190"/>
-      <c r="KX6" s="190"/>
-      <c r="KY6" s="190"/>
-      <c r="KZ6" s="190"/>
-      <c r="LA6" s="190"/>
-      <c r="LB6" s="190"/>
-      <c r="LC6" s="190"/>
-      <c r="LD6" s="190"/>
-      <c r="LE6" s="190"/>
-      <c r="LF6" s="190"/>
-      <c r="LG6" s="190"/>
-      <c r="LH6" s="190"/>
-      <c r="LI6" s="190"/>
-      <c r="LJ6" s="190"/>
-      <c r="LK6" s="190"/>
-      <c r="LL6" s="190"/>
-      <c r="LM6" s="190"/>
-      <c r="LN6" s="190"/>
-      <c r="LO6" s="190"/>
-      <c r="LP6" s="190"/>
-      <c r="LQ6" s="190"/>
-      <c r="LR6" s="190"/>
-      <c r="LS6" s="190"/>
-      <c r="LT6" s="190"/>
-      <c r="LU6" s="190"/>
-      <c r="LV6" s="190"/>
-      <c r="LW6" s="191"/>
+      <c r="KT6" s="198"/>
+      <c r="KU6" s="198"/>
+      <c r="KV6" s="198"/>
+      <c r="KW6" s="198"/>
+      <c r="KX6" s="198"/>
+      <c r="KY6" s="198"/>
+      <c r="KZ6" s="198"/>
+      <c r="LA6" s="198"/>
+      <c r="LB6" s="198"/>
+      <c r="LC6" s="198"/>
+      <c r="LD6" s="198"/>
+      <c r="LE6" s="198"/>
+      <c r="LF6" s="198"/>
+      <c r="LG6" s="198"/>
+      <c r="LH6" s="198"/>
+      <c r="LI6" s="198"/>
+      <c r="LJ6" s="198"/>
+      <c r="LK6" s="198"/>
+      <c r="LL6" s="198"/>
+      <c r="LM6" s="198"/>
+      <c r="LN6" s="198"/>
+      <c r="LO6" s="198"/>
+      <c r="LP6" s="198"/>
+      <c r="LQ6" s="198"/>
+      <c r="LR6" s="198"/>
+      <c r="LS6" s="198"/>
+      <c r="LT6" s="198"/>
+      <c r="LU6" s="198"/>
+      <c r="LV6" s="198"/>
+      <c r="LW6" s="199"/>
+      <c r="LX6" s="197">
+        <v>7</v>
+      </c>
+      <c r="LY6" s="198"/>
+      <c r="LZ6" s="198"/>
+      <c r="MA6" s="198"/>
+      <c r="MB6" s="198"/>
+      <c r="MC6" s="198"/>
+      <c r="MD6" s="198"/>
+      <c r="ME6" s="198"/>
+      <c r="MF6" s="198"/>
+      <c r="MG6" s="198"/>
+      <c r="MH6" s="198"/>
+      <c r="MI6" s="198"/>
+      <c r="MJ6" s="198"/>
+      <c r="MK6" s="198"/>
+      <c r="ML6" s="198"/>
+      <c r="MM6" s="198"/>
+      <c r="MN6" s="198"/>
+      <c r="MO6" s="198"/>
+      <c r="MP6" s="198"/>
+      <c r="MQ6" s="198"/>
+      <c r="MR6" s="198"/>
+      <c r="MS6" s="198"/>
+      <c r="MT6" s="198"/>
+      <c r="MU6" s="198"/>
+      <c r="MV6" s="198"/>
+      <c r="MW6" s="198"/>
+      <c r="MX6" s="198"/>
+      <c r="MY6" s="198"/>
+      <c r="MZ6" s="198"/>
+      <c r="NA6" s="198"/>
+      <c r="NB6" s="199"/>
     </row>
-    <row r="7" spans="1:335" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:367" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
       <c r="B7" s="55">
         <v>1</v>
@@ -4599,9 +4662,102 @@
       <c r="LW7" s="121">
         <v>31</v>
       </c>
+      <c r="LX7" s="120">
+        <v>1</v>
+      </c>
+      <c r="LY7" s="119">
+        <v>2</v>
+      </c>
+      <c r="LZ7" s="188">
+        <v>3</v>
+      </c>
+      <c r="MA7" s="188">
+        <v>4</v>
+      </c>
+      <c r="MB7" s="119">
+        <v>5</v>
+      </c>
+      <c r="MC7" s="119">
+        <v>6</v>
+      </c>
+      <c r="MD7" s="119">
+        <v>7</v>
+      </c>
+      <c r="ME7" s="119">
+        <v>8</v>
+      </c>
+      <c r="MF7" s="119">
+        <v>9</v>
+      </c>
+      <c r="MG7" s="188">
+        <v>10</v>
+      </c>
+      <c r="MH7" s="188">
+        <v>11</v>
+      </c>
+      <c r="MI7" s="119">
+        <v>12</v>
+      </c>
+      <c r="MJ7" s="119">
+        <v>13</v>
+      </c>
+      <c r="MK7" s="119">
+        <v>14</v>
+      </c>
+      <c r="ML7" s="119">
+        <v>15</v>
+      </c>
+      <c r="MM7" s="119">
+        <v>16</v>
+      </c>
+      <c r="MN7" s="188">
+        <v>17</v>
+      </c>
+      <c r="MO7" s="188">
+        <v>18</v>
+      </c>
+      <c r="MP7" s="119">
+        <v>19</v>
+      </c>
+      <c r="MQ7" s="119">
+        <v>20</v>
+      </c>
+      <c r="MR7" s="119">
+        <v>21</v>
+      </c>
+      <c r="MS7" s="119">
+        <v>22</v>
+      </c>
+      <c r="MT7" s="119">
+        <v>23</v>
+      </c>
+      <c r="MU7" s="188">
+        <v>24</v>
+      </c>
+      <c r="MV7" s="188">
+        <v>25</v>
+      </c>
+      <c r="MW7" s="119">
+        <v>26</v>
+      </c>
+      <c r="MX7" s="119">
+        <v>27</v>
+      </c>
+      <c r="MY7" s="119">
+        <v>28</v>
+      </c>
+      <c r="MZ7" s="119">
+        <v>29</v>
+      </c>
+      <c r="NA7" s="119">
+        <v>30</v>
+      </c>
+      <c r="NB7" s="189">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="198" t="s">
+    <row r="8" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="200" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -4950,9 +5106,40 @@
       <c r="LU8" s="8"/>
       <c r="LV8" s="8"/>
       <c r="LW8" s="8"/>
+      <c r="LX8" s="21"/>
+      <c r="LY8" s="8"/>
+      <c r="LZ8" s="10"/>
+      <c r="MA8" s="41"/>
+      <c r="MB8" s="8"/>
+      <c r="MC8" s="8"/>
+      <c r="MD8" s="8"/>
+      <c r="ME8" s="8"/>
+      <c r="MF8" s="8"/>
+      <c r="MG8" s="10"/>
+      <c r="MH8" s="41"/>
+      <c r="MI8" s="8"/>
+      <c r="MJ8" s="8"/>
+      <c r="MK8" s="8"/>
+      <c r="ML8" s="8"/>
+      <c r="MM8" s="8"/>
+      <c r="MN8" s="10"/>
+      <c r="MO8" s="41"/>
+      <c r="MP8" s="8"/>
+      <c r="MQ8" s="8"/>
+      <c r="MR8" s="8"/>
+      <c r="MS8" s="8"/>
+      <c r="MT8" s="8"/>
+      <c r="MU8" s="10"/>
+      <c r="MV8" s="41"/>
+      <c r="MW8" s="8"/>
+      <c r="MX8" s="8"/>
+      <c r="MY8" s="8"/>
+      <c r="MZ8" s="8"/>
+      <c r="NA8" s="8"/>
+      <c r="NB8" s="10"/>
     </row>
-    <row r="9" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="198"/>
+    <row r="9" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="200"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -5303,9 +5490,40 @@
       <c r="LU9" s="5"/>
       <c r="LV9" s="5"/>
       <c r="LW9" s="5"/>
+      <c r="LX9" s="16"/>
+      <c r="LY9" s="5"/>
+      <c r="LZ9" s="6"/>
+      <c r="MA9" s="6"/>
+      <c r="MB9" s="5"/>
+      <c r="MC9" s="5"/>
+      <c r="MD9" s="5"/>
+      <c r="ME9" s="5"/>
+      <c r="MF9" s="5"/>
+      <c r="MG9" s="6"/>
+      <c r="MH9" s="6"/>
+      <c r="MI9" s="5"/>
+      <c r="MJ9" s="5"/>
+      <c r="MK9" s="5"/>
+      <c r="ML9" s="5"/>
+      <c r="MM9" s="5"/>
+      <c r="MN9" s="6"/>
+      <c r="MO9" s="6"/>
+      <c r="MP9" s="5"/>
+      <c r="MQ9" s="5"/>
+      <c r="MR9" s="5"/>
+      <c r="MS9" s="5"/>
+      <c r="MT9" s="5"/>
+      <c r="MU9" s="6"/>
+      <c r="MV9" s="6"/>
+      <c r="MW9" s="5"/>
+      <c r="MX9" s="5"/>
+      <c r="MY9" s="5"/>
+      <c r="MZ9" s="5"/>
+      <c r="NA9" s="5"/>
+      <c r="NB9" s="6"/>
     </row>
-    <row r="10" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="198"/>
+    <row r="10" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="200"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -5648,9 +5866,41 @@
       <c r="LU10" s="5"/>
       <c r="LV10" s="5"/>
       <c r="LW10" s="7"/>
+      <c r="LX10" s="5"/>
+      <c r="LY10" s="5"/>
+      <c r="LZ10" s="6"/>
+      <c r="MA10" s="6"/>
+      <c r="MB10" s="5"/>
+      <c r="MC10" s="5"/>
+      <c r="MD10" s="5"/>
+      <c r="ME10" s="5"/>
+      <c r="MF10" s="5"/>
+      <c r="MG10" s="6"/>
+      <c r="MH10" s="6"/>
+      <c r="MI10" s="5"/>
+      <c r="MJ10" s="5"/>
+      <c r="MK10" s="5"/>
+      <c r="ML10" s="5"/>
+      <c r="MM10" s="5"/>
+      <c r="MN10" s="6"/>
+      <c r="MO10" s="6"/>
+      <c r="MP10" s="5"/>
+      <c r="MQ10" s="5"/>
+      <c r="MR10" s="5"/>
+      <c r="MS10" s="5"/>
+      <c r="MT10" s="5"/>
+      <c r="MU10" s="6"/>
+      <c r="MV10" s="6"/>
+      <c r="MW10" s="5"/>
+      <c r="MX10" s="5"/>
+      <c r="MY10" s="5"/>
+      <c r="MZ10" s="5"/>
+      <c r="NA10" s="5"/>
+      <c r="NB10" s="6"/>
+      <c r="NC10" s="6"/>
     </row>
-    <row r="11" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="198"/>
+    <row r="11" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="200"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -5995,9 +6245,40 @@
       <c r="LU11" s="5"/>
       <c r="LV11" s="5"/>
       <c r="LW11" s="7"/>
+      <c r="LX11" s="5"/>
+      <c r="LY11" s="5"/>
+      <c r="LZ11" s="6"/>
+      <c r="MA11" s="6"/>
+      <c r="MB11" s="5"/>
+      <c r="MC11" s="5"/>
+      <c r="MD11" s="5"/>
+      <c r="ME11" s="5"/>
+      <c r="MF11" s="5"/>
+      <c r="MG11" s="6"/>
+      <c r="MH11" s="6"/>
+      <c r="MI11" s="5"/>
+      <c r="MJ11" s="5"/>
+      <c r="MK11" s="5"/>
+      <c r="ML11" s="5"/>
+      <c r="MM11" s="5"/>
+      <c r="MN11" s="6"/>
+      <c r="MO11" s="6"/>
+      <c r="MP11" s="5"/>
+      <c r="MQ11" s="5"/>
+      <c r="MR11" s="5"/>
+      <c r="MS11" s="5"/>
+      <c r="MT11" s="5"/>
+      <c r="MU11" s="6"/>
+      <c r="MV11" s="6"/>
+      <c r="MW11" s="5"/>
+      <c r="MX11" s="5"/>
+      <c r="MY11" s="5"/>
+      <c r="MZ11" s="5"/>
+      <c r="NA11" s="5"/>
+      <c r="NB11" s="190"/>
     </row>
-    <row r="12" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="198"/>
+    <row r="12" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="200"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -6340,9 +6621,40 @@
       <c r="LU12" s="5"/>
       <c r="LV12" s="5"/>
       <c r="LW12" s="7"/>
+      <c r="LX12" s="16"/>
+      <c r="LY12" s="5"/>
+      <c r="LZ12" s="6"/>
+      <c r="MA12" s="6"/>
+      <c r="MB12" s="5"/>
+      <c r="MC12" s="5"/>
+      <c r="MD12" s="5"/>
+      <c r="ME12" s="5"/>
+      <c r="MF12" s="5"/>
+      <c r="MG12" s="6"/>
+      <c r="MH12" s="6"/>
+      <c r="MI12" s="5"/>
+      <c r="MJ12" s="5"/>
+      <c r="MK12" s="5"/>
+      <c r="ML12" s="5"/>
+      <c r="MM12" s="5"/>
+      <c r="MN12" s="6"/>
+      <c r="MO12" s="6"/>
+      <c r="MP12" s="5"/>
+      <c r="MQ12" s="5"/>
+      <c r="MR12" s="5"/>
+      <c r="MS12" s="5"/>
+      <c r="MT12" s="5"/>
+      <c r="MU12" s="6"/>
+      <c r="MV12" s="6"/>
+      <c r="MW12" s="5"/>
+      <c r="MX12" s="5"/>
+      <c r="MY12" s="5"/>
+      <c r="MZ12" s="5"/>
+      <c r="NA12" s="5"/>
+      <c r="NB12" s="190"/>
     </row>
-    <row r="13" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="198"/>
+    <row r="13" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="200"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -6681,9 +6993,40 @@
       <c r="LU13" s="5"/>
       <c r="LV13" s="5"/>
       <c r="LW13" s="7"/>
+      <c r="LX13" s="16"/>
+      <c r="LY13" s="5"/>
+      <c r="LZ13" s="6"/>
+      <c r="MA13" s="6"/>
+      <c r="MB13" s="5"/>
+      <c r="MC13" s="5"/>
+      <c r="MD13" s="5"/>
+      <c r="ME13" s="5"/>
+      <c r="MF13" s="5"/>
+      <c r="MG13" s="6"/>
+      <c r="MH13" s="6"/>
+      <c r="MI13" s="5"/>
+      <c r="MJ13" s="5"/>
+      <c r="MK13" s="5"/>
+      <c r="ML13" s="5"/>
+      <c r="MM13" s="5"/>
+      <c r="MN13" s="6"/>
+      <c r="MO13" s="6"/>
+      <c r="MP13" s="5"/>
+      <c r="MQ13" s="5"/>
+      <c r="MR13" s="5"/>
+      <c r="MS13" s="5"/>
+      <c r="MT13" s="5"/>
+      <c r="MU13" s="6"/>
+      <c r="MV13" s="6"/>
+      <c r="MW13" s="5"/>
+      <c r="MX13" s="5"/>
+      <c r="MY13" s="5"/>
+      <c r="MZ13" s="5"/>
+      <c r="NA13" s="5"/>
+      <c r="NB13" s="190"/>
     </row>
-    <row r="14" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="198"/>
+    <row r="14" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="200"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -7020,9 +7363,40 @@
       <c r="LU14" s="14"/>
       <c r="LV14" s="14"/>
       <c r="LW14" s="18"/>
+      <c r="LX14" s="17"/>
+      <c r="LY14" s="14"/>
+      <c r="LZ14" s="15"/>
+      <c r="MA14" s="15"/>
+      <c r="MB14" s="14"/>
+      <c r="MC14" s="14"/>
+      <c r="MD14" s="14"/>
+      <c r="ME14" s="14"/>
+      <c r="MF14" s="14"/>
+      <c r="MG14" s="15"/>
+      <c r="MH14" s="15"/>
+      <c r="MI14" s="14"/>
+      <c r="MJ14" s="14"/>
+      <c r="MK14" s="14"/>
+      <c r="ML14" s="14"/>
+      <c r="MM14" s="14"/>
+      <c r="MN14" s="15"/>
+      <c r="MO14" s="15"/>
+      <c r="MP14" s="14"/>
+      <c r="MQ14" s="14"/>
+      <c r="MR14" s="14"/>
+      <c r="MS14" s="14"/>
+      <c r="MT14" s="14"/>
+      <c r="MU14" s="15"/>
+      <c r="MV14" s="15"/>
+      <c r="MW14" s="14"/>
+      <c r="MX14" s="14"/>
+      <c r="MY14" s="14"/>
+      <c r="MZ14" s="14"/>
+      <c r="NA14" s="14"/>
+      <c r="NB14" s="191"/>
     </row>
-    <row r="15" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="199" t="s">
+    <row r="15" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="213" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -7361,9 +7735,40 @@
       <c r="LU15" s="26"/>
       <c r="LV15" s="26"/>
       <c r="LW15" s="29"/>
+      <c r="LX15" s="28"/>
+      <c r="LY15" s="26"/>
+      <c r="LZ15" s="27"/>
+      <c r="MA15" s="27"/>
+      <c r="MB15" s="26"/>
+      <c r="MC15" s="26"/>
+      <c r="MD15" s="26"/>
+      <c r="ME15" s="26"/>
+      <c r="MF15" s="26"/>
+      <c r="MG15" s="27"/>
+      <c r="MH15" s="27"/>
+      <c r="MI15" s="26"/>
+      <c r="MJ15" s="26"/>
+      <c r="MK15" s="26"/>
+      <c r="ML15" s="26"/>
+      <c r="MM15" s="26"/>
+      <c r="MN15" s="27"/>
+      <c r="MO15" s="27"/>
+      <c r="MP15" s="26"/>
+      <c r="MQ15" s="26"/>
+      <c r="MR15" s="26"/>
+      <c r="MS15" s="26"/>
+      <c r="MT15" s="26"/>
+      <c r="MU15" s="27"/>
+      <c r="MV15" s="27"/>
+      <c r="MW15" s="26"/>
+      <c r="MX15" s="26"/>
+      <c r="MY15" s="26"/>
+      <c r="MZ15" s="26"/>
+      <c r="NA15" s="26"/>
+      <c r="NB15" s="192"/>
     </row>
-    <row r="16" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198"/>
+    <row r="16" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="200"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -7710,9 +8115,40 @@
       <c r="LU16" s="11"/>
       <c r="LV16" s="11"/>
       <c r="LW16" s="13"/>
+      <c r="LX16" s="19"/>
+      <c r="LY16" s="11"/>
+      <c r="LZ16" s="12"/>
+      <c r="MA16" s="12"/>
+      <c r="MB16" s="11"/>
+      <c r="MC16" s="11"/>
+      <c r="MD16" s="11"/>
+      <c r="ME16" s="11"/>
+      <c r="MF16" s="11"/>
+      <c r="MG16" s="12"/>
+      <c r="MH16" s="12"/>
+      <c r="MI16" s="11"/>
+      <c r="MJ16" s="11"/>
+      <c r="MK16" s="11"/>
+      <c r="ML16" s="11"/>
+      <c r="MM16" s="11"/>
+      <c r="MN16" s="12"/>
+      <c r="MO16" s="12"/>
+      <c r="MP16" s="11"/>
+      <c r="MQ16" s="11"/>
+      <c r="MR16" s="11"/>
+      <c r="MS16" s="11"/>
+      <c r="MT16" s="11"/>
+      <c r="MU16" s="12"/>
+      <c r="MV16" s="12"/>
+      <c r="MW16" s="11"/>
+      <c r="MX16" s="11"/>
+      <c r="MY16" s="11"/>
+      <c r="MZ16" s="11"/>
+      <c r="NA16" s="11"/>
+      <c r="NB16" s="193"/>
     </row>
-    <row r="17" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="198"/>
+    <row r="17" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="200"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -8052,9 +8488,40 @@
       <c r="LU17" s="2"/>
       <c r="LV17" s="2"/>
       <c r="LW17" s="4"/>
+      <c r="LX17" s="20"/>
+      <c r="LY17" s="2"/>
+      <c r="LZ17" s="1"/>
+      <c r="MA17" s="1"/>
+      <c r="MB17" s="2"/>
+      <c r="MC17" s="2"/>
+      <c r="MD17" s="2"/>
+      <c r="ME17" s="2"/>
+      <c r="MF17" s="2"/>
+      <c r="MG17" s="1"/>
+      <c r="MH17" s="1"/>
+      <c r="MI17" s="2"/>
+      <c r="MJ17" s="2"/>
+      <c r="MK17" s="2"/>
+      <c r="ML17" s="2"/>
+      <c r="MM17" s="2"/>
+      <c r="MN17" s="1"/>
+      <c r="MO17" s="1"/>
+      <c r="MP17" s="2"/>
+      <c r="MQ17" s="2"/>
+      <c r="MR17" s="2"/>
+      <c r="MS17" s="2"/>
+      <c r="MT17" s="2"/>
+      <c r="MU17" s="1"/>
+      <c r="MV17" s="1"/>
+      <c r="MW17" s="2"/>
+      <c r="MX17" s="2"/>
+      <c r="MY17" s="2"/>
+      <c r="MZ17" s="2"/>
+      <c r="NA17" s="2"/>
+      <c r="NB17" s="194"/>
     </row>
-    <row r="18" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="198"/>
+    <row r="18" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="200"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -8390,9 +8857,40 @@
       <c r="LU18" s="2"/>
       <c r="LV18" s="2"/>
       <c r="LW18" s="4"/>
+      <c r="LX18" s="20"/>
+      <c r="LY18" s="2"/>
+      <c r="LZ18" s="1"/>
+      <c r="MA18" s="1"/>
+      <c r="MB18" s="2"/>
+      <c r="MC18" s="2"/>
+      <c r="MD18" s="2"/>
+      <c r="ME18" s="2"/>
+      <c r="MF18" s="2"/>
+      <c r="MG18" s="1"/>
+      <c r="MH18" s="1"/>
+      <c r="MI18" s="2"/>
+      <c r="MJ18" s="2"/>
+      <c r="MK18" s="2"/>
+      <c r="ML18" s="2"/>
+      <c r="MM18" s="2"/>
+      <c r="MN18" s="1"/>
+      <c r="MO18" s="1"/>
+      <c r="MP18" s="2"/>
+      <c r="MQ18" s="2"/>
+      <c r="MR18" s="2"/>
+      <c r="MS18" s="2"/>
+      <c r="MT18" s="2"/>
+      <c r="MU18" s="1"/>
+      <c r="MV18" s="1"/>
+      <c r="MW18" s="2"/>
+      <c r="MX18" s="2"/>
+      <c r="MY18" s="2"/>
+      <c r="MZ18" s="2"/>
+      <c r="NA18" s="2"/>
+      <c r="NB18" s="194"/>
     </row>
-    <row r="19" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
+    <row r="19" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="200"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -8727,9 +9225,40 @@
       <c r="LU19" s="2"/>
       <c r="LV19" s="2"/>
       <c r="LW19" s="4"/>
+      <c r="LX19" s="20"/>
+      <c r="LY19" s="2"/>
+      <c r="LZ19" s="1"/>
+      <c r="MA19" s="1"/>
+      <c r="MB19" s="2"/>
+      <c r="MC19" s="2"/>
+      <c r="MD19" s="2"/>
+      <c r="ME19" s="2"/>
+      <c r="MF19" s="2"/>
+      <c r="MG19" s="1"/>
+      <c r="MH19" s="1"/>
+      <c r="MI19" s="2"/>
+      <c r="MJ19" s="2"/>
+      <c r="MK19" s="2"/>
+      <c r="ML19" s="2"/>
+      <c r="MM19" s="2"/>
+      <c r="MN19" s="1"/>
+      <c r="MO19" s="1"/>
+      <c r="MP19" s="2"/>
+      <c r="MQ19" s="2"/>
+      <c r="MR19" s="2"/>
+      <c r="MS19" s="2"/>
+      <c r="MT19" s="2"/>
+      <c r="MU19" s="1"/>
+      <c r="MV19" s="1"/>
+      <c r="MW19" s="2"/>
+      <c r="MX19" s="2"/>
+      <c r="MY19" s="2"/>
+      <c r="MZ19" s="2"/>
+      <c r="NA19" s="2"/>
+      <c r="NB19" s="194"/>
     </row>
-    <row r="20" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="198"/>
+    <row r="20" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="200"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -9064,9 +9593,40 @@
       <c r="LU20" s="2"/>
       <c r="LV20" s="2"/>
       <c r="LW20" s="4"/>
+      <c r="LX20" s="20"/>
+      <c r="LY20" s="2"/>
+      <c r="LZ20" s="1"/>
+      <c r="MA20" s="1"/>
+      <c r="MB20" s="2"/>
+      <c r="MC20" s="2"/>
+      <c r="MD20" s="2"/>
+      <c r="ME20" s="2"/>
+      <c r="MF20" s="2"/>
+      <c r="MG20" s="1"/>
+      <c r="MH20" s="1"/>
+      <c r="MI20" s="2"/>
+      <c r="MJ20" s="2"/>
+      <c r="MK20" s="2"/>
+      <c r="ML20" s="2"/>
+      <c r="MM20" s="2"/>
+      <c r="MN20" s="1"/>
+      <c r="MO20" s="1"/>
+      <c r="MP20" s="2"/>
+      <c r="MQ20" s="2"/>
+      <c r="MR20" s="2"/>
+      <c r="MS20" s="2"/>
+      <c r="MT20" s="2"/>
+      <c r="MU20" s="1"/>
+      <c r="MV20" s="1"/>
+      <c r="MW20" s="2"/>
+      <c r="MX20" s="2"/>
+      <c r="MY20" s="2"/>
+      <c r="MZ20" s="2"/>
+      <c r="NA20" s="2"/>
+      <c r="NB20" s="194"/>
     </row>
-    <row r="21" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="198"/>
+    <row r="21" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="200"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -9401,9 +9961,40 @@
       <c r="LU21" s="124"/>
       <c r="LV21" s="124"/>
       <c r="LW21" s="126"/>
+      <c r="LX21" s="125"/>
+      <c r="LY21" s="124"/>
+      <c r="LZ21" s="123"/>
+      <c r="MA21" s="123"/>
+      <c r="MB21" s="124"/>
+      <c r="MC21" s="124"/>
+      <c r="MD21" s="124"/>
+      <c r="ME21" s="124"/>
+      <c r="MF21" s="124"/>
+      <c r="MG21" s="123"/>
+      <c r="MH21" s="123"/>
+      <c r="MI21" s="124"/>
+      <c r="MJ21" s="124"/>
+      <c r="MK21" s="124"/>
+      <c r="ML21" s="124"/>
+      <c r="MM21" s="124"/>
+      <c r="MN21" s="123"/>
+      <c r="MO21" s="123"/>
+      <c r="MP21" s="124"/>
+      <c r="MQ21" s="124"/>
+      <c r="MR21" s="124"/>
+      <c r="MS21" s="124"/>
+      <c r="MT21" s="124"/>
+      <c r="MU21" s="123"/>
+      <c r="MV21" s="123"/>
+      <c r="MW21" s="124"/>
+      <c r="MX21" s="124"/>
+      <c r="MY21" s="124"/>
+      <c r="MZ21" s="124"/>
+      <c r="NA21" s="124"/>
+      <c r="NB21" s="195"/>
     </row>
-    <row r="22" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="198"/>
+    <row r="22" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="200"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -9738,9 +10329,40 @@
       <c r="LU22" s="23"/>
       <c r="LV22" s="23"/>
       <c r="LW22" s="25"/>
+      <c r="LX22" s="22"/>
+      <c r="LY22" s="23"/>
+      <c r="LZ22" s="24"/>
+      <c r="MA22" s="24"/>
+      <c r="MB22" s="23"/>
+      <c r="MC22" s="23"/>
+      <c r="MD22" s="23"/>
+      <c r="ME22" s="23"/>
+      <c r="MF22" s="23"/>
+      <c r="MG22" s="24"/>
+      <c r="MH22" s="24"/>
+      <c r="MI22" s="23"/>
+      <c r="MJ22" s="23"/>
+      <c r="MK22" s="23"/>
+      <c r="ML22" s="23"/>
+      <c r="MM22" s="23"/>
+      <c r="MN22" s="24"/>
+      <c r="MO22" s="24"/>
+      <c r="MP22" s="23"/>
+      <c r="MQ22" s="23"/>
+      <c r="MR22" s="23"/>
+      <c r="MS22" s="23"/>
+      <c r="MT22" s="23"/>
+      <c r="MU22" s="24"/>
+      <c r="MV22" s="24"/>
+      <c r="MW22" s="23"/>
+      <c r="MX22" s="23"/>
+      <c r="MY22" s="23"/>
+      <c r="MZ22" s="23"/>
+      <c r="NA22" s="23"/>
+      <c r="NB22" s="196"/>
     </row>
-    <row r="23" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="198" t="s">
+    <row r="23" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="200" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -10087,9 +10709,40 @@
       <c r="LU23" s="26"/>
       <c r="LV23" s="74"/>
       <c r="LW23" s="29"/>
+      <c r="LX23" s="28"/>
+      <c r="LY23" s="26"/>
+      <c r="LZ23" s="27"/>
+      <c r="MA23" s="27"/>
+      <c r="MB23" s="74"/>
+      <c r="MC23" s="26"/>
+      <c r="MD23" s="26"/>
+      <c r="ME23" s="26"/>
+      <c r="MF23" s="26"/>
+      <c r="MG23" s="27"/>
+      <c r="MH23" s="27"/>
+      <c r="MI23" s="26"/>
+      <c r="MJ23" s="26"/>
+      <c r="MK23" s="26"/>
+      <c r="ML23" s="26"/>
+      <c r="MM23" s="26"/>
+      <c r="MN23" s="27"/>
+      <c r="MO23" s="27"/>
+      <c r="MP23" s="26"/>
+      <c r="MQ23" s="26"/>
+      <c r="MR23" s="26"/>
+      <c r="MS23" s="26"/>
+      <c r="MT23" s="26"/>
+      <c r="MU23" s="73"/>
+      <c r="MV23" s="27"/>
+      <c r="MW23" s="26"/>
+      <c r="MX23" s="26"/>
+      <c r="MY23" s="26"/>
+      <c r="MZ23" s="26"/>
+      <c r="NA23" s="74"/>
+      <c r="NB23" s="192"/>
     </row>
-    <row r="24" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="198"/>
+    <row r="24" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="200"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -10430,9 +11083,40 @@
       <c r="LU24" s="2"/>
       <c r="LV24" s="2"/>
       <c r="LW24" s="4"/>
+      <c r="LX24" s="20"/>
+      <c r="LY24" s="2"/>
+      <c r="LZ24" s="1"/>
+      <c r="MA24" s="1"/>
+      <c r="MB24" s="2"/>
+      <c r="MC24" s="2"/>
+      <c r="MD24" s="2"/>
+      <c r="ME24" s="74"/>
+      <c r="MF24" s="2"/>
+      <c r="MG24" s="1"/>
+      <c r="MH24" s="1"/>
+      <c r="MI24" s="2"/>
+      <c r="MJ24" s="2"/>
+      <c r="MK24" s="2"/>
+      <c r="ML24" s="2"/>
+      <c r="MM24" s="2"/>
+      <c r="MN24" s="1"/>
+      <c r="MO24" s="1"/>
+      <c r="MP24" s="2"/>
+      <c r="MQ24" s="2"/>
+      <c r="MR24" s="2"/>
+      <c r="MS24" s="2"/>
+      <c r="MT24" s="2"/>
+      <c r="MU24" s="1"/>
+      <c r="MV24" s="1"/>
+      <c r="MW24" s="2"/>
+      <c r="MX24" s="2"/>
+      <c r="MY24" s="2"/>
+      <c r="MZ24" s="2"/>
+      <c r="NA24" s="2"/>
+      <c r="NB24" s="194"/>
     </row>
-    <row r="25" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="198"/>
+    <row r="25" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="200"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -10767,13 +11451,48 @@
       <c r="LQ25" s="2"/>
       <c r="LR25" s="2"/>
       <c r="LS25" s="1"/>
-      <c r="LT25" s="1"/>
+      <c r="LT25" s="186" t="s">
+        <v>128</v>
+      </c>
       <c r="LU25" s="2"/>
       <c r="LV25" s="2"/>
       <c r="LW25" s="4"/>
+      <c r="LX25" s="20"/>
+      <c r="LY25" s="2"/>
+      <c r="LZ25" s="1"/>
+      <c r="MA25" s="1"/>
+      <c r="MB25" s="2"/>
+      <c r="MC25" s="2"/>
+      <c r="MD25" s="2"/>
+      <c r="ME25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="MF25" s="2"/>
+      <c r="MG25" s="1"/>
+      <c r="MH25" s="1"/>
+      <c r="MI25" s="2"/>
+      <c r="MJ25" s="2"/>
+      <c r="MK25" s="2"/>
+      <c r="ML25" s="2"/>
+      <c r="MM25" s="2"/>
+      <c r="MN25" s="1"/>
+      <c r="MO25" s="1"/>
+      <c r="MP25" s="2"/>
+      <c r="MQ25" s="2"/>
+      <c r="MR25" s="2"/>
+      <c r="MS25" s="2"/>
+      <c r="MT25" s="2"/>
+      <c r="MU25" s="1"/>
+      <c r="MV25" s="1"/>
+      <c r="MW25" s="2"/>
+      <c r="MX25" s="2"/>
+      <c r="MY25" s="2"/>
+      <c r="MZ25" s="2"/>
+      <c r="NA25" s="2"/>
+      <c r="NB25" s="194"/>
     </row>
-    <row r="26" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="198"/>
+    <row r="26" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="200"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -11116,9 +11835,40 @@
       <c r="LU26" s="2"/>
       <c r="LV26" s="2"/>
       <c r="LW26" s="4"/>
+      <c r="LX26" s="20"/>
+      <c r="LY26" s="2"/>
+      <c r="LZ26" s="1"/>
+      <c r="MA26" s="1"/>
+      <c r="MB26" s="2"/>
+      <c r="MC26" s="2"/>
+      <c r="MD26" s="2"/>
+      <c r="ME26" s="2"/>
+      <c r="MF26" s="2"/>
+      <c r="MG26" s="1"/>
+      <c r="MH26" s="1"/>
+      <c r="MI26" s="2"/>
+      <c r="MJ26" s="2"/>
+      <c r="MK26" s="2"/>
+      <c r="ML26" s="2"/>
+      <c r="MM26" s="2"/>
+      <c r="MN26" s="1"/>
+      <c r="MO26" s="1"/>
+      <c r="MP26" s="2"/>
+      <c r="MQ26" s="2"/>
+      <c r="MR26" s="2"/>
+      <c r="MS26" s="2"/>
+      <c r="MT26" s="2"/>
+      <c r="MU26" s="1"/>
+      <c r="MV26" s="1"/>
+      <c r="MW26" s="2"/>
+      <c r="MX26" s="2"/>
+      <c r="MY26" s="2"/>
+      <c r="MZ26" s="2"/>
+      <c r="NA26" s="2"/>
+      <c r="NB26" s="194"/>
     </row>
-    <row r="27" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="198"/>
+    <row r="27" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="200"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -11459,9 +12209,40 @@
       <c r="LU27" s="2"/>
       <c r="LV27" s="2"/>
       <c r="LW27" s="4"/>
+      <c r="LX27" s="20"/>
+      <c r="LY27" s="2"/>
+      <c r="LZ27" s="1"/>
+      <c r="MA27" s="1"/>
+      <c r="MB27" s="2"/>
+      <c r="MC27" s="2"/>
+      <c r="MD27" s="2"/>
+      <c r="ME27" s="2"/>
+      <c r="MF27" s="2"/>
+      <c r="MG27" s="1"/>
+      <c r="MH27" s="1"/>
+      <c r="MI27" s="2"/>
+      <c r="MJ27" s="2"/>
+      <c r="MK27" s="2"/>
+      <c r="ML27" s="2"/>
+      <c r="MM27" s="2"/>
+      <c r="MN27" s="1"/>
+      <c r="MO27" s="1"/>
+      <c r="MP27" s="2"/>
+      <c r="MQ27" s="2"/>
+      <c r="MR27" s="2"/>
+      <c r="MS27" s="2"/>
+      <c r="MT27" s="2"/>
+      <c r="MU27" s="1"/>
+      <c r="MV27" s="1"/>
+      <c r="MW27" s="2"/>
+      <c r="MX27" s="2"/>
+      <c r="MY27" s="2"/>
+      <c r="MZ27" s="2"/>
+      <c r="NA27" s="2"/>
+      <c r="NB27" s="194"/>
     </row>
-    <row r="28" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="198"/>
+    <row r="28" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="200"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -11798,9 +12579,40 @@
       <c r="LU28" s="2"/>
       <c r="LV28" s="2"/>
       <c r="LW28" s="4"/>
+      <c r="LX28" s="20"/>
+      <c r="LY28" s="2"/>
+      <c r="LZ28" s="1"/>
+      <c r="MA28" s="1"/>
+      <c r="MB28" s="2"/>
+      <c r="MC28" s="2"/>
+      <c r="MD28" s="2"/>
+      <c r="ME28" s="2"/>
+      <c r="MF28" s="2"/>
+      <c r="MG28" s="1"/>
+      <c r="MH28" s="1"/>
+      <c r="MI28" s="2"/>
+      <c r="MJ28" s="2"/>
+      <c r="MK28" s="2"/>
+      <c r="ML28" s="2"/>
+      <c r="MM28" s="2"/>
+      <c r="MN28" s="1"/>
+      <c r="MO28" s="1"/>
+      <c r="MP28" s="2"/>
+      <c r="MQ28" s="2"/>
+      <c r="MR28" s="2"/>
+      <c r="MS28" s="2"/>
+      <c r="MT28" s="2"/>
+      <c r="MU28" s="1"/>
+      <c r="MV28" s="1"/>
+      <c r="MW28" s="2"/>
+      <c r="MX28" s="2"/>
+      <c r="MY28" s="2"/>
+      <c r="MZ28" s="2"/>
+      <c r="NA28" s="2"/>
+      <c r="NB28" s="194"/>
     </row>
-    <row r="29" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="198"/>
+    <row r="29" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="200"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -12137,9 +12949,40 @@
       <c r="LU29" s="2"/>
       <c r="LV29" s="2"/>
       <c r="LW29" s="4"/>
+      <c r="LX29" s="20"/>
+      <c r="LY29" s="2"/>
+      <c r="LZ29" s="1"/>
+      <c r="MA29" s="1"/>
+      <c r="MB29" s="2"/>
+      <c r="MC29" s="2"/>
+      <c r="MD29" s="2"/>
+      <c r="ME29" s="2"/>
+      <c r="MF29" s="2"/>
+      <c r="MG29" s="1"/>
+      <c r="MH29" s="1"/>
+      <c r="MI29" s="2"/>
+      <c r="MJ29" s="2"/>
+      <c r="MK29" s="2"/>
+      <c r="ML29" s="2"/>
+      <c r="MM29" s="2"/>
+      <c r="MN29" s="1"/>
+      <c r="MO29" s="1"/>
+      <c r="MP29" s="2"/>
+      <c r="MQ29" s="2"/>
+      <c r="MR29" s="2"/>
+      <c r="MS29" s="2"/>
+      <c r="MT29" s="2"/>
+      <c r="MU29" s="1"/>
+      <c r="MV29" s="1"/>
+      <c r="MW29" s="2"/>
+      <c r="MX29" s="2"/>
+      <c r="MY29" s="2"/>
+      <c r="MZ29" s="2"/>
+      <c r="NA29" s="2"/>
+      <c r="NB29" s="194"/>
     </row>
-    <row r="30" spans="1:335" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="198"/>
+    <row r="30" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="200"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -12474,11 +13317,42 @@
       <c r="LU30" s="23"/>
       <c r="LV30" s="23"/>
       <c r="LW30" s="25"/>
+      <c r="LX30" s="22"/>
+      <c r="LY30" s="23"/>
+      <c r="LZ30" s="24"/>
+      <c r="MA30" s="24"/>
+      <c r="MB30" s="23"/>
+      <c r="MC30" s="23"/>
+      <c r="MD30" s="23"/>
+      <c r="ME30" s="23"/>
+      <c r="MF30" s="23"/>
+      <c r="MG30" s="24"/>
+      <c r="MH30" s="24"/>
+      <c r="MI30" s="23"/>
+      <c r="MJ30" s="23"/>
+      <c r="MK30" s="23"/>
+      <c r="ML30" s="23"/>
+      <c r="MM30" s="23"/>
+      <c r="MN30" s="24"/>
+      <c r="MO30" s="24"/>
+      <c r="MP30" s="23"/>
+      <c r="MQ30" s="23"/>
+      <c r="MR30" s="23"/>
+      <c r="MS30" s="23"/>
+      <c r="MT30" s="23"/>
+      <c r="MU30" s="24"/>
+      <c r="MV30" s="24"/>
+      <c r="MW30" s="23"/>
+      <c r="MX30" s="23"/>
+      <c r="MY30" s="23"/>
+      <c r="MZ30" s="23"/>
+      <c r="NA30" s="23"/>
+      <c r="NB30" s="196"/>
     </row>
-    <row r="31" spans="1:335" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:366" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
     </row>
-    <row r="32" spans="1:335" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:366" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:274" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -13723,7 +14597,8 @@
       <c r="JN47" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -13749,10 +14624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E88"/>
+  <dimension ref="B2:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
@@ -13784,10 +14659,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="206">
+      <c r="B4" s="214">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="215"/>
       <c r="D4" s="138">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -13795,7 +14670,7 @@
       <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="210">
+      <c r="B5" s="218">
         <v>12</v>
       </c>
       <c r="C5" s="142">
@@ -13809,7 +14684,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="211"/>
+      <c r="B6" s="219"/>
       <c r="C6" s="140">
         <v>17</v>
       </c>
@@ -13821,7 +14696,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="211"/>
+      <c r="B7" s="219"/>
       <c r="C7" s="140">
         <v>19</v>
       </c>
@@ -13833,7 +14708,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="211"/>
+      <c r="B8" s="219"/>
       <c r="C8" s="133">
         <v>22</v>
       </c>
@@ -13845,7 +14720,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="211"/>
+      <c r="B9" s="219"/>
       <c r="C9" s="133">
         <v>23</v>
       </c>
@@ -13857,7 +14732,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="211"/>
+      <c r="B10" s="219"/>
       <c r="C10" s="133">
         <v>25</v>
       </c>
@@ -13869,7 +14744,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="211"/>
+      <c r="B11" s="219"/>
       <c r="C11" s="133">
         <v>26</v>
       </c>
@@ -13881,7 +14756,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="211"/>
+      <c r="B12" s="219"/>
       <c r="C12" s="133">
         <v>29</v>
       </c>
@@ -13893,7 +14768,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="212"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="136">
         <v>30</v>
       </c>
@@ -13905,10 +14780,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="208">
+      <c r="B14" s="216">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="209"/>
+      <c r="C14" s="217"/>
       <c r="D14" s="153">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -13916,7 +14791,7 @@
       <c r="E14" s="154"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="213">
+      <c r="B15" s="221">
         <v>1</v>
       </c>
       <c r="C15" s="133">
@@ -13930,7 +14805,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="214"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="133">
         <v>5</v>
       </c>
@@ -13942,7 +14817,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="214"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="133">
         <v>13</v>
       </c>
@@ -13954,7 +14829,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="214"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="133">
         <v>15</v>
       </c>
@@ -13966,7 +14841,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="214"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="133">
         <v>17</v>
       </c>
@@ -13978,7 +14853,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="214"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="133">
         <v>18</v>
       </c>
@@ -13990,7 +14865,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="214"/>
+      <c r="B21" s="222"/>
       <c r="C21" s="133">
         <v>21</v>
       </c>
@@ -14002,7 +14877,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="214"/>
+      <c r="B22" s="222"/>
       <c r="C22" s="133">
         <v>22</v>
       </c>
@@ -14014,7 +14889,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="215"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="136">
         <v>28</v>
       </c>
@@ -14026,10 +14901,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="206">
+      <c r="B24" s="214">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="207"/>
+      <c r="C24" s="215"/>
       <c r="D24" s="138">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -14037,7 +14912,7 @@
       <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="213">
+      <c r="B25" s="221">
         <v>2</v>
       </c>
       <c r="C25" s="133">
@@ -14051,7 +14926,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="214"/>
+      <c r="B26" s="222"/>
       <c r="C26" s="133">
         <v>11</v>
       </c>
@@ -14063,7 +14938,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="214"/>
+      <c r="B27" s="222"/>
       <c r="C27" s="133">
         <v>12</v>
       </c>
@@ -14075,7 +14950,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="214"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="133">
         <v>12</v>
       </c>
@@ -14087,7 +14962,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="214"/>
+      <c r="B29" s="222"/>
       <c r="C29" s="133">
         <v>24</v>
       </c>
@@ -14099,7 +14974,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="214"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="164">
         <v>26</v>
       </c>
@@ -14111,10 +14986,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="208">
+      <c r="B31" s="216">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="209"/>
+      <c r="C31" s="217"/>
       <c r="D31" s="153">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -14266,10 +15141,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="208">
+      <c r="B44" s="216">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="209"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="153">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -14445,10 +15320,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="208">
+      <c r="B59" s="216">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="209"/>
+      <c r="C59" s="217"/>
       <c r="D59" s="153">
         <f>SUM(D60:D71)</f>
         <v>43</v>
@@ -14600,10 +15475,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="208">
+      <c r="B72" s="216">
         <v>2019.06</v>
       </c>
-      <c r="C72" s="209"/>
+      <c r="C72" s="217"/>
       <c r="D72" s="153">
         <f>SUM(D73:D76)</f>
         <v>18</v>
@@ -14659,13 +15534,13 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="206">
+      <c r="B77" s="214">
         <v>2019.07</v>
       </c>
-      <c r="C77" s="207"/>
+      <c r="C77" s="215"/>
       <c r="D77" s="138">
-        <f>SUM(D78:D88)</f>
-        <v>38</v>
+        <f>SUM(D78:D87)</f>
+        <v>46</v>
       </c>
       <c r="E77" s="141"/>
     </row>
@@ -14767,28 +15642,113 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="163"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="167"/>
+      <c r="C86" s="164">
+        <v>27</v>
+      </c>
+      <c r="D86" s="165">
+        <v>6</v>
+      </c>
+      <c r="E86" s="167" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="163"/>
-      <c r="C87" s="164"/>
-      <c r="D87" s="165"/>
-      <c r="E87" s="167"/>
+      <c r="C87" s="164">
+        <v>28</v>
+      </c>
+      <c r="D87" s="165">
+        <v>2</v>
+      </c>
+      <c r="E87" s="167" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="163"/>
-      <c r="C88" s="164"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="167"/>
+      <c r="B88" s="214">
+        <v>2019.08</v>
+      </c>
+      <c r="C88" s="215"/>
+      <c r="D88" s="138">
+        <f>SUM(D89:D98)</f>
+        <v>11</v>
+      </c>
+      <c r="E88" s="141"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="163"/>
+      <c r="C89" s="164">
+        <v>8</v>
+      </c>
+      <c r="D89" s="165">
+        <v>8</v>
+      </c>
+      <c r="E89" s="167" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="163"/>
+      <c r="C90" s="164">
+        <v>11</v>
+      </c>
+      <c r="D90" s="165">
+        <v>3</v>
+      </c>
+      <c r="E90" s="167" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="163"/>
+      <c r="C91" s="164"/>
+      <c r="D91" s="165"/>
+      <c r="E91" s="167"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="163"/>
+      <c r="C92" s="164"/>
+      <c r="D92" s="165"/>
+      <c r="E92" s="167"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="163"/>
+      <c r="C93" s="164"/>
+      <c r="D93" s="165"/>
+      <c r="E93" s="167"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="163"/>
+      <c r="C94" s="164"/>
+      <c r="D94" s="165"/>
+      <c r="E94" s="167"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="163"/>
+      <c r="C95" s="164"/>
+      <c r="D95" s="165"/>
+      <c r="E95" s="167"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="163"/>
+      <c r="C96" s="164"/>
+      <c r="D96" s="165"/>
+      <c r="E96" s="167"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="163"/>
+      <c r="C97" s="164"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="167"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="163"/>
+      <c r="C98" s="164"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="167"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B44:C44"/>
+  <mergeCells count="12">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B5:B13"/>
@@ -14796,6 +15756,11 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B15:B23"/>
     <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,10 @@
   </si>
   <si>
     <t>RF Gen CPU 회로 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF Gen CPU 회로 update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1975,7 +1979,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2036,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2093,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2150,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2207,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2264,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2321,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2378,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2435,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2492,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2549,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2606,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2663,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2720,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2777,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +2834,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2891,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14628,7 +14632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15671,7 +15675,7 @@
       <c r="C88" s="215"/>
       <c r="D88" s="138">
         <f>SUM(D89:D98)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E88" s="141"/>
     </row>
@@ -15701,9 +15705,15 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="163"/>
-      <c r="C91" s="164"/>
-      <c r="D91" s="165"/>
-      <c r="E91" s="167"/>
+      <c r="C91" s="164">
+        <v>15</v>
+      </c>
+      <c r="D91" s="165">
+        <v>3</v>
+      </c>
+      <c r="E91" s="167" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="163"/>
@@ -15749,6 +15759,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B5:B13"/>
@@ -15756,11 +15771,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B15:B23"/>
     <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma Project schedule V1.0.xlsx
+++ b/Plasma Project schedule V1.0.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,6 +666,42 @@
   </si>
   <si>
     <t>RF Gen CPU 회로 update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harness table 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇ Board 입고(5ea)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W 수정 및 ADC path 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶V1.0 수정사항 및 Source 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정사항 정리 및 Source 정리, Femto 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1561,7 +1597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1845,35 +1881,29 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1895,6 +1925,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1936,6 +1969,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1944,8 +1980,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFF66FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1979,7 +2015,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2072,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2129,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2186,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2243,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2300,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2357,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2414,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2471,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2528,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2585,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2642,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2699,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2756,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2813,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2870,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2891,7 +2927,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NC47"/>
+  <dimension ref="A1:OF47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="MT16" sqref="MT16:MT17"/>
+      <pane xSplit="1" topLeftCell="LO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="NX26" sqref="NX26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3245,424 +3281,456 @@
     <col min="183" max="16384" width="2.625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:367" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:396" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:367" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:396" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:367" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:396" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:367" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:396" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:367" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:396" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:367" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:396" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="208">
+      <c r="B6" s="202">
         <v>9</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="209"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
-      <c r="V6" s="209"/>
-      <c r="W6" s="209"/>
-      <c r="X6" s="209"/>
-      <c r="Y6" s="209"/>
-      <c r="Z6" s="209"/>
-      <c r="AA6" s="209"/>
-      <c r="AB6" s="209"/>
-      <c r="AC6" s="209"/>
-      <c r="AD6" s="209"/>
-      <c r="AE6" s="210"/>
-      <c r="AF6" s="205">
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
+      <c r="Z6" s="203"/>
+      <c r="AA6" s="203"/>
+      <c r="AB6" s="203"/>
+      <c r="AC6" s="203"/>
+      <c r="AD6" s="203"/>
+      <c r="AE6" s="204"/>
+      <c r="AF6" s="199">
         <v>10</v>
       </c>
-      <c r="AG6" s="205"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="205"/>
-      <c r="AJ6" s="205"/>
-      <c r="AK6" s="205"/>
-      <c r="AL6" s="205"/>
-      <c r="AM6" s="205"/>
-      <c r="AN6" s="205"/>
-      <c r="AO6" s="205"/>
-      <c r="AP6" s="205"/>
-      <c r="AQ6" s="205"/>
-      <c r="AR6" s="205"/>
-      <c r="AS6" s="205"/>
-      <c r="AT6" s="205"/>
-      <c r="AU6" s="205"/>
-      <c r="AV6" s="205"/>
-      <c r="AW6" s="205"/>
-      <c r="AX6" s="205"/>
-      <c r="AY6" s="205"/>
-      <c r="AZ6" s="205"/>
-      <c r="BA6" s="205"/>
-      <c r="BB6" s="205"/>
-      <c r="BC6" s="205"/>
-      <c r="BD6" s="205"/>
-      <c r="BE6" s="205"/>
-      <c r="BF6" s="205"/>
-      <c r="BG6" s="205"/>
-      <c r="BH6" s="205"/>
-      <c r="BI6" s="205"/>
-      <c r="BJ6" s="206"/>
-      <c r="BK6" s="208">
+      <c r="AG6" s="199"/>
+      <c r="AH6" s="199"/>
+      <c r="AI6" s="199"/>
+      <c r="AJ6" s="199"/>
+      <c r="AK6" s="199"/>
+      <c r="AL6" s="199"/>
+      <c r="AM6" s="199"/>
+      <c r="AN6" s="199"/>
+      <c r="AO6" s="199"/>
+      <c r="AP6" s="199"/>
+      <c r="AQ6" s="199"/>
+      <c r="AR6" s="199"/>
+      <c r="AS6" s="199"/>
+      <c r="AT6" s="199"/>
+      <c r="AU6" s="199"/>
+      <c r="AV6" s="199"/>
+      <c r="AW6" s="199"/>
+      <c r="AX6" s="199"/>
+      <c r="AY6" s="199"/>
+      <c r="AZ6" s="199"/>
+      <c r="BA6" s="199"/>
+      <c r="BB6" s="199"/>
+      <c r="BC6" s="199"/>
+      <c r="BD6" s="199"/>
+      <c r="BE6" s="199"/>
+      <c r="BF6" s="199"/>
+      <c r="BG6" s="199"/>
+      <c r="BH6" s="199"/>
+      <c r="BI6" s="199"/>
+      <c r="BJ6" s="200"/>
+      <c r="BK6" s="202">
         <v>11</v>
       </c>
-      <c r="BL6" s="209"/>
-      <c r="BM6" s="209"/>
-      <c r="BN6" s="209"/>
-      <c r="BO6" s="209"/>
-      <c r="BP6" s="209"/>
-      <c r="BQ6" s="209"/>
-      <c r="BR6" s="209"/>
-      <c r="BS6" s="209"/>
-      <c r="BT6" s="209"/>
-      <c r="BU6" s="209"/>
-      <c r="BV6" s="209"/>
-      <c r="BW6" s="209"/>
-      <c r="BX6" s="209"/>
-      <c r="BY6" s="209"/>
-      <c r="BZ6" s="209"/>
-      <c r="CA6" s="209"/>
-      <c r="CB6" s="209"/>
-      <c r="CC6" s="209"/>
-      <c r="CD6" s="209"/>
-      <c r="CE6" s="209"/>
-      <c r="CF6" s="209"/>
-      <c r="CG6" s="209"/>
-      <c r="CH6" s="209"/>
-      <c r="CI6" s="209"/>
-      <c r="CJ6" s="209"/>
-      <c r="CK6" s="209"/>
-      <c r="CL6" s="209"/>
-      <c r="CM6" s="209"/>
-      <c r="CN6" s="210"/>
-      <c r="CO6" s="205">
+      <c r="BL6" s="203"/>
+      <c r="BM6" s="203"/>
+      <c r="BN6" s="203"/>
+      <c r="BO6" s="203"/>
+      <c r="BP6" s="203"/>
+      <c r="BQ6" s="203"/>
+      <c r="BR6" s="203"/>
+      <c r="BS6" s="203"/>
+      <c r="BT6" s="203"/>
+      <c r="BU6" s="203"/>
+      <c r="BV6" s="203"/>
+      <c r="BW6" s="203"/>
+      <c r="BX6" s="203"/>
+      <c r="BY6" s="203"/>
+      <c r="BZ6" s="203"/>
+      <c r="CA6" s="203"/>
+      <c r="CB6" s="203"/>
+      <c r="CC6" s="203"/>
+      <c r="CD6" s="203"/>
+      <c r="CE6" s="203"/>
+      <c r="CF6" s="203"/>
+      <c r="CG6" s="203"/>
+      <c r="CH6" s="203"/>
+      <c r="CI6" s="203"/>
+      <c r="CJ6" s="203"/>
+      <c r="CK6" s="203"/>
+      <c r="CL6" s="203"/>
+      <c r="CM6" s="203"/>
+      <c r="CN6" s="204"/>
+      <c r="CO6" s="199">
         <v>12</v>
       </c>
-      <c r="CP6" s="205"/>
-      <c r="CQ6" s="205"/>
-      <c r="CR6" s="205"/>
-      <c r="CS6" s="205"/>
-      <c r="CT6" s="205"/>
-      <c r="CU6" s="205"/>
-      <c r="CV6" s="205"/>
-      <c r="CW6" s="205"/>
-      <c r="CX6" s="205"/>
-      <c r="CY6" s="205"/>
-      <c r="CZ6" s="205"/>
-      <c r="DA6" s="205"/>
-      <c r="DB6" s="205"/>
-      <c r="DC6" s="205"/>
-      <c r="DD6" s="205"/>
-      <c r="DE6" s="205"/>
-      <c r="DF6" s="205"/>
-      <c r="DG6" s="205"/>
-      <c r="DH6" s="205"/>
-      <c r="DI6" s="205"/>
-      <c r="DJ6" s="205"/>
-      <c r="DK6" s="205"/>
-      <c r="DL6" s="205"/>
-      <c r="DM6" s="205"/>
-      <c r="DN6" s="205"/>
-      <c r="DO6" s="205"/>
-      <c r="DP6" s="205"/>
-      <c r="DQ6" s="205"/>
-      <c r="DR6" s="205"/>
-      <c r="DS6" s="206"/>
-      <c r="DT6" s="205">
+      <c r="CP6" s="199"/>
+      <c r="CQ6" s="199"/>
+      <c r="CR6" s="199"/>
+      <c r="CS6" s="199"/>
+      <c r="CT6" s="199"/>
+      <c r="CU6" s="199"/>
+      <c r="CV6" s="199"/>
+      <c r="CW6" s="199"/>
+      <c r="CX6" s="199"/>
+      <c r="CY6" s="199"/>
+      <c r="CZ6" s="199"/>
+      <c r="DA6" s="199"/>
+      <c r="DB6" s="199"/>
+      <c r="DC6" s="199"/>
+      <c r="DD6" s="199"/>
+      <c r="DE6" s="199"/>
+      <c r="DF6" s="199"/>
+      <c r="DG6" s="199"/>
+      <c r="DH6" s="199"/>
+      <c r="DI6" s="199"/>
+      <c r="DJ6" s="199"/>
+      <c r="DK6" s="199"/>
+      <c r="DL6" s="199"/>
+      <c r="DM6" s="199"/>
+      <c r="DN6" s="199"/>
+      <c r="DO6" s="199"/>
+      <c r="DP6" s="199"/>
+      <c r="DQ6" s="199"/>
+      <c r="DR6" s="199"/>
+      <c r="DS6" s="200"/>
+      <c r="DT6" s="199">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="205"/>
-      <c r="DV6" s="205"/>
-      <c r="DW6" s="205"/>
-      <c r="DX6" s="205"/>
-      <c r="DY6" s="205"/>
-      <c r="DZ6" s="205"/>
-      <c r="EA6" s="205"/>
-      <c r="EB6" s="205"/>
-      <c r="EC6" s="205"/>
-      <c r="ED6" s="205"/>
-      <c r="EE6" s="205"/>
-      <c r="EF6" s="205"/>
-      <c r="EG6" s="205"/>
-      <c r="EH6" s="205"/>
-      <c r="EI6" s="205"/>
-      <c r="EJ6" s="205"/>
-      <c r="EK6" s="205"/>
-      <c r="EL6" s="205"/>
-      <c r="EM6" s="205"/>
-      <c r="EN6" s="205"/>
-      <c r="EO6" s="205"/>
-      <c r="EP6" s="205"/>
-      <c r="EQ6" s="205"/>
-      <c r="ER6" s="205"/>
-      <c r="ES6" s="205"/>
-      <c r="ET6" s="205"/>
-      <c r="EU6" s="205"/>
-      <c r="EV6" s="205"/>
-      <c r="EW6" s="205"/>
-      <c r="EX6" s="206"/>
-      <c r="EY6" s="207">
+      <c r="DU6" s="199"/>
+      <c r="DV6" s="199"/>
+      <c r="DW6" s="199"/>
+      <c r="DX6" s="199"/>
+      <c r="DY6" s="199"/>
+      <c r="DZ6" s="199"/>
+      <c r="EA6" s="199"/>
+      <c r="EB6" s="199"/>
+      <c r="EC6" s="199"/>
+      <c r="ED6" s="199"/>
+      <c r="EE6" s="199"/>
+      <c r="EF6" s="199"/>
+      <c r="EG6" s="199"/>
+      <c r="EH6" s="199"/>
+      <c r="EI6" s="199"/>
+      <c r="EJ6" s="199"/>
+      <c r="EK6" s="199"/>
+      <c r="EL6" s="199"/>
+      <c r="EM6" s="199"/>
+      <c r="EN6" s="199"/>
+      <c r="EO6" s="199"/>
+      <c r="EP6" s="199"/>
+      <c r="EQ6" s="199"/>
+      <c r="ER6" s="199"/>
+      <c r="ES6" s="199"/>
+      <c r="ET6" s="199"/>
+      <c r="EU6" s="199"/>
+      <c r="EV6" s="199"/>
+      <c r="EW6" s="199"/>
+      <c r="EX6" s="200"/>
+      <c r="EY6" s="201">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="205"/>
-      <c r="FA6" s="205"/>
-      <c r="FB6" s="205"/>
-      <c r="FC6" s="205"/>
-      <c r="FD6" s="205"/>
-      <c r="FE6" s="205"/>
-      <c r="FF6" s="205"/>
-      <c r="FG6" s="205"/>
-      <c r="FH6" s="205"/>
-      <c r="FI6" s="205"/>
-      <c r="FJ6" s="205"/>
-      <c r="FK6" s="205"/>
-      <c r="FL6" s="205"/>
-      <c r="FM6" s="205"/>
-      <c r="FN6" s="205"/>
-      <c r="FO6" s="205"/>
-      <c r="FP6" s="205"/>
-      <c r="FQ6" s="205"/>
-      <c r="FR6" s="205"/>
-      <c r="FS6" s="205"/>
-      <c r="FT6" s="205"/>
-      <c r="FU6" s="205"/>
-      <c r="FV6" s="205"/>
-      <c r="FW6" s="205"/>
-      <c r="FX6" s="205"/>
-      <c r="FY6" s="205"/>
-      <c r="FZ6" s="206"/>
-      <c r="GA6" s="201">
+      <c r="EZ6" s="199"/>
+      <c r="FA6" s="199"/>
+      <c r="FB6" s="199"/>
+      <c r="FC6" s="199"/>
+      <c r="FD6" s="199"/>
+      <c r="FE6" s="199"/>
+      <c r="FF6" s="199"/>
+      <c r="FG6" s="199"/>
+      <c r="FH6" s="199"/>
+      <c r="FI6" s="199"/>
+      <c r="FJ6" s="199"/>
+      <c r="FK6" s="199"/>
+      <c r="FL6" s="199"/>
+      <c r="FM6" s="199"/>
+      <c r="FN6" s="199"/>
+      <c r="FO6" s="199"/>
+      <c r="FP6" s="199"/>
+      <c r="FQ6" s="199"/>
+      <c r="FR6" s="199"/>
+      <c r="FS6" s="199"/>
+      <c r="FT6" s="199"/>
+      <c r="FU6" s="199"/>
+      <c r="FV6" s="199"/>
+      <c r="FW6" s="199"/>
+      <c r="FX6" s="199"/>
+      <c r="FY6" s="199"/>
+      <c r="FZ6" s="200"/>
+      <c r="GA6" s="197">
         <v>3</v>
       </c>
-      <c r="GB6" s="201"/>
-      <c r="GC6" s="201"/>
-      <c r="GD6" s="201"/>
-      <c r="GE6" s="201"/>
-      <c r="GF6" s="201"/>
-      <c r="GG6" s="201"/>
-      <c r="GH6" s="201"/>
-      <c r="GI6" s="201"/>
-      <c r="GJ6" s="201"/>
-      <c r="GK6" s="201"/>
-      <c r="GL6" s="201"/>
-      <c r="GM6" s="201"/>
-      <c r="GN6" s="201"/>
-      <c r="GO6" s="201"/>
-      <c r="GP6" s="201"/>
-      <c r="GQ6" s="201"/>
-      <c r="GR6" s="201"/>
-      <c r="GS6" s="201"/>
-      <c r="GT6" s="201"/>
-      <c r="GU6" s="201"/>
-      <c r="GV6" s="201"/>
-      <c r="GW6" s="201"/>
-      <c r="GX6" s="201"/>
-      <c r="GY6" s="201"/>
-      <c r="GZ6" s="201"/>
-      <c r="HA6" s="201"/>
-      <c r="HB6" s="201"/>
-      <c r="HC6" s="201"/>
-      <c r="HD6" s="201"/>
-      <c r="HE6" s="201"/>
-      <c r="HF6" s="202">
+      <c r="GB6" s="197"/>
+      <c r="GC6" s="197"/>
+      <c r="GD6" s="197"/>
+      <c r="GE6" s="197"/>
+      <c r="GF6" s="197"/>
+      <c r="GG6" s="197"/>
+      <c r="GH6" s="197"/>
+      <c r="GI6" s="197"/>
+      <c r="GJ6" s="197"/>
+      <c r="GK6" s="197"/>
+      <c r="GL6" s="197"/>
+      <c r="GM6" s="197"/>
+      <c r="GN6" s="197"/>
+      <c r="GO6" s="197"/>
+      <c r="GP6" s="197"/>
+      <c r="GQ6" s="197"/>
+      <c r="GR6" s="197"/>
+      <c r="GS6" s="197"/>
+      <c r="GT6" s="197"/>
+      <c r="GU6" s="197"/>
+      <c r="GV6" s="197"/>
+      <c r="GW6" s="197"/>
+      <c r="GX6" s="197"/>
+      <c r="GY6" s="197"/>
+      <c r="GZ6" s="197"/>
+      <c r="HA6" s="197"/>
+      <c r="HB6" s="197"/>
+      <c r="HC6" s="197"/>
+      <c r="HD6" s="197"/>
+      <c r="HE6" s="197"/>
+      <c r="HF6" s="191">
         <v>4</v>
       </c>
-      <c r="HG6" s="203"/>
-      <c r="HH6" s="203"/>
-      <c r="HI6" s="203"/>
-      <c r="HJ6" s="203"/>
-      <c r="HK6" s="203"/>
-      <c r="HL6" s="203"/>
-      <c r="HM6" s="203"/>
-      <c r="HN6" s="203"/>
-      <c r="HO6" s="203"/>
-      <c r="HP6" s="203"/>
-      <c r="HQ6" s="203"/>
-      <c r="HR6" s="203"/>
-      <c r="HS6" s="203"/>
-      <c r="HT6" s="203"/>
-      <c r="HU6" s="203"/>
-      <c r="HV6" s="203"/>
-      <c r="HW6" s="203"/>
-      <c r="HX6" s="203"/>
-      <c r="HY6" s="203"/>
-      <c r="HZ6" s="203"/>
-      <c r="IA6" s="203"/>
-      <c r="IB6" s="203"/>
-      <c r="IC6" s="203"/>
-      <c r="ID6" s="203"/>
-      <c r="IE6" s="203"/>
-      <c r="IF6" s="203"/>
-      <c r="IG6" s="203"/>
-      <c r="IH6" s="203"/>
-      <c r="II6" s="204"/>
-      <c r="IJ6" s="211">
+      <c r="HG6" s="192"/>
+      <c r="HH6" s="192"/>
+      <c r="HI6" s="192"/>
+      <c r="HJ6" s="192"/>
+      <c r="HK6" s="192"/>
+      <c r="HL6" s="192"/>
+      <c r="HM6" s="192"/>
+      <c r="HN6" s="192"/>
+      <c r="HO6" s="192"/>
+      <c r="HP6" s="192"/>
+      <c r="HQ6" s="192"/>
+      <c r="HR6" s="192"/>
+      <c r="HS6" s="192"/>
+      <c r="HT6" s="192"/>
+      <c r="HU6" s="192"/>
+      <c r="HV6" s="192"/>
+      <c r="HW6" s="192"/>
+      <c r="HX6" s="192"/>
+      <c r="HY6" s="192"/>
+      <c r="HZ6" s="192"/>
+      <c r="IA6" s="192"/>
+      <c r="IB6" s="192"/>
+      <c r="IC6" s="192"/>
+      <c r="ID6" s="192"/>
+      <c r="IE6" s="192"/>
+      <c r="IF6" s="192"/>
+      <c r="IG6" s="192"/>
+      <c r="IH6" s="192"/>
+      <c r="II6" s="198"/>
+      <c r="IJ6" s="206">
         <v>5</v>
       </c>
-      <c r="IK6" s="201"/>
-      <c r="IL6" s="201"/>
-      <c r="IM6" s="201"/>
-      <c r="IN6" s="201"/>
-      <c r="IO6" s="201"/>
-      <c r="IP6" s="201"/>
-      <c r="IQ6" s="201"/>
-      <c r="IR6" s="201"/>
-      <c r="IS6" s="201"/>
-      <c r="IT6" s="201"/>
-      <c r="IU6" s="201"/>
-      <c r="IV6" s="201"/>
-      <c r="IW6" s="201"/>
-      <c r="IX6" s="201"/>
-      <c r="IY6" s="201"/>
-      <c r="IZ6" s="201"/>
-      <c r="JA6" s="201"/>
-      <c r="JB6" s="201"/>
-      <c r="JC6" s="201"/>
-      <c r="JD6" s="201"/>
-      <c r="JE6" s="201"/>
-      <c r="JF6" s="201"/>
-      <c r="JG6" s="201"/>
-      <c r="JH6" s="201"/>
-      <c r="JI6" s="201"/>
-      <c r="JJ6" s="201"/>
-      <c r="JK6" s="201"/>
-      <c r="JL6" s="201"/>
-      <c r="JM6" s="201"/>
-      <c r="JN6" s="212"/>
-      <c r="JO6" s="202">
+      <c r="IK6" s="197"/>
+      <c r="IL6" s="197"/>
+      <c r="IM6" s="197"/>
+      <c r="IN6" s="197"/>
+      <c r="IO6" s="197"/>
+      <c r="IP6" s="197"/>
+      <c r="IQ6" s="197"/>
+      <c r="IR6" s="197"/>
+      <c r="IS6" s="197"/>
+      <c r="IT6" s="197"/>
+      <c r="IU6" s="197"/>
+      <c r="IV6" s="197"/>
+      <c r="IW6" s="197"/>
+      <c r="IX6" s="197"/>
+      <c r="IY6" s="197"/>
+      <c r="IZ6" s="197"/>
+      <c r="JA6" s="197"/>
+      <c r="JB6" s="197"/>
+      <c r="JC6" s="197"/>
+      <c r="JD6" s="197"/>
+      <c r="JE6" s="197"/>
+      <c r="JF6" s="197"/>
+      <c r="JG6" s="197"/>
+      <c r="JH6" s="197"/>
+      <c r="JI6" s="197"/>
+      <c r="JJ6" s="197"/>
+      <c r="JK6" s="197"/>
+      <c r="JL6" s="197"/>
+      <c r="JM6" s="197"/>
+      <c r="JN6" s="207"/>
+      <c r="JO6" s="191">
         <v>6</v>
       </c>
-      <c r="JP6" s="203"/>
-      <c r="JQ6" s="203"/>
-      <c r="JR6" s="203"/>
-      <c r="JS6" s="203"/>
-      <c r="JT6" s="203"/>
-      <c r="JU6" s="203"/>
-      <c r="JV6" s="203"/>
-      <c r="JW6" s="203"/>
-      <c r="JX6" s="203"/>
-      <c r="JY6" s="203"/>
-      <c r="JZ6" s="203"/>
-      <c r="KA6" s="203"/>
-      <c r="KB6" s="203"/>
-      <c r="KC6" s="203"/>
-      <c r="KD6" s="203"/>
-      <c r="KE6" s="203"/>
-      <c r="KF6" s="203"/>
-      <c r="KG6" s="203"/>
-      <c r="KH6" s="203"/>
-      <c r="KI6" s="203"/>
-      <c r="KJ6" s="203"/>
-      <c r="KK6" s="203"/>
-      <c r="KL6" s="203"/>
-      <c r="KM6" s="203"/>
-      <c r="KN6" s="203"/>
-      <c r="KO6" s="203"/>
-      <c r="KP6" s="203"/>
-      <c r="KQ6" s="203"/>
-      <c r="KR6" s="204"/>
-      <c r="KS6" s="197">
+      <c r="JP6" s="192"/>
+      <c r="JQ6" s="192"/>
+      <c r="JR6" s="192"/>
+      <c r="JS6" s="192"/>
+      <c r="JT6" s="192"/>
+      <c r="JU6" s="192"/>
+      <c r="JV6" s="192"/>
+      <c r="JW6" s="192"/>
+      <c r="JX6" s="192"/>
+      <c r="JY6" s="192"/>
+      <c r="JZ6" s="192"/>
+      <c r="KA6" s="192"/>
+      <c r="KB6" s="192"/>
+      <c r="KC6" s="192"/>
+      <c r="KD6" s="192"/>
+      <c r="KE6" s="192"/>
+      <c r="KF6" s="192"/>
+      <c r="KG6" s="192"/>
+      <c r="KH6" s="192"/>
+      <c r="KI6" s="192"/>
+      <c r="KJ6" s="192"/>
+      <c r="KK6" s="192"/>
+      <c r="KL6" s="192"/>
+      <c r="KM6" s="192"/>
+      <c r="KN6" s="192"/>
+      <c r="KO6" s="192"/>
+      <c r="KP6" s="192"/>
+      <c r="KQ6" s="192"/>
+      <c r="KR6" s="198"/>
+      <c r="KS6" s="194">
         <v>7</v>
       </c>
-      <c r="KT6" s="198"/>
-      <c r="KU6" s="198"/>
-      <c r="KV6" s="198"/>
-      <c r="KW6" s="198"/>
-      <c r="KX6" s="198"/>
-      <c r="KY6" s="198"/>
-      <c r="KZ6" s="198"/>
-      <c r="LA6" s="198"/>
-      <c r="LB6" s="198"/>
-      <c r="LC6" s="198"/>
-      <c r="LD6" s="198"/>
-      <c r="LE6" s="198"/>
-      <c r="LF6" s="198"/>
-      <c r="LG6" s="198"/>
-      <c r="LH6" s="198"/>
-      <c r="LI6" s="198"/>
-      <c r="LJ6" s="198"/>
-      <c r="LK6" s="198"/>
-      <c r="LL6" s="198"/>
-      <c r="LM6" s="198"/>
-      <c r="LN6" s="198"/>
-      <c r="LO6" s="198"/>
-      <c r="LP6" s="198"/>
-      <c r="LQ6" s="198"/>
-      <c r="LR6" s="198"/>
-      <c r="LS6" s="198"/>
-      <c r="LT6" s="198"/>
-      <c r="LU6" s="198"/>
-      <c r="LV6" s="198"/>
-      <c r="LW6" s="199"/>
-      <c r="LX6" s="197">
-        <v>7</v>
-      </c>
-      <c r="LY6" s="198"/>
-      <c r="LZ6" s="198"/>
-      <c r="MA6" s="198"/>
-      <c r="MB6" s="198"/>
-      <c r="MC6" s="198"/>
-      <c r="MD6" s="198"/>
-      <c r="ME6" s="198"/>
-      <c r="MF6" s="198"/>
-      <c r="MG6" s="198"/>
-      <c r="MH6" s="198"/>
-      <c r="MI6" s="198"/>
-      <c r="MJ6" s="198"/>
-      <c r="MK6" s="198"/>
-      <c r="ML6" s="198"/>
-      <c r="MM6" s="198"/>
-      <c r="MN6" s="198"/>
-      <c r="MO6" s="198"/>
-      <c r="MP6" s="198"/>
-      <c r="MQ6" s="198"/>
-      <c r="MR6" s="198"/>
-      <c r="MS6" s="198"/>
-      <c r="MT6" s="198"/>
-      <c r="MU6" s="198"/>
-      <c r="MV6" s="198"/>
-      <c r="MW6" s="198"/>
-      <c r="MX6" s="198"/>
-      <c r="MY6" s="198"/>
-      <c r="MZ6" s="198"/>
-      <c r="NA6" s="198"/>
-      <c r="NB6" s="199"/>
-    </row>
-    <row r="7" spans="1:367" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="KT6" s="195"/>
+      <c r="KU6" s="195"/>
+      <c r="KV6" s="195"/>
+      <c r="KW6" s="195"/>
+      <c r="KX6" s="195"/>
+      <c r="KY6" s="195"/>
+      <c r="KZ6" s="195"/>
+      <c r="LA6" s="195"/>
+      <c r="LB6" s="195"/>
+      <c r="LC6" s="195"/>
+      <c r="LD6" s="195"/>
+      <c r="LE6" s="195"/>
+      <c r="LF6" s="195"/>
+      <c r="LG6" s="195"/>
+      <c r="LH6" s="195"/>
+      <c r="LI6" s="195"/>
+      <c r="LJ6" s="195"/>
+      <c r="LK6" s="195"/>
+      <c r="LL6" s="195"/>
+      <c r="LM6" s="195"/>
+      <c r="LN6" s="195"/>
+      <c r="LO6" s="195"/>
+      <c r="LP6" s="195"/>
+      <c r="LQ6" s="195"/>
+      <c r="LR6" s="195"/>
+      <c r="LS6" s="195"/>
+      <c r="LT6" s="195"/>
+      <c r="LU6" s="195"/>
+      <c r="LV6" s="195"/>
+      <c r="LW6" s="205"/>
+      <c r="LX6" s="194">
+        <v>8</v>
+      </c>
+      <c r="LY6" s="195"/>
+      <c r="LZ6" s="195"/>
+      <c r="MA6" s="195"/>
+      <c r="MB6" s="195"/>
+      <c r="MC6" s="195"/>
+      <c r="MD6" s="195"/>
+      <c r="ME6" s="195"/>
+      <c r="MF6" s="195"/>
+      <c r="MG6" s="195"/>
+      <c r="MH6" s="195"/>
+      <c r="MI6" s="195"/>
+      <c r="MJ6" s="195"/>
+      <c r="MK6" s="195"/>
+      <c r="ML6" s="195"/>
+      <c r="MM6" s="195"/>
+      <c r="MN6" s="195"/>
+      <c r="MO6" s="195"/>
+      <c r="MP6" s="195"/>
+      <c r="MQ6" s="195"/>
+      <c r="MR6" s="195"/>
+      <c r="MS6" s="195"/>
+      <c r="MT6" s="195"/>
+      <c r="MU6" s="195"/>
+      <c r="MV6" s="195"/>
+      <c r="MW6" s="195"/>
+      <c r="MX6" s="195"/>
+      <c r="MY6" s="195"/>
+      <c r="MZ6" s="195"/>
+      <c r="NA6" s="195"/>
+      <c r="NB6" s="195"/>
+      <c r="NC6" s="191">
+        <v>9</v>
+      </c>
+      <c r="ND6" s="192"/>
+      <c r="NE6" s="192"/>
+      <c r="NF6" s="192"/>
+      <c r="NG6" s="192"/>
+      <c r="NH6" s="192"/>
+      <c r="NI6" s="192"/>
+      <c r="NJ6" s="192"/>
+      <c r="NK6" s="192"/>
+      <c r="NL6" s="192"/>
+      <c r="NM6" s="192"/>
+      <c r="NN6" s="192"/>
+      <c r="NO6" s="192"/>
+      <c r="NP6" s="192"/>
+      <c r="NQ6" s="192"/>
+      <c r="NR6" s="192"/>
+      <c r="NS6" s="192"/>
+      <c r="NT6" s="192"/>
+      <c r="NU6" s="192"/>
+      <c r="NV6" s="192"/>
+      <c r="NW6" s="192"/>
+      <c r="NX6" s="192"/>
+      <c r="NY6" s="192"/>
+      <c r="NZ6" s="192"/>
+      <c r="OA6" s="192"/>
+      <c r="OB6" s="192"/>
+      <c r="OC6" s="192"/>
+      <c r="OD6" s="192"/>
+      <c r="OE6" s="192"/>
+      <c r="OF6" s="193"/>
+    </row>
+    <row r="7" spans="1:396" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
       <c r="B7" s="55">
         <v>1</v>
@@ -4756,12 +4824,102 @@
       <c r="NA7" s="119">
         <v>30</v>
       </c>
-      <c r="NB7" s="189">
+      <c r="NB7" s="188">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="200" t="s">
+      <c r="NC7" s="190">
+        <v>1</v>
+      </c>
+      <c r="ND7" s="119">
+        <v>2</v>
+      </c>
+      <c r="NE7" s="119">
+        <v>3</v>
+      </c>
+      <c r="NF7" s="119">
+        <v>4</v>
+      </c>
+      <c r="NG7" s="119">
+        <v>5</v>
+      </c>
+      <c r="NH7" s="119">
+        <v>6</v>
+      </c>
+      <c r="NI7" s="119">
+        <v>7</v>
+      </c>
+      <c r="NJ7" s="119">
+        <v>8</v>
+      </c>
+      <c r="NK7" s="119">
+        <v>9</v>
+      </c>
+      <c r="NL7" s="119">
+        <v>10</v>
+      </c>
+      <c r="NM7" s="119">
+        <v>11</v>
+      </c>
+      <c r="NN7" s="118">
+        <v>12</v>
+      </c>
+      <c r="NO7" s="118">
+        <v>13</v>
+      </c>
+      <c r="NP7" s="119">
+        <v>14</v>
+      </c>
+      <c r="NQ7" s="119">
+        <v>15</v>
+      </c>
+      <c r="NR7" s="119">
+        <v>16</v>
+      </c>
+      <c r="NS7" s="119">
+        <v>17</v>
+      </c>
+      <c r="NT7" s="119">
+        <v>18</v>
+      </c>
+      <c r="NU7" s="119">
+        <v>19</v>
+      </c>
+      <c r="NV7" s="119">
+        <v>20</v>
+      </c>
+      <c r="NW7" s="119">
+        <v>21</v>
+      </c>
+      <c r="NX7" s="119">
+        <v>22</v>
+      </c>
+      <c r="NY7" s="119">
+        <v>23</v>
+      </c>
+      <c r="NZ7" s="119">
+        <v>24</v>
+      </c>
+      <c r="OA7" s="119">
+        <v>25</v>
+      </c>
+      <c r="OB7" s="119">
+        <v>26</v>
+      </c>
+      <c r="OC7" s="119">
+        <v>27</v>
+      </c>
+      <c r="OD7" s="119">
+        <v>28</v>
+      </c>
+      <c r="OE7" s="119">
+        <v>29</v>
+      </c>
+      <c r="OF7" s="121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="196" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5141,9 +5299,39 @@
       <c r="MZ8" s="8"/>
       <c r="NA8" s="8"/>
       <c r="NB8" s="10"/>
-    </row>
-    <row r="9" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="200"/>
+      <c r="NC8" s="70"/>
+      <c r="ND8" s="8"/>
+      <c r="NE8" s="8"/>
+      <c r="NF8" s="8"/>
+      <c r="NG8" s="8"/>
+      <c r="NH8" s="8"/>
+      <c r="NI8" s="10"/>
+      <c r="NJ8" s="41"/>
+      <c r="NK8" s="8"/>
+      <c r="NL8" s="8"/>
+      <c r="NM8" s="8"/>
+      <c r="NN8" s="31"/>
+      <c r="NO8" s="31"/>
+      <c r="NP8" s="10"/>
+      <c r="NQ8" s="41"/>
+      <c r="NR8" s="8"/>
+      <c r="NS8" s="8"/>
+      <c r="NT8" s="8"/>
+      <c r="NU8" s="8"/>
+      <c r="NV8" s="8"/>
+      <c r="NW8" s="10"/>
+      <c r="NX8" s="41"/>
+      <c r="NY8" s="8"/>
+      <c r="NZ8" s="8"/>
+      <c r="OA8" s="8"/>
+      <c r="OB8" s="8"/>
+      <c r="OC8" s="8"/>
+      <c r="OD8" s="10"/>
+      <c r="OE8" s="41"/>
+      <c r="OF8" s="189"/>
+    </row>
+    <row r="9" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="196"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -5525,9 +5713,39 @@
       <c r="MZ9" s="5"/>
       <c r="NA9" s="5"/>
       <c r="NB9" s="6"/>
-    </row>
-    <row r="10" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="200"/>
+      <c r="NC9" s="179"/>
+      <c r="ND9" s="5"/>
+      <c r="NE9" s="5"/>
+      <c r="NF9" s="5"/>
+      <c r="NG9" s="5"/>
+      <c r="NH9" s="5"/>
+      <c r="NI9" s="6"/>
+      <c r="NJ9" s="6"/>
+      <c r="NK9" s="5"/>
+      <c r="NL9" s="5"/>
+      <c r="NM9" s="5"/>
+      <c r="NN9" s="33"/>
+      <c r="NO9" s="33"/>
+      <c r="NP9" s="6"/>
+      <c r="NQ9" s="6"/>
+      <c r="NR9" s="5"/>
+      <c r="NS9" s="5"/>
+      <c r="NT9" s="5"/>
+      <c r="NU9" s="5"/>
+      <c r="NV9" s="5"/>
+      <c r="NW9" s="6"/>
+      <c r="NX9" s="6"/>
+      <c r="NY9" s="5"/>
+      <c r="NZ9" s="5"/>
+      <c r="OA9" s="5"/>
+      <c r="OB9" s="5"/>
+      <c r="OC9" s="5"/>
+      <c r="OD9" s="6"/>
+      <c r="OE9" s="6"/>
+      <c r="OF9" s="7"/>
+    </row>
+    <row r="10" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="196"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -5901,10 +6119,39 @@
       <c r="MZ10" s="5"/>
       <c r="NA10" s="5"/>
       <c r="NB10" s="6"/>
-      <c r="NC10" s="6"/>
-    </row>
-    <row r="11" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="200"/>
+      <c r="NC10" s="179"/>
+      <c r="ND10" s="5"/>
+      <c r="NE10" s="5"/>
+      <c r="NF10" s="5"/>
+      <c r="NG10" s="5"/>
+      <c r="NH10" s="5"/>
+      <c r="NI10" s="6"/>
+      <c r="NJ10" s="6"/>
+      <c r="NK10" s="5"/>
+      <c r="NL10" s="5"/>
+      <c r="NM10" s="5"/>
+      <c r="NN10" s="33"/>
+      <c r="NO10" s="33"/>
+      <c r="NP10" s="6"/>
+      <c r="NQ10" s="6"/>
+      <c r="NR10" s="5"/>
+      <c r="NS10" s="5"/>
+      <c r="NT10" s="5"/>
+      <c r="NU10" s="5"/>
+      <c r="NV10" s="5"/>
+      <c r="NW10" s="6"/>
+      <c r="NX10" s="6"/>
+      <c r="NY10" s="5"/>
+      <c r="NZ10" s="5"/>
+      <c r="OA10" s="5"/>
+      <c r="OB10" s="5"/>
+      <c r="OC10" s="5"/>
+      <c r="OD10" s="6"/>
+      <c r="OE10" s="6"/>
+      <c r="OF10" s="7"/>
+    </row>
+    <row r="11" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="196"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -6279,10 +6526,40 @@
       <c r="MY11" s="5"/>
       <c r="MZ11" s="5"/>
       <c r="NA11" s="5"/>
-      <c r="NB11" s="190"/>
-    </row>
-    <row r="12" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="200"/>
+      <c r="NB11" s="6"/>
+      <c r="NC11" s="72"/>
+      <c r="ND11" s="5"/>
+      <c r="NE11" s="5"/>
+      <c r="NF11" s="5"/>
+      <c r="NG11" s="5"/>
+      <c r="NH11" s="5"/>
+      <c r="NI11" s="6"/>
+      <c r="NJ11" s="6"/>
+      <c r="NK11" s="5"/>
+      <c r="NL11" s="5"/>
+      <c r="NM11" s="5"/>
+      <c r="NN11" s="33"/>
+      <c r="NO11" s="33"/>
+      <c r="NP11" s="6"/>
+      <c r="NQ11" s="6"/>
+      <c r="NR11" s="5"/>
+      <c r="NS11" s="5"/>
+      <c r="NT11" s="5"/>
+      <c r="NU11" s="5"/>
+      <c r="NV11" s="5"/>
+      <c r="NW11" s="6"/>
+      <c r="NX11" s="6"/>
+      <c r="NY11" s="5"/>
+      <c r="NZ11" s="5"/>
+      <c r="OA11" s="5"/>
+      <c r="OB11" s="5"/>
+      <c r="OC11" s="5"/>
+      <c r="OD11" s="6"/>
+      <c r="OE11" s="6"/>
+      <c r="OF11" s="7"/>
+    </row>
+    <row r="12" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="196"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -6655,10 +6932,40 @@
       <c r="MY12" s="5"/>
       <c r="MZ12" s="5"/>
       <c r="NA12" s="5"/>
-      <c r="NB12" s="190"/>
-    </row>
-    <row r="13" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="NB12" s="6"/>
+      <c r="NC12" s="72"/>
+      <c r="ND12" s="5"/>
+      <c r="NE12" s="5"/>
+      <c r="NF12" s="5"/>
+      <c r="NG12" s="5"/>
+      <c r="NH12" s="5"/>
+      <c r="NI12" s="6"/>
+      <c r="NJ12" s="6"/>
+      <c r="NK12" s="5"/>
+      <c r="NL12" s="5"/>
+      <c r="NM12" s="5"/>
+      <c r="NN12" s="33"/>
+      <c r="NO12" s="33"/>
+      <c r="NP12" s="6"/>
+      <c r="NQ12" s="6"/>
+      <c r="NR12" s="5"/>
+      <c r="NS12" s="5"/>
+      <c r="NT12" s="5"/>
+      <c r="NU12" s="5"/>
+      <c r="NV12" s="5"/>
+      <c r="NW12" s="6"/>
+      <c r="NX12" s="6"/>
+      <c r="NY12" s="5"/>
+      <c r="NZ12" s="5"/>
+      <c r="OA12" s="5"/>
+      <c r="OB12" s="5"/>
+      <c r="OC12" s="5"/>
+      <c r="OD12" s="6"/>
+      <c r="OE12" s="6"/>
+      <c r="OF12" s="7"/>
+    </row>
+    <row r="13" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="196"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -7027,10 +7334,40 @@
       <c r="MY13" s="5"/>
       <c r="MZ13" s="5"/>
       <c r="NA13" s="5"/>
-      <c r="NB13" s="190"/>
-    </row>
-    <row r="14" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="200"/>
+      <c r="NB13" s="6"/>
+      <c r="NC13" s="179"/>
+      <c r="ND13" s="5"/>
+      <c r="NE13" s="5"/>
+      <c r="NF13" s="5"/>
+      <c r="NG13" s="5"/>
+      <c r="NH13" s="5"/>
+      <c r="NI13" s="6"/>
+      <c r="NJ13" s="6"/>
+      <c r="NK13" s="5"/>
+      <c r="NL13" s="5"/>
+      <c r="NM13" s="5"/>
+      <c r="NN13" s="33"/>
+      <c r="NO13" s="33"/>
+      <c r="NP13" s="6"/>
+      <c r="NQ13" s="6"/>
+      <c r="NR13" s="5"/>
+      <c r="NS13" s="5"/>
+      <c r="NT13" s="5"/>
+      <c r="NU13" s="5"/>
+      <c r="NV13" s="5"/>
+      <c r="NW13" s="6"/>
+      <c r="NX13" s="6"/>
+      <c r="NY13" s="5"/>
+      <c r="NZ13" s="5"/>
+      <c r="OA13" s="5"/>
+      <c r="OB13" s="5"/>
+      <c r="OC13" s="5"/>
+      <c r="OD13" s="6"/>
+      <c r="OE13" s="6"/>
+      <c r="OF13" s="7"/>
+    </row>
+    <row r="14" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="196"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -7397,10 +7734,40 @@
       <c r="MY14" s="14"/>
       <c r="MZ14" s="14"/>
       <c r="NA14" s="14"/>
-      <c r="NB14" s="191"/>
-    </row>
-    <row r="15" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213" t="s">
+      <c r="NB14" s="15"/>
+      <c r="NC14" s="180"/>
+      <c r="ND14" s="14"/>
+      <c r="NE14" s="14"/>
+      <c r="NF14" s="14"/>
+      <c r="NG14" s="14"/>
+      <c r="NH14" s="14"/>
+      <c r="NI14" s="15"/>
+      <c r="NJ14" s="15"/>
+      <c r="NK14" s="14"/>
+      <c r="NL14" s="14"/>
+      <c r="NM14" s="14"/>
+      <c r="NN14" s="34"/>
+      <c r="NO14" s="34"/>
+      <c r="NP14" s="15"/>
+      <c r="NQ14" s="15"/>
+      <c r="NR14" s="14"/>
+      <c r="NS14" s="14"/>
+      <c r="NT14" s="14"/>
+      <c r="NU14" s="14"/>
+      <c r="NV14" s="14"/>
+      <c r="NW14" s="15"/>
+      <c r="NX14" s="15"/>
+      <c r="NY14" s="14"/>
+      <c r="NZ14" s="14"/>
+      <c r="OA14" s="14"/>
+      <c r="OB14" s="14"/>
+      <c r="OC14" s="14"/>
+      <c r="OD14" s="15"/>
+      <c r="OE14" s="15"/>
+      <c r="OF14" s="18"/>
+    </row>
+    <row r="15" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="208" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -7769,10 +8136,40 @@
       <c r="MY15" s="26"/>
       <c r="MZ15" s="26"/>
       <c r="NA15" s="26"/>
-      <c r="NB15" s="192"/>
-    </row>
-    <row r="16" spans="1:367" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="200"/>
+      <c r="NB15" s="27"/>
+      <c r="NC15" s="181"/>
+      <c r="ND15" s="26"/>
+      <c r="NE15" s="26"/>
+      <c r="NF15" s="26"/>
+      <c r="NG15" s="26"/>
+      <c r="NH15" s="26"/>
+      <c r="NI15" s="27"/>
+      <c r="NJ15" s="27"/>
+      <c r="NK15" s="26"/>
+      <c r="NL15" s="26"/>
+      <c r="NM15" s="26"/>
+      <c r="NN15" s="37"/>
+      <c r="NO15" s="37"/>
+      <c r="NP15" s="27"/>
+      <c r="NQ15" s="27"/>
+      <c r="NR15" s="26"/>
+      <c r="NS15" s="26"/>
+      <c r="NT15" s="26"/>
+      <c r="NU15" s="26"/>
+      <c r="NV15" s="26"/>
+      <c r="NW15" s="27"/>
+      <c r="NX15" s="27"/>
+      <c r="NY15" s="26"/>
+      <c r="NZ15" s="26"/>
+      <c r="OA15" s="26"/>
+      <c r="OB15" s="26"/>
+      <c r="OC15" s="26"/>
+      <c r="OD15" s="27"/>
+      <c r="OE15" s="27"/>
+      <c r="OF15" s="29"/>
+    </row>
+    <row r="16" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="196"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -8149,10 +8546,40 @@
       <c r="MY16" s="11"/>
       <c r="MZ16" s="11"/>
       <c r="NA16" s="11"/>
-      <c r="NB16" s="193"/>
-    </row>
-    <row r="17" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="200"/>
+      <c r="NB16" s="12"/>
+      <c r="NC16" s="182"/>
+      <c r="ND16" s="11"/>
+      <c r="NE16" s="11"/>
+      <c r="NF16" s="11"/>
+      <c r="NG16" s="11"/>
+      <c r="NH16" s="11"/>
+      <c r="NI16" s="12"/>
+      <c r="NJ16" s="12"/>
+      <c r="NK16" s="11"/>
+      <c r="NL16" s="11"/>
+      <c r="NM16" s="11"/>
+      <c r="NN16" s="35"/>
+      <c r="NO16" s="35"/>
+      <c r="NP16" s="12"/>
+      <c r="NQ16" s="12"/>
+      <c r="NR16" s="11"/>
+      <c r="NS16" s="11"/>
+      <c r="NT16" s="11"/>
+      <c r="NU16" s="11"/>
+      <c r="NV16" s="11"/>
+      <c r="NW16" s="12"/>
+      <c r="NX16" s="12"/>
+      <c r="NY16" s="11"/>
+      <c r="NZ16" s="11"/>
+      <c r="OA16" s="11"/>
+      <c r="OB16" s="11"/>
+      <c r="OC16" s="11"/>
+      <c r="OD16" s="12"/>
+      <c r="OE16" s="12"/>
+      <c r="OF16" s="13"/>
+    </row>
+    <row r="17" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="196"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -8522,10 +8949,40 @@
       <c r="MY17" s="2"/>
       <c r="MZ17" s="2"/>
       <c r="NA17" s="2"/>
-      <c r="NB17" s="194"/>
-    </row>
-    <row r="18" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="200"/>
+      <c r="NB17" s="1"/>
+      <c r="NC17" s="183"/>
+      <c r="ND17" s="2"/>
+      <c r="NE17" s="2"/>
+      <c r="NF17" s="2"/>
+      <c r="NG17" s="2"/>
+      <c r="NH17" s="2"/>
+      <c r="NI17" s="1"/>
+      <c r="NJ17" s="1"/>
+      <c r="NK17" s="2"/>
+      <c r="NL17" s="2"/>
+      <c r="NM17" s="2"/>
+      <c r="NN17" s="36"/>
+      <c r="NO17" s="36"/>
+      <c r="NP17" s="1"/>
+      <c r="NQ17" s="1"/>
+      <c r="NR17" s="2"/>
+      <c r="NS17" s="2"/>
+      <c r="NT17" s="2"/>
+      <c r="NU17" s="2"/>
+      <c r="NV17" s="2"/>
+      <c r="NW17" s="1"/>
+      <c r="NX17" s="1"/>
+      <c r="NY17" s="2"/>
+      <c r="NZ17" s="2"/>
+      <c r="OA17" s="2"/>
+      <c r="OB17" s="2"/>
+      <c r="OC17" s="2"/>
+      <c r="OD17" s="1"/>
+      <c r="OE17" s="1"/>
+      <c r="OF17" s="4"/>
+    </row>
+    <row r="18" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="196"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -8891,10 +9348,40 @@
       <c r="MY18" s="2"/>
       <c r="MZ18" s="2"/>
       <c r="NA18" s="2"/>
-      <c r="NB18" s="194"/>
-    </row>
-    <row r="19" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="200"/>
+      <c r="NB18" s="1"/>
+      <c r="NC18" s="183"/>
+      <c r="ND18" s="2"/>
+      <c r="NE18" s="2"/>
+      <c r="NF18" s="2"/>
+      <c r="NG18" s="2"/>
+      <c r="NH18" s="2"/>
+      <c r="NI18" s="1"/>
+      <c r="NJ18" s="1"/>
+      <c r="NK18" s="2"/>
+      <c r="NL18" s="2"/>
+      <c r="NM18" s="2"/>
+      <c r="NN18" s="36"/>
+      <c r="NO18" s="36"/>
+      <c r="NP18" s="1"/>
+      <c r="NQ18" s="1"/>
+      <c r="NR18" s="2"/>
+      <c r="NS18" s="2"/>
+      <c r="NT18" s="2"/>
+      <c r="NU18" s="2"/>
+      <c r="NV18" s="2"/>
+      <c r="NW18" s="1"/>
+      <c r="NX18" s="1"/>
+      <c r="NY18" s="2"/>
+      <c r="NZ18" s="2"/>
+      <c r="OA18" s="2"/>
+      <c r="OB18" s="2"/>
+      <c r="OC18" s="2"/>
+      <c r="OD18" s="1"/>
+      <c r="OE18" s="1"/>
+      <c r="OF18" s="4"/>
+    </row>
+    <row r="19" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="196"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -9259,10 +9746,40 @@
       <c r="MY19" s="2"/>
       <c r="MZ19" s="2"/>
       <c r="NA19" s="2"/>
-      <c r="NB19" s="194"/>
-    </row>
-    <row r="20" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="200"/>
+      <c r="NB19" s="1"/>
+      <c r="NC19" s="183"/>
+      <c r="ND19" s="2"/>
+      <c r="NE19" s="2"/>
+      <c r="NF19" s="2"/>
+      <c r="NG19" s="2"/>
+      <c r="NH19" s="2"/>
+      <c r="NI19" s="1"/>
+      <c r="NJ19" s="1"/>
+      <c r="NK19" s="2"/>
+      <c r="NL19" s="2"/>
+      <c r="NM19" s="2"/>
+      <c r="NN19" s="36"/>
+      <c r="NO19" s="36"/>
+      <c r="NP19" s="1"/>
+      <c r="NQ19" s="1"/>
+      <c r="NR19" s="2"/>
+      <c r="NS19" s="2"/>
+      <c r="NT19" s="2"/>
+      <c r="NU19" s="2"/>
+      <c r="NV19" s="2"/>
+      <c r="NW19" s="1"/>
+      <c r="NX19" s="1"/>
+      <c r="NY19" s="2"/>
+      <c r="NZ19" s="2"/>
+      <c r="OA19" s="2"/>
+      <c r="OB19" s="2"/>
+      <c r="OC19" s="2"/>
+      <c r="OD19" s="1"/>
+      <c r="OE19" s="1"/>
+      <c r="OF19" s="4"/>
+    </row>
+    <row r="20" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="196"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -9627,10 +10144,40 @@
       <c r="MY20" s="2"/>
       <c r="MZ20" s="2"/>
       <c r="NA20" s="2"/>
-      <c r="NB20" s="194"/>
-    </row>
-    <row r="21" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="200"/>
+      <c r="NB20" s="1"/>
+      <c r="NC20" s="183"/>
+      <c r="ND20" s="2"/>
+      <c r="NE20" s="2"/>
+      <c r="NF20" s="2"/>
+      <c r="NG20" s="2"/>
+      <c r="NH20" s="2"/>
+      <c r="NI20" s="1"/>
+      <c r="NJ20" s="1"/>
+      <c r="NK20" s="2"/>
+      <c r="NL20" s="2"/>
+      <c r="NM20" s="2"/>
+      <c r="NN20" s="36"/>
+      <c r="NO20" s="36"/>
+      <c r="NP20" s="1"/>
+      <c r="NQ20" s="1"/>
+      <c r="NR20" s="2"/>
+      <c r="NS20" s="2"/>
+      <c r="NT20" s="2"/>
+      <c r="NU20" s="2"/>
+      <c r="NV20" s="2"/>
+      <c r="NW20" s="1"/>
+      <c r="NX20" s="1"/>
+      <c r="NY20" s="2"/>
+      <c r="NZ20" s="2"/>
+      <c r="OA20" s="2"/>
+      <c r="OB20" s="2"/>
+      <c r="OC20" s="2"/>
+      <c r="OD20" s="1"/>
+      <c r="OE20" s="1"/>
+      <c r="OF20" s="4"/>
+    </row>
+    <row r="21" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="196"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -9995,10 +10542,40 @@
       <c r="MY21" s="124"/>
       <c r="MZ21" s="124"/>
       <c r="NA21" s="124"/>
-      <c r="NB21" s="195"/>
-    </row>
-    <row r="22" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="200"/>
+      <c r="NB21" s="123"/>
+      <c r="NC21" s="184"/>
+      <c r="ND21" s="124"/>
+      <c r="NE21" s="124"/>
+      <c r="NF21" s="124"/>
+      <c r="NG21" s="124"/>
+      <c r="NH21" s="124"/>
+      <c r="NI21" s="123"/>
+      <c r="NJ21" s="123"/>
+      <c r="NK21" s="124"/>
+      <c r="NL21" s="124"/>
+      <c r="NM21" s="124"/>
+      <c r="NN21" s="122"/>
+      <c r="NO21" s="122"/>
+      <c r="NP21" s="123"/>
+      <c r="NQ21" s="123"/>
+      <c r="NR21" s="124"/>
+      <c r="NS21" s="124"/>
+      <c r="NT21" s="124"/>
+      <c r="NU21" s="124"/>
+      <c r="NV21" s="124"/>
+      <c r="NW21" s="123"/>
+      <c r="NX21" s="123"/>
+      <c r="NY21" s="124"/>
+      <c r="NZ21" s="124"/>
+      <c r="OA21" s="124"/>
+      <c r="OB21" s="124"/>
+      <c r="OC21" s="124"/>
+      <c r="OD21" s="123"/>
+      <c r="OE21" s="123"/>
+      <c r="OF21" s="126"/>
+    </row>
+    <row r="22" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="196"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -10363,10 +10940,40 @@
       <c r="MY22" s="23"/>
       <c r="MZ22" s="23"/>
       <c r="NA22" s="23"/>
-      <c r="NB22" s="196"/>
-    </row>
-    <row r="23" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="200" t="s">
+      <c r="NB22" s="24"/>
+      <c r="NC22" s="185"/>
+      <c r="ND22" s="23"/>
+      <c r="NE22" s="23"/>
+      <c r="NF22" s="23"/>
+      <c r="NG22" s="23"/>
+      <c r="NH22" s="23"/>
+      <c r="NI22" s="24"/>
+      <c r="NJ22" s="24"/>
+      <c r="NK22" s="23"/>
+      <c r="NL22" s="23"/>
+      <c r="NM22" s="23"/>
+      <c r="NN22" s="38"/>
+      <c r="NO22" s="38"/>
+      <c r="NP22" s="24"/>
+      <c r="NQ22" s="24"/>
+      <c r="NR22" s="23"/>
+      <c r="NS22" s="23"/>
+      <c r="NT22" s="23"/>
+      <c r="NU22" s="23"/>
+      <c r="NV22" s="23"/>
+      <c r="NW22" s="24"/>
+      <c r="NX22" s="24"/>
+      <c r="NY22" s="23"/>
+      <c r="NZ22" s="23"/>
+      <c r="OA22" s="23"/>
+      <c r="OB22" s="23"/>
+      <c r="OC22" s="23"/>
+      <c r="OD22" s="24"/>
+      <c r="OE22" s="24"/>
+      <c r="OF22" s="25"/>
+    </row>
+    <row r="23" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="196" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -10743,10 +11350,42 @@
       <c r="MY23" s="26"/>
       <c r="MZ23" s="26"/>
       <c r="NA23" s="74"/>
-      <c r="NB23" s="192"/>
-    </row>
-    <row r="24" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="200"/>
+      <c r="NB23" s="27"/>
+      <c r="NC23" s="181"/>
+      <c r="ND23" s="26"/>
+      <c r="NE23" s="26"/>
+      <c r="NF23" s="26"/>
+      <c r="NG23" s="26"/>
+      <c r="NH23" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="NI23" s="27"/>
+      <c r="NJ23" s="27"/>
+      <c r="NK23" s="26"/>
+      <c r="NL23" s="26"/>
+      <c r="NM23" s="26"/>
+      <c r="NN23" s="37"/>
+      <c r="NO23" s="37"/>
+      <c r="NP23" s="73"/>
+      <c r="NQ23" s="27"/>
+      <c r="NR23" s="26"/>
+      <c r="NS23" s="26"/>
+      <c r="NT23" s="26"/>
+      <c r="NU23" s="26"/>
+      <c r="NV23" s="26"/>
+      <c r="NW23" s="27"/>
+      <c r="NX23" s="27"/>
+      <c r="NY23" s="26"/>
+      <c r="NZ23" s="26"/>
+      <c r="OA23" s="26"/>
+      <c r="OB23" s="26"/>
+      <c r="OC23" s="26"/>
+      <c r="OD23" s="73"/>
+      <c r="OE23" s="27"/>
+      <c r="OF23" s="29"/>
+    </row>
+    <row r="24" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="196"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -11117,10 +11756,40 @@
       <c r="MY24" s="2"/>
       <c r="MZ24" s="2"/>
       <c r="NA24" s="2"/>
-      <c r="NB24" s="194"/>
-    </row>
-    <row r="25" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="200"/>
+      <c r="NB24" s="1"/>
+      <c r="NC24" s="183"/>
+      <c r="ND24" s="2"/>
+      <c r="NE24" s="2"/>
+      <c r="NF24" s="2"/>
+      <c r="NG24" s="2"/>
+      <c r="NH24" s="2"/>
+      <c r="NI24" s="1"/>
+      <c r="NJ24" s="1"/>
+      <c r="NK24" s="2"/>
+      <c r="NL24" s="2"/>
+      <c r="NM24" s="2"/>
+      <c r="NN24" s="36"/>
+      <c r="NO24" s="36"/>
+      <c r="NP24" s="1"/>
+      <c r="NQ24" s="1"/>
+      <c r="NR24" s="2"/>
+      <c r="NS24" s="2"/>
+      <c r="NT24" s="2"/>
+      <c r="NU24" s="2"/>
+      <c r="NV24" s="2"/>
+      <c r="NW24" s="1"/>
+      <c r="NX24" s="1"/>
+      <c r="NY24" s="2"/>
+      <c r="NZ24" s="2"/>
+      <c r="OA24" s="2"/>
+      <c r="OB24" s="2"/>
+      <c r="OC24" s="2"/>
+      <c r="OD24" s="1"/>
+      <c r="OE24" s="1"/>
+      <c r="OF24" s="4"/>
+    </row>
+    <row r="25" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="196"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -11493,10 +12162,42 @@
       <c r="MY25" s="2"/>
       <c r="MZ25" s="2"/>
       <c r="NA25" s="2"/>
-      <c r="NB25" s="194"/>
-    </row>
-    <row r="26" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="200"/>
+      <c r="NB25" s="1"/>
+      <c r="NC25" s="183"/>
+      <c r="ND25" s="2"/>
+      <c r="NE25" s="2"/>
+      <c r="NF25" s="2"/>
+      <c r="NG25" s="2"/>
+      <c r="NH25" s="2"/>
+      <c r="NI25" s="1"/>
+      <c r="NJ25" s="1"/>
+      <c r="NK25" s="2"/>
+      <c r="NL25" s="2"/>
+      <c r="NM25" s="2"/>
+      <c r="NN25" s="36"/>
+      <c r="NO25" s="36"/>
+      <c r="NP25" s="1"/>
+      <c r="NQ25" s="1"/>
+      <c r="NR25" s="2"/>
+      <c r="NS25" s="2"/>
+      <c r="NT25" s="2"/>
+      <c r="NU25" s="2"/>
+      <c r="NV25" s="2"/>
+      <c r="NW25" s="1"/>
+      <c r="NX25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="NY25" s="2"/>
+      <c r="NZ25" s="2"/>
+      <c r="OA25" s="2"/>
+      <c r="OB25" s="2"/>
+      <c r="OC25" s="2"/>
+      <c r="OD25" s="1"/>
+      <c r="OE25" s="1"/>
+      <c r="OF25" s="4"/>
+    </row>
+    <row r="26" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="196"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -11869,10 +12570,40 @@
       <c r="MY26" s="2"/>
       <c r="MZ26" s="2"/>
       <c r="NA26" s="2"/>
-      <c r="NB26" s="194"/>
-    </row>
-    <row r="27" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="200"/>
+      <c r="NB26" s="1"/>
+      <c r="NC26" s="183"/>
+      <c r="ND26" s="2"/>
+      <c r="NE26" s="2"/>
+      <c r="NF26" s="2"/>
+      <c r="NG26" s="2"/>
+      <c r="NH26" s="2"/>
+      <c r="NI26" s="1"/>
+      <c r="NJ26" s="1"/>
+      <c r="NK26" s="2"/>
+      <c r="NL26" s="2"/>
+      <c r="NM26" s="2"/>
+      <c r="NN26" s="36"/>
+      <c r="NO26" s="36"/>
+      <c r="NP26" s="1"/>
+      <c r="NQ26" s="1"/>
+      <c r="NR26" s="2"/>
+      <c r="NS26" s="2"/>
+      <c r="NT26" s="2"/>
+      <c r="NU26" s="2"/>
+      <c r="NV26" s="2"/>
+      <c r="NW26" s="1"/>
+      <c r="NX26" s="1"/>
+      <c r="NY26" s="2"/>
+      <c r="NZ26" s="2"/>
+      <c r="OA26" s="2"/>
+      <c r="OB26" s="2"/>
+      <c r="OC26" s="2"/>
+      <c r="OD26" s="1"/>
+      <c r="OE26" s="1"/>
+      <c r="OF26" s="4"/>
+    </row>
+    <row r="27" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="196"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -12243,10 +12974,40 @@
       <c r="MY27" s="2"/>
       <c r="MZ27" s="2"/>
       <c r="NA27" s="2"/>
-      <c r="NB27" s="194"/>
-    </row>
-    <row r="28" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="200"/>
+      <c r="NB27" s="1"/>
+      <c r="NC27" s="183"/>
+      <c r="ND27" s="2"/>
+      <c r="NE27" s="2"/>
+      <c r="NF27" s="2"/>
+      <c r="NG27" s="2"/>
+      <c r="NH27" s="2"/>
+      <c r="NI27" s="1"/>
+      <c r="NJ27" s="1"/>
+      <c r="NK27" s="2"/>
+      <c r="NL27" s="2"/>
+      <c r="NM27" s="2"/>
+      <c r="NN27" s="36"/>
+      <c r="NO27" s="36"/>
+      <c r="NP27" s="1"/>
+      <c r="NQ27" s="1"/>
+      <c r="NR27" s="2"/>
+      <c r="NS27" s="2"/>
+      <c r="NT27" s="2"/>
+      <c r="NU27" s="2"/>
+      <c r="NV27" s="2"/>
+      <c r="NW27" s="1"/>
+      <c r="NX27" s="1"/>
+      <c r="NY27" s="2"/>
+      <c r="NZ27" s="2"/>
+      <c r="OA27" s="2"/>
+      <c r="OB27" s="2"/>
+      <c r="OC27" s="2"/>
+      <c r="OD27" s="1"/>
+      <c r="OE27" s="1"/>
+      <c r="OF27" s="4"/>
+    </row>
+    <row r="28" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="196"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -12613,10 +13374,40 @@
       <c r="MY28" s="2"/>
       <c r="MZ28" s="2"/>
       <c r="NA28" s="2"/>
-      <c r="NB28" s="194"/>
-    </row>
-    <row r="29" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="200"/>
+      <c r="NB28" s="1"/>
+      <c r="NC28" s="183"/>
+      <c r="ND28" s="2"/>
+      <c r="NE28" s="2"/>
+      <c r="NF28" s="2"/>
+      <c r="NG28" s="2"/>
+      <c r="NH28" s="2"/>
+      <c r="NI28" s="1"/>
+      <c r="NJ28" s="1"/>
+      <c r="NK28" s="2"/>
+      <c r="NL28" s="2"/>
+      <c r="NM28" s="2"/>
+      <c r="NN28" s="36"/>
+      <c r="NO28" s="36"/>
+      <c r="NP28" s="1"/>
+      <c r="NQ28" s="1"/>
+      <c r="NR28" s="2"/>
+      <c r="NS28" s="2"/>
+      <c r="NT28" s="2"/>
+      <c r="NU28" s="2"/>
+      <c r="NV28" s="2"/>
+      <c r="NW28" s="1"/>
+      <c r="NX28" s="1"/>
+      <c r="NY28" s="2"/>
+      <c r="NZ28" s="2"/>
+      <c r="OA28" s="2"/>
+      <c r="OB28" s="2"/>
+      <c r="OC28" s="2"/>
+      <c r="OD28" s="1"/>
+      <c r="OE28" s="1"/>
+      <c r="OF28" s="4"/>
+    </row>
+    <row r="29" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="196"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -12983,10 +13774,40 @@
       <c r="MY29" s="2"/>
       <c r="MZ29" s="2"/>
       <c r="NA29" s="2"/>
-      <c r="NB29" s="194"/>
-    </row>
-    <row r="30" spans="1:366" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="200"/>
+      <c r="NB29" s="1"/>
+      <c r="NC29" s="183"/>
+      <c r="ND29" s="2"/>
+      <c r="NE29" s="2"/>
+      <c r="NF29" s="2"/>
+      <c r="NG29" s="2"/>
+      <c r="NH29" s="2"/>
+      <c r="NI29" s="1"/>
+      <c r="NJ29" s="1"/>
+      <c r="NK29" s="2"/>
+      <c r="NL29" s="2"/>
+      <c r="NM29" s="2"/>
+      <c r="NN29" s="36"/>
+      <c r="NO29" s="36"/>
+      <c r="NP29" s="1"/>
+      <c r="NQ29" s="1"/>
+      <c r="NR29" s="2"/>
+      <c r="NS29" s="2"/>
+      <c r="NT29" s="2"/>
+      <c r="NU29" s="2"/>
+      <c r="NV29" s="2"/>
+      <c r="NW29" s="1"/>
+      <c r="NX29" s="1"/>
+      <c r="NY29" s="2"/>
+      <c r="NZ29" s="2"/>
+      <c r="OA29" s="2"/>
+      <c r="OB29" s="2"/>
+      <c r="OC29" s="2"/>
+      <c r="OD29" s="1"/>
+      <c r="OE29" s="1"/>
+      <c r="OF29" s="4"/>
+    </row>
+    <row r="30" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="196"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -13351,12 +14172,42 @@
       <c r="MY30" s="23"/>
       <c r="MZ30" s="23"/>
       <c r="NA30" s="23"/>
-      <c r="NB30" s="196"/>
-    </row>
-    <row r="31" spans="1:366" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="NB30" s="24"/>
+      <c r="NC30" s="185"/>
+      <c r="ND30" s="23"/>
+      <c r="NE30" s="23"/>
+      <c r="NF30" s="23"/>
+      <c r="NG30" s="23"/>
+      <c r="NH30" s="23"/>
+      <c r="NI30" s="24"/>
+      <c r="NJ30" s="24"/>
+      <c r="NK30" s="23"/>
+      <c r="NL30" s="23"/>
+      <c r="NM30" s="23"/>
+      <c r="NN30" s="38"/>
+      <c r="NO30" s="38"/>
+      <c r="NP30" s="24"/>
+      <c r="NQ30" s="24"/>
+      <c r="NR30" s="23"/>
+      <c r="NS30" s="23"/>
+      <c r="NT30" s="23"/>
+      <c r="NU30" s="23"/>
+      <c r="NV30" s="23"/>
+      <c r="NW30" s="24"/>
+      <c r="NX30" s="24"/>
+      <c r="NY30" s="23"/>
+      <c r="NZ30" s="23"/>
+      <c r="OA30" s="23"/>
+      <c r="OB30" s="23"/>
+      <c r="OC30" s="23"/>
+      <c r="OD30" s="24"/>
+      <c r="OE30" s="24"/>
+      <c r="OF30" s="25"/>
+    </row>
+    <row r="31" spans="1:396" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
     </row>
-    <row r="32" spans="1:366" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:396" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:274" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -14601,7 +15452,8 @@
       <c r="JN47" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="NC6:OF6"/>
     <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
@@ -14628,11 +15480,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E98"/>
+  <dimension ref="B2:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14663,10 +15515,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="214">
+      <c r="B4" s="209">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="215"/>
+      <c r="C4" s="210"/>
       <c r="D4" s="138">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -14674,7 +15526,7 @@
       <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="218">
+      <c r="B5" s="213">
         <v>12</v>
       </c>
       <c r="C5" s="142">
@@ -14688,7 +15540,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="219"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="140">
         <v>17</v>
       </c>
@@ -14700,7 +15552,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="219"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="140">
         <v>19</v>
       </c>
@@ -14712,7 +15564,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="219"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="133">
         <v>22</v>
       </c>
@@ -14724,7 +15576,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="219"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="133">
         <v>23</v>
       </c>
@@ -14736,7 +15588,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="219"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="133">
         <v>25</v>
       </c>
@@ -14748,7 +15600,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="219"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="133">
         <v>26</v>
       </c>
@@ -14760,7 +15612,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="219"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="133">
         <v>29</v>
       </c>
@@ -14772,7 +15624,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="220"/>
+      <c r="B13" s="215"/>
       <c r="C13" s="136">
         <v>30</v>
       </c>
@@ -14784,10 +15636,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="216">
+      <c r="B14" s="211">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="217"/>
+      <c r="C14" s="212"/>
       <c r="D14" s="153">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -14795,7 +15647,7 @@
       <c r="E14" s="154"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="221">
+      <c r="B15" s="216">
         <v>1</v>
       </c>
       <c r="C15" s="133">
@@ -14809,7 +15661,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="222"/>
+      <c r="B16" s="217"/>
       <c r="C16" s="133">
         <v>5</v>
       </c>
@@ -14821,7 +15673,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="222"/>
+      <c r="B17" s="217"/>
       <c r="C17" s="133">
         <v>13</v>
       </c>
@@ -14833,7 +15685,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="222"/>
+      <c r="B18" s="217"/>
       <c r="C18" s="133">
         <v>15</v>
       </c>
@@ -14845,7 +15697,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="222"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="133">
         <v>17</v>
       </c>
@@ -14857,7 +15709,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="222"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="133">
         <v>18</v>
       </c>
@@ -14869,7 +15721,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="222"/>
+      <c r="B21" s="217"/>
       <c r="C21" s="133">
         <v>21</v>
       </c>
@@ -14881,7 +15733,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="222"/>
+      <c r="B22" s="217"/>
       <c r="C22" s="133">
         <v>22</v>
       </c>
@@ -14893,7 +15745,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="223"/>
+      <c r="B23" s="218"/>
       <c r="C23" s="136">
         <v>28</v>
       </c>
@@ -14905,10 +15757,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="214">
+      <c r="B24" s="209">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="215"/>
+      <c r="C24" s="210"/>
       <c r="D24" s="138">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -14916,7 +15768,7 @@
       <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="221">
+      <c r="B25" s="216">
         <v>2</v>
       </c>
       <c r="C25" s="133">
@@ -14930,7 +15782,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="222"/>
+      <c r="B26" s="217"/>
       <c r="C26" s="133">
         <v>11</v>
       </c>
@@ -14942,7 +15794,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="222"/>
+      <c r="B27" s="217"/>
       <c r="C27" s="133">
         <v>12</v>
       </c>
@@ -14954,7 +15806,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="222"/>
+      <c r="B28" s="217"/>
       <c r="C28" s="133">
         <v>12</v>
       </c>
@@ -14966,7 +15818,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="222"/>
+      <c r="B29" s="217"/>
       <c r="C29" s="133">
         <v>24</v>
       </c>
@@ -14978,7 +15830,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="222"/>
+      <c r="B30" s="217"/>
       <c r="C30" s="164">
         <v>26</v>
       </c>
@@ -14990,10 +15842,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="216">
+      <c r="B31" s="211">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="217"/>
+      <c r="C31" s="212"/>
       <c r="D31" s="153">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -15145,10 +15997,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="216">
+      <c r="B44" s="211">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="217"/>
+      <c r="C44" s="212"/>
       <c r="D44" s="153">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -15324,10 +16176,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="216">
+      <c r="B59" s="211">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="217"/>
+      <c r="C59" s="212"/>
       <c r="D59" s="153">
         <f>SUM(D60:D71)</f>
         <v>43</v>
@@ -15479,10 +16331,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="216">
+      <c r="B72" s="211">
         <v>2019.06</v>
       </c>
-      <c r="C72" s="217"/>
+      <c r="C72" s="212"/>
       <c r="D72" s="153">
         <f>SUM(D73:D76)</f>
         <v>18</v>
@@ -15538,10 +16390,10 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="214">
+      <c r="B77" s="209">
         <v>2019.07</v>
       </c>
-      <c r="C77" s="215"/>
+      <c r="C77" s="210"/>
       <c r="D77" s="138">
         <f>SUM(D78:D87)</f>
         <v>46</v>
@@ -15669,13 +16521,13 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="214">
+      <c r="B88" s="209">
         <v>2019.08</v>
       </c>
-      <c r="C88" s="215"/>
+      <c r="C88" s="210"/>
       <c r="D88" s="138">
-        <f>SUM(D89:D98)</f>
-        <v>14</v>
+        <f>SUM(D89:D94)</f>
+        <v>19</v>
       </c>
       <c r="E88" s="141"/>
     </row>
@@ -15717,9 +16569,15 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="163"/>
-      <c r="C92" s="164"/>
-      <c r="D92" s="165"/>
-      <c r="E92" s="167"/>
+      <c r="C92" s="164">
+        <v>20</v>
+      </c>
+      <c r="D92" s="165">
+        <v>5</v>
+      </c>
+      <c r="E92" s="167" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="163"/>
@@ -15734,35 +16592,192 @@
       <c r="E94" s="167"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="163"/>
-      <c r="C95" s="164"/>
-      <c r="D95" s="165"/>
-      <c r="E95" s="167"/>
+      <c r="B95" s="209">
+        <v>2019.09</v>
+      </c>
+      <c r="C95" s="210"/>
+      <c r="D95" s="138">
+        <f>SUM(D96:D102)</f>
+        <v>36</v>
+      </c>
+      <c r="E95" s="141"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="163"/>
-      <c r="C96" s="164"/>
-      <c r="D96" s="165"/>
-      <c r="E96" s="167"/>
+      <c r="C96" s="164">
+        <v>8</v>
+      </c>
+      <c r="D96" s="165">
+        <v>4</v>
+      </c>
+      <c r="E96" s="167" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="163"/>
-      <c r="C97" s="164"/>
-      <c r="D97" s="165"/>
-      <c r="E97" s="167"/>
+      <c r="C97" s="164">
+        <v>9</v>
+      </c>
+      <c r="D97" s="165">
+        <v>4</v>
+      </c>
+      <c r="E97" s="167" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="163"/>
-      <c r="C98" s="164"/>
-      <c r="D98" s="165"/>
-      <c r="E98" s="167"/>
+      <c r="C98" s="164">
+        <v>10</v>
+      </c>
+      <c r="D98" s="165">
+        <v>4</v>
+      </c>
+      <c r="E98" s="167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="163"/>
+      <c r="C99" s="164">
+        <v>16</v>
+      </c>
+      <c r="D99" s="165">
+        <v>4</v>
+      </c>
+      <c r="E99" s="167" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="163"/>
+      <c r="C100" s="164">
+        <v>21</v>
+      </c>
+      <c r="D100" s="165">
+        <v>6</v>
+      </c>
+      <c r="E100" s="167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="163"/>
+      <c r="C101" s="164">
+        <v>22</v>
+      </c>
+      <c r="D101" s="165">
+        <v>6</v>
+      </c>
+      <c r="E101" s="167" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="163"/>
+      <c r="C102" s="164">
+        <v>29</v>
+      </c>
+      <c r="D102" s="165">
+        <v>8</v>
+      </c>
+      <c r="E102" s="167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="163"/>
+      <c r="C103" s="164"/>
+      <c r="D103" s="165"/>
+      <c r="E103" s="167"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="219" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="210"/>
+      <c r="D104" s="138">
+        <f>SUM(D105:D111)</f>
+        <v>27</v>
+      </c>
+      <c r="E104" s="141"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="163"/>
+      <c r="C105" s="164">
+        <v>3</v>
+      </c>
+      <c r="D105" s="165">
+        <v>5</v>
+      </c>
+      <c r="E105" s="167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="163"/>
+      <c r="C106" s="164">
+        <v>6</v>
+      </c>
+      <c r="D106" s="165">
+        <v>6</v>
+      </c>
+      <c r="E106" s="167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="163"/>
+      <c r="C107" s="164">
+        <v>8</v>
+      </c>
+      <c r="D107" s="165">
+        <v>4</v>
+      </c>
+      <c r="E107" s="167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="163"/>
+      <c r="C108" s="164">
+        <v>12</v>
+      </c>
+      <c r="D108" s="165">
+        <v>8</v>
+      </c>
+      <c r="E108" s="167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="163"/>
+      <c r="C109" s="164">
+        <v>13</v>
+      </c>
+      <c r="D109" s="165">
+        <v>4</v>
+      </c>
+      <c r="E109" s="167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="163"/>
+      <c r="C110" s="164"/>
+      <c r="D110" s="165"/>
+      <c r="E110" s="167"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="163"/>
+      <c r="C111" s="164"/>
+      <c r="D111" s="165"/>
+      <c r="E111" s="167"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B59:C59"/>
+  <mergeCells count="14">
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
@@ -15771,6 +16786,11 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B15:B23"/>
     <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
